--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8654467-3A54-7F49-AD1B-D8D7E11D058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62878DD1-CEFF-1445-920F-EA96DD1CD152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="783">
   <si>
     <t>Description</t>
   </si>
@@ -2377,6 +2377,15 @@
   </si>
   <si>
     <t>//diggs_geo:FlameIonizationDetectorTest</t>
+  </si>
+  <si>
+    <t>Aggregate Soundness Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of mass lost by degradation as determined by sieving and weighing the samples after the test cycles. </t>
+  </si>
+  <si>
+    <t>aggregate_soundness_value</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2556,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2585,6 +2594,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2600,31 +2615,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2694,6 +2684,31 @@
         <vertAlign val="baseline"/>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2786,8 +2801,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H159" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H159" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H160" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H160" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H159">
     <sortCondition ref="C1:C159"/>
   </sortState>
@@ -2797,29 +2812,29 @@
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D240" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D240" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D240" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D240">
     <sortCondition ref="B1:B240"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3171,10 +3186,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6566,6 +6581,27 @@
       </c>
       <c r="F159" s="13" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3199,1,FALSE)),"Not used","")</f>
+        <v>Not used</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6600,7 +6636,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62878DD1-CEFF-1445-920F-EA96DD1CD152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC50212-9F94-934B-91D8-410102E7ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8420" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="783">
   <si>
     <t>Description</t>
   </si>
@@ -2556,7 +2556,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2598,6 +2598,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2808,7 +2812,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
@@ -3188,8 +3192,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3233,7 +3237,7 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="12" t="s">
@@ -3254,7 +3258,7 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
@@ -3275,7 +3279,7 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
@@ -3296,7 +3300,7 @@
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
@@ -3317,7 +3321,7 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -3338,7 +3342,7 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="13" t="s">
@@ -3359,7 +3363,7 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="13" t="s">
@@ -3380,7 +3384,7 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
@@ -3401,7 +3405,7 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
@@ -3424,7 +3428,7 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
@@ -3447,7 +3451,7 @@
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="13" t="s">
@@ -3470,7 +3474,7 @@
     </row>
     <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
@@ -3491,7 +3495,7 @@
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="13" t="s">
@@ -3514,7 +3518,7 @@
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
@@ -3537,7 +3541,7 @@
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
@@ -3558,7 +3562,7 @@
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
@@ -3581,7 +3585,7 @@
     </row>
     <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
@@ -3602,7 +3606,7 @@
     </row>
     <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
@@ -3623,7 +3627,7 @@
     </row>
     <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
@@ -3646,7 +3650,7 @@
     </row>
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
@@ -3669,7 +3673,7 @@
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
@@ -3692,7 +3696,7 @@
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
@@ -3715,7 +3719,7 @@
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
@@ -3738,7 +3742,7 @@
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
@@ -3761,7 +3765,7 @@
     </row>
     <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
@@ -3784,7 +3788,7 @@
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
@@ -3807,7 +3811,7 @@
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
@@ -3830,7 +3834,7 @@
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
@@ -3851,7 +3855,7 @@
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
@@ -3874,7 +3878,7 @@
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
@@ -3895,7 +3899,7 @@
     </row>
     <row r="32" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
@@ -3916,7 +3920,7 @@
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="s">
@@ -3937,7 +3941,7 @@
     </row>
     <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="s">
@@ -3958,7 +3962,7 @@
     </row>
     <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="s">
@@ -3979,7 +3983,7 @@
     </row>
     <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
@@ -4002,7 +4006,7 @@
     </row>
     <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="13" t="s">
@@ -4025,7 +4029,7 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="s">
@@ -4046,7 +4050,7 @@
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
@@ -4067,7 +4071,7 @@
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="s">
@@ -4088,7 +4092,7 @@
     </row>
     <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
@@ -4109,7 +4113,7 @@
     </row>
     <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="s">
@@ -4130,7 +4134,7 @@
     </row>
     <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
@@ -4151,7 +4155,7 @@
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
@@ -4172,7 +4176,7 @@
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
@@ -4195,7 +4199,7 @@
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="s">
@@ -4216,7 +4220,7 @@
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
@@ -4237,7 +4241,7 @@
     </row>
     <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="s">
@@ -4258,7 +4262,7 @@
     </row>
     <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="13" t="s">
@@ -4279,7 +4283,7 @@
     </row>
     <row r="50" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="13" t="s">
@@ -4300,7 +4304,7 @@
     </row>
     <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="s">
@@ -4321,7 +4325,7 @@
     </row>
     <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="13" t="s">
@@ -4342,7 +4346,7 @@
     </row>
     <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="s">
@@ -4363,7 +4367,7 @@
     </row>
     <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="13" t="s">
@@ -4384,7 +4388,7 @@
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="13" t="s">
@@ -4405,7 +4409,7 @@
     </row>
     <row r="56" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="s">
@@ -4426,7 +4430,7 @@
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
@@ -4447,7 +4451,7 @@
     </row>
     <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
@@ -4468,7 +4472,7 @@
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="13" t="s">
@@ -4489,7 +4493,7 @@
     </row>
     <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="s">
@@ -4510,7 +4514,7 @@
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
@@ -4531,7 +4535,7 @@
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B62" s="13" t="s">
@@ -4554,7 +4558,7 @@
     </row>
     <row r="63" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="13" t="s">
@@ -4575,7 +4579,7 @@
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="13" t="s">
@@ -4596,7 +4600,7 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
@@ -4617,7 +4621,7 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
@@ -4638,7 +4642,7 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
@@ -4659,7 +4663,7 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
@@ -4680,7 +4684,7 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
@@ -4701,7 +4705,7 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="13" t="s">
@@ -4722,7 +4726,7 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
@@ -4743,7 +4747,7 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
@@ -4764,7 +4768,7 @@
     </row>
     <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
@@ -4785,7 +4789,7 @@
     </row>
     <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
@@ -4806,7 +4810,7 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
@@ -4827,7 +4831,7 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
@@ -4848,7 +4852,7 @@
     </row>
     <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
@@ -4869,7 +4873,7 @@
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
@@ -4890,7 +4894,7 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="13" t="s">
@@ -4911,7 +4915,7 @@
     </row>
     <row r="80" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
@@ -4932,7 +4936,7 @@
     </row>
     <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="13" t="s">
@@ -4953,7 +4957,7 @@
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="13" t="s">
@@ -4974,7 +4978,7 @@
     </row>
     <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="13" t="s">
@@ -4995,7 +4999,7 @@
     </row>
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
@@ -5016,7 +5020,7 @@
     </row>
     <row r="85" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="13" t="s">
@@ -5037,7 +5041,7 @@
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
@@ -5058,7 +5062,7 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="13" t="s">
@@ -5079,7 +5083,7 @@
     </row>
     <row r="88" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="13" t="s">
@@ -5100,7 +5104,7 @@
     </row>
     <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
@@ -5121,7 +5125,7 @@
     </row>
     <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="13" t="s">
@@ -5142,7 +5146,7 @@
     </row>
     <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="13" t="s">
@@ -5163,7 +5167,7 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="13" t="s">
@@ -5184,7 +5188,7 @@
     </row>
     <row r="93" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B93" s="13" t="s">
@@ -5205,7 +5209,7 @@
     </row>
     <row r="94" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="13" t="s">
@@ -5226,7 +5230,7 @@
     </row>
     <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
@@ -5247,7 +5251,7 @@
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="13" t="s">
@@ -5268,7 +5272,7 @@
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="13" t="s">
@@ -5289,7 +5293,7 @@
     </row>
     <row r="98" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="13" t="s">
@@ -5310,7 +5314,7 @@
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
@@ -5331,7 +5335,7 @@
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="13" t="s">
@@ -5352,7 +5356,7 @@
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="13" t="s">
@@ -5373,7 +5377,7 @@
     </row>
     <row r="102" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102" s="13" t="s">
@@ -5394,7 +5398,7 @@
     </row>
     <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="13" t="s">
@@ -5415,7 +5419,7 @@
     </row>
     <row r="104" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="13" t="s">
@@ -5436,7 +5440,7 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
@@ -5457,7 +5461,7 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="13" t="s">
@@ -5478,7 +5482,7 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="13" t="s">
@@ -5499,7 +5503,7 @@
     </row>
     <row r="108" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="13" t="s">
@@ -5520,7 +5524,7 @@
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="13" t="s">
@@ -5541,7 +5545,7 @@
     </row>
     <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110" s="2" t="s">
@@ -5562,7 +5566,7 @@
     </row>
     <row r="111" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111" s="13" t="s">
@@ -5583,7 +5587,7 @@
     </row>
     <row r="112" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="13" t="s">
@@ -5604,7 +5608,7 @@
     </row>
     <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="13" t="s">
@@ -5625,7 +5629,7 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="13" t="s">
@@ -5646,7 +5650,7 @@
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="13" t="s">
@@ -5667,7 +5671,7 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
@@ -5688,7 +5692,7 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
@@ -5709,7 +5713,7 @@
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="13" t="s">
@@ -5730,7 +5734,7 @@
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="13" t="s">
@@ -5751,7 +5755,7 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
@@ -5772,7 +5776,7 @@
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="13" t="s">
@@ -5793,7 +5797,7 @@
     </row>
     <row r="122" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B122" s="2" t="s">
@@ -5814,7 +5818,7 @@
     </row>
     <row r="123" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
@@ -5835,7 +5839,7 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B124" s="13" t="s">
@@ -5856,7 +5860,7 @@
     </row>
     <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B125" s="13" t="s">
@@ -5877,7 +5881,7 @@
     </row>
     <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B126" s="13" t="s">
@@ -5898,7 +5902,7 @@
     </row>
     <row r="127" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="13" t="s">
@@ -5919,7 +5923,7 @@
     </row>
     <row r="128" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="13" t="s">
@@ -5940,7 +5944,7 @@
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="13" t="s">
@@ -5961,7 +5965,7 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="13" t="s">
@@ -5982,7 +5986,7 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="13" t="s">
@@ -6003,7 +6007,7 @@
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="13" t="s">
@@ -6024,7 +6028,7 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="13" t="s">
@@ -6043,7 +6047,7 @@
     </row>
     <row r="134" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B134" s="13" t="s">
@@ -6064,7 +6068,7 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B135" s="13" t="s">
@@ -6085,7 +6089,7 @@
     </row>
     <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B136" s="13" t="s">
@@ -6106,7 +6110,7 @@
     </row>
     <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="13" t="s">
@@ -6127,7 +6131,7 @@
     </row>
     <row r="138" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B138" s="13" t="s">
@@ -6148,7 +6152,7 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B139" s="13" t="s">
@@ -6169,7 +6173,7 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B140" s="13" t="s">
@@ -6190,7 +6194,7 @@
     </row>
     <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B141" s="13" t="s">
@@ -6211,7 +6215,7 @@
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B142" s="13" t="s">
@@ -6232,7 +6236,7 @@
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
@@ -6253,7 +6257,7 @@
     </row>
     <row r="144" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B144" s="13" t="s">
@@ -6274,7 +6278,7 @@
     </row>
     <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B145" s="13" t="s">
@@ -6295,7 +6299,7 @@
     </row>
     <row r="146" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B146" s="13" t="s">
@@ -6316,7 +6320,7 @@
     </row>
     <row r="147" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B147" s="13" t="s">
@@ -6337,7 +6341,7 @@
     </row>
     <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B148" s="13" t="s">
@@ -6358,7 +6362,7 @@
     </row>
     <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="13" t="s">
@@ -6377,7 +6381,7 @@
     </row>
     <row r="150" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
@@ -6396,7 +6400,7 @@
     </row>
     <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
@@ -6419,7 +6423,7 @@
     </row>
     <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B152" s="13" t="s">
@@ -6440,7 +6444,7 @@
     </row>
     <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B153" s="13" t="s">
@@ -6461,7 +6465,7 @@
     </row>
     <row r="154" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B154" s="13" t="s">
@@ -6480,7 +6484,7 @@
     </row>
     <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B155" s="13" t="s">
@@ -6501,7 +6505,7 @@
     </row>
     <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B156" s="13" t="s">
@@ -6522,7 +6526,7 @@
     </row>
     <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B157" s="13" t="s">
@@ -6543,7 +6547,7 @@
     </row>
     <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B158" s="13" t="s">
@@ -6564,7 +6568,7 @@
     </row>
     <row r="159" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B159" s="13" t="s">
@@ -6585,8 +6589,8 @@
     </row>
     <row r="160" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3199,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
+        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
+        <v/>
       </c>
       <c r="B160" s="2" t="s">
         <v>782</v>
@@ -6636,9 +6640,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D236" sqref="D236:D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6813,19 +6817,19 @@
         <v>746</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B12" t="s">
-        <v>243</v>
+      <c r="B12" s="22" t="s">
+        <v>782</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D12" t="s">
-        <v>750</v>
+      <c r="D12" s="4" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6834,13 +6838,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>279</v>
+      <c r="D13" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6849,13 +6853,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>280</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6864,13 +6868,13 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6885,7 +6889,7 @@
         <v>724</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6900,7 +6904,7 @@
         <v>724</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6914,8 +6918,8 @@
       <c r="C18" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D18" t="s">
-        <v>754</v>
+      <c r="D18" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -6924,13 +6928,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>279</v>
+      <c r="D19" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -6939,13 +6943,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6960,7 +6964,7 @@
         <v>724</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -6969,13 +6973,13 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6990,7 +6994,7 @@
         <v>724</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6999,13 +7003,13 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D24" t="s">
-        <v>752</v>
+      <c r="D24" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7014,13 +7018,13 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>313</v>
+      <c r="D25" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7029,13 +7033,13 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7044,7 +7048,7 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>724</v>
@@ -7059,13 +7063,13 @@
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7080,7 +7084,7 @@
         <v>724</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7089,43 +7093,43 @@
         <v/>
       </c>
       <c r="B30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" t="s">
         <v>257</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
         <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D32" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" t="s">
-        <v>337</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7134,13 +7138,13 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -7154,8 +7158,8 @@
       <c r="C34" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D34" t="s">
-        <v>764</v>
+      <c r="D34" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7164,13 +7168,13 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>323</v>
+      <c r="D35" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7185,7 +7189,7 @@
         <v>724</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7199,8 +7203,8 @@
       <c r="C37" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D37" t="s">
-        <v>755</v>
+      <c r="D37" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -7215,7 +7219,7 @@
         <v>724</v>
       </c>
       <c r="D38" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7224,13 +7228,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>323</v>
+      <c r="D39" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7239,7 +7243,7 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>724</v>
@@ -7260,7 +7264,7 @@
         <v>724</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7275,7 +7279,7 @@
         <v>724</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7289,8 +7293,8 @@
       <c r="C43" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D43" t="s">
-        <v>755</v>
+      <c r="D43" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7305,7 +7309,7 @@
         <v>724</v>
       </c>
       <c r="D44" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7314,13 +7318,13 @@
         <v/>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>323</v>
+      <c r="D45" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7335,7 +7339,7 @@
         <v>724</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7349,8 +7353,8 @@
       <c r="C47" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D47" t="s">
-        <v>755</v>
+      <c r="D47" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -7365,37 +7369,37 @@
         <v>724</v>
       </c>
       <c r="D48" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>338</v>
+      <c r="B49" t="s">
+        <v>308</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D49" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>338</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>335</v>
+      <c r="D50" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7404,13 +7408,13 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7419,7 +7423,7 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>724</v>
@@ -7434,13 +7438,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7449,13 +7453,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7464,13 +7468,13 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>350</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -7485,7 +7489,7 @@
         <v>724</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -7499,8 +7503,8 @@
       <c r="C57" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D57" t="s">
-        <v>770</v>
+      <c r="D57" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -7509,13 +7513,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>373</v>
+      <c r="D58" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7524,13 +7528,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>374</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7545,7 +7549,7 @@
         <v>724</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>396</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7554,13 +7558,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>258</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7575,127 +7579,127 @@
         <v>724</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>340</v>
+      <c r="B63" t="s">
+        <v>260</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D63" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>341</v>
+      <c r="B65" t="s">
+        <v>340</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D65" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>342</v>
+      <c r="B67" t="s">
+        <v>341</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D67" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>343</v>
+      <c r="B69" t="s">
+        <v>342</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D69" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>335</v>
+      <c r="D70" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7704,13 +7708,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7719,13 +7723,13 @@
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D72" t="s">
-        <v>764</v>
+      <c r="D72" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7734,13 +7738,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>279</v>
+      <c r="D73" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7749,7 +7753,7 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>724</v>
@@ -7764,13 +7768,13 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -7779,13 +7783,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7794,13 +7798,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7809,13 +7813,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>413</v>
+        <v>286</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>414</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7824,13 +7828,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D79" t="s">
-        <v>276</v>
+      <c r="D79" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -7844,8 +7848,8 @@
       <c r="C80" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>779</v>
+      <c r="D80" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7854,13 +7858,13 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>401</v>
+        <v>779</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -7869,13 +7873,13 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>265</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7889,8 +7893,8 @@
       <c r="C83" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D83" t="s">
-        <v>764</v>
+      <c r="D83" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7899,13 +7903,13 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>265</v>
+      <c r="D84" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -7920,7 +7924,7 @@
         <v>724</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -7935,7 +7939,7 @@
         <v>724</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>392</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -7950,7 +7954,7 @@
         <v>724</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>772</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -7959,13 +7963,13 @@
         <v/>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>265</v>
+        <v>772</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -7980,7 +7984,7 @@
         <v>724</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -7995,7 +7999,7 @@
         <v>724</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>392</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -8009,8 +8013,8 @@
       <c r="C91" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D91" t="s">
-        <v>764</v>
+      <c r="D91" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8024,8 +8028,8 @@
       <c r="C92" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>772</v>
+      <c r="D92" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -8034,13 +8038,13 @@
         <v/>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>373</v>
+        <v>772</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8049,13 +8053,13 @@
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D94" t="s">
-        <v>753</v>
+      <c r="D94" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -8064,13 +8068,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D95" t="s">
-        <v>425</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8084,8 +8088,8 @@
       <c r="C96" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>427</v>
+      <c r="D96" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8094,13 +8098,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8109,13 +8113,13 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8124,13 +8128,13 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8145,7 +8149,7 @@
         <v>724</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>725</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8154,13 +8158,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>373</v>
+        <v>725</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8175,7 +8179,7 @@
         <v>724</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>725</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8184,13 +8188,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>373</v>
+        <v>725</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8205,7 +8209,7 @@
         <v>724</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>725</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8214,13 +8218,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D105" t="s">
-        <v>764</v>
+      <c r="D105" s="4" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8229,13 +8233,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>352</v>
+      <c r="D106" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8244,7 +8248,7 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>724</v>
@@ -8259,13 +8263,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8274,13 +8278,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D109" t="s">
-        <v>764</v>
+      <c r="D109" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8289,13 +8293,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>403</v>
+      <c r="D110" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8304,7 +8308,7 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>724</v>
@@ -8319,7 +8323,7 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>724</v>
@@ -8334,7 +8338,7 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>724</v>
@@ -8349,13 +8353,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>245</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8364,7 +8368,7 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>724</v>
@@ -8379,7 +8383,7 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>724</v>
@@ -8400,7 +8404,7 @@
         <v>724</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>396</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -8409,13 +8413,13 @@
         <v/>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8424,13 +8428,13 @@
         <v/>
       </c>
       <c r="B119" t="s">
-        <v>407</v>
+        <v>331</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>408</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8439,13 +8443,13 @@
         <v/>
       </c>
       <c r="B120" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -8454,13 +8458,13 @@
         <v/>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>409</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>279</v>
+        <v>410</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8469,13 +8473,13 @@
         <v/>
       </c>
       <c r="B122" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D122" t="s">
-        <v>761</v>
+      <c r="D122" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8484,13 +8488,13 @@
         <v/>
       </c>
       <c r="B123" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>393</v>
+      <c r="D123" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8504,8 +8508,8 @@
       <c r="C124" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D124" t="s">
-        <v>764</v>
+      <c r="D124" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8514,13 +8518,13 @@
         <v/>
       </c>
       <c r="B125" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>393</v>
+      <c r="D125" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -8529,13 +8533,13 @@
         <v/>
       </c>
       <c r="B126" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -8544,13 +8548,13 @@
         <v/>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>411</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>271</v>
+        <v>412</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8559,7 +8563,7 @@
         <v/>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>724</v>
@@ -8574,7 +8578,7 @@
         <v/>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>724</v>
@@ -8589,13 +8593,13 @@
         <v/>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8604,13 +8608,13 @@
         <v/>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8625,37 +8629,37 @@
         <v>724</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>738</v>
+      <c r="B133" t="s">
+        <v>261</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D133" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D133" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B134" t="s">
-        <v>289</v>
+      <c r="B134" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>279</v>
+      <c r="D134" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8664,7 +8668,7 @@
         <v/>
       </c>
       <c r="B135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>724</v>
@@ -8679,7 +8683,7 @@
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>724</v>
@@ -8688,94 +8692,94 @@
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>344</v>
+      <c r="B137" t="s">
+        <v>291</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D137" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D137" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f>IF(ISNA(VLOOKUP(B138,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>345</v>
+      <c r="B139" t="s">
+        <v>344</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D139" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D139" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f>IF(ISNA(VLOOKUP(B140,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>346</v>
+      <c r="B141" t="s">
+        <v>345</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D141" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D141" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f>IF(ISNA(VLOOKUP(B142,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>335</v>
+      <c r="D142" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -8784,13 +8788,13 @@
         <v/>
       </c>
       <c r="B143" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8805,37 +8809,37 @@
         <v>724</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>348</v>
+      <c r="B145" t="s">
+        <v>314</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D145" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D145" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f>IF(ISNA(VLOOKUP(B146,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D146" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8844,13 +8848,13 @@
         <v/>
       </c>
       <c r="B147" t="s">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>245</v>
+      <c r="D147" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -8859,7 +8863,7 @@
         <v/>
       </c>
       <c r="B148" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>724</v>
@@ -8874,13 +8878,13 @@
         <v/>
       </c>
       <c r="B149" t="s">
-        <v>354</v>
+        <v>251</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>352</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8889,13 +8893,13 @@
         <v/>
       </c>
       <c r="B150" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8904,13 +8908,13 @@
         <v/>
       </c>
       <c r="B151" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>279</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8925,7 +8929,7 @@
         <v>724</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8934,13 +8938,13 @@
         <v/>
       </c>
       <c r="B153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8949,13 +8953,13 @@
         <v/>
       </c>
       <c r="B154" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8964,7 +8968,7 @@
         <v/>
       </c>
       <c r="B155" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>724</v>
@@ -8979,7 +8983,7 @@
         <v/>
       </c>
       <c r="B156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>724</v>
@@ -8994,13 +8998,13 @@
         <v/>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>258</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -9009,13 +9013,13 @@
         <v/>
       </c>
       <c r="B158" t="s">
-        <v>415</v>
+        <v>262</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>414</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9024,13 +9028,13 @@
         <v/>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>258</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9039,13 +9043,13 @@
         <v/>
       </c>
       <c r="B160" t="s">
-        <v>365</v>
+        <v>263</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -9054,13 +9058,13 @@
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>271</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -9074,8 +9078,8 @@
       <c r="C162" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D162" t="s">
-        <v>766</v>
+      <c r="D162" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -9084,13 +9088,13 @@
         <v/>
       </c>
       <c r="B163" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>326</v>
+      <c r="D163" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -9099,13 +9103,13 @@
         <v/>
       </c>
       <c r="B164" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D164" t="s">
-        <v>767</v>
+      <c r="D164" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -9114,13 +9118,13 @@
         <v/>
       </c>
       <c r="B165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D165" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -9129,13 +9133,13 @@
         <v/>
       </c>
       <c r="B166" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>310</v>
+      <c r="D166" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -9150,7 +9154,7 @@
         <v>724</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -9165,7 +9169,7 @@
         <v>724</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -9174,13 +9178,13 @@
         <v/>
       </c>
       <c r="B169" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D169" t="s">
-        <v>417</v>
+      <c r="D169" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -9189,13 +9193,13 @@
         <v/>
       </c>
       <c r="B170" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>350</v>
+      <c r="D170" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -9210,7 +9214,7 @@
         <v>724</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -9224,8 +9228,8 @@
       <c r="C172" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D172" t="s">
-        <v>770</v>
+      <c r="D172" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -9240,7 +9244,7 @@
         <v>724</v>
       </c>
       <c r="D173" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -9254,8 +9258,8 @@
       <c r="C174" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>772</v>
+      <c r="D174" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -9264,13 +9268,13 @@
         <v/>
       </c>
       <c r="B175" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>279</v>
+        <v>772</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -9285,7 +9289,7 @@
         <v>724</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9300,7 +9304,7 @@
         <v>724</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -9315,7 +9319,7 @@
         <v>724</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -9330,7 +9334,7 @@
         <v>724</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -9344,8 +9348,8 @@
       <c r="C180" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D180" t="s">
-        <v>770</v>
+      <c r="D180" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -9360,7 +9364,7 @@
         <v>724</v>
       </c>
       <c r="D181" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -9374,8 +9378,8 @@
       <c r="C182" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>772</v>
+      <c r="D182" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -9384,13 +9388,13 @@
         <v/>
       </c>
       <c r="B183" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>279</v>
+        <v>772</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -9405,7 +9409,7 @@
         <v>724</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -9420,7 +9424,7 @@
         <v>724</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -9435,7 +9439,7 @@
         <v>724</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -9450,7 +9454,7 @@
         <v>724</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -9464,8 +9468,8 @@
       <c r="C188" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D188" t="s">
-        <v>770</v>
+      <c r="D188" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -9480,7 +9484,7 @@
         <v>724</v>
       </c>
       <c r="D189" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -9494,68 +9498,68 @@
       <c r="C190" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>735</v>
+      <c r="B191" t="s">
+        <v>295</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D191" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D191" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
         <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B192" t="s">
-        <v>368</v>
+      <c r="B192" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D192" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>418</v>
+      <c r="B193" t="s">
+        <v>368</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D193" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
         <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>418</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>419</v>
+      <c r="D194" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -9564,13 +9568,13 @@
         <v/>
       </c>
       <c r="B195" t="s">
-        <v>252</v>
+        <v>418</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>245</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -9579,7 +9583,7 @@
         <v/>
       </c>
       <c r="B196" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>724</v>
@@ -9594,13 +9598,13 @@
         <v/>
       </c>
       <c r="B197" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D197" t="s">
-        <v>747</v>
+      <c r="D197" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -9609,13 +9613,13 @@
         <v/>
       </c>
       <c r="B198" t="s">
-        <v>384</v>
+        <v>241</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>373</v>
+      <c r="D198" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -9624,13 +9628,13 @@
         <v/>
       </c>
       <c r="B199" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -9639,13 +9643,13 @@
         <v/>
       </c>
       <c r="B200" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -9654,13 +9658,13 @@
         <v/>
       </c>
       <c r="B201" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D201" t="s">
-        <v>771</v>
+      <c r="D201" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -9669,13 +9673,13 @@
         <v/>
       </c>
       <c r="B202" t="s">
-        <v>296</v>
+        <v>391</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>279</v>
+      <c r="D202" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -9684,13 +9688,13 @@
         <v/>
       </c>
       <c r="B203" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -9699,7 +9703,7 @@
         <v/>
       </c>
       <c r="B204" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>724</v>
@@ -9714,7 +9718,7 @@
         <v/>
       </c>
       <c r="B205" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>724</v>
@@ -9729,13 +9733,13 @@
         <v/>
       </c>
       <c r="B206" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -9744,13 +9748,13 @@
         <v/>
       </c>
       <c r="B207" t="s">
-        <v>422</v>
+        <v>315</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>423</v>
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -9759,7 +9763,7 @@
         <v/>
       </c>
       <c r="B208" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>724</v>
@@ -9774,13 +9778,13 @@
         <v/>
       </c>
       <c r="B209" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -9789,13 +9793,13 @@
         <v/>
       </c>
       <c r="B210" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -9804,13 +9808,13 @@
         <v/>
       </c>
       <c r="B211" t="s">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D211" t="s">
-        <v>749</v>
+      <c r="D211" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -9819,13 +9823,13 @@
         <v/>
       </c>
       <c r="B212" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>279</v>
+      <c r="D212" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -9834,13 +9838,13 @@
         <v/>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -9849,7 +9853,7 @@
         <v/>
       </c>
       <c r="B214" t="s">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>724</v>
@@ -9864,7 +9868,7 @@
         <v/>
       </c>
       <c r="B215" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>724</v>
@@ -9879,13 +9883,13 @@
         <v/>
       </c>
       <c r="B216" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -9894,13 +9898,13 @@
         <v/>
       </c>
       <c r="B217" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -9915,7 +9919,7 @@
         <v>724</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -9924,13 +9928,13 @@
         <v/>
       </c>
       <c r="B219" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -9939,13 +9943,13 @@
         <v/>
       </c>
       <c r="B220" t="s">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -9954,13 +9958,13 @@
         <v/>
       </c>
       <c r="B221" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -9969,13 +9973,13 @@
         <v/>
       </c>
       <c r="B222" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -9984,13 +9988,13 @@
         <v/>
       </c>
       <c r="B223" t="s">
-        <v>428</v>
+        <v>255</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>429</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -9999,13 +10003,13 @@
         <v/>
       </c>
       <c r="B224" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>302</v>
+        <v>429</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -10020,7 +10024,7 @@
         <v>724</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -10035,7 +10039,7 @@
         <v>724</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -10050,7 +10054,7 @@
         <v>724</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -10059,43 +10063,43 @@
         <v/>
       </c>
       <c r="B228" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
         <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>726</v>
+      <c r="B229" t="s">
+        <v>318</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="str">
         <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B230" t="s">
-        <v>358</v>
+      <c r="B230" s="2" t="s">
+        <v>726</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>355</v>
+        <v>725</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -10104,43 +10108,43 @@
         <v/>
       </c>
       <c r="B231" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
         <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>728</v>
+      <c r="B232" t="s">
+        <v>389</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="str">
         <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B233" t="s">
-        <v>359</v>
+      <c r="B233" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>355</v>
+        <v>725</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -10149,25 +10153,28 @@
         <v/>
       </c>
       <c r="B234" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="str">
         <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <v/>
+      </c>
+      <c r="B235" t="s">
+        <v>390</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D235" s="11" t="s">
-        <v>275</v>
+      <c r="D235" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -10175,12 +10182,11 @@
         <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B236" s="2"/>
       <c r="C236" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>748</v>
+        <v>275</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC50212-9F94-934B-91D8-410102E7ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EECB69-E1ED-CD40-9DBD-1FAFF2D3A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8420" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="789">
   <si>
     <t>Description</t>
   </si>
@@ -2386,6 +2386,24 @@
   </si>
   <si>
     <t>aggregate_soundness_value</t>
+  </si>
+  <si>
+    <t>Blow Count</t>
+  </si>
+  <si>
+    <t>The number of blows of a hammer that drives a tool into the eart for a particular  distance. The distance should correspond to the difference between the associated top and bottom positions recorded in the domain portion of the test, or be specified in the pen_increment property associated with a point location.</t>
+  </si>
+  <si>
+    <t>blow_count</t>
+  </si>
+  <si>
+    <t>pen_increment</t>
+  </si>
+  <si>
+    <t>Penetration Increment</t>
+  </si>
+  <si>
+    <t>The distance that a tool travels for a given number of hammer blows.</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +2525,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2520,8 +2538,14 @@
         <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2542,6 +2566,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2556,7 +2589,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2597,12 +2630,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2805,14 +2848,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H160" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H160" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H159">
-    <sortCondition ref="C1:C159"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H162" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H162" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H162">
+    <sortCondition ref="B1:B162"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
@@ -2827,14 +2870,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D240" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D240" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D240">
-    <sortCondition ref="B1:B240"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D241" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D241" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D241">
+    <sortCondition ref="B1:B241"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
@@ -3190,10 +3233,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView topLeftCell="A150" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3237,7 +3280,7 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="12" t="s">
@@ -3258,7 +3301,7 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
@@ -3279,7 +3322,7 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
@@ -3300,7 +3343,7 @@
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
@@ -3321,7 +3364,7 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -3342,7 +3385,7 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="13" t="s">
@@ -3363,7 +3406,7 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="13" t="s">
@@ -3384,7 +3427,7 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
@@ -3405,7 +3448,7 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
@@ -3428,7 +3471,7 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
@@ -3449,53 +3492,53 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B12" s="13" t="s">
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3199,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="E13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="13" t="s">
@@ -3518,7 +3561,7 @@
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
@@ -3539,26 +3582,28 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
+    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
@@ -3566,130 +3611,134 @@
         <v/>
       </c>
       <c r="B17" s="13" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>622</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>2</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>776</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -3700,13 +3749,13 @@
         <v/>
       </c>
       <c r="B23" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>1</v>
@@ -3717,65 +3766,65 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>1</v>
@@ -3786,344 +3835,346 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="13" t="s">
+    <row r="37" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D37" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="E37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B33" s="13" t="s">
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D39" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B34" s="13" t="s">
+    <row r="40" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D40" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B35" s="13" t="s">
+    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>662</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E41" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B40" s="13" t="s">
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D42" s="14" t="s">
         <v>663</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>665</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>1</v>
@@ -4132,19 +4183,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>1</v>
@@ -4153,412 +4204,408 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D46" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="E46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="13" t="s">
+    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>671</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="13" t="s">
+    </row>
+    <row r="51" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="17" t="s">
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="13" t="s">
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>670</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>778</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="13" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="s">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="13" t="s">
+      <c r="E62" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="13" t="s">
@@ -4577,9 +4624,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="13" t="s">
@@ -4600,59 +4647,59 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>380</v>
+        <v>488</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>1</v>
@@ -4661,124 +4708,124 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="13" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>496</v>
+        <v>380</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
-        <v>248</v>
+        <v>404</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>1</v>
@@ -4787,19 +4834,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>1</v>
@@ -4810,80 +4857,80 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>672</v>
+        <v>698</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>1</v>
@@ -4892,334 +4939,334 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="13" t="s">
-        <v>411</v>
+        <v>331</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
-        <v>270</v>
+        <v>407</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="13" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="13" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="13" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>180</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="13" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B93" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C93" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D93" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="E89" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" s="17" t="s">
+      <c r="E93" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B90" s="13" t="s">
+    <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C94" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D94" s="16" t="s">
         <v>715</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>560</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>1</v>
@@ -5228,19 +5275,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>1</v>
@@ -5249,26 +5296,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>18</v>
-      </c>
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
@@ -5276,13 +5324,13 @@
         <v/>
       </c>
       <c r="B97" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>717</v>
+        <v>518</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>1</v>
@@ -5291,19 +5339,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>713</v>
+        <v>519</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>1</v>
@@ -5312,25 +5360,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>314</v>
+        <v>713</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5339,79 +5387,79 @@
         <v/>
       </c>
       <c r="B100" s="13" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>522</v>
+        <v>314</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="13" t="s">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>180</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="13" t="s">
-        <v>354</v>
+        <v>251</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>10</v>
@@ -5423,13 +5471,13 @@
         <v/>
       </c>
       <c r="B104" s="13" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>1</v>
@@ -5438,40 +5486,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E105" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="13" t="s">
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>537</v>
+        <v>774</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>1</v>
@@ -5480,19 +5528,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="13" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>1</v>
@@ -5501,19 +5549,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="13" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>718</v>
+        <v>535</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>1</v>
@@ -5524,154 +5572,154 @@
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C112" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="D112" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="E109" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109" s="17" t="s">
+      <c r="E112" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="D110" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B111" s="13" t="s">
+    <row r="113" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C113" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="D111" s="16" t="s">
+      <c r="D113" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="E111" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F111" s="17" t="s">
+      <c r="E113" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B112" s="13" t="s">
+    <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C114" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D114" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="E112" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F112" s="17" t="s">
+      <c r="E114" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F114" s="13" t="s">
+    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="17" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F115" s="17" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
@@ -5692,7 +5740,7 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
@@ -5713,7 +5761,7 @@
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="13" t="s">
@@ -5734,7 +5782,7 @@
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="13" t="s">
@@ -5755,7 +5803,7 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
@@ -5774,166 +5822,166 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F121" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>736</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B125" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C125" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D125" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="E123" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F123" s="17" t="s">
+      <c r="E125" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B124" s="13" t="s">
+    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C126" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D126" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="E124" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="17" t="s">
+      <c r="E126" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="17" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F125" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="13" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>1</v>
@@ -5942,25 +5990,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="13" t="s">
-        <v>384</v>
+        <v>241</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E129" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5969,19 +6017,19 @@
         <v/>
       </c>
       <c r="B130" s="13" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E130" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5990,19 +6038,19 @@
         <v/>
       </c>
       <c r="B131" s="13" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E131" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6011,19 +6059,19 @@
         <v/>
       </c>
       <c r="B132" s="13" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E132" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6032,419 +6080,417 @@
         <v/>
       </c>
       <c r="B133" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B134" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C134" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="D134" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E134" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="17"/>
-    </row>
-    <row r="134" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F134" s="17" t="s">
+      <c r="F134" s="17"/>
+    </row>
+    <row r="135" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="17" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>588</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B136" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C140" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D140" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="E136" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F136" s="17" t="s">
+      <c r="E140" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" s="17" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>773</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="E138" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>595</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="E139" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="D140" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="E140" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F140" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B141" s="13" t="s">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>722</v>
+        <v>594</v>
       </c>
       <c r="E141" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B142" s="13" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
-        <v>387</v>
+        <v>242</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B144" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F144" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="E145" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F145" s="17" t="s">
+    <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F147" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B148" s="13" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="13" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F149" s="17"/>
-    </row>
-    <row r="150" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F149" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F150" s="17"/>
     </row>
-    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-    </row>
-    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="17"/>
+    </row>
+    <row r="152" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B152" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F152" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B153" s="13" t="s">
@@ -6463,9 +6509,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B154" s="13" t="s">
@@ -6482,130 +6528,172 @@
       </c>
       <c r="F154" s="17"/>
     </row>
-    <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B155" s="13" t="s">
-        <v>726</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="E155" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F155" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B156" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="E159" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C160" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="E156" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F156" s="13" t="s">
+      <c r="E160" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="E157" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="E158" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>706</v>
-      </c>
-      <c r="E159" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F159" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A160" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>104</v>
+    <row r="161" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="E161" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6621,13 +6709,13 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$178</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F89</xm:sqref>
+          <xm:sqref>F2:F90</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$34</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E89</xm:sqref>
+          <xm:sqref>E2:E90</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6638,11 +6726,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D236" sqref="D236:D240"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6669,7 +6757,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B2" t="s">
@@ -6684,7 +6772,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" t="s">
@@ -6699,7 +6787,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B4" t="s">
@@ -6714,7 +6802,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" t="s">
@@ -6729,7 +6817,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B6" t="s">
@@ -6744,7 +6832,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B7" t="s">
@@ -6759,7 +6847,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B8" t="s">
@@ -6774,7 +6862,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B9" t="s">
@@ -6789,7 +6877,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B10" t="s">
@@ -6804,7 +6892,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B11" t="s">
@@ -6818,11 +6906,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="A12" t="str">
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>782</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6834,7 +6922,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B13" t="s">
@@ -6849,7 +6937,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B14" t="s">
@@ -6864,7 +6952,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" t="s">
@@ -6879,7 +6967,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B16" t="s">
@@ -6894,7 +6982,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B17" t="s">
@@ -6909,7 +6997,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B18" t="s">
@@ -6924,7 +7012,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B19" t="s">
@@ -6939,7 +7027,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B20" t="s">
@@ -6954,7 +7042,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B21" t="s">
@@ -6969,7 +7057,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B22" t="s">
@@ -6984,7 +7072,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B23" t="s">
@@ -6999,7 +7087,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B24" t="s">
@@ -7014,7 +7102,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B25" t="s">
@@ -7029,7 +7117,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B26" t="s">
@@ -7044,7 +7132,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B27" t="s">
@@ -7059,7 +7147,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B28" t="s">
@@ -7074,7 +7162,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B29" t="s">
@@ -7089,7 +7177,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B30" t="s">
@@ -7104,7 +7192,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B31" t="s">
@@ -7119,7 +7207,7 @@
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B32" s="2" t="s">
@@ -7134,7 +7222,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B33" t="s">
@@ -7149,7 +7237,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B34" t="s">
@@ -7164,7 +7252,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B35" t="s">
@@ -7179,7 +7267,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B36" t="s">
@@ -7194,7 +7282,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B37" t="s">
@@ -7209,7 +7297,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B38" t="s">
@@ -7224,7 +7312,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B39" t="s">
@@ -7239,7 +7327,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B40" t="s">
@@ -7254,7 +7342,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B41" t="s">
@@ -7269,7 +7357,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B42" t="s">
@@ -7284,7 +7372,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B43" t="s">
@@ -7299,7 +7387,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B44" t="s">
@@ -7314,7 +7402,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B45" t="s">
@@ -7329,7 +7417,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B46" t="s">
@@ -7344,7 +7432,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B47" t="s">
@@ -7359,7 +7447,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B48" t="s">
@@ -7374,7 +7462,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B49" t="s">
@@ -7389,7 +7477,7 @@
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B50" s="2" t="s">
@@ -7404,7 +7492,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B51" t="s">
@@ -7419,7 +7507,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B52" t="s">
@@ -7434,7 +7522,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B53" t="s">
@@ -7449,7 +7537,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B54" t="s">
@@ -7464,7 +7552,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B55" t="s">
@@ -7479,7 +7567,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B56" t="s">
@@ -7494,7 +7582,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B57" t="s">
@@ -7509,7 +7597,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B58" t="s">
@@ -7524,7 +7612,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B59" t="s">
@@ -7539,7 +7627,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B60" t="s">
@@ -7554,7 +7642,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B61" t="s">
@@ -7569,7 +7657,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B62" t="s">
@@ -7584,7 +7672,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B63" t="s">
@@ -7599,7 +7687,7 @@
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B64" s="2" t="s">
@@ -7614,7 +7702,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B65" t="s">
@@ -7629,7 +7717,7 @@
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B66" s="2" t="s">
@@ -7644,7 +7732,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B67" t="s">
@@ -7659,7 +7747,7 @@
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B68" s="2" t="s">
@@ -7674,7 +7762,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B69" t="s">
@@ -7689,7 +7777,7 @@
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B70" s="2" t="s">
@@ -7704,7 +7792,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B71" t="s">
@@ -7719,7 +7807,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B72" t="s">
@@ -7734,7 +7822,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B73" t="s">
@@ -7749,7 +7837,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B74" t="s">
@@ -7764,7 +7852,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B75" t="s">
@@ -7779,7 +7867,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B76" t="s">
@@ -7794,7 +7882,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B77" t="s">
@@ -7809,7 +7897,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B78" t="s">
@@ -7824,7 +7912,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B79" t="s">
@@ -7839,7 +7927,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B80" t="s">
@@ -7854,7 +7942,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B81" t="s">
@@ -7869,7 +7957,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B82" t="s">
@@ -7884,7 +7972,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B83" t="s">
@@ -7899,7 +7987,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B84" t="s">
@@ -7914,7 +8002,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B85" t="s">
@@ -7929,7 +8017,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B86" t="s">
@@ -7944,7 +8032,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B87" t="s">
@@ -7959,7 +8047,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B88" t="s">
@@ -7974,7 +8062,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B89" t="s">
@@ -7989,7 +8077,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B90" t="s">
@@ -8004,7 +8092,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B91" t="s">
@@ -8019,7 +8107,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B92" t="s">
@@ -8034,7 +8122,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B93" t="s">
@@ -8049,7 +8137,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B94" t="s">
@@ -8064,7 +8152,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B95" t="s">
@@ -8079,7 +8167,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B96" t="s">
@@ -8094,7 +8182,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B97" t="s">
@@ -8109,7 +8197,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B98" t="s">
@@ -8124,7 +8212,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B99" t="s">
@@ -8139,7 +8227,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B100" t="s">
@@ -8154,7 +8242,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B101" t="s">
@@ -8169,7 +8257,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B102" t="s">
@@ -8184,7 +8272,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B103" t="s">
@@ -8199,7 +8287,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B104" t="s">
@@ -8214,7 +8302,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B105" t="s">
@@ -8229,7 +8317,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B106" t="s">
@@ -8244,7 +8332,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B107" t="s">
@@ -8259,7 +8347,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B108" t="s">
@@ -8274,7 +8362,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B109" t="s">
@@ -8289,7 +8377,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B110" t="s">
@@ -8304,7 +8392,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B111" t="s">
@@ -8319,7 +8407,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B112" t="s">
@@ -8334,7 +8422,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B113" t="s">
@@ -8349,7 +8437,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B114" t="s">
@@ -8364,7 +8452,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B115" t="s">
@@ -8379,7 +8467,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B116" t="s">
@@ -8394,7 +8482,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B117" t="s">
@@ -8409,7 +8497,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B118" t="s">
@@ -8424,7 +8512,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B119" t="s">
@@ -8439,7 +8527,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B120" t="s">
@@ -8454,7 +8542,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B121" t="s">
@@ -8469,7 +8557,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B122" t="s">
@@ -8484,7 +8572,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B123" t="s">
@@ -8499,7 +8587,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B124" t="s">
@@ -8514,7 +8602,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B125" t="s">
@@ -8529,7 +8617,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B126" t="s">
@@ -8544,7 +8632,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B127" t="s">
@@ -8559,7 +8647,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B128" t="s">
@@ -8574,7 +8662,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B129" t="s">
@@ -8589,7 +8677,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B130" t="s">
@@ -8604,7 +8692,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B131" t="s">
@@ -8619,7 +8707,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B132" t="s">
@@ -8634,7 +8722,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B133" t="s">
@@ -8649,7 +8737,7 @@
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B134" s="2" t="s">
@@ -8664,7 +8752,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B135" t="s">
@@ -8679,7 +8767,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B136" t="s">
@@ -8694,7 +8782,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B137" t="s">
@@ -8709,7 +8797,7 @@
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B138" s="2" t="s">
@@ -8724,7 +8812,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B139" t="s">
@@ -8739,7 +8827,7 @@
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B140" s="2" t="s">
@@ -8754,7 +8842,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B141" t="s">
@@ -8769,7 +8857,7 @@
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B142" s="2" t="s">
@@ -8784,7 +8872,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B143" t="s">
@@ -8799,7 +8887,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B144" t="s">
@@ -8814,7 +8902,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B145" t="s">
@@ -8829,7 +8917,7 @@
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B146" s="2" t="s">
@@ -8844,7 +8932,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B147" t="s">
@@ -8859,7 +8947,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B148" t="s">
@@ -8874,7 +8962,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B149" t="s">
@@ -8889,7 +8977,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B150" t="s">
@@ -8904,7 +8992,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B151" t="s">
@@ -8919,7 +9007,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B152" t="s">
@@ -8934,7 +9022,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B153" t="s">
@@ -8949,7 +9037,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B154" t="s">
@@ -8964,7 +9052,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B155" t="s">
@@ -8979,7 +9067,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B156" t="s">
@@ -8994,7 +9082,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B157" t="s">
@@ -9009,7 +9097,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B158" t="s">
@@ -9024,7 +9112,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B159" t="s">
@@ -9039,7 +9127,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B160" t="s">
@@ -9054,7 +9142,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B161" t="s">
@@ -9069,7 +9157,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B162" t="s">
@@ -9084,7 +9172,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B163,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B163" t="s">
@@ -9099,7 +9187,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B164" t="s">
@@ -9114,7 +9202,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B165" t="s">
@@ -9129,7 +9217,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B166" t="s">
@@ -9144,7 +9232,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B167" t="s">
@@ -9159,7 +9247,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B168" t="s">
@@ -9174,7 +9262,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B169,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B169" t="s">
@@ -9189,7 +9277,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B170,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B170" t="s">
@@ -9204,7 +9292,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B171,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B171" t="s">
@@ -9219,7 +9307,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
-        <f>IF(ISNA(VLOOKUP(B172,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B172,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B172" t="s">
@@ -9234,7 +9322,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
-        <f>IF(ISNA(VLOOKUP(B173,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B173,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B173" t="s">
@@ -9249,7 +9337,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
-        <f>IF(ISNA(VLOOKUP(B174,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B174,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B174" t="s">
@@ -9264,7 +9352,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f>IF(ISNA(VLOOKUP(B175,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B175,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B175" t="s">
@@ -9279,7 +9367,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f>IF(ISNA(VLOOKUP(B176,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B176,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B176" t="s">
@@ -9294,7 +9382,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f>IF(ISNA(VLOOKUP(B177,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B177,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B177" t="s">
@@ -9309,7 +9397,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
-        <f>IF(ISNA(VLOOKUP(B178,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B178,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B178" t="s">
@@ -9324,7 +9412,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f>IF(ISNA(VLOOKUP(B179,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B179,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B179" t="s">
@@ -9339,7 +9427,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f>IF(ISNA(VLOOKUP(B180,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B180,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B180" t="s">
@@ -9354,7 +9442,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f>IF(ISNA(VLOOKUP(B181,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B181,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B181" t="s">
@@ -9369,7 +9457,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f>IF(ISNA(VLOOKUP(B182,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B182,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B182" t="s">
@@ -9384,7 +9472,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f>IF(ISNA(VLOOKUP(B183,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B183,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B183" t="s">
@@ -9399,7 +9487,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B184" t="s">
@@ -9414,7 +9502,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f>IF(ISNA(VLOOKUP(B185,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B185,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B185" t="s">
@@ -9429,7 +9517,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f>IF(ISNA(VLOOKUP(B186,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B186,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B186" t="s">
@@ -9444,7 +9532,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f>IF(ISNA(VLOOKUP(B187,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B187,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B187" t="s">
@@ -9459,7 +9547,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f>IF(ISNA(VLOOKUP(B188,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B188,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B188" t="s">
@@ -9474,7 +9562,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B189" t="s">
@@ -9489,7 +9577,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B190" t="s">
@@ -9504,7 +9592,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B191" t="s">
@@ -9519,7 +9607,7 @@
     </row>
     <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B192" s="2" t="s">
@@ -9534,7 +9622,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B193" t="s">
@@ -9549,7 +9637,7 @@
     </row>
     <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B194" s="2" t="s">
@@ -9564,7 +9652,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f>IF(ISNA(VLOOKUP(B195,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B195,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B195" t="s">
@@ -9579,7 +9667,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
-        <f>IF(ISNA(VLOOKUP(B196,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B196,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B196" t="s">
@@ -9594,7 +9682,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="str">
-        <f>IF(ISNA(VLOOKUP(B197,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B197,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B197" t="s">
@@ -9609,7 +9697,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="str">
-        <f>IF(ISNA(VLOOKUP(B198,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B198,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B198" t="s">
@@ -9624,7 +9712,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
-        <f>IF(ISNA(VLOOKUP(B199,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B199,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B199" t="s">
@@ -9639,7 +9727,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
-        <f>IF(ISNA(VLOOKUP(B200,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B200,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B200" t="s">
@@ -9654,7 +9742,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
-        <f>IF(ISNA(VLOOKUP(B201,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B201,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B201" t="s">
@@ -9669,7 +9757,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
-        <f>IF(ISNA(VLOOKUP(B202,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B202,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B202" t="s">
@@ -9684,7 +9772,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
-        <f>IF(ISNA(VLOOKUP(B203,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B203,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B203" t="s">
@@ -9699,7 +9787,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
-        <f>IF(ISNA(VLOOKUP(B204,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B204,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B204" t="s">
@@ -9714,7 +9802,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
-        <f>IF(ISNA(VLOOKUP(B205,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B205,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B205" t="s">
@@ -9729,7 +9817,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="str">
-        <f>IF(ISNA(VLOOKUP(B206,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B206,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B206" t="s">
@@ -9744,7 +9832,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="str">
-        <f>IF(ISNA(VLOOKUP(B207,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B207,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B207" t="s">
@@ -9759,7 +9847,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="str">
-        <f>IF(ISNA(VLOOKUP(B208,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B208,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B208" t="s">
@@ -9774,7 +9862,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="str">
-        <f>IF(ISNA(VLOOKUP(B209,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B209,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B209" t="s">
@@ -9789,7 +9877,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="str">
-        <f>IF(ISNA(VLOOKUP(B210,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B210,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B210" t="s">
@@ -9804,7 +9892,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="str">
-        <f>IF(ISNA(VLOOKUP(B211,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B211,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B211" t="s">
@@ -9819,7 +9907,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
-        <f>IF(ISNA(VLOOKUP(B212,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B212,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B212" t="s">
@@ -9834,7 +9922,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="str">
-        <f>IF(ISNA(VLOOKUP(B213,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B213,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B213" t="s">
@@ -9849,7 +9937,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
-        <f>IF(ISNA(VLOOKUP(B214,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B214,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B214" t="s">
@@ -9864,7 +9952,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
-        <f>IF(ISNA(VLOOKUP(B215,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B215,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B215" t="s">
@@ -9879,7 +9967,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
-        <f>IF(ISNA(VLOOKUP(B216,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B216,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B216" t="s">
@@ -9894,7 +9982,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
-        <f>IF(ISNA(VLOOKUP(B217,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B217,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B217" t="s">
@@ -9909,7 +9997,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="str">
-        <f>IF(ISNA(VLOOKUP(B218,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B218,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B218" t="s">
@@ -9924,7 +10012,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="str">
-        <f>IF(ISNA(VLOOKUP(B219,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B219,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B219" t="s">
@@ -9939,7 +10027,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="str">
-        <f>IF(ISNA(VLOOKUP(B220,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B220,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B220" t="s">
@@ -9954,7 +10042,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="str">
-        <f>IF(ISNA(VLOOKUP(B221,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B221,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B221" t="s">
@@ -9969,7 +10057,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="str">
-        <f>IF(ISNA(VLOOKUP(B222,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B222,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B222" t="s">
@@ -9984,7 +10072,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="str">
-        <f>IF(ISNA(VLOOKUP(B223,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B223,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B223" t="s">
@@ -9999,7 +10087,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="str">
-        <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B224" t="s">
@@ -10014,7 +10102,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
-        <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B225" t="s">
@@ -10029,7 +10117,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="str">
-        <f>IF(ISNA(VLOOKUP(B226,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B226,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B226" t="s">
@@ -10044,7 +10132,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="str">
-        <f>IF(ISNA(VLOOKUP(B227,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B227,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B227" t="s">
@@ -10059,7 +10147,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="str">
-        <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B228" t="s">
@@ -10074,7 +10162,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
-        <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B229" t="s">
@@ -10089,7 +10177,7 @@
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="str">
-        <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B230" s="2" t="s">
@@ -10104,7 +10192,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="str">
-        <f>IF(ISNA(VLOOKUP(B231,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B231,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B231" t="s">
@@ -10119,7 +10207,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
-        <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B232" t="s">
@@ -10134,7 +10222,7 @@
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="str">
-        <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B233" s="2" t="s">
@@ -10149,7 +10237,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="str">
-        <f>IF(ISNA(VLOOKUP(B234,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B234,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B234" t="s">
@@ -10164,7 +10252,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="str">
-        <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B235" t="s">
@@ -10179,32 +10267,37 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="str">
-        <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B236" t="s">
+        <v>785</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D236" s="11" t="s">
+      <c r="D236" s="20" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" t="str">
-        <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B237" s="2"/>
+    <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A237" s="21" t="str">
+        <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B237" s="22" t="s">
+        <v>786</v>
+      </c>
       <c r="C237" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D237" s="11" t="s">
-        <v>751</v>
+      <c r="D237" s="20" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
-        <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B238" s="2"/>
@@ -10212,12 +10305,12 @@
         <v>724</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
-        <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B239" s="2"/>
@@ -10225,12 +10318,12 @@
         <v>724</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
-        <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B240" s="2"/>
@@ -10238,6 +10331,19 @@
         <v>724</v>
       </c>
       <c r="D240" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="str">
+        <f>IF(ISNA(VLOOKUP(B241,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D241" s="11" t="s">
         <v>762</v>
       </c>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EECB69-E1ED-CD40-9DBD-1FAFF2D3A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DDAB86-9D61-8448-B26E-C89879B900BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8420" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -2391,9 +2391,6 @@
     <t>Blow Count</t>
   </si>
   <si>
-    <t>The number of blows of a hammer that drives a tool into the eart for a particular  distance. The distance should correspond to the difference between the associated top and bottom positions recorded in the domain portion of the test, or be specified in the pen_increment property associated with a point location.</t>
-  </si>
-  <si>
     <t>blow_count</t>
   </si>
   <si>
@@ -2404,6 +2401,9 @@
   </si>
   <si>
     <t>The distance that a tool travels for a given number of hammer blows.</t>
+  </si>
+  <si>
+    <t>The number of blows of a hammer that drives a tool into the earth for a particular distance. The distance should correspond to the difference between the associated top and bottom positions recorded in the location property of the test, or be specified in the pen_increment property associated with a point location.</t>
   </si>
 </sst>
 </file>
@@ -3235,8 +3235,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3588,13 +3588,13 @@
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>783</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>180</v>
@@ -5302,13 +5302,13 @@
         <v/>
       </c>
       <c r="B96" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="D96" s="24" t="s">
         <v>787</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>788</v>
       </c>
       <c r="E96" s="25" t="s">
         <v>1</v>
@@ -6728,7 +6728,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
     </sheetView>
@@ -10271,7 +10271,7 @@
         <v/>
       </c>
       <c r="B236" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>724</v>
@@ -10286,7 +10286,7 @@
         <v/>
       </c>
       <c r="B237" s="22" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>724</v>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DDAB86-9D61-8448-B26E-C89879B900BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3ED559-B36F-BB4D-B138-3BB4C07A3A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8420" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3235,8 +3235,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3ED559-B36F-BB4D-B138-3BB4C07A3A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E93C30C-1F4F-E949-AFE7-0475E3BFC4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8420" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2625,14 +2625,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3235,7 +3227,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3583,7 +3575,7 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="str">
+      <c r="A16" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -5297,26 +5289,26 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="str">
+      <c r="A96" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="19" t="s">
         <v>785</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="20" t="s">
         <v>786</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="E96" s="25" t="s">
+      <c r="E96" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G96" s="26"/>
+      <c r="G96" s="22"/>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
@@ -6728,9 +6720,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
+      <selection pane="bottomLeft" activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10276,22 +10268,22 @@
       <c r="C236" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D236" s="20" t="s">
+      <c r="D236" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="21" t="str">
+      <c r="A237" t="str">
         <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B237" s="22" t="s">
+      <c r="B237" s="2" t="s">
         <v>785</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D237" s="20" t="s">
+      <c r="D237" t="s">
         <v>275</v>
       </c>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E93C30C-1F4F-E949-AFE7-0475E3BFC4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03752B87-19E5-C742-A156-16ABEA8CA782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -773,9 +773,6 @@
     <t>consistency_index</t>
   </si>
   <si>
-    <t>//diggs_geo:AtterbergLimitsTest</t>
-  </si>
-  <si>
     <t>liquid_limit</t>
   </si>
   <si>
@@ -812,9 +809,6 @@
     <t>coef_consolidation_vertical</t>
   </si>
   <si>
-    <t>//diggs_geo:ConsolidationTest</t>
-  </si>
-  <si>
     <t>compression_index</t>
   </si>
   <si>
@@ -833,9 +827,6 @@
     <t>cohesion_peak</t>
   </si>
   <si>
-    <t>//diggs_geo:DirectShearTest</t>
-  </si>
-  <si>
     <t>cohesion_residual</t>
   </si>
   <si>
@@ -851,9 +842,6 @@
     <t>n_value</t>
   </si>
   <si>
-    <t>//diggs_geo:DrivenPenetrationTest</t>
-  </si>
-  <si>
     <t>n1_60</t>
   </si>
   <si>
@@ -863,21 +851,12 @@
     <t>relative_density</t>
   </si>
   <si>
-    <t>//diggs_geo:DynamicProbeTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:EnvironmentalScreeningTest</t>
-  </si>
-  <si>
     <t>flame_ionization_measurement</t>
   </si>
   <si>
     <t>a_pressure</t>
   </si>
   <si>
-    <t>//diggs_geo:FlatPlateDilatometerTest</t>
-  </si>
-  <si>
     <t>b_pressure</t>
   </si>
   <si>
@@ -944,9 +923,6 @@
     <t>bulk_density</t>
   </si>
   <si>
-    <t>//diggs_geo:InsituCBRTest</t>
-  </si>
-  <si>
     <t>cbr_0.1</t>
   </si>
   <si>
@@ -968,18 +944,9 @@
     <t>sensitivity</t>
   </si>
   <si>
-    <t>//diggs_geo:InsituVaneTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:LabCBRTest</t>
-  </si>
-  <si>
     <t>chloride_content</t>
   </si>
   <si>
-    <t>//diggs_geo:LabChemicalTest</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
@@ -989,15 +956,9 @@
     <t>dry_density_max</t>
   </si>
   <si>
-    <t>//diggs_geo:LabCompactionTest</t>
-  </si>
-  <si>
     <t>water_content_optimum</t>
   </si>
   <si>
-    <t>//diggs_geo:LabDensityTest</t>
-  </si>
-  <si>
     <t>dry_density</t>
   </si>
   <si>
@@ -1007,21 +968,12 @@
     <t>shear_strength_drained</t>
   </si>
   <si>
-    <t>//diggs_geo:LabPermeabilityTest</t>
-  </si>
-  <si>
     <t>coef_permeability_corrected</t>
   </si>
   <si>
     <t>resistivity</t>
   </si>
   <si>
-    <t>//diggs_geo:LabResistivityTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:LabVaneTest</t>
-  </si>
-  <si>
     <t>aggregate_LA_abrasion_loss</t>
   </si>
   <si>
@@ -1034,18 +986,12 @@
     <t>LOI</t>
   </si>
   <si>
-    <t>//diggs_geo:LossOnIgnitionTest</t>
-  </si>
-  <si>
     <t>mcv</t>
   </si>
   <si>
     <t>clay_percent_2_micron</t>
   </si>
   <si>
-    <t>//diggs_geo:ParticleSizeTest</t>
-  </si>
-  <si>
     <t>clay_percent_5_micron</t>
   </si>
   <si>
@@ -1085,27 +1031,15 @@
     <t>pid_result</t>
   </si>
   <si>
-    <t>//diggs_geo:PhotoIonizationDetectorTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:PocketPenetrometerTest</t>
-  </si>
-  <si>
     <t>Is</t>
   </si>
   <si>
-    <t>//diggs_geo:PointLoadTest</t>
-  </si>
-  <si>
     <t>Is50</t>
   </si>
   <si>
     <t>point_load_test_index</t>
   </si>
   <si>
-    <t>//diggs_geo:PorePressureDissipationTest</t>
-  </si>
-  <si>
     <t>t50</t>
   </si>
   <si>
@@ -1130,9 +1064,6 @@
     <t>modulus_shear</t>
   </si>
   <si>
-    <t>//diggs_geo:RedoxTest</t>
-  </si>
-  <si>
     <t>redox_potential</t>
   </si>
   <si>
@@ -1148,18 +1079,12 @@
     <t>specific_gravity_apparent</t>
   </si>
   <si>
-    <t>//diggs_geo:SpecificGravityTest</t>
-  </si>
-  <si>
     <t>specific_gravity_bulk</t>
   </si>
   <si>
     <t>specific_gravity_solids</t>
   </si>
   <si>
-    <t>//diggs_geo:StaticConePenetrationTest</t>
-  </si>
-  <si>
     <t>conductivity</t>
   </si>
   <si>
@@ -1214,42 +1139,24 @@
     <t>soil_suction</t>
   </si>
   <si>
-    <t>//diggs_geo:TriaxialTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:UnconfinedCompressiveStrengthTest</t>
-  </si>
-  <si>
     <t>modulus_youngs</t>
   </si>
   <si>
     <t>poisson_ratio</t>
   </si>
   <si>
-    <t>//diggs_geo:WaterContentTest</t>
-  </si>
-  <si>
     <t>degree_of_saturation</t>
   </si>
   <si>
     <t>bleed</t>
   </si>
   <si>
-    <t>//diggs:BleedTest</t>
-  </si>
-  <si>
     <t>flow_cone_time</t>
   </si>
   <si>
-    <t>//diggs:FlowConeTest</t>
-  </si>
-  <si>
     <t>line_loss_coeff_A</t>
   </si>
   <si>
-    <t>//diggs:LineLossTest</t>
-  </si>
-  <si>
     <t>line_loss_coeff_B</t>
   </si>
   <si>
@@ -1262,72 +1169,39 @@
     <t>lugeon_value</t>
   </si>
   <si>
-    <t>//diggs:LugeonTest</t>
-  </si>
-  <si>
     <t>marsh_funnel_time</t>
   </si>
   <si>
-    <t>//diggs:MarshFunnelTest</t>
-  </si>
-  <si>
     <t>mud_balance_density</t>
   </si>
   <si>
-    <t>//diggs:MudBalanceTest</t>
-  </si>
-  <si>
     <t>filtrate_volume</t>
   </si>
   <si>
-    <t>//diggs:PressureFiltrationTest</t>
-  </si>
-  <si>
     <t>pressure_filtration_value</t>
   </si>
   <si>
     <t>set_time</t>
   </si>
   <si>
-    <t>//diggs:SetTimeTest</t>
-  </si>
-  <si>
     <t>shrinkage</t>
   </si>
   <si>
-    <t>//diggs:ShrinkageTest</t>
-  </si>
-  <si>
     <t>slump</t>
   </si>
   <si>
-    <t>//diggs:SlumpTest</t>
-  </si>
-  <si>
     <t>syneresis</t>
   </si>
   <si>
-    <t>//diggs:SyneresisTest</t>
-  </si>
-  <si>
     <t>syneresis_surface_area_normalized</t>
   </si>
   <si>
-    <t>//diggs:TiltCupTest</t>
-  </si>
-  <si>
     <t>gel_time</t>
   </si>
   <si>
-    <t>//diggs:ViscometerTest</t>
-  </si>
-  <si>
     <t>washout_result</t>
   </si>
   <si>
-    <t>//diggs:WashoutTest</t>
-  </si>
-  <si>
     <t>A-Pressure</t>
   </si>
   <si>
@@ -2208,12 +2082,6 @@
   </si>
   <si>
     <t xml:space="preserve">This is a result of a compaction test. It is defined as the moisture content at the maximum dry unit weight as measured when a specific type and amount of energy is used for the compaction test. This is also the value of the compaction moisture content when the soils achieves the maximum dry unit weight. </t>
-  </si>
-  <si>
-    <t>//diggs:Property/diggs:propertyClass</t>
-  </si>
-  <si>
-    <t>//diggs:Sensor</t>
   </si>
   <si>
     <t>water_depth</t>
@@ -2262,102 +2130,6 @@
     <t>The velocity of a p-wave (Vp). P-waves (primary waves) are compressional waves that are longitudinal in nature.</t>
   </si>
   <si>
-    <t>//diggs:AggregateAbrasionValueTest</t>
-  </si>
-  <si>
-    <t>//diggs:AggregateCrushingValueTest</t>
-  </si>
-  <si>
-    <t>//diggs:AggregateElongationIndexTest</t>
-  </si>
-  <si>
-    <t>//diggs:AggregateFlakinessIndexTest</t>
-  </si>
-  <si>
-    <t>//diggs:AggregateImpactValueTest</t>
-  </si>
-  <si>
-    <t>//diggs:AggregatePolishedStoneValueTest</t>
-  </si>
-  <si>
-    <t>//diggs:AggregateSlakeDurabilityTest</t>
-  </si>
-  <si>
-    <t>//diggs:AggregateSoundnessTest</t>
-  </si>
-  <si>
-    <t>//diggs:AggregateTenPercentFinesTest</t>
-  </si>
-  <si>
-    <t>//diggs:AggregateWaterAbsorptionTest</t>
-  </si>
-  <si>
-    <t>//diggs:CationExhangeTest</t>
-  </si>
-  <si>
-    <t>//diggs:ChalkCrushingValueTest</t>
-  </si>
-  <si>
-    <t>//diggs:FrostSusceptibilityTest</t>
-  </si>
-  <si>
-    <t>//diggs:InsituDensityTest</t>
-  </si>
-  <si>
-    <t>//diggs:InsituPermeabilityTest</t>
-  </si>
-  <si>
-    <t>//diggs:InSituResistivityTest</t>
-  </si>
-  <si>
-    <t>//diggs:InSituPenetrometerTest</t>
-  </si>
-  <si>
-    <t>//diggs:LabVelocityTest</t>
-  </si>
-  <si>
-    <t>//diggs:LinearShrinkageTest</t>
-  </si>
-  <si>
-    <t>//diggs:LosAngelesAbrasionTest</t>
-  </si>
-  <si>
-    <t>//diggs:MCVTest</t>
-  </si>
-  <si>
-    <t>//diggs:MicroDevalTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:MaterialGradationTest</t>
-  </si>
-  <si>
-    <t>//diggs:PressuremeterTest</t>
-  </si>
-  <si>
-    <t>//diggs:PumpingTest</t>
-  </si>
-  <si>
-    <t>//diggs:RelativeDensityTest</t>
-  </si>
-  <si>
-    <t>//diggs:RockPorosityDensityTest</t>
-  </si>
-  <si>
-    <t>//diggs:SchmidtReboundHardnessTest</t>
-  </si>
-  <si>
-    <t>//diggs:ShoreScleroscopeHardnessTest</t>
-  </si>
-  <si>
-    <t>//diggs:LabPenetrometerTest</t>
-  </si>
-  <si>
-    <t>//diggs:SuctionTest</t>
-  </si>
-  <si>
-    <t>//diggs:TriaxialTest</t>
-  </si>
-  <si>
     <t>The contraction of a gel accompanied by the separating out of liquid. It is calculated as a percent of volume or mass loss.</t>
   </si>
   <si>
@@ -2376,9 +2148,6 @@
     <t>Estimate of water elevation from insitu measurement (eg CPT, DMT). Note: it is preferable to use water_elevation as the propertyClass with the measurementTechnique property qualifer (eg. "extrapolated". "inferred"), instead.</t>
   </si>
   <si>
-    <t>//diggs_geo:FlameIonizationDetectorTest</t>
-  </si>
-  <si>
     <t>Aggregate Soundness Value</t>
   </si>
   <si>
@@ -2404,6 +2173,237 @@
   </si>
   <si>
     <t>The number of blows of a hammer that drives a tool into the earth for a particular distance. The distance should correspond to the difference between the associated top and bottom positions recorded in the location property of the test, or be specified in the pen_increment property associated with a point location.</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:FlatPlateDilatometerTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregateAbrasionValueTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregateCrushingValueTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregateElongationIndexTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregateFlakinessIndexTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregateImpactValueTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:LosAngelesAbrasionTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregatePolishedStoneValueTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregateSoundnessTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregateWaterAbsorptionTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:BleedTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:InsituCBRTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:LabCBRTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:LabDensityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:InsituDensityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:ChalkCrushingValueTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:LabChemicalTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:ParticleSizeTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:PorePressureDissipationTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:ConsolidationTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:MaterialGradationTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:PressuremeterTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:LabPermeabilityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:StaticConePenetrationTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:InsituPermeabilityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:PumpingTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:DirectShearTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:PocketPenetrometerTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:UnconfinedCompressiveStrengthTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:LabPenetrometerTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:AtterbergLimitsTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:WaterContentTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:LabCompactionTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:PressureFiltrationTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:EnvironmentalScreeningTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:FlameIonizationDetectorTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:FlowConeTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:TriaxialTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:TriaxialTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:FrostSusceptibilityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:TiltCupTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:ViscometerTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:PointLoadTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:LineLossTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:LossOnIgnitionTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:LugeonTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:MarshFunnelTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:MCVTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:MudBalanceTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:DrivenPenetrationTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:LabVelocityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:RedoxTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:PhotoIonizationDetectorTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:RelativeDensityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:LabResistivityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:RockPorosityDensityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:SchmidtReboundHardnessTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:InsituVaneTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:LabVaneTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:SetTimeTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:ShoreScleroscopeHardnessTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:LinearShrinkageTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:ShrinkageTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregateSlakeDurabilityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:SlumpTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:SuctionTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:SpecificGravityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:SyneresisTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:AggregateTenPercentFinesTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:WashoutTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs_geo:DynamicProbeTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:CationExhangeTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:InSituPenetrometerTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:InSituResistivityTest</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:MicroDevalTest</t>
+  </si>
+  <si>
+    <t>//diggs:propertyClass</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../diggs:sensor/</t>
   </si>
 </sst>
 </file>
@@ -2865,7 +2865,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D241" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D241" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D241">
-    <sortCondition ref="B1:B241"/>
+    <sortCondition ref="D1:D241"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
@@ -3204,13 +3204,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>734</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -3227,7 +3227,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A160" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3276,13 +3276,13 @@
         <v/>
       </c>
       <c r="B2" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -3300,10 +3300,10 @@
         <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -3321,10 +3321,10 @@
         <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
@@ -3342,10 +3342,10 @@
         <v>237</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
@@ -3363,10 +3363,10 @@
         <v>238</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
@@ -3384,10 +3384,10 @@
         <v>239</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>1</v>
@@ -3402,13 +3402,13 @@
         <v/>
       </c>
       <c r="B8" s="13" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
@@ -3423,13 +3423,13 @@
         <v/>
       </c>
       <c r="B9" s="13" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>180</v>
@@ -3444,13 +3444,13 @@
         <v/>
       </c>
       <c r="B10" s="13" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>180</v>
@@ -3470,10 +3470,10 @@
         <v>240</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>180</v>
@@ -3490,13 +3490,13 @@
         <v/>
       </c>
       <c r="B12" s="2" t="s">
-        <v>782</v>
+        <v>705</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>780</v>
+        <v>703</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>781</v>
+        <v>704</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
@@ -3514,10 +3514,10 @@
         <v>243</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>1</v>
@@ -3534,13 +3534,13 @@
         <v/>
       </c>
       <c r="B14" s="13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>1</v>
@@ -3557,13 +3557,13 @@
         <v/>
       </c>
       <c r="B15" s="13" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>1</v>
@@ -3580,13 +3580,13 @@
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>784</v>
+        <v>707</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>783</v>
+        <v>706</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>788</v>
+        <v>711</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>180</v>
@@ -3603,13 +3603,13 @@
         <v/>
       </c>
       <c r="B17" s="13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>1</v>
@@ -3626,13 +3626,13 @@
         <v/>
       </c>
       <c r="B18" s="13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>1</v>
@@ -3649,13 +3649,13 @@
         <v/>
       </c>
       <c r="B19" s="13" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>1</v>
@@ -3672,13 +3672,13 @@
         <v/>
       </c>
       <c r="B20" s="13" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>1</v>
@@ -3695,13 +3695,13 @@
         <v/>
       </c>
       <c r="B21" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>1</v>
@@ -3718,13 +3718,13 @@
         <v/>
       </c>
       <c r="B22" s="13" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>1</v>
@@ -3741,13 +3741,13 @@
         <v/>
       </c>
       <c r="B23" s="13" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>1</v>
@@ -3764,13 +3764,13 @@
         <v/>
       </c>
       <c r="B24" s="13" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
@@ -3787,13 +3787,13 @@
         <v/>
       </c>
       <c r="B25" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>1</v>
@@ -3810,13 +3810,13 @@
         <v/>
       </c>
       <c r="B26" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>1</v>
@@ -3833,13 +3833,13 @@
         <v/>
       </c>
       <c r="B27" s="13" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>648</v>
+        <v>606</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>1</v>
@@ -3856,13 +3856,13 @@
         <v/>
       </c>
       <c r="B28" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>649</v>
+        <v>607</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>1</v>
@@ -3879,13 +3879,13 @@
         <v/>
       </c>
       <c r="B29" s="13" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>650</v>
+        <v>608</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>1</v>
@@ -3902,13 +3902,13 @@
         <v/>
       </c>
       <c r="B30" s="13" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>651</v>
+        <v>609</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>1</v>
@@ -3925,13 +3925,13 @@
         <v/>
       </c>
       <c r="B31" s="13" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>652</v>
+        <v>610</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>1</v>
@@ -3948,13 +3948,13 @@
         <v/>
       </c>
       <c r="B32" s="13" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>1</v>
@@ -3971,13 +3971,13 @@
         <v/>
       </c>
       <c r="B33" s="13" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>1</v>
@@ -3992,13 +3992,13 @@
         <v/>
       </c>
       <c r="B34" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>1</v>
@@ -4013,13 +4013,13 @@
         <v/>
       </c>
       <c r="B35" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>1</v>
@@ -4034,13 +4034,13 @@
         <v/>
       </c>
       <c r="B36" s="13" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>657</v>
+        <v>615</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>1</v>
@@ -4055,13 +4055,13 @@
         <v/>
       </c>
       <c r="B37" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>658</v>
+        <v>616</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>1</v>
@@ -4076,13 +4076,13 @@
         <v/>
       </c>
       <c r="B38" s="13" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>1</v>
@@ -4097,13 +4097,13 @@
         <v/>
       </c>
       <c r="B39" s="13" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>1</v>
@@ -4121,10 +4121,10 @@
         <v>244</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>180</v>
@@ -4139,13 +4139,13 @@
         <v/>
       </c>
       <c r="B41" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>1</v>
@@ -4160,13 +4160,13 @@
         <v/>
       </c>
       <c r="B42" s="13" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>1</v>
@@ -4181,13 +4181,13 @@
         <v/>
       </c>
       <c r="B43" s="13" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>1</v>
@@ -4202,13 +4202,13 @@
         <v/>
       </c>
       <c r="B44" s="13" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>1</v>
@@ -4223,13 +4223,13 @@
         <v/>
       </c>
       <c r="B45" s="13" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>1</v>
@@ -4244,13 +4244,13 @@
         <v/>
       </c>
       <c r="B46" s="13" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>1</v>
@@ -4265,13 +4265,13 @@
         <v/>
       </c>
       <c r="B47" s="13" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>1</v>
@@ -4286,13 +4286,13 @@
         <v/>
       </c>
       <c r="B48" s="13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>1</v>
@@ -4307,13 +4307,13 @@
         <v/>
       </c>
       <c r="B49" s="13" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>1</v>
@@ -4328,13 +4328,13 @@
         <v/>
       </c>
       <c r="B50" s="13" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>1</v>
@@ -4349,13 +4349,13 @@
         <v/>
       </c>
       <c r="B51" s="13" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>1</v>
@@ -4370,13 +4370,13 @@
         <v/>
       </c>
       <c r="B52" s="13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>1</v>
@@ -4391,13 +4391,13 @@
         <v/>
       </c>
       <c r="B53" s="13" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>1</v>
@@ -4412,13 +4412,13 @@
         <v/>
       </c>
       <c r="B54" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>1</v>
@@ -4433,13 +4433,13 @@
         <v/>
       </c>
       <c r="B55" s="13" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>1</v>
@@ -4454,13 +4454,13 @@
         <v/>
       </c>
       <c r="B56" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>1</v>
@@ -4475,13 +4475,13 @@
         <v/>
       </c>
       <c r="B57" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>678</v>
+        <v>636</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>1</v>
@@ -4496,13 +4496,13 @@
         <v/>
       </c>
       <c r="B58" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>1</v>
@@ -4517,13 +4517,13 @@
         <v/>
       </c>
       <c r="B59" s="13" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>680</v>
+        <v>638</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>1</v>
@@ -4538,13 +4538,13 @@
         <v/>
       </c>
       <c r="B60" s="13" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>1</v>
@@ -4559,13 +4559,13 @@
         <v/>
       </c>
       <c r="B61" s="13" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>682</v>
+        <v>640</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>1</v>
@@ -4580,13 +4580,13 @@
         <v/>
       </c>
       <c r="B62" s="13" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>1</v>
@@ -4601,13 +4601,13 @@
         <v/>
       </c>
       <c r="B63" s="13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>1</v>
@@ -4622,13 +4622,13 @@
         <v/>
       </c>
       <c r="B64" s="13" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>685</v>
+        <v>643</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>1</v>
@@ -4643,13 +4643,13 @@
         <v/>
       </c>
       <c r="B65" s="13" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>1</v>
@@ -4664,13 +4664,13 @@
         <v/>
       </c>
       <c r="B66" s="13" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>1</v>
@@ -4685,13 +4685,13 @@
         <v/>
       </c>
       <c r="B67" s="13" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>1</v>
@@ -4706,13 +4706,13 @@
         <v/>
       </c>
       <c r="B68" s="13" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>1</v>
@@ -4727,13 +4727,13 @@
         <v/>
       </c>
       <c r="B69" s="13" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>1</v>
@@ -4748,13 +4748,13 @@
         <v/>
       </c>
       <c r="B70" s="13" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>1</v>
@@ -4769,13 +4769,13 @@
         <v/>
       </c>
       <c r="B71" s="13" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>1</v>
@@ -4790,13 +4790,13 @@
         <v/>
       </c>
       <c r="B72" s="13" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>1</v>
@@ -4811,13 +4811,13 @@
         <v/>
       </c>
       <c r="B73" s="13" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>1</v>
@@ -4832,13 +4832,13 @@
         <v/>
       </c>
       <c r="B74" s="13" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>1</v>
@@ -4853,13 +4853,13 @@
         <v/>
       </c>
       <c r="B75" s="13" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>1</v>
@@ -4874,13 +4874,13 @@
         <v/>
       </c>
       <c r="B76" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>180</v>
@@ -4895,13 +4895,13 @@
         <v/>
       </c>
       <c r="B77" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>180</v>
@@ -4916,13 +4916,13 @@
         <v/>
       </c>
       <c r="B78" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>1</v>
@@ -4937,13 +4937,13 @@
         <v/>
       </c>
       <c r="B79" s="13" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>1</v>
@@ -4958,13 +4958,13 @@
         <v/>
       </c>
       <c r="B80" s="13" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>1</v>
@@ -4979,13 +4979,13 @@
         <v/>
       </c>
       <c r="B81" s="13" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>1</v>
@@ -5000,13 +5000,13 @@
         <v/>
       </c>
       <c r="B82" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>1</v>
@@ -5021,13 +5021,13 @@
         <v/>
       </c>
       <c r="B83" s="13" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>1</v>
@@ -5042,13 +5042,13 @@
         <v/>
       </c>
       <c r="B84" s="13" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>705</v>
+        <v>663</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>1</v>
@@ -5063,13 +5063,13 @@
         <v/>
       </c>
       <c r="B85" s="13" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>1</v>
@@ -5084,13 +5084,13 @@
         <v/>
       </c>
       <c r="B86" s="13" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>1</v>
@@ -5105,13 +5105,13 @@
         <v/>
       </c>
       <c r="B87" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>180</v>
@@ -5126,13 +5126,13 @@
         <v/>
       </c>
       <c r="B88" s="13" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>180</v>
@@ -5147,13 +5147,13 @@
         <v/>
       </c>
       <c r="B89" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>180</v>
@@ -5168,13 +5168,13 @@
         <v/>
       </c>
       <c r="B90" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>174</v>
@@ -5189,13 +5189,13 @@
         <v/>
       </c>
       <c r="B91" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>1</v>
@@ -5210,13 +5210,13 @@
         <v/>
       </c>
       <c r="B92" s="2" t="s">
-        <v>738</v>
+        <v>694</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>740</v>
+        <v>696</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>1</v>
@@ -5231,13 +5231,13 @@
         <v/>
       </c>
       <c r="B93" s="13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>1</v>
@@ -5252,13 +5252,13 @@
         <v/>
       </c>
       <c r="B94" s="13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>515</v>
+        <v>473</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>1</v>
@@ -5273,13 +5273,13 @@
         <v/>
       </c>
       <c r="B95" s="13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>1</v>
@@ -5294,13 +5294,13 @@
         <v/>
       </c>
       <c r="B96" s="19" t="s">
-        <v>785</v>
+        <v>708</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>786</v>
+        <v>709</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>787</v>
+        <v>710</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>1</v>
@@ -5316,13 +5316,13 @@
         <v/>
       </c>
       <c r="B97" s="13" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>1</v>
@@ -5337,13 +5337,13 @@
         <v/>
       </c>
       <c r="B98" s="13" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>1</v>
@@ -5358,13 +5358,13 @@
         <v/>
       </c>
       <c r="B99" s="13" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>713</v>
+        <v>671</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>1</v>
@@ -5379,13 +5379,13 @@
         <v/>
       </c>
       <c r="B100" s="13" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>1</v>
@@ -5400,13 +5400,13 @@
         <v/>
       </c>
       <c r="B101" s="13" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>1</v>
@@ -5421,13 +5421,13 @@
         <v/>
       </c>
       <c r="B102" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>180</v>
@@ -5442,13 +5442,13 @@
         <v/>
       </c>
       <c r="B103" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>180</v>
@@ -5463,13 +5463,13 @@
         <v/>
       </c>
       <c r="B104" s="13" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>1</v>
@@ -5484,13 +5484,13 @@
         <v/>
       </c>
       <c r="B105" s="13" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>530</v>
+        <v>488</v>
       </c>
       <c r="E105" s="17" t="s">
         <v>1</v>
@@ -5505,13 +5505,13 @@
         <v/>
       </c>
       <c r="B106" s="13" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>531</v>
+        <v>489</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>774</v>
+        <v>698</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>1</v>
@@ -5526,13 +5526,13 @@
         <v/>
       </c>
       <c r="B107" s="13" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>533</v>
+        <v>491</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>1</v>
@@ -5547,13 +5547,13 @@
         <v/>
       </c>
       <c r="B108" s="13" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>534</v>
+        <v>492</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>1</v>
@@ -5568,13 +5568,13 @@
         <v/>
       </c>
       <c r="B109" s="13" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>1</v>
@@ -5589,13 +5589,13 @@
         <v/>
       </c>
       <c r="B110" s="13" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>538</v>
+        <v>496</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>539</v>
+        <v>497</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>1</v>
@@ -5610,13 +5610,13 @@
         <v/>
       </c>
       <c r="B111" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>1</v>
@@ -5631,13 +5631,13 @@
         <v/>
       </c>
       <c r="B112" s="13" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>542</v>
+        <v>500</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>1</v>
@@ -5652,13 +5652,13 @@
         <v/>
       </c>
       <c r="B113" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>1</v>
@@ -5673,13 +5673,13 @@
         <v/>
       </c>
       <c r="B114" s="13" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>545</v>
+        <v>503</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>1</v>
@@ -5694,13 +5694,13 @@
         <v/>
       </c>
       <c r="B115" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>1</v>
@@ -5715,13 +5715,13 @@
         <v/>
       </c>
       <c r="B116" s="13" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>549</v>
+        <v>507</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>1</v>
@@ -5736,13 +5736,13 @@
         <v/>
       </c>
       <c r="B117" s="13" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>1</v>
@@ -5757,13 +5757,13 @@
         <v/>
       </c>
       <c r="B118" s="13" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>553</v>
+        <v>511</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>1</v>
@@ -5778,13 +5778,13 @@
         <v/>
       </c>
       <c r="B119" s="13" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>555</v>
+        <v>513</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>1</v>
@@ -5799,13 +5799,13 @@
         <v/>
       </c>
       <c r="B120" s="13" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>1</v>
@@ -5820,13 +5820,13 @@
         <v/>
       </c>
       <c r="B121" s="13" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>1</v>
@@ -5841,13 +5841,13 @@
         <v/>
       </c>
       <c r="B122" s="13" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>1</v>
@@ -5862,13 +5862,13 @@
         <v/>
       </c>
       <c r="B123" s="13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>562</v>
+        <v>520</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>1</v>
@@ -5883,13 +5883,13 @@
         <v/>
       </c>
       <c r="B124" s="2" t="s">
-        <v>735</v>
+        <v>691</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>736</v>
+        <v>692</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>1</v>
@@ -5904,13 +5904,13 @@
         <v/>
       </c>
       <c r="B125" s="13" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>563</v>
+        <v>521</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>564</v>
+        <v>522</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>1</v>
@@ -5925,13 +5925,13 @@
         <v/>
       </c>
       <c r="B126" s="13" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>565</v>
+        <v>523</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>566</v>
+        <v>524</v>
       </c>
       <c r="E126" s="17" t="s">
         <v>1</v>
@@ -5946,13 +5946,13 @@
         <v/>
       </c>
       <c r="B127" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>567</v>
+        <v>525</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="E127" s="17" t="s">
         <v>180</v>
@@ -5967,13 +5967,13 @@
         <v/>
       </c>
       <c r="B128" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>569</v>
+        <v>527</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>1</v>
@@ -5991,10 +5991,10 @@
         <v>241</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="E129" s="17" t="s">
         <v>1</v>
@@ -6009,13 +6009,13 @@
         <v/>
       </c>
       <c r="B130" s="13" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>573</v>
+        <v>531</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>574</v>
+        <v>532</v>
       </c>
       <c r="E130" s="17" t="s">
         <v>1</v>
@@ -6030,13 +6030,13 @@
         <v/>
       </c>
       <c r="B131" s="13" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>575</v>
+        <v>533</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="E131" s="17" t="s">
         <v>1</v>
@@ -6051,13 +6051,13 @@
         <v/>
       </c>
       <c r="B132" s="13" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>578</v>
+        <v>536</v>
       </c>
       <c r="E132" s="17" t="s">
         <v>1</v>
@@ -6072,13 +6072,13 @@
         <v/>
       </c>
       <c r="B133" s="13" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>579</v>
+        <v>537</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>580</v>
+        <v>538</v>
       </c>
       <c r="E133" s="17" t="s">
         <v>1</v>
@@ -6093,13 +6093,13 @@
         <v/>
       </c>
       <c r="B134" s="13" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>581</v>
+        <v>539</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>582</v>
+        <v>540</v>
       </c>
       <c r="E134" s="17" t="s">
         <v>4</v>
@@ -6112,13 +6112,13 @@
         <v/>
       </c>
       <c r="B135" s="13" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>583</v>
+        <v>541</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>584</v>
+        <v>542</v>
       </c>
       <c r="E135" s="17" t="s">
         <v>1</v>
@@ -6133,13 +6133,13 @@
         <v/>
       </c>
       <c r="B136" s="13" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>585</v>
+        <v>543</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
       <c r="E136" s="17" t="s">
         <v>1</v>
@@ -6154,13 +6154,13 @@
         <v/>
       </c>
       <c r="B137" s="13" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>721</v>
+        <v>679</v>
       </c>
       <c r="E137" s="17" t="s">
         <v>1</v>
@@ -6175,13 +6175,13 @@
         <v/>
       </c>
       <c r="B138" s="13" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>588</v>
+        <v>546</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>589</v>
+        <v>547</v>
       </c>
       <c r="E138" s="17" t="s">
         <v>1</v>
@@ -6196,13 +6196,13 @@
         <v/>
       </c>
       <c r="B139" s="13" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>773</v>
+        <v>697</v>
       </c>
       <c r="E139" s="17" t="s">
         <v>1</v>
@@ -6217,13 +6217,13 @@
         <v/>
       </c>
       <c r="B140" s="13" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>591</v>
+        <v>549</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>592</v>
+        <v>550</v>
       </c>
       <c r="E140" s="17" t="s">
         <v>1</v>
@@ -6238,13 +6238,13 @@
         <v/>
       </c>
       <c r="B141" s="13" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="E141" s="17" t="s">
         <v>1</v>
@@ -6259,13 +6259,13 @@
         <v/>
       </c>
       <c r="B142" s="13" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>595</v>
+        <v>553</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="E142" s="17" t="s">
         <v>1</v>
@@ -6283,10 +6283,10 @@
         <v>242</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>180</v>
@@ -6301,13 +6301,13 @@
         <v/>
       </c>
       <c r="B144" s="13" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>1</v>
@@ -6325,10 +6325,10 @@
         <v>25</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
       <c r="E145" s="17" t="s">
         <v>25</v>
@@ -6343,13 +6343,13 @@
         <v/>
       </c>
       <c r="B146" s="13" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>603</v>
+        <v>561</v>
       </c>
       <c r="E146" s="17" t="s">
         <v>1</v>
@@ -6364,13 +6364,13 @@
         <v/>
       </c>
       <c r="B147" s="13" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="E147" s="17" t="s">
         <v>1</v>
@@ -6385,13 +6385,13 @@
         <v/>
       </c>
       <c r="B148" s="13" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>1</v>
@@ -6406,13 +6406,13 @@
         <v/>
       </c>
       <c r="B149" s="13" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="E149" s="17" t="s">
         <v>1</v>
@@ -6427,13 +6427,13 @@
         <v/>
       </c>
       <c r="B150" s="13" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>4</v>
@@ -6446,13 +6446,13 @@
         <v/>
       </c>
       <c r="B151" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="E151" s="17" t="s">
         <v>4</v>
@@ -6465,13 +6465,13 @@
         <v/>
       </c>
       <c r="B152" s="13" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>614</v>
+        <v>572</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="E152" s="17" t="s">
         <v>1</v>
@@ -6486,13 +6486,13 @@
         <v/>
       </c>
       <c r="B153" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="E153" s="17" t="s">
         <v>180</v>
@@ -6507,13 +6507,13 @@
         <v/>
       </c>
       <c r="B154" s="13" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="E154" s="17" t="s">
         <v>4</v>
@@ -6526,13 +6526,13 @@
         <v/>
       </c>
       <c r="B155" s="13" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="E155" s="17" t="s">
         <v>1</v>
@@ -6547,13 +6547,13 @@
         <v/>
       </c>
       <c r="B156" s="13" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>732</v>
+        <v>688</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
       <c r="E156" s="17" t="s">
         <v>1</v>
@@ -6568,13 +6568,13 @@
         <v/>
       </c>
       <c r="B157" s="13" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>1</v>
@@ -6589,13 +6589,13 @@
         <v/>
       </c>
       <c r="B158" s="13" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>775</v>
+        <v>699</v>
       </c>
       <c r="E158" s="17" t="s">
         <v>1</v>
@@ -6610,13 +6610,13 @@
         <v/>
       </c>
       <c r="B159" s="13" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>777</v>
+        <v>701</v>
       </c>
       <c r="E159" s="17" t="s">
         <v>1</v>
@@ -6631,13 +6631,13 @@
         <v/>
       </c>
       <c r="B160" s="13" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>731</v>
+        <v>687</v>
       </c>
       <c r="E160" s="13" t="s">
         <v>1</v>
@@ -6652,13 +6652,13 @@
         <v/>
       </c>
       <c r="B161" s="13" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>623</v>
+        <v>581</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>776</v>
+        <v>700</v>
       </c>
       <c r="E161" s="17" t="s">
         <v>1</v>
@@ -6673,13 +6673,13 @@
         <v/>
       </c>
       <c r="B162" s="13" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>778</v>
+        <v>702</v>
       </c>
       <c r="E162" s="17" t="s">
         <v>1</v>
@@ -6721,8 +6721,8 @@
   <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C257" sqref="C257"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6753,13 +6753,13 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>279</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6768,13 +6768,13 @@
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D3" t="s">
-        <v>741</v>
+        <v>787</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6783,12 +6783,12 @@
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>742</v>
       </c>
     </row>
@@ -6798,13 +6798,13 @@
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D5" t="s">
-        <v>743</v>
+        <v>787</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6813,13 +6813,13 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D6" t="s">
-        <v>744</v>
+        <v>787</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6828,13 +6828,13 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D7" t="s">
-        <v>745</v>
+        <v>787</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6843,13 +6843,13 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D8" t="s">
-        <v>760</v>
+        <v>787</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6858,13 +6858,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D9" t="s">
-        <v>760</v>
+        <v>787</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6873,13 +6873,13 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D10" t="s">
-        <v>760</v>
+        <v>787</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6888,28 +6888,28 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D11" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>782</v>
+      <c r="B12" t="s">
+        <v>254</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6918,13 +6918,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D13" t="s">
-        <v>750</v>
+        <v>787</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6933,13 +6933,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>279</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6948,13 +6948,13 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>399</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6963,13 +6963,13 @@
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>302</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6978,13 +6978,13 @@
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>311</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6993,13 +6993,13 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>319</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -7008,13 +7008,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D19" t="s">
-        <v>754</v>
+        <v>787</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7023,13 +7023,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>279</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7038,13 +7038,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>302</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7053,13 +7053,13 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>311</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7068,13 +7068,13 @@
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>302</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -7083,13 +7083,13 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>311</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7098,13 +7098,13 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D25" t="s">
-        <v>752</v>
+        <v>787</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7113,13 +7113,13 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>313</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7128,13 +7128,13 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>335</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7143,28 +7143,28 @@
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>336</v>
+        <v>707</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D28" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B29" t="s">
-        <v>282</v>
+      <c r="B29" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>279</v>
+        <v>787</v>
+      </c>
+      <c r="D29" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7173,43 +7173,43 @@
         <v/>
       </c>
       <c r="B30" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D30" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B31" t="s">
-        <v>257</v>
+      <c r="B31" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D31" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>337</v>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B32" t="s">
+        <v>271</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D32" t="s">
-        <v>763</v>
+        <v>787</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7218,13 +7218,13 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>335</v>
+        <v>712</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -7233,13 +7233,13 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>279</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7248,13 +7248,13 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D35" t="s">
-        <v>764</v>
+        <v>787</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7263,13 +7263,13 @@
         <v/>
       </c>
       <c r="B36" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>323</v>
+        <v>712</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7278,13 +7278,13 @@
         <v/>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>373</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -7293,13 +7293,13 @@
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D38" t="s">
-        <v>755</v>
+        <v>787</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7308,13 +7308,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D39" t="s">
-        <v>765</v>
+        <v>787</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7323,13 +7323,13 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>323</v>
+        <v>712</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7338,13 +7338,13 @@
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>323</v>
+        <v>712</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7353,13 +7353,13 @@
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>355</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7368,13 +7368,13 @@
         <v/>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>373</v>
+        <v>712</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7383,13 +7383,13 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D44" t="s">
-        <v>755</v>
+        <v>787</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7398,13 +7398,13 @@
         <v/>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D45" t="s">
-        <v>765</v>
+        <v>787</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7413,13 +7413,13 @@
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>323</v>
+        <v>712</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7428,13 +7428,13 @@
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>373</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -7443,13 +7443,13 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D48" t="s">
-        <v>755</v>
+        <v>787</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -7458,28 +7458,28 @@
         <v/>
       </c>
       <c r="B49" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D49" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>338</v>
+      <c r="B50" t="s">
+        <v>285</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D50" t="s">
-        <v>763</v>
+        <v>787</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7488,13 +7488,13 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>335</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7503,13 +7503,13 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>265</v>
+        <v>712</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7518,13 +7518,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>265</v>
+        <v>712</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7533,13 +7533,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>335</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7548,13 +7548,13 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>258</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -7563,13 +7563,13 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>350</v>
+        <v>712</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -7578,13 +7578,13 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>393</v>
+        <v>712</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -7593,13 +7593,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D58" t="s">
-        <v>770</v>
+        <v>787</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7608,13 +7608,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>295</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>373</v>
+        <v>723</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7623,13 +7623,13 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>245</v>
+        <v>723</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7638,13 +7638,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>396</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7653,13 +7653,13 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>258</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -7668,28 +7668,28 @@
         <v/>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>340</v>
+      <c r="B64" t="s">
+        <v>288</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D64" t="s">
-        <v>763</v>
+        <v>787</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -7698,28 +7698,28 @@
         <v/>
       </c>
       <c r="B65" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>341</v>
+      <c r="B66" t="s">
+        <v>295</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="D66" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -7728,28 +7728,28 @@
         <v/>
       </c>
       <c r="B67" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>342</v>
+      <c r="B68" t="s">
+        <v>297</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="D68" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -7758,28 +7758,28 @@
         <v/>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>343</v>
+      <c r="B70" t="s">
+        <v>303</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D70" t="s">
-        <v>763</v>
+        <v>787</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7788,13 +7788,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>335</v>
+        <v>728</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7803,13 +7803,13 @@
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>396</v>
+        <v>744</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7818,13 +7818,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D73" t="s">
-        <v>764</v>
+        <v>787</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7833,13 +7833,13 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>279</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7848,13 +7848,13 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>279</v>
+        <v>725</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -7863,13 +7863,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>319</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7878,13 +7878,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>317</v>
+        <v>734</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7893,13 +7893,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>279</v>
+        <v>734</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7908,13 +7908,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>413</v>
+        <v>299</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>414</v>
+        <v>734</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -7923,13 +7923,13 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D80" t="s">
-        <v>276</v>
+        <v>787</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7938,13 +7938,13 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -7953,13 +7953,13 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>401</v>
+        <v>770</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7968,13 +7968,13 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>265</v>
+        <v>770</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7983,13 +7983,13 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D84" t="s">
-        <v>764</v>
+        <v>787</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -7998,148 +7998,148 @@
         <v/>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B86" t="s">
-        <v>268</v>
+        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D86" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B87" t="s">
-        <v>268</v>
+      <c r="B87" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D87" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B88" t="s">
-        <v>268</v>
+      <c r="B88" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D88" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B89" t="s">
-        <v>269</v>
+      <c r="B89" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D89" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B90" t="s">
-        <v>269</v>
+      <c r="B90" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D90" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B91" t="s">
-        <v>269</v>
+      <c r="B91" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D91" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B92" t="s">
-        <v>269</v>
+      <c r="B92" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D92" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B93" t="s">
-        <v>269</v>
+      <c r="B93" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D93" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B94" t="s">
-        <v>375</v>
+      <c r="B94" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>373</v>
+        <v>787</v>
+      </c>
+      <c r="D94" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,13 +8148,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D95" t="s">
-        <v>753</v>
+        <v>787</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8163,13 +8163,13 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>426</v>
+        <v>318</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D96" t="s">
-        <v>425</v>
+        <v>787</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8178,13 +8178,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>427</v>
+        <v>729</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8193,13 +8193,13 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>373</v>
+        <v>729</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8208,13 +8208,13 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>279</v>
+        <v>729</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8223,13 +8223,13 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>373</v>
+        <v>729</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8238,13 +8238,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8253,13 +8253,13 @@
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>373</v>
+        <v>729</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8268,13 +8268,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8283,13 +8283,13 @@
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>373</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8298,13 +8298,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8313,13 +8313,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D106" t="s">
-        <v>764</v>
+        <v>787</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8328,13 +8328,13 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>352</v>
+        <v>729</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8343,13 +8343,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>352</v>
+        <v>787</v>
+      </c>
+      <c r="D108" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8358,13 +8358,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>373</v>
+        <v>739</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8373,13 +8373,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D110" t="s">
-        <v>764</v>
+        <v>787</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8388,13 +8388,13 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>402</v>
+        <v>287</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>403</v>
+        <v>739</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8403,13 +8403,13 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>404</v>
+        <v>288</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>403</v>
+        <v>739</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8418,13 +8418,13 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>403</v>
+        <v>754</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8433,13 +8433,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>403</v>
+        <v>754</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8448,13 +8448,13 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>245</v>
+        <v>754</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -8463,13 +8463,13 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>245</v>
+        <v>730</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -8478,13 +8478,13 @@
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>245</v>
+        <v>730</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -8493,13 +8493,13 @@
         <v/>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>396</v>
+        <v>730</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8508,13 +8508,13 @@
         <v/>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>332</v>
+        <v>730</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8523,13 +8523,13 @@
         <v/>
       </c>
       <c r="B120" t="s">
-        <v>407</v>
+        <v>335</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>408</v>
+        <v>730</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -8538,13 +8538,13 @@
         <v/>
       </c>
       <c r="B121" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>410</v>
+        <v>730</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8553,13 +8553,13 @@
         <v/>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>279</v>
+        <v>730</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8568,13 +8568,13 @@
         <v/>
       </c>
       <c r="B123" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D123" t="s">
-        <v>761</v>
+        <v>787</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8583,13 +8583,13 @@
         <v/>
       </c>
       <c r="B124" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>393</v>
+        <v>763</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8598,13 +8598,13 @@
         <v/>
       </c>
       <c r="B125" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D125" t="s">
-        <v>764</v>
+        <v>787</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -8613,13 +8613,13 @@
         <v/>
       </c>
       <c r="B126" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>393</v>
+        <v>778</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -8628,13 +8628,13 @@
         <v/>
       </c>
       <c r="B127" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>412</v>
+        <v>778</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8643,13 +8643,13 @@
         <v/>
       </c>
       <c r="B128" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>271</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8658,13 +8658,13 @@
         <v/>
       </c>
       <c r="B129" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>271</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -8673,13 +8673,13 @@
         <v/>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>271</v>
+        <v>735</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8688,13 +8688,13 @@
         <v/>
       </c>
       <c r="B131" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>245</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8703,13 +8703,13 @@
         <v/>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>258</v>
+        <v>735</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8718,28 +8718,28 @@
         <v/>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>738</v>
+      <c r="B134" t="s">
+        <v>352</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D134" t="s">
-        <v>758</v>
+        <v>787</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8748,13 +8748,13 @@
         <v/>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>279</v>
+        <v>735</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8763,13 +8763,13 @@
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>279</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -8778,28 +8778,28 @@
         <v/>
       </c>
       <c r="B137" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f>IF(ISNA(VLOOKUP(B138,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>344</v>
+      <c r="B138" t="s">
+        <v>356</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D138" t="s">
-        <v>763</v>
+        <v>787</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8808,28 +8808,28 @@
         <v/>
       </c>
       <c r="B139" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f>IF(ISNA(VLOOKUP(B140,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>345</v>
+      <c r="B140" t="s">
+        <v>358</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D140" t="s">
-        <v>763</v>
+        <v>787</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -8838,28 +8838,28 @@
         <v/>
       </c>
       <c r="B141" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f>IF(ISNA(VLOOKUP(B142,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>346</v>
+      <c r="B142" t="s">
+        <v>360</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D142" t="s">
-        <v>763</v>
+        <v>787</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -8868,13 +8868,13 @@
         <v/>
       </c>
       <c r="B143" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>335</v>
+        <v>735</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8883,13 +8883,13 @@
         <v/>
       </c>
       <c r="B144" t="s">
-        <v>314</v>
+        <v>25</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>313</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8898,28 +8898,28 @@
         <v/>
       </c>
       <c r="B145" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f>IF(ISNA(VLOOKUP(B146,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>348</v>
+      <c r="B146" t="s">
+        <v>363</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D146" t="s">
-        <v>276</v>
+        <v>787</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8928,13 +8928,13 @@
         <v/>
       </c>
       <c r="B147" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D147" t="s">
-        <v>349</v>
+        <v>787</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -8943,13 +8943,13 @@
         <v/>
       </c>
       <c r="B148" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>245</v>
+        <v>735</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8958,13 +8958,13 @@
         <v/>
       </c>
       <c r="B149" t="s">
-        <v>251</v>
+        <v>365</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>245</v>
+        <v>735</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8973,13 +8973,13 @@
         <v/>
       </c>
       <c r="B150" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>352</v>
+        <v>749</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8988,13 +8988,13 @@
         <v/>
       </c>
       <c r="B151" t="s">
-        <v>395</v>
+        <v>266</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>393</v>
+        <v>749</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -9003,13 +9003,13 @@
         <v/>
       </c>
       <c r="B152" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>279</v>
+        <v>749</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -9018,13 +9018,13 @@
         <v/>
       </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>355</v>
+        <v>749</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -9033,13 +9033,13 @@
         <v/>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>279</v>
+        <v>749</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -9048,13 +9048,13 @@
         <v/>
       </c>
       <c r="B155" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>373</v>
+        <v>740</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -9063,13 +9063,13 @@
         <v/>
       </c>
       <c r="B156" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>373</v>
+        <v>740</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -9078,13 +9078,13 @@
         <v/>
       </c>
       <c r="B157" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>373</v>
+        <v>740</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -9093,13 +9093,13 @@
         <v/>
       </c>
       <c r="B158" t="s">
-        <v>262</v>
+        <v>368</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>258</v>
+        <v>740</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9108,13 +9108,13 @@
         <v/>
       </c>
       <c r="B159" t="s">
-        <v>415</v>
+        <v>301</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>414</v>
+        <v>740</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9123,13 +9123,13 @@
         <v/>
       </c>
       <c r="B160" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>258</v>
+        <v>743</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -9138,13 +9138,13 @@
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>364</v>
+        <v>743</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -9153,13 +9153,13 @@
         <v/>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>271</v>
+        <v>743</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -9168,13 +9168,13 @@
         <v/>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D163" t="s">
-        <v>766</v>
+        <v>787</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -9183,13 +9183,13 @@
         <v/>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>326</v>
+        <v>787</v>
+      </c>
+      <c r="D164" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -9198,13 +9198,13 @@
         <v/>
       </c>
       <c r="B165" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D165" t="s">
-        <v>767</v>
+        <v>714</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -9213,13 +9213,13 @@
         <v/>
       </c>
       <c r="B166" t="s">
-        <v>367</v>
+        <v>237</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D166" t="s">
-        <v>768</v>
+        <v>715</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -9228,13 +9228,13 @@
         <v/>
       </c>
       <c r="B167" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>310</v>
+        <v>787</v>
+      </c>
+      <c r="D167" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -9243,13 +9243,13 @@
         <v/>
       </c>
       <c r="B168" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>327</v>
+        <v>787</v>
+      </c>
+      <c r="D168" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -9258,13 +9258,13 @@
         <v/>
       </c>
       <c r="B169" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>393</v>
+        <v>787</v>
+      </c>
+      <c r="D169" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -9273,28 +9273,28 @@
         <v/>
       </c>
       <c r="B170" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D170" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f>IF(ISNA(VLOOKUP(B171,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B171" t="s">
-        <v>322</v>
+      <c r="B171" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>350</v>
+        <v>720</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -9303,13 +9303,13 @@
         <v/>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>392</v>
+        <v>787</v>
+      </c>
+      <c r="D172" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -9318,13 +9318,13 @@
         <v/>
       </c>
       <c r="B173" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D173" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -9333,28 +9333,26 @@
         <v/>
       </c>
       <c r="B174" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D174" t="s">
-        <v>764</v>
+        <v>787</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <f>IF(ISNA(VLOOKUP(B175,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B175" t="s">
-        <v>322</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B175" s="2"/>
       <c r="C175" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>772</v>
+        <v>787</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -9363,13 +9361,13 @@
         <v/>
       </c>
       <c r="B176" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>279</v>
+        <v>787</v>
+      </c>
+      <c r="D176" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9378,13 +9376,13 @@
         <v/>
       </c>
       <c r="B177" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>310</v>
+        <v>748</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -9393,13 +9391,13 @@
         <v/>
       </c>
       <c r="B178" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>327</v>
+        <v>787</v>
+      </c>
+      <c r="D178" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -9411,25 +9409,23 @@
         <v>294</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>350</v>
+        <v>787</v>
+      </c>
+      <c r="D179" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
         <f>IF(ISNA(VLOOKUP(B180,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B180" t="s">
-        <v>294</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B180" s="2"/>
       <c r="C180" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>392</v>
+        <v>787</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -9438,13 +9434,13 @@
         <v/>
       </c>
       <c r="B181" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D181" t="s">
-        <v>770</v>
+        <v>736</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -9453,13 +9449,13 @@
         <v/>
       </c>
       <c r="B182" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D182" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -9468,28 +9464,26 @@
         <v/>
       </c>
       <c r="B183" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>772</v>
+        <v>787</v>
+      </c>
+      <c r="D183" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
         <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B184" t="s">
-        <v>295</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B184" s="2"/>
       <c r="C184" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>279</v>
+        <v>787</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -9498,13 +9492,13 @@
         <v/>
       </c>
       <c r="B185" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>310</v>
+        <v>787</v>
+      </c>
+      <c r="D185" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -9513,13 +9507,13 @@
         <v/>
       </c>
       <c r="B186" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>327</v>
+        <v>787</v>
+      </c>
+      <c r="D186" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -9528,13 +9522,13 @@
         <v/>
       </c>
       <c r="B187" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>350</v>
+        <v>787</v>
+      </c>
+      <c r="D187" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -9543,73 +9537,73 @@
         <v/>
       </c>
       <c r="B188" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D188" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B189" t="s">
-        <v>295</v>
+      <c r="B189" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D189" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B190" t="s">
-        <v>295</v>
+      <c r="B190" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D190" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B191" t="s">
-        <v>295</v>
+      <c r="B191" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D191" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
         <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>735</v>
+      <c r="B192" t="s">
+        <v>372</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D192" t="s">
-        <v>758</v>
+        <v>787</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -9618,28 +9612,28 @@
         <v/>
       </c>
       <c r="B193" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D193" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
         <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>418</v>
+      <c r="B194" t="s">
+        <v>374</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D194" t="s">
-        <v>759</v>
+        <v>787</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -9648,13 +9642,13 @@
         <v/>
       </c>
       <c r="B195" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>419</v>
+        <v>755</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -9663,13 +9657,13 @@
         <v/>
       </c>
       <c r="B196" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>245</v>
+        <v>787</v>
+      </c>
+      <c r="D196" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -9678,13 +9672,13 @@
         <v/>
       </c>
       <c r="B197" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>245</v>
+        <v>787</v>
+      </c>
+      <c r="D197" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -9693,13 +9687,13 @@
         <v/>
       </c>
       <c r="B198" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D198" t="s">
-        <v>747</v>
+        <v>718</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -9708,13 +9702,13 @@
         <v/>
       </c>
       <c r="B199" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>373</v>
+        <v>757</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -9723,13 +9717,13 @@
         <v/>
       </c>
       <c r="B200" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>421</v>
+        <v>758</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -9738,28 +9732,26 @@
         <v/>
       </c>
       <c r="B201" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>373</v>
+        <v>787</v>
+      </c>
+      <c r="D201" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
         <f>IF(ISNA(VLOOKUP(B202,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B202" t="s">
-        <v>391</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B202" s="2"/>
       <c r="C202" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D202" t="s">
-        <v>771</v>
+        <v>787</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -9768,13 +9760,13 @@
         <v/>
       </c>
       <c r="B203" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>279</v>
+        <v>760</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -9783,13 +9775,13 @@
         <v/>
       </c>
       <c r="B204" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>370</v>
+        <v>745</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -9798,13 +9790,13 @@
         <v/>
       </c>
       <c r="B205" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>370</v>
+        <v>745</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -9813,13 +9805,13 @@
         <v/>
       </c>
       <c r="B206" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>370</v>
+        <v>787</v>
+      </c>
+      <c r="D206" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -9828,13 +9820,13 @@
         <v/>
       </c>
       <c r="B207" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>313</v>
+        <v>787</v>
+      </c>
+      <c r="D207" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -9843,13 +9835,13 @@
         <v/>
       </c>
       <c r="B208" t="s">
-        <v>422</v>
+        <v>264</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>423</v>
+        <v>787</v>
+      </c>
+      <c r="D208" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -9858,13 +9850,13 @@
         <v/>
       </c>
       <c r="B209" t="s">
-        <v>424</v>
+        <v>266</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>423</v>
+        <v>787</v>
+      </c>
+      <c r="D209" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -9873,13 +9865,13 @@
         <v/>
       </c>
       <c r="B210" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>355</v>
+        <v>787</v>
+      </c>
+      <c r="D210" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -9888,13 +9880,13 @@
         <v/>
       </c>
       <c r="B211" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>373</v>
+        <v>787</v>
+      </c>
+      <c r="D211" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -9903,13 +9895,13 @@
         <v/>
       </c>
       <c r="B212" t="s">
-        <v>242</v>
+        <v>341</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D212" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -9918,13 +9910,13 @@
         <v/>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>279</v>
+        <v>787</v>
+      </c>
+      <c r="D213" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -9933,13 +9925,13 @@
         <v/>
       </c>
       <c r="B214" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>373</v>
+        <v>787</v>
+      </c>
+      <c r="D214" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -9948,13 +9940,13 @@
         <v/>
       </c>
       <c r="B215" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>373</v>
+        <v>787</v>
+      </c>
+      <c r="D215" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -9963,13 +9955,13 @@
         <v/>
       </c>
       <c r="B216" t="s">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>373</v>
+        <v>787</v>
+      </c>
+      <c r="D216" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -9978,13 +9970,13 @@
         <v/>
       </c>
       <c r="B217" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>355</v>
+        <v>787</v>
+      </c>
+      <c r="D217" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -9993,13 +9985,13 @@
         <v/>
       </c>
       <c r="B218" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>279</v>
+        <v>787</v>
+      </c>
+      <c r="D218" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -10008,13 +10000,13 @@
         <v/>
       </c>
       <c r="B219" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>319</v>
+        <v>787</v>
+      </c>
+      <c r="D219" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -10023,13 +10015,13 @@
         <v/>
       </c>
       <c r="B220" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>335</v>
+        <v>787</v>
+      </c>
+      <c r="D220" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -10038,13 +10030,13 @@
         <v/>
       </c>
       <c r="B221" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>245</v>
+        <v>787</v>
+      </c>
+      <c r="D221" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -10053,13 +10045,13 @@
         <v/>
       </c>
       <c r="B222" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>279</v>
+        <v>788</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -10068,13 +10060,13 @@
         <v/>
       </c>
       <c r="B223" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>245</v>
+        <v>788</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -10083,43 +10075,43 @@
         <v/>
       </c>
       <c r="B224" t="s">
-        <v>428</v>
+        <v>354</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B225" t="s">
-        <v>305</v>
+      <c r="B225" s="2" t="s">
+        <v>682</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="str">
         <f>IF(ISNA(VLOOKUP(B226,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B226" t="s">
-        <v>305</v>
+      <c r="B226" s="2" t="s">
+        <v>684</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>311</v>
+        <v>788</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -10128,13 +10120,13 @@
         <v/>
       </c>
       <c r="B227" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>373</v>
+        <v>787</v>
+      </c>
+      <c r="D227" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -10143,13 +10135,13 @@
         <v/>
       </c>
       <c r="B228" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>396</v>
+        <v>787</v>
+      </c>
+      <c r="D228" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -10158,28 +10150,28 @@
         <v/>
       </c>
       <c r="B229" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="str">
         <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>726</v>
+      <c r="B230" t="s">
+        <v>383</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>725</v>
+        <v>776</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -10188,13 +10180,13 @@
         <v/>
       </c>
       <c r="B231" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>355</v>
+        <v>787</v>
+      </c>
+      <c r="D231" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -10203,28 +10195,28 @@
         <v/>
       </c>
       <c r="B232" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="str">
         <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>728</v>
+      <c r="B233" t="s">
+        <v>385</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>725</v>
+        <v>779</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -10233,13 +10225,13 @@
         <v/>
       </c>
       <c r="B234" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>355</v>
+        <v>787</v>
+      </c>
+      <c r="D234" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -10248,13 +10240,13 @@
         <v/>
       </c>
       <c r="B235" t="s">
-        <v>390</v>
+        <v>265</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>373</v>
+        <v>750</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -10263,80 +10255,88 @@
         <v/>
       </c>
       <c r="B236" t="s">
-        <v>784</v>
+        <v>266</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D236" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="str">
         <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>785</v>
+      <c r="B237" t="s">
+        <v>309</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D237" t="s">
-        <v>275</v>
+        <v>787</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
         <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B238" s="2"/>
+        <v/>
+      </c>
+      <c r="B238" t="s">
+        <v>287</v>
+      </c>
       <c r="C238" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D238" s="11" t="s">
-        <v>751</v>
+        <v>787</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B239" s="2"/>
+        <v/>
+      </c>
+      <c r="B239" t="s">
+        <v>288</v>
+      </c>
       <c r="C239" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D239" s="11" t="s">
-        <v>757</v>
+        <v>787</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
         <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B240" s="2"/>
+        <v/>
+      </c>
+      <c r="B240" t="s">
+        <v>386</v>
+      </c>
       <c r="C240" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D240" s="11" t="s">
-        <v>756</v>
+        <v>787</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="str">
         <f>IF(ISNA(VLOOKUP(B241,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B241" s="2"/>
+        <v/>
+      </c>
+      <c r="B241" t="s">
+        <v>387</v>
+      </c>
       <c r="C241" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>762</v>
+        <v>787</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03752B87-19E5-C742-A156-16ABEA8CA782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1254C34-26AA-0E40-B381-B0CD55BE345A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8020" yWindow="3360" windowWidth="38400" windowHeight="19900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="795">
   <si>
     <t>Description</t>
   </si>
@@ -2404,6 +2404,24 @@
   </si>
   <si>
     <t>../../../../../../../../../diggs:sensor/</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>Delay Time</t>
+  </si>
+  <si>
+    <t>Duration of delay before the start of a penetration increment</t>
+  </si>
+  <si>
+    <t>torque</t>
+  </si>
+  <si>
+    <t>Torque</t>
+  </si>
+  <si>
+    <t>Torque: The rotational force applied by the drill rig.</t>
   </si>
 </sst>
 </file>
@@ -2589,7 +2607,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2638,6 +2656,25 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2840,14 +2877,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H162" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H162" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H162">
-    <sortCondition ref="B1:B162"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H164" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H164" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H164">
+    <sortCondition ref="B1:B164"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
@@ -2862,14 +2899,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D241" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D241" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D241">
-    <sortCondition ref="D1:D241"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D243" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D243" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D243">
+    <sortCondition ref="D1:D243"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
@@ -3225,10 +3262,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164:F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3272,7 +3309,7 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="12" t="s">
@@ -3293,7 +3330,7 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
@@ -3314,7 +3351,7 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
@@ -3335,7 +3372,7 @@
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
@@ -3356,7 +3393,7 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -3377,7 +3414,7 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="13" t="s">
@@ -3398,7 +3435,7 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="13" t="s">
@@ -3419,7 +3456,7 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
@@ -3440,7 +3477,7 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
@@ -3463,7 +3500,7 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
@@ -3486,7 +3523,7 @@
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3199,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3201,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="2" t="s">
@@ -3507,7 +3544,7 @@
     </row>
     <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
@@ -3530,7 +3567,7 @@
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="13" t="s">
@@ -3553,7 +3590,7 @@
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
@@ -3576,7 +3613,7 @@
     </row>
     <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
@@ -3599,7 +3636,7 @@
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
@@ -3622,7 +3659,7 @@
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
@@ -3645,7 +3682,7 @@
     </row>
     <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
@@ -3668,7 +3705,7 @@
     </row>
     <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
@@ -3691,7 +3728,7 @@
     </row>
     <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
@@ -3714,7 +3751,7 @@
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
@@ -3737,7 +3774,7 @@
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
@@ -3760,7 +3797,7 @@
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
@@ -3783,7 +3820,7 @@
     </row>
     <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
@@ -3806,7 +3843,7 @@
     </row>
     <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
@@ -3829,7 +3866,7 @@
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
@@ -3852,7 +3889,7 @@
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
@@ -3875,7 +3912,7 @@
     </row>
     <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
@@ -3898,7 +3935,7 @@
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
@@ -3921,7 +3958,7 @@
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
@@ -3944,7 +3981,7 @@
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
@@ -3967,7 +4004,7 @@
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="s">
@@ -3988,7 +4025,7 @@
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="s">
@@ -4009,7 +4046,7 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="s">
@@ -4030,7 +4067,7 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
@@ -4051,7 +4088,7 @@
     </row>
     <row r="37" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="13" t="s">
@@ -4072,7 +4109,7 @@
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="s">
@@ -4093,7 +4130,7 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
@@ -4114,7 +4151,7 @@
     </row>
     <row r="40" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="s">
@@ -4135,7 +4172,7 @@
     </row>
     <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
@@ -4156,7 +4193,7 @@
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="s">
@@ -4177,7 +4214,7 @@
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
@@ -4198,7 +4235,7 @@
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
@@ -4219,7 +4256,7 @@
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
@@ -4240,7 +4277,7 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="s">
@@ -4259,103 +4296,103 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="str">
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
-        <v>338</v>
+        <v>789</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>428</v>
+        <v>790</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>626</v>
+        <v>791</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D49" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="13" t="s">
+      <c r="E49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B49" s="13" t="s">
+    <row r="50" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D50" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="13" t="s">
+      <c r="E50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B50" s="13" t="s">
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D51" s="14" t="s">
         <v>629</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>630</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>1</v>
@@ -4364,124 +4401,124 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="13" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="13" t="s">
+      <c r="E54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B54" s="13" t="s">
+    <row r="55" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="13" t="s">
+      <c r="E55" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>1</v>
@@ -4490,19 +4527,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>1</v>
@@ -4511,145 +4548,145 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D60" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="13" t="s">
+      <c r="E60" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="13" t="s">
+      <c r="E62" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B62" s="13" t="s">
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D63" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="13" t="s">
+      <c r="E63" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B63" s="13" t="s">
+    <row r="64" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D64" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="13" t="s">
+      <c r="E64" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B64" s="13" t="s">
+    <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D65" s="14" t="s">
         <v>643</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>644</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>1</v>
@@ -4660,17 +4697,17 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>1</v>
@@ -4681,38 +4718,38 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D68" s="14" t="s">
         <v>646</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>647</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>1</v>
@@ -4723,17 +4760,17 @@
     </row>
     <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>1</v>
@@ -4742,82 +4779,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="13" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>451</v>
+        <v>355</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>1</v>
@@ -4828,17 +4865,17 @@
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>1</v>
@@ -4849,17 +4886,17 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>1</v>
@@ -4870,38 +4907,38 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>180</v>
@@ -4910,124 +4947,124 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D79" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="13" t="s">
+      <c r="E79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D81" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="E80" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="13" t="s">
+      <c r="E81" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B81" s="13" t="s">
+    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D82" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" s="13" t="s">
+      <c r="E82" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B82" s="13" t="s">
+    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D83" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>1</v>
@@ -5036,40 +5073,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B85" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D85" s="14" t="s">
         <v>663</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>664</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>1</v>
@@ -5078,61 +5115,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D87" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" s="13" t="s">
+      <c r="E87" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B87" s="13" t="s">
+    <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D88" s="14" t="s">
         <v>666</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>667</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>180</v>
@@ -5141,19 +5178,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>180</v>
@@ -5162,103 +5199,103 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="13" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="13" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B92" s="2" t="s">
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3200,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D93" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B93" s="13" t="s">
+    <row r="94" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C94" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D94" s="16" t="s">
         <v>672</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>673</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>1</v>
@@ -5267,19 +5304,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>1</v>
@@ -5288,62 +5325,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B96" s="19" t="s">
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C97" s="20" t="s">
         <v>709</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D97" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="E96" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F96" s="2" t="s">
+      <c r="E97" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G96" s="22"/>
-    </row>
-    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B97" s="13" t="s">
+      <c r="G97" s="22"/>
+    </row>
+    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C98" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D98" s="16" t="s">
         <v>476</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>675</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>1</v>
@@ -5352,19 +5389,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>671</v>
+        <v>477</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>478</v>
+        <v>675</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>1</v>
@@ -5373,124 +5410,124 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C101" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="D101" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="E100" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F100" s="17" t="s">
+      <c r="E101" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F101" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B101" s="13" t="s">
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C102" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D102" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="E101" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F101" s="17" t="s">
+      <c r="E102" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B102" s="13" t="s">
+    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C103" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D103" s="16" t="s">
         <v>483</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>485</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>180</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="13" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="E105" s="17" t="s">
         <v>1</v>
@@ -5499,40 +5536,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C107" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D107" s="16" t="s">
         <v>698</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>491</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>1</v>
@@ -5541,19 +5578,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="13" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>1</v>
@@ -5562,19 +5599,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>1</v>
@@ -5583,19 +5620,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>1</v>
@@ -5604,19 +5641,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111" s="13" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>676</v>
+        <v>497</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>1</v>
@@ -5625,166 +5662,166 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C113" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D113" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="E112" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F112" s="17" t="s">
+      <c r="E113" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B113" s="13" t="s">
+    <row r="114" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C114" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D114" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="E113" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F113" s="17" t="s">
+      <c r="E114" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B114" s="13" t="s">
+    <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B115" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C115" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D115" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="E114" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F114" s="17" t="s">
+      <c r="E115" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="17" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F115" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C118" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="D118" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="E117" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F117" s="17" t="s">
+      <c r="E118" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B118" s="13" t="s">
+    <row r="119" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B119" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C119" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="D118" s="16" t="s">
+      <c r="D119" s="16" t="s">
         <v>512</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F118" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>514</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>1</v>
@@ -5793,61 +5830,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B121" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C121" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="D120" s="16" t="s">
+      <c r="D121" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="E120" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F120" s="17" t="s">
+      <c r="E121" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="17" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B122" s="13" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>677</v>
+        <v>518</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>1</v>
@@ -5856,19 +5893,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>1</v>
@@ -5877,85 +5914,85 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B124" s="2" t="s">
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3199,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D124" s="18" t="s">
+      <c r="D125" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B125" s="13" t="s">
+    <row r="126" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C126" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D126" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="E125" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F125" s="17" t="s">
+      <c r="E126" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B126" s="13" t="s">
+    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C127" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="D127" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="E126" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>526</v>
-      </c>
       <c r="E127" s="17" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F127" s="17" t="s">
         <v>12</v>
@@ -5963,38 +6000,38 @@
     </row>
     <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B129" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C129" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="D129" s="16" t="s">
         <v>528</v>
-      </c>
-      <c r="E128" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F128" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>530</v>
       </c>
       <c r="E129" s="17" t="s">
         <v>1</v>
@@ -6003,143 +6040,143 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="13" t="s">
-        <v>359</v>
+        <v>241</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E130" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="13" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E131" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="13" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E132" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="13" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E133" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B134" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B135" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C135" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="D134" s="16" t="s">
+      <c r="D135" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="E134" s="17" t="s">
+      <c r="E135" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F134" s="17"/>
-    </row>
-    <row r="135" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B135" s="13" t="s">
+      <c r="F135" s="17"/>
+    </row>
+    <row r="136" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B136" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C136" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D136" s="16" t="s">
         <v>542</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>544</v>
       </c>
       <c r="E136" s="17" t="s">
         <v>1</v>
@@ -6150,17 +6187,17 @@
     </row>
     <row r="137" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>679</v>
+        <v>544</v>
       </c>
       <c r="E137" s="17" t="s">
         <v>1</v>
@@ -6169,208 +6206,208 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B138" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C139" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="D138" s="16" t="s">
+      <c r="D139" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="E138" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F138" s="17" t="s">
+      <c r="E139" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B139" s="13" t="s">
+    <row r="140" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C140" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D140" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="E139" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F139" s="17" t="s">
+      <c r="E140" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B140" s="13" t="s">
+    <row r="141" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B141" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C141" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="D141" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="E140" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F140" s="17" t="s">
+      <c r="E141" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B141" s="13" t="s">
+    <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B142" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C142" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D142" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="E141" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F141" s="17" t="s">
+      <c r="E142" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" s="17" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="D142" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="E142" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F142" s="17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C144" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="D143" s="16" t="s">
+      <c r="D144" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E144" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F144" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B144" s="13" t="s">
+    <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C145" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="D144" s="16" t="s">
+      <c r="D145" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="E144" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F144" s="17" t="s">
+      <c r="E145" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="17" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="E145" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F145" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B146" s="13" t="s">
-        <v>362</v>
+        <v>25</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B147" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E147" s="17" t="s">
         <v>1</v>
@@ -6381,17 +6418,17 @@
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B148" s="13" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>1</v>
@@ -6400,64 +6437,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="E149" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" s="23" t="str">
+        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3205,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" s="17"/>
-    </row>
-    <row r="151" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="152" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
@@ -6465,20 +6506,18 @@
         <v/>
       </c>
       <c r="B152" s="13" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F152" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F152" s="17"/>
     </row>
     <row r="153" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
@@ -6486,179 +6525,177 @@
         <v/>
       </c>
       <c r="B153" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F153" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F153" s="17"/>
+    </row>
+    <row r="154" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B154" s="13" t="s">
-        <v>387</v>
+        <v>292</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="17"/>
-    </row>
-    <row r="155" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B155" s="13" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B156" s="13" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>688</v>
+        <v>576</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>681</v>
+        <v>577</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F156" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F156" s="17"/>
+    </row>
+    <row r="157" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B157" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E157" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B158" s="13" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>580</v>
+        <v>688</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="E158" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B159" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="D159" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="E159" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F159" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B160" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="E160" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F160" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="E160" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B161" s="13" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E161" s="17" t="s">
         <v>1</v>
@@ -6667,24 +6704,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B162" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B164" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C164" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="D162" s="16" t="s">
+      <c r="D164" s="29" t="s">
         <v>702</v>
       </c>
-      <c r="E162" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F162" s="17" t="s">
+      <c r="E164" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6701,13 +6780,13 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$178</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F90</xm:sqref>
+          <xm:sqref>F2:F91</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$34</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E90</xm:sqref>
+          <xm:sqref>E2:E91</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6718,11 +6797,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C226" sqref="C226"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6749,86 +6828,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B5" t="s">
-        <v>247</v>
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>682</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B6" t="s">
-        <v>248</v>
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>684</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>787</v>
@@ -6839,11 +6918,11 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>787</v>
@@ -6854,11 +6933,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>787</v>
@@ -6869,11 +6948,11 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>787</v>
@@ -6884,11 +6963,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>787</v>
@@ -6899,11 +6978,11 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>787</v>
@@ -6914,86 +6993,86 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>787</v>
@@ -7004,326 +7083,326 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>707</v>
+        <v>266</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D28" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D28" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>708</v>
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B29" t="s">
+        <v>267</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D29" t="s">
-        <v>782</v>
+      <c r="D29" s="4" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D30" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D30" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>330</v>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" t="s">
+        <v>269</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D31" t="s">
-        <v>746</v>
+      <c r="D31" s="4" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>707</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B34" t="s">
-        <v>273</v>
+      <c r="D33" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>789</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B35" t="s">
-        <v>274</v>
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B36" t="s">
-        <v>275</v>
+      <c r="D35" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>792</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>712</v>
+      <c r="D36" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B38" t="s">
-        <v>258</v>
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>712</v>
+      <c r="D38" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>787</v>
@@ -7334,11 +7413,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>787</v>
@@ -7349,11 +7428,11 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>787</v>
@@ -7364,11 +7443,11 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>787</v>
@@ -7379,11 +7458,11 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>787</v>
@@ -7394,11 +7473,11 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>787</v>
@@ -7409,11 +7488,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>787</v>
@@ -7424,11 +7503,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>787</v>
@@ -7439,11 +7518,11 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>787</v>
@@ -7454,11 +7533,11 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B49" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>787</v>
@@ -7469,11 +7548,11 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B50" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>787</v>
@@ -7484,11 +7563,11 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>787</v>
@@ -7499,11 +7578,11 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>787</v>
@@ -7514,11 +7593,11 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>787</v>
@@ -7529,11 +7608,11 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>787</v>
@@ -7544,11 +7623,11 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>787</v>
@@ -7559,11 +7638,11 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>787</v>
@@ -7574,11 +7653,11 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>787</v>
@@ -7589,112 +7668,112 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>769</v>
+        <v>712</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B63" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>769</v>
+        <v>712</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>769</v>
+        <v>712</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B65" t="s">
@@ -7704,12 +7783,12 @@
         <v>787</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B66" t="s">
@@ -7719,12 +7798,12 @@
         <v>787</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B67" t="s">
@@ -7734,12 +7813,12 @@
         <v>787</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B68" t="s">
@@ -7749,376 +7828,376 @@
         <v>787</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>728</v>
+        <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B70" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>728</v>
+        <v>769</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>728</v>
+        <v>769</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>766</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>770</v>
+        <v>725</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>770</v>
+        <v>725</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B85" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B86" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B87" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B89" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B90" t="s">
+        <v>287</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B91" t="s">
+        <v>288</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B92" t="s">
         <v>315</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="C92" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>756</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" t="str">
-        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="D86" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="D87" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="D88" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="D89" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="D90" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="D91" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="D92" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B93" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>787</v>
@@ -8129,11 +8208,11 @@
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B94" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>787</v>
@@ -8142,118 +8221,118 @@
         <v>732</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B95" t="s">
-        <v>317</v>
+        <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B96" t="s">
-        <v>318</v>
+        <f>IF(ISNA(VLOOKUP(B96,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B97" t="s">
-        <v>319</v>
+        <f>IF(ISNA(VLOOKUP(B97,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B98" t="s">
-        <v>320</v>
+        <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B99" t="s">
-        <v>321</v>
+        <f>IF(ISNA(VLOOKUP(B99,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B100" t="s">
-        <v>322</v>
+        <f>IF(ISNA(VLOOKUP(B100,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B101" t="s">
-        <v>323</v>
+        <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>729</v>
+      <c r="D101" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>787</v>
@@ -8264,11 +8343,11 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>787</v>
@@ -8279,11 +8358,11 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>787</v>
@@ -8294,11 +8373,11 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>787</v>
@@ -8309,11 +8388,11 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>787</v>
@@ -8324,11 +8403,11 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>787</v>
@@ -8339,416 +8418,416 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D108" t="s">
-        <v>764</v>
+      <c r="D108" s="4" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>754</v>
+      <c r="D115" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B118" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B119" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B120" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B121" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B122" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B123" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B124" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B125" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>778</v>
+        <v>730</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B126" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>778</v>
+        <v>730</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B127" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>778</v>
+        <v>730</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B128" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B129" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B130" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>735</v>
+        <v>763</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B131" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>735</v>
+        <v>763</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B133" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B135" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>787</v>
@@ -8759,11 +8838,11 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>787</v>
@@ -8774,11 +8853,11 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B137" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>787</v>
@@ -8789,11 +8868,11 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B138" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>787</v>
@@ -8804,11 +8883,11 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B139" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>787</v>
@@ -8819,11 +8898,11 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B140" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>787</v>
@@ -8834,11 +8913,11 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B141" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>787</v>
@@ -8849,11 +8928,11 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B142" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>787</v>
@@ -8864,11 +8943,11 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B143" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>787</v>
@@ -8879,11 +8958,11 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>787</v>
@@ -8894,11 +8973,11 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B145" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>787</v>
@@ -8909,11 +8988,11 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B146" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>787</v>
@@ -8924,11 +9003,11 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B147" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>787</v>
@@ -8939,11 +9018,11 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B148" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>787</v>
@@ -8954,11 +9033,11 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B149" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>787</v>
@@ -8969,948 +9048,952 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B150" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B152" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B153" t="s">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B154" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B155" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B156" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B157" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B158" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B159" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B160" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B162" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B163,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B163" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B164" t="s">
-        <v>235</v>
+        <v>367</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D164" t="s">
-        <v>713</v>
+      <c r="D164" s="4" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B165" t="s">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D165" t="s">
-        <v>714</v>
+      <c r="D165" s="4" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D166" t="s">
-        <v>715</v>
+      <c r="D166" s="4" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B167" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D167" t="s">
-        <v>716</v>
+      <c r="D167" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B168" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D168" t="s">
-        <v>717</v>
+      <c r="D168" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B169,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B169" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D169" t="s">
-        <v>719</v>
+      <c r="D169" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B170,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B170" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D170" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D170" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>705</v>
+        <f>IF(ISNA(VLOOKUP(B171,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B171" t="s">
+        <v>235</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>720</v>
+      <c r="D171" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
-        <f>IF(ISNA(VLOOKUP(B172,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B172,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D172" t="s">
-        <v>780</v>
+        <v>714</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
-        <f>IF(ISNA(VLOOKUP(B173,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B173,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B173" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D173" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
-        <f>IF(ISNA(VLOOKUP(B174,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B174,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B174" t="s">
-        <v>370</v>
+        <v>238</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>722</v>
+      <c r="D174" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f>IF(ISNA(VLOOKUP(B175,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B175" s="2"/>
+        <f>IF(ISNA(VLOOKUP(B175,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B175" t="s">
+        <v>239</v>
+      </c>
       <c r="C175" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D175" s="11" t="s">
-        <v>783</v>
+      <c r="D175" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f>IF(ISNA(VLOOKUP(B176,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B176,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B176" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D176" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f>IF(ISNA(VLOOKUP(B177,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B177,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B177" t="s">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D177" s="4" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
-        <f>IF(ISNA(VLOOKUP(B178,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B178" t="s">
-        <v>293</v>
+        <f>IF(ISNA(VLOOKUP(B178,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D178" t="s">
-        <v>751</v>
+      <c r="D178" s="4" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f>IF(ISNA(VLOOKUP(B179,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B179,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B179" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D179" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f>IF(ISNA(VLOOKUP(B180,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B180" s="2"/>
+        <f>IF(ISNA(VLOOKUP(B180,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B180" t="s">
+        <v>243</v>
+      </c>
       <c r="C180" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D180" s="11" t="s">
-        <v>784</v>
+      <c r="D180" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f>IF(ISNA(VLOOKUP(B181,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B181,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B181" t="s">
-        <v>298</v>
+        <v>370</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D181" t="s">
-        <v>736</v>
+      <c r="D181" s="4" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f>IF(ISNA(VLOOKUP(B182,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B182" t="s">
-        <v>299</v>
-      </c>
+        <f>IF(ISNA(VLOOKUP(B182,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="B182" s="2"/>
       <c r="C182" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D182" t="s">
-        <v>736</v>
+      <c r="D182" s="11" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f>IF(ISNA(VLOOKUP(B183,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B183,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B183" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D183" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B184" s="2"/>
+        <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B184" t="s">
+        <v>371</v>
+      </c>
       <c r="C184" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D184" s="11" t="s">
-        <v>785</v>
+      <c r="D184" s="4" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f>IF(ISNA(VLOOKUP(B185,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B185,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B185" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D185" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f>IF(ISNA(VLOOKUP(B186,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B186,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B186" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D186" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f>IF(ISNA(VLOOKUP(B187,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B187" t="s">
-        <v>287</v>
+        <f>IF(ISNA(VLOOKUP(B187,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D187" t="s">
-        <v>741</v>
+      <c r="D187" s="11" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f>IF(ISNA(VLOOKUP(B188,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B188,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B188" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D188" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>694</v>
+        <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B189" t="s">
+        <v>299</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D189" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>691</v>
+        <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B190" t="s">
+        <v>300</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D190" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B191" s="2" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D191" t="s">
-        <v>773</v>
+      <c r="D191" s="11" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B192" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>755</v>
+      <c r="D192" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B193" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>755</v>
+      <c r="D193" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B194" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>755</v>
+      <c r="D194" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f>IF(ISNA(VLOOKUP(B195,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B195,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B195" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
-        <f>IF(ISNA(VLOOKUP(B196,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B196" t="s">
-        <v>312</v>
+        <f>IF(ISNA(VLOOKUP(B196,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D196" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="str">
-        <f>IF(ISNA(VLOOKUP(B197,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B197" t="s">
-        <v>313</v>
+        <f>IF(ISNA(VLOOKUP(B197,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D197" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="str">
-        <f>IF(ISNA(VLOOKUP(B198,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B198" t="s">
-        <v>314</v>
+        <f>IF(ISNA(VLOOKUP(B198,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D198" t="s">
-        <v>718</v>
+        <v>773</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
-        <f>IF(ISNA(VLOOKUP(B199,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B199,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B199" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
-        <f>IF(ISNA(VLOOKUP(B200,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B200,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B200" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
-        <f>IF(ISNA(VLOOKUP(B201,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B201,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B201" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D201" t="s">
-        <v>759</v>
+      <c r="D201" s="4" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
-        <f>IF(ISNA(VLOOKUP(B202,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B202" s="2"/>
+        <f>IF(ISNA(VLOOKUP(B202,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B202" t="s">
+        <v>375</v>
+      </c>
       <c r="C202" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D202" s="11" t="s">
-        <v>786</v>
+      <c r="D202" s="4" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
-        <f>IF(ISNA(VLOOKUP(B203,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B203,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B203" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>760</v>
+      <c r="D203" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
-        <f>IF(ISNA(VLOOKUP(B204,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B204,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B204" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>745</v>
+      <c r="D204" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
-        <f>IF(ISNA(VLOOKUP(B205,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B205,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B205" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>745</v>
+      <c r="D205" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="str">
-        <f>IF(ISNA(VLOOKUP(B206,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B206,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B206" t="s">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D206" t="s">
-        <v>733</v>
+      <c r="D206" s="4" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="str">
-        <f>IF(ISNA(VLOOKUP(B207,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B207,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B207" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D207" t="s">
-        <v>733</v>
+      <c r="D207" s="4" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="str">
-        <f>IF(ISNA(VLOOKUP(B208,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B208,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B208" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D208" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="str">
-        <f>IF(ISNA(VLOOKUP(B209,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B209" t="s">
-        <v>266</v>
-      </c>
+        <f>IF(ISNA(VLOOKUP(B209,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="B209" s="2"/>
       <c r="C209" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D209" t="s">
-        <v>733</v>
+      <c r="D209" s="11" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="str">
-        <f>IF(ISNA(VLOOKUP(B210,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B210,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B210" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D210" t="s">
-        <v>733</v>
+      <c r="D210" s="4" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="str">
-        <f>IF(ISNA(VLOOKUP(B211,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B211,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B211" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D211" t="s">
-        <v>733</v>
+      <c r="D211" s="4" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
-        <f>IF(ISNA(VLOOKUP(B212,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B212,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B212" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D212" t="s">
-        <v>733</v>
+      <c r="D212" s="4" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="str">
-        <f>IF(ISNA(VLOOKUP(B213,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B213,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B213" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>787</v>
@@ -9921,11 +10004,11 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
-        <f>IF(ISNA(VLOOKUP(B214,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B214,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B214" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>787</v>
@@ -9936,11 +10019,11 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
-        <f>IF(ISNA(VLOOKUP(B215,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B215,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B215" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>787</v>
@@ -9951,326 +10034,326 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
-        <f>IF(ISNA(VLOOKUP(B216,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B216,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D216" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
-        <f>IF(ISNA(VLOOKUP(B217,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B217,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D217" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="str">
-        <f>IF(ISNA(VLOOKUP(B218,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B218,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D218" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="str">
-        <f>IF(ISNA(VLOOKUP(B219,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B219,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B219" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D219" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="str">
-        <f>IF(ISNA(VLOOKUP(B220,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B220,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B220" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D220" t="s">
-        <v>767</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="str">
-        <f>IF(ISNA(VLOOKUP(B221,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B221,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B221" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D221" t="s">
-        <v>768</v>
+        <v>733</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="str">
-        <f>IF(ISNA(VLOOKUP(B222,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B222,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B222" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>788</v>
+      <c r="D222" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="str">
-        <f>IF(ISNA(VLOOKUP(B223,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B223,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B223" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>788</v>
+      <c r="D223" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="str">
-        <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B224" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D224" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
-        <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B225" t="s">
+        <v>300</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D225" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="str">
-        <f>IF(ISNA(VLOOKUP(B226,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>684</v>
+        <f>IF(ISNA(VLOOKUP(B226,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B226" t="s">
+        <v>270</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>788</v>
+      <c r="D226" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="str">
-        <f>IF(ISNA(VLOOKUP(B227,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B227,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B227" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D227" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="str">
-        <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B228" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D228" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
-        <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B229" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D229" s="4" t="s">
-        <v>774</v>
+      <c r="D229" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="str">
-        <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B230" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>776</v>
+      <c r="D230" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="str">
-        <f>IF(ISNA(VLOOKUP(B231,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B231,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B231" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D231" t="s">
-        <v>777</v>
+      <c r="D231" s="4" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
-        <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B232" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="str">
-        <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B233" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>779</v>
+      <c r="D233" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="str">
-        <f>IF(ISNA(VLOOKUP(B234,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B234,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B234" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D234" t="s">
-        <v>752</v>
+      <c r="D234" s="4" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="str">
-        <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B235" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="str">
-        <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B236" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D236" s="4" t="s">
-        <v>750</v>
+      <c r="D236" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="str">
-        <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B237" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>787</v>
@@ -10281,11 +10364,11 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
-        <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B238" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>787</v>
@@ -10296,11 +10379,11 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
-        <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B239" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>787</v>
@@ -10311,31 +10394,61 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
-        <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B240" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>787</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="str">
-        <f>IF(ISNA(VLOOKUP(B241,Definitions!B$2:B$1640,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B241,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B241" t="s">
+        <v>288</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="str">
+        <f>IF(ISNA(VLOOKUP(B242,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B242" t="s">
+        <v>386</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="str">
+        <f>IF(ISNA(VLOOKUP(B243,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B243" t="s">
         <v>387</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="D241" s="4" t="s">
+      <c r="C243" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D243" s="4" t="s">
         <v>781</v>
       </c>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1254C34-26AA-0E40-B381-B0CD55BE345A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0B7311-9815-F54C-BAE1-E3B558507B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8020" yWindow="3360" windowWidth="38400" windowHeight="19900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0B7311-9815-F54C-BAE1-E3B558507B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEED1553-AF65-6D46-9ED2-4D61C2FD7A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="3360" windowWidth="38400" windowHeight="19900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="500" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1919,12 +1919,6 @@
     <t xml:space="preserve"> The diffrence between the observed friction angle of a soil during dilation and the friction angle at zero dilation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dilatometer modulus, based on linear elastic theory, and the primary index used in the correlation for the constrained and Young's moduli.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DMT tip bearing (qD) is the axial thrust force at the end of dilatometer blade divided by the projected cross-sectional area of the blade normal to the penetration. The DMT tip bearing is similar to the cone resistance, qc and may be used to evaluate stratigraphy. In cohesionless soils, qD and KD may be used to estimate the friction angle, overconsolidation ratio and at rest coefficient of earth pressure.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mass of solids divided by total volume</t>
   </si>
   <si>
@@ -2422,6 +2416,12 @@
   </si>
   <si>
     <t>Torque: The rotational force applied by the drill rig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dilatometer modulus (Ed), based on linear elastic theory, and the primary index used in the correlation for the constrained and Young's moduli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DMT tip bearing (qD) is the axial thrust force at the end of a dilatometer blade divided by the projected cross-sectional area of the blade normal to the penetration. The DMT tip bearing is similar to the cone resistance, qc and may be used to evaluate stratigraphy. In cohesionless soils, qD and eD may be used to estimate the friction angle, overconsolidation ratio and at rest coefficient of earth pressure.</t>
   </si>
 </sst>
 </file>
@@ -2607,7 +2607,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2657,21 +2657,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3241,13 +3228,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -3264,8 +3251,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164:F164"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3527,13 +3514,13 @@
         <v/>
       </c>
       <c r="B12" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
@@ -3617,13 +3604,13 @@
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>180</v>
@@ -4297,18 +4284,18 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="str">
+      <c r="A47" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>789</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>791</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>1</v>
@@ -4350,7 +4337,7 @@
         <v>429</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>627</v>
+        <v>793</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>1</v>
@@ -4371,7 +4358,7 @@
         <v>430</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>628</v>
+        <v>794</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>1</v>
@@ -4392,7 +4379,7 @@
         <v>431</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>1</v>
@@ -4413,7 +4400,7 @@
         <v>432</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>1</v>
@@ -4434,7 +4421,7 @@
         <v>433</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>1</v>
@@ -4455,7 +4442,7 @@
         <v>434</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>1</v>
@@ -4476,7 +4463,7 @@
         <v>435</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>1</v>
@@ -4497,7 +4484,7 @@
         <v>436</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>1</v>
@@ -4518,7 +4505,7 @@
         <v>437</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>1</v>
@@ -4539,7 +4526,7 @@
         <v>438</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>1</v>
@@ -4560,7 +4547,7 @@
         <v>439</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>1</v>
@@ -4581,7 +4568,7 @@
         <v>440</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>1</v>
@@ -4602,7 +4589,7 @@
         <v>441</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>1</v>
@@ -4623,7 +4610,7 @@
         <v>442</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>1</v>
@@ -4644,7 +4631,7 @@
         <v>351</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>1</v>
@@ -4665,7 +4652,7 @@
         <v>443</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>1</v>
@@ -4686,7 +4673,7 @@
         <v>444</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>1</v>
@@ -4707,7 +4694,7 @@
         <v>445</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>1</v>
@@ -4728,7 +4715,7 @@
         <v>446</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>1</v>
@@ -4749,7 +4736,7 @@
         <v>447</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>1</v>
@@ -4770,7 +4757,7 @@
         <v>448</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>1</v>
@@ -4791,7 +4778,7 @@
         <v>449</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>1</v>
@@ -4812,7 +4799,7 @@
         <v>355</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>1</v>
@@ -4833,7 +4820,7 @@
         <v>451</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>1</v>
@@ -4854,7 +4841,7 @@
         <v>452</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>1</v>
@@ -4875,7 +4862,7 @@
         <v>453</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>1</v>
@@ -4896,7 +4883,7 @@
         <v>454</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>1</v>
@@ -4917,7 +4904,7 @@
         <v>455</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>1</v>
@@ -4938,7 +4925,7 @@
         <v>456</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>180</v>
@@ -4959,7 +4946,7 @@
         <v>457</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>180</v>
@@ -4980,7 +4967,7 @@
         <v>458</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>1</v>
@@ -5001,7 +4988,7 @@
         <v>459</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>1</v>
@@ -5022,7 +5009,7 @@
         <v>460</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>1</v>
@@ -5043,7 +5030,7 @@
         <v>461</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>1</v>
@@ -5064,7 +5051,7 @@
         <v>462</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>1</v>
@@ -5085,7 +5072,7 @@
         <v>463</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>1</v>
@@ -5106,7 +5093,7 @@
         <v>464</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>1</v>
@@ -5127,7 +5114,7 @@
         <v>465</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>1</v>
@@ -5148,7 +5135,7 @@
         <v>466</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>1</v>
@@ -5169,7 +5156,7 @@
         <v>467</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>180</v>
@@ -5190,7 +5177,7 @@
         <v>468</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>180</v>
@@ -5211,7 +5198,7 @@
         <v>469</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>180</v>
@@ -5232,7 +5219,7 @@
         <v>470</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>174</v>
@@ -5253,7 +5240,7 @@
         <v>471</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>1</v>
@@ -5268,13 +5255,13 @@
         <v/>
       </c>
       <c r="B93" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>694</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>696</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>1</v>
@@ -5295,7 +5282,7 @@
         <v>472</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>1</v>
@@ -5316,7 +5303,7 @@
         <v>473</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>1</v>
@@ -5337,7 +5324,7 @@
         <v>474</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>1</v>
@@ -5352,13 +5339,13 @@
         <v/>
       </c>
       <c r="B97" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="D97" s="20" t="s">
         <v>708</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>709</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>710</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>1</v>
@@ -5401,7 +5388,7 @@
         <v>477</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>1</v>
@@ -5419,7 +5406,7 @@
         <v>328</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>478</v>
@@ -5569,7 +5556,7 @@
         <v>489</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>1</v>
@@ -5674,7 +5661,7 @@
         <v>498</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>1</v>
@@ -5905,7 +5892,7 @@
         <v>519</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>1</v>
@@ -5926,7 +5913,7 @@
         <v>520</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>1</v>
@@ -5941,13 +5928,13 @@
         <v/>
       </c>
       <c r="B125" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>693</v>
-      </c>
       <c r="D125" s="18" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>1</v>
@@ -6218,7 +6205,7 @@
         <v>545</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E138" s="17" t="s">
         <v>1</v>
@@ -6260,7 +6247,7 @@
         <v>548</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E140" s="17" t="s">
         <v>1</v>
@@ -6365,7 +6352,7 @@
         <v>557</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E145" s="17" t="s">
         <v>1</v>
@@ -6438,18 +6425,18 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A149" s="23" t="str">
+      <c r="A149" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3205,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="D149" s="28" t="s">
-        <v>794</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>1</v>
@@ -6629,10 +6616,10 @@
         <v>306</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E158" s="17" t="s">
         <v>1</v>
@@ -6647,13 +6634,13 @@
         <v/>
       </c>
       <c r="B159" s="13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>1</v>
@@ -6674,7 +6661,7 @@
         <v>580</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E160" s="17" t="s">
         <v>1</v>
@@ -6695,7 +6682,7 @@
         <v>582</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E161" s="17" t="s">
         <v>1</v>
@@ -6710,13 +6697,13 @@
         <v/>
       </c>
       <c r="B162" s="13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C162" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="E162" s="13" t="s">
         <v>1</v>
@@ -6737,7 +6724,7 @@
         <v>581</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E163" s="17" t="s">
         <v>1</v>
@@ -6754,11 +6741,11 @@
       <c r="B164" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C164" s="27" t="s">
+      <c r="C164" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="D164" s="29" t="s">
-        <v>702</v>
+      <c r="D164" s="24" t="s">
+        <v>700</v>
       </c>
       <c r="E164" s="17" t="s">
         <v>1</v>
@@ -6799,8 +6786,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
@@ -6835,10 +6822,10 @@
         <v>352</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6850,10 +6837,10 @@
         <v>353</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6865,10 +6852,10 @@
         <v>354</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6877,13 +6864,13 @@
         <v/>
       </c>
       <c r="B5" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6892,13 +6879,13 @@
         <v/>
       </c>
       <c r="B6" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6910,10 +6897,10 @@
         <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6925,10 +6912,10 @@
         <v>245</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6940,10 +6927,10 @@
         <v>246</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6955,10 +6942,10 @@
         <v>247</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6970,10 +6957,10 @@
         <v>248</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6985,10 +6972,10 @@
         <v>249</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7000,10 +6987,10 @@
         <v>250</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7015,10 +7002,10 @@
         <v>251</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7030,10 +7017,10 @@
         <v>252</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7045,10 +7032,10 @@
         <v>253</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7060,10 +7047,10 @@
         <v>254</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7075,10 +7062,10 @@
         <v>256</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -7090,10 +7077,10 @@
         <v>257</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7105,10 +7092,10 @@
         <v>258</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7120,10 +7107,10 @@
         <v>259</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7135,10 +7122,10 @@
         <v>260</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7150,10 +7137,10 @@
         <v>261</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -7165,10 +7152,10 @@
         <v>262</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7180,10 +7167,10 @@
         <v>263</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7195,10 +7182,10 @@
         <v>264</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7210,10 +7197,10 @@
         <v>265</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7225,10 +7212,10 @@
         <v>266</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7240,10 +7227,10 @@
         <v>267</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7255,10 +7242,10 @@
         <v>268</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -7270,10 +7257,10 @@
         <v>269</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7285,10 +7272,10 @@
         <v>270</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7297,28 +7284,28 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="D33" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="D33" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>789</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D34" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7327,28 +7314,28 @@
         <v/>
       </c>
       <c r="B35" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D35" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="str">
+      <c r="A36" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>792</v>
+      <c r="B36" s="2" t="s">
+        <v>790</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D36" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7360,10 +7347,10 @@
         <v>271</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D37" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7375,10 +7362,10 @@
         <v>330</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D38" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7390,10 +7377,10 @@
         <v>271</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7405,10 +7392,10 @@
         <v>272</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7420,10 +7407,10 @@
         <v>273</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7435,10 +7422,10 @@
         <v>274</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7450,10 +7437,10 @@
         <v>275</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7465,10 +7452,10 @@
         <v>276</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7480,10 +7467,10 @@
         <v>258</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7495,10 +7482,10 @@
         <v>277</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7510,10 +7497,10 @@
         <v>278</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -7525,10 +7512,10 @@
         <v>279</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -7540,10 +7527,10 @@
         <v>265</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -7555,10 +7542,10 @@
         <v>266</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7570,10 +7557,10 @@
         <v>280</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7585,10 +7572,10 @@
         <v>281</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7600,10 +7587,10 @@
         <v>259</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7615,10 +7602,10 @@
         <v>282</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7630,10 +7617,10 @@
         <v>283</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -7645,10 +7632,10 @@
         <v>284</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -7660,10 +7647,10 @@
         <v>285</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -7675,10 +7662,10 @@
         <v>286</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7690,10 +7677,10 @@
         <v>287</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7705,10 +7692,10 @@
         <v>288</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7720,10 +7707,10 @@
         <v>289</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7735,10 +7722,10 @@
         <v>290</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -7750,10 +7737,10 @@
         <v>291</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -7765,10 +7752,10 @@
         <v>292</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -7780,10 +7767,10 @@
         <v>294</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -7795,10 +7782,10 @@
         <v>295</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -7810,10 +7797,10 @@
         <v>296</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7825,10 +7812,10 @@
         <v>297</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -7840,10 +7827,10 @@
         <v>301</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7855,10 +7842,10 @@
         <v>287</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7870,10 +7857,10 @@
         <v>288</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7885,10 +7872,10 @@
         <v>294</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7900,10 +7887,10 @@
         <v>295</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7915,10 +7902,10 @@
         <v>296</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7930,10 +7917,10 @@
         <v>297</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -7945,10 +7932,10 @@
         <v>302</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7960,10 +7947,10 @@
         <v>303</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7975,10 +7962,10 @@
         <v>304</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7990,10 +7977,10 @@
         <v>305</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -8005,10 +7992,10 @@
         <v>306</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -8020,10 +8007,10 @@
         <v>294</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -8035,10 +8022,10 @@
         <v>307</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8050,10 +8037,10 @@
         <v>291</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -8065,10 +8052,10 @@
         <v>298</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8080,10 +8067,10 @@
         <v>310</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8095,10 +8082,10 @@
         <v>299</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -8110,10 +8097,10 @@
         <v>300</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8125,10 +8112,10 @@
         <v>311</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -8140,10 +8127,10 @@
         <v>301</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -8155,10 +8142,10 @@
         <v>287</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -8170,10 +8157,10 @@
         <v>288</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8185,10 +8172,10 @@
         <v>315</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8200,10 +8187,10 @@
         <v>319</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D93" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8215,10 +8202,10 @@
         <v>320</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D94" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8230,10 +8217,10 @@
         <v>322</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D95" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8245,10 +8232,10 @@
         <v>323</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D96" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8260,10 +8247,10 @@
         <v>324</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D97" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8275,10 +8262,10 @@
         <v>325</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D98" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8290,10 +8277,10 @@
         <v>326</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D99" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8305,10 +8292,10 @@
         <v>327</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D100" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8320,10 +8307,10 @@
         <v>328</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D101" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8335,10 +8322,10 @@
         <v>317</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,10 +8337,10 @@
         <v>318</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8365,10 +8352,10 @@
         <v>319</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8380,10 +8367,10 @@
         <v>320</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8395,10 +8382,10 @@
         <v>321</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8410,10 +8397,10 @@
         <v>322</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8425,10 +8412,10 @@
         <v>323</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8440,10 +8427,10 @@
         <v>324</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8455,10 +8442,10 @@
         <v>325</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8470,10 +8457,10 @@
         <v>326</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8485,10 +8472,10 @@
         <v>327</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8500,10 +8487,10 @@
         <v>328</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8515,10 +8502,10 @@
         <v>329</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8530,10 +8517,10 @@
         <v>330</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D115" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -8545,10 +8532,10 @@
         <v>308</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -8560,10 +8547,10 @@
         <v>309</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -8575,10 +8562,10 @@
         <v>287</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8590,10 +8577,10 @@
         <v>288</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8605,10 +8592,10 @@
         <v>331</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -8620,10 +8607,10 @@
         <v>332</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8635,10 +8622,10 @@
         <v>333</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8650,10 +8637,10 @@
         <v>275</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8665,10 +8652,10 @@
         <v>299</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8680,10 +8667,10 @@
         <v>285</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -8695,10 +8682,10 @@
         <v>334</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -8710,10 +8697,10 @@
         <v>335</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8725,10 +8712,10 @@
         <v>336</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8740,10 +8727,10 @@
         <v>337</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -8755,10 +8742,10 @@
         <v>303</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8770,10 +8757,10 @@
         <v>342</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8785,10 +8772,10 @@
         <v>346</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8800,10 +8787,10 @@
         <v>347</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -8815,10 +8802,10 @@
         <v>348</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8830,10 +8817,10 @@
         <v>298</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8845,10 +8832,10 @@
         <v>299</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -8860,10 +8847,10 @@
         <v>300</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -8875,10 +8862,10 @@
         <v>349</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8890,10 +8877,10 @@
         <v>350</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -8905,10 +8892,10 @@
         <v>351</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -8920,10 +8907,10 @@
         <v>352</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -8935,10 +8922,10 @@
         <v>353</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -8950,10 +8937,10 @@
         <v>354</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8965,10 +8952,10 @@
         <v>355</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8980,10 +8967,10 @@
         <v>356</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8995,10 +8982,10 @@
         <v>357</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -9010,10 +8997,10 @@
         <v>358</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -9025,10 +9012,10 @@
         <v>359</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -9040,10 +9027,10 @@
         <v>360</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -9055,10 +9042,10 @@
         <v>361</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -9070,10 +9057,10 @@
         <v>25</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -9085,10 +9072,10 @@
         <v>362</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -9100,10 +9087,10 @@
         <v>363</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -9115,10 +9102,10 @@
         <v>297</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -9130,10 +9117,10 @@
         <v>364</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -9145,10 +9132,10 @@
         <v>365</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -9160,10 +9147,10 @@
         <v>265</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -9175,10 +9162,10 @@
         <v>266</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9190,10 +9177,10 @@
         <v>309</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9205,10 +9192,10 @@
         <v>287</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -9220,10 +9207,10 @@
         <v>288</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -9235,10 +9222,10 @@
         <v>308</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -9250,10 +9237,10 @@
         <v>341</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -9265,10 +9252,10 @@
         <v>367</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -9280,10 +9267,10 @@
         <v>368</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -9295,10 +9282,10 @@
         <v>301</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -9310,10 +9297,10 @@
         <v>244</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -9325,10 +9312,10 @@
         <v>369</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -9340,10 +9327,10 @@
         <v>247</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -9355,10 +9342,10 @@
         <v>297</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -9370,10 +9357,10 @@
         <v>235</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D171" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -9385,10 +9372,10 @@
         <v>236</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D172" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -9400,10 +9387,10 @@
         <v>237</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D173" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -9415,10 +9402,10 @@
         <v>238</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D174" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -9430,10 +9417,10 @@
         <v>239</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D175" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -9445,10 +9432,10 @@
         <v>240</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D176" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9460,10 +9447,10 @@
         <v>241</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D177" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9472,13 +9459,13 @@
         <v/>
       </c>
       <c r="B178" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -9490,10 +9477,10 @@
         <v>242</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D179" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -9505,10 +9492,10 @@
         <v>243</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D180" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -9520,10 +9507,10 @@
         <v>370</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -9533,10 +9520,10 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -9548,10 +9535,10 @@
         <v>255</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D183" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -9563,10 +9550,10 @@
         <v>371</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -9578,10 +9565,10 @@
         <v>293</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D185" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -9593,10 +9580,10 @@
         <v>294</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D186" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9608,10 +9595,10 @@
         <v>308</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -9623,10 +9610,10 @@
         <v>298</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D188" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -9638,10 +9625,10 @@
         <v>299</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D189" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -9653,10 +9640,10 @@
         <v>300</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D190" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9668,10 +9655,10 @@
         <v>311</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -9683,10 +9670,10 @@
         <v>308</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D192" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -9698,10 +9685,10 @@
         <v>309</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D193" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -9713,10 +9700,10 @@
         <v>287</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D194" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -9728,10 +9715,10 @@
         <v>288</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D195" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9740,13 +9727,13 @@
         <v/>
       </c>
       <c r="B196" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D196" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9755,13 +9742,13 @@
         <v/>
       </c>
       <c r="B197" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D197" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9773,10 +9760,10 @@
         <v>382</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D198" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -9788,10 +9775,10 @@
         <v>372</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -9803,10 +9790,10 @@
         <v>373</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -9818,10 +9805,10 @@
         <v>374</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -9833,10 +9820,10 @@
         <v>375</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -9848,10 +9835,10 @@
         <v>312</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D203" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -9863,10 +9850,10 @@
         <v>313</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D204" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -9878,10 +9865,10 @@
         <v>314</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D205" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -9893,10 +9880,10 @@
         <v>376</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -9908,10 +9895,10 @@
         <v>377</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -9923,10 +9910,10 @@
         <v>316</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D208" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -9936,10 +9923,10 @@
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -9951,10 +9938,10 @@
         <v>378</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -9966,10 +9953,10 @@
         <v>379</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -9981,10 +9968,10 @@
         <v>380</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -9996,10 +9983,10 @@
         <v>276</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D213" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -10011,10 +9998,10 @@
         <v>338</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D214" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -10026,10 +10013,10 @@
         <v>264</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D215" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -10041,10 +10028,10 @@
         <v>266</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D216" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -10056,10 +10043,10 @@
         <v>339</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D217" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -10071,10 +10058,10 @@
         <v>340</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D218" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -10086,10 +10073,10 @@
         <v>341</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D219" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -10101,10 +10088,10 @@
         <v>309</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D220" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -10116,10 +10103,10 @@
         <v>287</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D221" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -10131,10 +10118,10 @@
         <v>288</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D222" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -10146,10 +10133,10 @@
         <v>298</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D223" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -10161,10 +10148,10 @@
         <v>299</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D224" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -10176,10 +10163,10 @@
         <v>300</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D225" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -10191,10 +10178,10 @@
         <v>270</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D226" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -10206,10 +10193,10 @@
         <v>343</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D227" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -10221,10 +10208,10 @@
         <v>344</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D228" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -10236,10 +10223,10 @@
         <v>381</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D229" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -10251,10 +10238,10 @@
         <v>345</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D230" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -10266,10 +10253,10 @@
         <v>382</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -10281,10 +10268,10 @@
         <v>383</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -10296,10 +10283,10 @@
         <v>366</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D233" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -10311,10 +10298,10 @@
         <v>384</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -10326,10 +10313,10 @@
         <v>385</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -10341,10 +10328,10 @@
         <v>386</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D236" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -10356,10 +10343,10 @@
         <v>265</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -10371,10 +10358,10 @@
         <v>266</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -10386,10 +10373,10 @@
         <v>309</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -10401,10 +10388,10 @@
         <v>287</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -10416,10 +10403,10 @@
         <v>288</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -10431,10 +10418,10 @@
         <v>386</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -10446,10 +10433,10 @@
         <v>387</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEED1553-AF65-6D46-9ED2-4D61C2FD7A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0B7311-9815-F54C-BAE1-E3B558507B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="500" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8020" yWindow="3360" windowWidth="38400" windowHeight="19900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1919,6 +1919,12 @@
     <t xml:space="preserve"> The diffrence between the observed friction angle of a soil during dilation and the friction angle at zero dilation</t>
   </si>
   <si>
+    <t xml:space="preserve"> Dilatometer modulus, based on linear elastic theory, and the primary index used in the correlation for the constrained and Young's moduli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DMT tip bearing (qD) is the axial thrust force at the end of dilatometer blade divided by the projected cross-sectional area of the blade normal to the penetration. The DMT tip bearing is similar to the cone resistance, qc and may be used to evaluate stratigraphy. In cohesionless soils, qD and KD may be used to estimate the friction angle, overconsolidation ratio and at rest coefficient of earth pressure.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mass of solids divided by total volume</t>
   </si>
   <si>
@@ -2416,12 +2422,6 @@
   </si>
   <si>
     <t>Torque: The rotational force applied by the drill rig.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dilatometer modulus (Ed), based on linear elastic theory, and the primary index used in the correlation for the constrained and Young's moduli.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DMT tip bearing (qD) is the axial thrust force at the end of a dilatometer blade divided by the projected cross-sectional area of the blade normal to the penetration. The DMT tip bearing is similar to the cone resistance, qc and may be used to evaluate stratigraphy. In cohesionless soils, qD and eD may be used to estimate the friction angle, overconsolidation ratio and at rest coefficient of earth pressure.</t>
   </si>
 </sst>
 </file>
@@ -2607,7 +2607,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2657,8 +2657,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3228,13 +3241,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -3251,8 +3264,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164:F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3514,13 +3527,13 @@
         <v/>
       </c>
       <c r="B12" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>701</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
@@ -3604,13 +3617,13 @@
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>180</v>
@@ -4284,18 +4297,18 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="str">
+      <c r="A47" s="23" t="str">
         <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>1</v>
@@ -4337,7 +4350,7 @@
         <v>429</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>793</v>
+        <v>627</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>1</v>
@@ -4358,7 +4371,7 @@
         <v>430</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>794</v>
+        <v>628</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>1</v>
@@ -4379,7 +4392,7 @@
         <v>431</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>1</v>
@@ -4400,7 +4413,7 @@
         <v>432</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>1</v>
@@ -4421,7 +4434,7 @@
         <v>433</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>1</v>
@@ -4442,7 +4455,7 @@
         <v>434</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>1</v>
@@ -4463,7 +4476,7 @@
         <v>435</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>1</v>
@@ -4484,7 +4497,7 @@
         <v>436</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>1</v>
@@ -4505,7 +4518,7 @@
         <v>437</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>1</v>
@@ -4526,7 +4539,7 @@
         <v>438</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>1</v>
@@ -4547,7 +4560,7 @@
         <v>439</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>1</v>
@@ -4568,7 +4581,7 @@
         <v>440</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>1</v>
@@ -4589,7 +4602,7 @@
         <v>441</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>1</v>
@@ -4610,7 +4623,7 @@
         <v>442</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>1</v>
@@ -4631,7 +4644,7 @@
         <v>351</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>1</v>
@@ -4652,7 +4665,7 @@
         <v>443</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>1</v>
@@ -4673,7 +4686,7 @@
         <v>444</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>1</v>
@@ -4694,7 +4707,7 @@
         <v>445</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>1</v>
@@ -4715,7 +4728,7 @@
         <v>446</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>1</v>
@@ -4736,7 +4749,7 @@
         <v>447</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>1</v>
@@ -4757,7 +4770,7 @@
         <v>448</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>1</v>
@@ -4778,7 +4791,7 @@
         <v>449</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>1</v>
@@ -4799,7 +4812,7 @@
         <v>355</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>1</v>
@@ -4820,7 +4833,7 @@
         <v>451</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>1</v>
@@ -4841,7 +4854,7 @@
         <v>452</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>1</v>
@@ -4862,7 +4875,7 @@
         <v>453</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>1</v>
@@ -4883,7 +4896,7 @@
         <v>454</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>1</v>
@@ -4904,7 +4917,7 @@
         <v>455</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>1</v>
@@ -4925,7 +4938,7 @@
         <v>456</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>180</v>
@@ -4946,7 +4959,7 @@
         <v>457</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>180</v>
@@ -4967,7 +4980,7 @@
         <v>458</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>1</v>
@@ -4988,7 +5001,7 @@
         <v>459</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>1</v>
@@ -5009,7 +5022,7 @@
         <v>460</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>1</v>
@@ -5030,7 +5043,7 @@
         <v>461</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>1</v>
@@ -5051,7 +5064,7 @@
         <v>462</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>1</v>
@@ -5072,7 +5085,7 @@
         <v>463</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>1</v>
@@ -5093,7 +5106,7 @@
         <v>464</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>1</v>
@@ -5114,7 +5127,7 @@
         <v>465</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>1</v>
@@ -5135,7 +5148,7 @@
         <v>466</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>1</v>
@@ -5156,7 +5169,7 @@
         <v>467</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>180</v>
@@ -5177,7 +5190,7 @@
         <v>468</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>180</v>
@@ -5198,7 +5211,7 @@
         <v>469</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>180</v>
@@ -5219,7 +5232,7 @@
         <v>470</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>174</v>
@@ -5240,7 +5253,7 @@
         <v>471</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>1</v>
@@ -5255,13 +5268,13 @@
         <v/>
       </c>
       <c r="B93" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>1</v>
@@ -5282,7 +5295,7 @@
         <v>472</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>1</v>
@@ -5303,7 +5316,7 @@
         <v>473</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>1</v>
@@ -5324,7 +5337,7 @@
         <v>474</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>1</v>
@@ -5339,13 +5352,13 @@
         <v/>
       </c>
       <c r="B97" s="19" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>1</v>
@@ -5388,7 +5401,7 @@
         <v>477</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>1</v>
@@ -5406,7 +5419,7 @@
         <v>328</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>478</v>
@@ -5556,7 +5569,7 @@
         <v>489</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>1</v>
@@ -5661,7 +5674,7 @@
         <v>498</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>1</v>
@@ -5892,7 +5905,7 @@
         <v>519</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>1</v>
@@ -5913,7 +5926,7 @@
         <v>520</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>1</v>
@@ -5928,13 +5941,13 @@
         <v/>
       </c>
       <c r="B125" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>1</v>
@@ -6205,7 +6218,7 @@
         <v>545</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E138" s="17" t="s">
         <v>1</v>
@@ -6247,7 +6260,7 @@
         <v>548</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E140" s="17" t="s">
         <v>1</v>
@@ -6352,7 +6365,7 @@
         <v>557</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E145" s="17" t="s">
         <v>1</v>
@@ -6425,18 +6438,18 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="str">
+      <c r="A149" s="23" t="str">
         <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3205,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D149" s="2" t="s">
         <v>792</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>794</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>1</v>
@@ -6616,10 +6629,10 @@
         <v>306</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E158" s="17" t="s">
         <v>1</v>
@@ -6634,13 +6647,13 @@
         <v/>
       </c>
       <c r="B159" s="13" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>1</v>
@@ -6661,7 +6674,7 @@
         <v>580</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E160" s="17" t="s">
         <v>1</v>
@@ -6682,7 +6695,7 @@
         <v>582</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E161" s="17" t="s">
         <v>1</v>
@@ -6697,13 +6710,13 @@
         <v/>
       </c>
       <c r="B162" s="13" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E162" s="13" t="s">
         <v>1</v>
@@ -6724,7 +6737,7 @@
         <v>581</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E163" s="17" t="s">
         <v>1</v>
@@ -6741,11 +6754,11 @@
       <c r="B164" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C164" s="23" t="s">
+      <c r="C164" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="D164" s="24" t="s">
-        <v>700</v>
+      <c r="D164" s="29" t="s">
+        <v>702</v>
       </c>
       <c r="E164" s="17" t="s">
         <v>1</v>
@@ -6786,8 +6799,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
@@ -6822,10 +6835,10 @@
         <v>352</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6837,10 +6850,10 @@
         <v>353</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6852,10 +6865,10 @@
         <v>354</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6864,13 +6877,13 @@
         <v/>
       </c>
       <c r="B5" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6879,13 +6892,13 @@
         <v/>
       </c>
       <c r="B6" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6897,10 +6910,10 @@
         <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6912,10 +6925,10 @@
         <v>245</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6927,10 +6940,10 @@
         <v>246</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6942,10 +6955,10 @@
         <v>247</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6957,10 +6970,10 @@
         <v>248</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6972,10 +6985,10 @@
         <v>249</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6987,10 +7000,10 @@
         <v>250</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7002,10 +7015,10 @@
         <v>251</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7017,10 +7030,10 @@
         <v>252</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7032,10 +7045,10 @@
         <v>253</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7047,10 +7060,10 @@
         <v>254</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7062,10 +7075,10 @@
         <v>256</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -7077,10 +7090,10 @@
         <v>257</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7092,10 +7105,10 @@
         <v>258</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7107,10 +7120,10 @@
         <v>259</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7122,10 +7135,10 @@
         <v>260</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7137,10 +7150,10 @@
         <v>261</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -7152,10 +7165,10 @@
         <v>262</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7167,10 +7180,10 @@
         <v>263</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7182,10 +7195,10 @@
         <v>264</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7197,10 +7210,10 @@
         <v>265</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7212,10 +7225,10 @@
         <v>266</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7227,10 +7240,10 @@
         <v>267</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7242,10 +7255,10 @@
         <v>268</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -7257,10 +7270,10 @@
         <v>269</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7272,10 +7285,10 @@
         <v>270</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7284,28 +7297,28 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D33" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
+      <c r="A34" s="24" t="str">
         <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>787</v>
+      <c r="B34" s="25" t="s">
+        <v>789</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D34" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7314,28 +7327,28 @@
         <v/>
       </c>
       <c r="B35" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D35" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
+      <c r="A36" s="24" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1641,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>790</v>
+      <c r="B36" s="25" t="s">
+        <v>792</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D36" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7347,10 +7360,10 @@
         <v>271</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D37" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7362,10 +7375,10 @@
         <v>330</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D38" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7377,10 +7390,10 @@
         <v>271</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7392,10 +7405,10 @@
         <v>272</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7407,10 +7420,10 @@
         <v>273</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7422,10 +7435,10 @@
         <v>274</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7437,10 +7450,10 @@
         <v>275</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7452,10 +7465,10 @@
         <v>276</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7467,10 +7480,10 @@
         <v>258</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7482,10 +7495,10 @@
         <v>277</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7497,10 +7510,10 @@
         <v>278</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -7512,10 +7525,10 @@
         <v>279</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -7527,10 +7540,10 @@
         <v>265</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -7542,10 +7555,10 @@
         <v>266</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7557,10 +7570,10 @@
         <v>280</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7572,10 +7585,10 @@
         <v>281</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7587,10 +7600,10 @@
         <v>259</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7602,10 +7615,10 @@
         <v>282</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7617,10 +7630,10 @@
         <v>283</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -7632,10 +7645,10 @@
         <v>284</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -7647,10 +7660,10 @@
         <v>285</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -7662,10 +7675,10 @@
         <v>286</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7677,10 +7690,10 @@
         <v>287</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7692,10 +7705,10 @@
         <v>288</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7707,10 +7720,10 @@
         <v>289</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7722,10 +7735,10 @@
         <v>290</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -7737,10 +7750,10 @@
         <v>291</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -7752,10 +7765,10 @@
         <v>292</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -7767,10 +7780,10 @@
         <v>294</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -7782,10 +7795,10 @@
         <v>295</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -7797,10 +7810,10 @@
         <v>296</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7812,10 +7825,10 @@
         <v>297</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -7827,10 +7840,10 @@
         <v>301</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7842,10 +7855,10 @@
         <v>287</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7857,10 +7870,10 @@
         <v>288</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7872,10 +7885,10 @@
         <v>294</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7887,10 +7900,10 @@
         <v>295</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7902,10 +7915,10 @@
         <v>296</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7917,10 +7930,10 @@
         <v>297</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -7932,10 +7945,10 @@
         <v>302</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7947,10 +7960,10 @@
         <v>303</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7962,10 +7975,10 @@
         <v>304</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7977,10 +7990,10 @@
         <v>305</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -7992,10 +8005,10 @@
         <v>306</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -8007,10 +8020,10 @@
         <v>294</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -8022,10 +8035,10 @@
         <v>307</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8037,10 +8050,10 @@
         <v>291</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -8052,10 +8065,10 @@
         <v>298</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8067,10 +8080,10 @@
         <v>310</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8082,10 +8095,10 @@
         <v>299</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -8097,10 +8110,10 @@
         <v>300</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,10 +8125,10 @@
         <v>311</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -8127,10 +8140,10 @@
         <v>301</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -8142,10 +8155,10 @@
         <v>287</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -8157,10 +8170,10 @@
         <v>288</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,10 +8185,10 @@
         <v>315</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8187,10 +8200,10 @@
         <v>319</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D93" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8202,10 +8215,10 @@
         <v>320</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D94" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8217,10 +8230,10 @@
         <v>322</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D95" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8232,10 +8245,10 @@
         <v>323</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D96" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8247,10 +8260,10 @@
         <v>324</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D97" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8262,10 +8275,10 @@
         <v>325</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D98" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8277,10 +8290,10 @@
         <v>326</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D99" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8292,10 +8305,10 @@
         <v>327</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D100" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8307,10 +8320,10 @@
         <v>328</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D101" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8322,10 +8335,10 @@
         <v>317</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8337,10 +8350,10 @@
         <v>318</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8352,10 +8365,10 @@
         <v>319</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8367,10 +8380,10 @@
         <v>320</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8382,10 +8395,10 @@
         <v>321</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8397,10 +8410,10 @@
         <v>322</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8412,10 +8425,10 @@
         <v>323</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8427,10 +8440,10 @@
         <v>324</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8442,10 +8455,10 @@
         <v>325</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8457,10 +8470,10 @@
         <v>326</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8472,10 +8485,10 @@
         <v>327</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8487,10 +8500,10 @@
         <v>328</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8502,10 +8515,10 @@
         <v>329</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8517,10 +8530,10 @@
         <v>330</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D115" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -8532,10 +8545,10 @@
         <v>308</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -8547,10 +8560,10 @@
         <v>309</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -8562,10 +8575,10 @@
         <v>287</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8577,10 +8590,10 @@
         <v>288</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8592,10 +8605,10 @@
         <v>331</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -8607,10 +8620,10 @@
         <v>332</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8622,10 +8635,10 @@
         <v>333</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8637,10 +8650,10 @@
         <v>275</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8652,10 +8665,10 @@
         <v>299</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8667,10 +8680,10 @@
         <v>285</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -8682,10 +8695,10 @@
         <v>334</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -8697,10 +8710,10 @@
         <v>335</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8712,10 +8725,10 @@
         <v>336</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8727,10 +8740,10 @@
         <v>337</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -8742,10 +8755,10 @@
         <v>303</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8757,10 +8770,10 @@
         <v>342</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8772,10 +8785,10 @@
         <v>346</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8787,10 +8800,10 @@
         <v>347</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -8802,10 +8815,10 @@
         <v>348</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8817,10 +8830,10 @@
         <v>298</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8832,10 +8845,10 @@
         <v>299</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -8847,10 +8860,10 @@
         <v>300</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -8862,10 +8875,10 @@
         <v>349</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8877,10 +8890,10 @@
         <v>350</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -8892,10 +8905,10 @@
         <v>351</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -8907,10 +8920,10 @@
         <v>352</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -8922,10 +8935,10 @@
         <v>353</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -8937,10 +8950,10 @@
         <v>354</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8952,10 +8965,10 @@
         <v>355</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8967,10 +8980,10 @@
         <v>356</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8982,10 +8995,10 @@
         <v>357</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8997,10 +9010,10 @@
         <v>358</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -9012,10 +9025,10 @@
         <v>359</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -9027,10 +9040,10 @@
         <v>360</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -9042,10 +9055,10 @@
         <v>361</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -9057,10 +9070,10 @@
         <v>25</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -9072,10 +9085,10 @@
         <v>362</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -9087,10 +9100,10 @@
         <v>363</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -9102,10 +9115,10 @@
         <v>297</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -9117,10 +9130,10 @@
         <v>364</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -9132,10 +9145,10 @@
         <v>365</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -9147,10 +9160,10 @@
         <v>265</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -9162,10 +9175,10 @@
         <v>266</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9177,10 +9190,10 @@
         <v>309</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9192,10 +9205,10 @@
         <v>287</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -9207,10 +9220,10 @@
         <v>288</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -9222,10 +9235,10 @@
         <v>308</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -9237,10 +9250,10 @@
         <v>341</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -9252,10 +9265,10 @@
         <v>367</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -9267,10 +9280,10 @@
         <v>368</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -9282,10 +9295,10 @@
         <v>301</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -9297,10 +9310,10 @@
         <v>244</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -9312,10 +9325,10 @@
         <v>369</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -9327,10 +9340,10 @@
         <v>247</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -9342,10 +9355,10 @@
         <v>297</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -9357,10 +9370,10 @@
         <v>235</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D171" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -9372,10 +9385,10 @@
         <v>236</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D172" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -9387,10 +9400,10 @@
         <v>237</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D173" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -9402,10 +9415,10 @@
         <v>238</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D174" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -9417,10 +9430,10 @@
         <v>239</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D175" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -9432,10 +9445,10 @@
         <v>240</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D176" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9447,10 +9460,10 @@
         <v>241</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D177" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9459,13 +9472,13 @@
         <v/>
       </c>
       <c r="B178" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -9477,10 +9490,10 @@
         <v>242</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D179" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -9492,10 +9505,10 @@
         <v>243</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D180" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -9507,10 +9520,10 @@
         <v>370</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -9520,10 +9533,10 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -9535,10 +9548,10 @@
         <v>255</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D183" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -9550,10 +9563,10 @@
         <v>371</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -9565,10 +9578,10 @@
         <v>293</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D185" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -9580,10 +9593,10 @@
         <v>294</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D186" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9595,10 +9608,10 @@
         <v>308</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -9610,10 +9623,10 @@
         <v>298</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D188" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -9625,10 +9638,10 @@
         <v>299</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D189" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -9640,10 +9653,10 @@
         <v>300</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D190" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9655,10 +9668,10 @@
         <v>311</v>
       </c>
       <c r="C191" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D191" s="11" t="s">
         <v>785</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -9670,10 +9683,10 @@
         <v>308</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D192" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -9685,10 +9698,10 @@
         <v>309</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D193" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -9700,10 +9713,10 @@
         <v>287</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D194" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -9715,10 +9728,10 @@
         <v>288</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D195" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9727,13 +9740,13 @@
         <v/>
       </c>
       <c r="B196" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D196" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9742,13 +9755,13 @@
         <v/>
       </c>
       <c r="B197" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D197" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9760,10 +9773,10 @@
         <v>382</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D198" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -9775,10 +9788,10 @@
         <v>372</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -9790,10 +9803,10 @@
         <v>373</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -9805,10 +9818,10 @@
         <v>374</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -9820,10 +9833,10 @@
         <v>375</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -9835,10 +9848,10 @@
         <v>312</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D203" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -9850,10 +9863,10 @@
         <v>313</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D204" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -9865,10 +9878,10 @@
         <v>314</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D205" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -9880,10 +9893,10 @@
         <v>376</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -9895,10 +9908,10 @@
         <v>377</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -9910,10 +9923,10 @@
         <v>316</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D208" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -9923,10 +9936,10 @@
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -9938,10 +9951,10 @@
         <v>378</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -9953,10 +9966,10 @@
         <v>379</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -9968,10 +9981,10 @@
         <v>380</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -9983,10 +9996,10 @@
         <v>276</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D213" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -9998,10 +10011,10 @@
         <v>338</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D214" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -10013,10 +10026,10 @@
         <v>264</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D215" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -10028,10 +10041,10 @@
         <v>266</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D216" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -10043,10 +10056,10 @@
         <v>339</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D217" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -10058,10 +10071,10 @@
         <v>340</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D218" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -10073,10 +10086,10 @@
         <v>341</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D219" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -10088,10 +10101,10 @@
         <v>309</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D220" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -10103,10 +10116,10 @@
         <v>287</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D221" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -10118,10 +10131,10 @@
         <v>288</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D222" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -10133,10 +10146,10 @@
         <v>298</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D223" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -10148,10 +10161,10 @@
         <v>299</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D224" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -10163,10 +10176,10 @@
         <v>300</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D225" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -10178,10 +10191,10 @@
         <v>270</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D226" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -10193,10 +10206,10 @@
         <v>343</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D227" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -10208,10 +10221,10 @@
         <v>344</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D228" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -10223,10 +10236,10 @@
         <v>381</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D229" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -10238,10 +10251,10 @@
         <v>345</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D230" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -10253,10 +10266,10 @@
         <v>382</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -10268,10 +10281,10 @@
         <v>383</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -10283,10 +10296,10 @@
         <v>366</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D233" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -10298,10 +10311,10 @@
         <v>384</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -10313,10 +10326,10 @@
         <v>385</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -10328,10 +10341,10 @@
         <v>386</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D236" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -10343,10 +10356,10 @@
         <v>265</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -10358,10 +10371,10 @@
         <v>266</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -10373,10 +10386,10 @@
         <v>309</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -10388,10 +10401,10 @@
         <v>287</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -10403,10 +10416,10 @@
         <v>288</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -10418,10 +10431,10 @@
         <v>386</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -10433,10 +10446,10 @@
         <v>387</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcutts/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC3E752-84ED-8D42-8326-05FB8CB2D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1624D-6EC3-4846-BCA4-C36253E28461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="500" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="843">
   <si>
     <t>Description</t>
   </si>
@@ -2785,7 +2785,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2838,50 +2838,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2899,19 +2879,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2993,6 +2960,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3093,33 +3073,33 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D429" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:D429" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D415">
-    <sortCondition ref="B1:B415"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D430" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D430" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D416">
+    <sortCondition ref="B1:B416"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3473,8 +3453,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView topLeftCell="A143" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3500,7 +3480,7 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3518,7 +3498,7 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="12" t="s">
@@ -3538,17 +3518,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3212,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3213,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>827</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="2" t="s">
         <v>834</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3556,17 +3536,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3209,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3210,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>826</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="2" t="s">
         <v>830</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3575,7 +3555,7 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
@@ -3596,7 +3576,7 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -3617,7 +3597,7 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="2" t="s">
@@ -3638,7 +3618,7 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="2" t="s">
@@ -3659,7 +3639,7 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
@@ -3680,7 +3660,7 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
@@ -3701,7 +3681,7 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
@@ -3722,7 +3702,7 @@
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="13" t="s">
@@ -3745,7 +3725,7 @@
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
@@ -3768,7 +3748,7 @@
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3201,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3202,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="2" t="s">
@@ -3789,7 +3769,7 @@
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
@@ -3812,7 +3792,7 @@
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
@@ -3835,7 +3815,7 @@
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
@@ -3858,7 +3838,7 @@
     </row>
     <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
@@ -3881,7 +3861,7 @@
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
@@ -3904,7 +3884,7 @@
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
@@ -3927,7 +3907,7 @@
     </row>
     <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
@@ -3950,7 +3930,7 @@
     </row>
     <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
@@ -3973,7 +3953,7 @@
     </row>
     <row r="23" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
@@ -3996,7 +3976,7 @@
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
@@ -4019,7 +3999,7 @@
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
@@ -4042,7 +4022,7 @@
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
@@ -4065,7 +4045,7 @@
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
@@ -4088,7 +4068,7 @@
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
@@ -4111,7 +4091,7 @@
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
@@ -4134,7 +4114,7 @@
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
@@ -4157,7 +4137,7 @@
     </row>
     <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
@@ -4180,7 +4160,7 @@
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
@@ -4203,7 +4183,7 @@
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="s">
@@ -4226,7 +4206,7 @@
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="s">
@@ -4249,7 +4229,7 @@
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="s">
@@ -4270,7 +4250,7 @@
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
@@ -4291,7 +4271,7 @@
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="13" t="s">
@@ -4312,7 +4292,7 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="s">
@@ -4333,7 +4313,7 @@
     </row>
     <row r="39" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
@@ -4354,7 +4334,7 @@
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="s">
@@ -4375,7 +4355,7 @@
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
@@ -4396,7 +4376,7 @@
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="s">
@@ -4417,7 +4397,7 @@
     </row>
     <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
@@ -4426,7 +4406,7 @@
       <c r="C43" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="26" t="s">
         <v>792</v>
       </c>
       <c r="E43" s="13" t="s">
@@ -4438,7 +4418,7 @@
     </row>
     <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
@@ -4447,7 +4427,7 @@
       <c r="C44" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="26" t="s">
         <v>791</v>
       </c>
       <c r="E44" s="13" t="s">
@@ -4458,8 +4438,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3206,1,FALSE)),"Not used","")</f>
+      <c r="A45" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3207,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
@@ -4468,7 +4448,7 @@
       <c r="C45" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="26" t="s">
         <v>790</v>
       </c>
       <c r="E45" s="13" t="s">
@@ -4480,7 +4460,7 @@
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="s">
@@ -4489,7 +4469,7 @@
       <c r="C46" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="28" t="s">
         <v>789</v>
       </c>
       <c r="E46" s="13" t="s">
@@ -4501,7 +4481,7 @@
     </row>
     <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
@@ -4510,7 +4490,7 @@
       <c r="C47" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="28" t="s">
         <v>788</v>
       </c>
       <c r="E47" s="13" t="s">
@@ -4522,7 +4502,7 @@
     </row>
     <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="s">
@@ -4531,7 +4511,7 @@
       <c r="C48" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="28" t="s">
         <v>787</v>
       </c>
       <c r="E48" s="13" t="s">
@@ -4542,8 +4522,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3207,1,FALSE)),"Not used","")</f>
+      <c r="A49" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3208,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="13" t="s">
@@ -4564,7 +4544,7 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="13" t="s">
@@ -4585,7 +4565,7 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="s">
@@ -4606,7 +4586,7 @@
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="13" t="s">
@@ -4627,7 +4607,7 @@
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="s">
@@ -4648,7 +4628,7 @@
     </row>
     <row r="54" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="13" t="s">
@@ -4669,7 +4649,7 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="13" t="s">
@@ -4690,7 +4670,7 @@
     </row>
     <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="s">
@@ -4711,7 +4691,7 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
@@ -4732,7 +4712,7 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
@@ -4753,7 +4733,7 @@
     </row>
     <row r="59" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="13" t="s">
@@ -4774,7 +4754,7 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="s">
@@ -4795,7 +4775,7 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
@@ -4816,7 +4796,7 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B62" s="13" t="s">
@@ -4837,7 +4817,7 @@
     </row>
     <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="13" t="s">
@@ -4858,7 +4838,7 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="13" t="s">
@@ -4879,7 +4859,7 @@
     </row>
     <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
@@ -4900,7 +4880,7 @@
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
@@ -4921,7 +4901,7 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
@@ -4942,7 +4922,7 @@
     </row>
     <row r="68" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
@@ -4963,7 +4943,7 @@
     </row>
     <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
@@ -4984,7 +4964,7 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="13" t="s">
@@ -5005,7 +4985,7 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
@@ -5026,7 +5006,7 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
@@ -5047,7 +5027,7 @@
     </row>
     <row r="73" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
@@ -5068,7 +5048,7 @@
     </row>
     <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
@@ -5089,7 +5069,7 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
@@ -5110,7 +5090,7 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
@@ -5131,7 +5111,7 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
@@ -5152,7 +5132,7 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
@@ -5173,7 +5153,7 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="13" t="s">
@@ -5194,7 +5174,7 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
@@ -5215,7 +5195,7 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="13" t="s">
@@ -5236,7 +5216,7 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="13" t="s">
@@ -5257,7 +5237,7 @@
     </row>
     <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="13" t="s">
@@ -5278,7 +5258,7 @@
     </row>
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
@@ -5299,7 +5279,7 @@
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="13" t="s">
@@ -5320,7 +5300,7 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
@@ -5341,7 +5321,7 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="13" t="s">
@@ -5362,7 +5342,7 @@
     </row>
     <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="13" t="s">
@@ -5383,7 +5363,7 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
@@ -5404,7 +5384,7 @@
     </row>
     <row r="90" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="13" t="s">
@@ -5425,7 +5405,7 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="13" t="s">
@@ -5446,7 +5426,7 @@
     </row>
     <row r="92" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="13" t="s">
@@ -5467,7 +5447,7 @@
     </row>
     <row r="93" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B93" s="13" t="s">
@@ -5488,7 +5468,7 @@
     </row>
     <row r="94" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="13" t="s">
@@ -5509,7 +5489,7 @@
     </row>
     <row r="95" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
@@ -5530,7 +5510,7 @@
     </row>
     <row r="96" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="13" t="s">
@@ -5551,16 +5531,16 @@
     </row>
     <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3200,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3201,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="27" t="s">
         <v>681</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D97" s="31" t="s">
         <v>682</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -5572,7 +5552,7 @@
     </row>
     <row r="98" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="13" t="s">
@@ -5593,16 +5573,16 @@
     </row>
     <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D99" s="16" t="s">
         <v>659</v>
       </c>
       <c r="E99" s="17" t="s">
@@ -5614,7 +5594,7 @@
     </row>
     <row r="100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="13" t="s">
@@ -5635,16 +5615,16 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="25" t="s">
         <v>695</v>
       </c>
-      <c r="D101" s="30" t="s">
+      <c r="D101" s="25" t="s">
         <v>696</v>
       </c>
       <c r="E101" s="20" t="s">
@@ -5656,17 +5636,17 @@
       <c r="G101" s="21"/>
     </row>
     <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="28" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3217,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B102" s="25" t="s">
+      <c r="A102" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3218,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>829</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="2" t="s">
         <v>838</v>
       </c>
       <c r="E102" s="17" t="s">
@@ -5678,7 +5658,7 @@
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="13" t="s">
@@ -5699,7 +5679,7 @@
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="13" t="s">
@@ -5720,7 +5700,7 @@
     </row>
     <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
@@ -5740,11 +5720,11 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A106" s="28" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3213,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B106" s="25" t="s">
+      <c r="A106" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3214,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>828</v>
       </c>
       <c r="C106" s="17" t="s">
@@ -5762,7 +5742,7 @@
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="13" t="s">
@@ -5783,7 +5763,7 @@
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="13" t="s">
@@ -5804,7 +5784,7 @@
     </row>
     <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="13" t="s">
@@ -5825,7 +5805,7 @@
     </row>
     <row r="110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110" s="13" t="s">
@@ -5846,7 +5826,7 @@
     </row>
     <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111" s="13" t="s">
@@ -5867,7 +5847,7 @@
     </row>
     <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="13" t="s">
@@ -5888,7 +5868,7 @@
     </row>
     <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="13" t="s">
@@ -5909,7 +5889,7 @@
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="13" t="s">
@@ -5930,7 +5910,7 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="13" t="s">
@@ -5951,7 +5931,7 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
@@ -5972,7 +5952,7 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
@@ -5993,7 +5973,7 @@
     </row>
     <row r="118" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="13" t="s">
@@ -6014,7 +5994,7 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="13" t="s">
@@ -6035,7 +6015,7 @@
     </row>
     <row r="120" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
@@ -6056,7 +6036,7 @@
     </row>
     <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="13" t="s">
@@ -6077,7 +6057,7 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B122" s="13" t="s">
@@ -6098,7 +6078,7 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
@@ -6119,7 +6099,7 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B124" s="13" t="s">
@@ -6140,7 +6120,7 @@
     </row>
     <row r="125" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B125" s="13" t="s">
@@ -6161,7 +6141,7 @@
     </row>
     <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B126" s="13" t="s">
@@ -6182,7 +6162,7 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="13" t="s">
@@ -6203,7 +6183,7 @@
     </row>
     <row r="128" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="13" t="s">
@@ -6224,7 +6204,7 @@
     </row>
     <row r="129" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="13" t="s">
@@ -6245,7 +6225,7 @@
     </row>
     <row r="130" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="13" t="s">
@@ -6266,7 +6246,7 @@
     </row>
     <row r="131" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3199,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3200,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="2" t="s">
@@ -6287,7 +6267,7 @@
     </row>
     <row r="132" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="13" t="s">
@@ -6308,7 +6288,7 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="13" t="s">
@@ -6329,7 +6309,7 @@
     </row>
     <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B134" s="13" t="s">
@@ -6350,7 +6330,7 @@
     </row>
     <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B135" s="13" t="s">
@@ -6371,7 +6351,7 @@
     </row>
     <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B136" s="13" t="s">
@@ -6392,7 +6372,7 @@
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="13" t="s">
@@ -6413,7 +6393,7 @@
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B138" s="13" t="s">
@@ -6434,7 +6414,7 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B139" s="13" t="s">
@@ -6455,7 +6435,7 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B140" s="13" t="s">
@@ -6476,7 +6456,7 @@
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B141" s="13" t="s">
@@ -6495,7 +6475,7 @@
     </row>
     <row r="142" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B142" s="13" t="s">
@@ -6516,7 +6496,7 @@
     </row>
     <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
@@ -6537,7 +6517,7 @@
     </row>
     <row r="144" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B144" s="13" t="s">
@@ -6558,7 +6538,7 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B145" s="13" t="s">
@@ -6579,7 +6559,7 @@
     </row>
     <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B146" s="13" t="s">
@@ -6600,7 +6580,7 @@
     </row>
     <row r="147" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B147" s="13" t="s">
@@ -6621,7 +6601,7 @@
     </row>
     <row r="148" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B148" s="13" t="s">
@@ -6642,7 +6622,7 @@
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="13" t="s">
@@ -6663,7 +6643,7 @@
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
@@ -6684,7 +6664,7 @@
     </row>
     <row r="151" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
@@ -6705,7 +6685,7 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B152" s="13" t="s">
@@ -6726,7 +6706,7 @@
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B153" s="13" t="s">
@@ -6747,7 +6727,7 @@
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B154" s="13" t="s">
@@ -6768,7 +6748,7 @@
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3205,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3206,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B155" s="2" t="s">
@@ -6789,7 +6769,7 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B156" s="13" t="s">
@@ -6810,7 +6790,7 @@
     </row>
     <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B157" s="13" t="s">
@@ -6830,17 +6810,17 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A158" s="28" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3208,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B158" s="25" t="s">
+      <c r="A158" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3209,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>822</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D158" s="29" t="s">
+      <c r="D158" s="2" t="s">
         <v>825</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -6849,7 +6829,7 @@
     </row>
     <row r="159" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B159" s="13" t="s">
@@ -6868,7 +6848,7 @@
     </row>
     <row r="160" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B160" s="13" t="s">
@@ -6887,7 +6867,7 @@
     </row>
     <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B161" s="13" t="s">
@@ -6908,7 +6888,7 @@
     </row>
     <row r="162" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B162" s="13" t="s">
@@ -6929,7 +6909,7 @@
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B163" s="13" t="s">
@@ -6948,7 +6928,7 @@
     </row>
     <row r="164" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B164" s="13" t="s">
@@ -6969,7 +6949,7 @@
     </row>
     <row r="165" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B165" s="13" t="s">
@@ -6990,7 +6970,7 @@
     </row>
     <row r="166" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B166" s="13" t="s">
@@ -7011,7 +6991,7 @@
     </row>
     <row r="167" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B167" s="13" t="s">
@@ -7032,7 +7012,7 @@
     </row>
     <row r="168" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B168" s="13" t="s">
@@ -7053,16 +7033,16 @@
     </row>
     <row r="169" spans="1:6" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B169" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="C169" s="39" t="s">
+      <c r="C169" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="D169" s="40" t="s">
+      <c r="D169" s="2" t="s">
         <v>673</v>
       </c>
       <c r="E169" s="13" t="s">
@@ -7074,7 +7054,7 @@
     </row>
     <row r="170" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B170" s="13" t="s">
@@ -7095,16 +7075,16 @@
     </row>
     <row r="171" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B171" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C171" s="31" t="s">
+      <c r="C171" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="D171" s="33" t="s">
+      <c r="D171" s="16" t="s">
         <v>688</v>
       </c>
       <c r="E171" s="17" t="s">
@@ -7144,11 +7124,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D430"/>
   <sheetViews>
     <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B434" sqref="B434"/>
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D402" sqref="D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7156,7 +7136,7 @@
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="62" style="4" customWidth="1"/>
-    <col min="4" max="4" width="93" style="27" customWidth="1"/>
+    <col min="4" max="4" width="93" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7169,7 +7149,7 @@
       <c r="C1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7184,22 +7164,22 @@
       <c r="C2" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="str">
+      <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -7214,7 +7194,7 @@
       <c r="C4" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>699</v>
       </c>
     </row>
@@ -7229,7 +7209,7 @@
       <c r="C5" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>700</v>
       </c>
     </row>
@@ -7244,7 +7224,7 @@
       <c r="C6" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>701</v>
       </c>
     </row>
@@ -7259,7 +7239,7 @@
       <c r="C7" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>702</v>
       </c>
     </row>
@@ -7274,7 +7254,7 @@
       <c r="C8" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>703</v>
       </c>
     </row>
@@ -7289,7 +7269,7 @@
       <c r="C9" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="24" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7304,7 +7284,7 @@
       <c r="C10" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7319,7 +7299,7 @@
       <c r="C11" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7334,7 +7314,7 @@
       <c r="C12" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>705</v>
       </c>
     </row>
@@ -7349,7 +7329,7 @@
       <c r="C13" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7364,7 +7344,7 @@
       <c r="C14" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="24" t="s">
         <v>707</v>
       </c>
     </row>
@@ -7379,22 +7359,22 @@
       <c r="C15" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="str">
+      <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -7409,7 +7389,7 @@
       <c r="C17" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="24" t="s">
         <v>708</v>
       </c>
     </row>
@@ -7424,22 +7404,22 @@
       <c r="C18" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="24" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="str">
+      <c r="A19" t="str">
         <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="29" t="s">
         <v>693</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>797</v>
       </c>
     </row>
@@ -7454,7 +7434,7 @@
       <c r="C20" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>709</v>
       </c>
     </row>
@@ -7469,7 +7449,7 @@
       <c r="C21" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>710</v>
       </c>
     </row>
@@ -7484,7 +7464,7 @@
       <c r="C22" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="24" t="s">
         <v>711</v>
       </c>
     </row>
@@ -7499,52 +7479,52 @@
       <c r="C23" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="24" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="str">
+      <c r="A24" t="str">
         <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="str">
+      <c r="A25" t="str">
         <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="str">
+      <c r="A26" t="str">
         <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>806</v>
       </c>
     </row>
@@ -7559,22 +7539,22 @@
       <c r="C27" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="str">
+      <c r="A28" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -7589,7 +7569,7 @@
       <c r="C29" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="24" t="s">
         <v>709</v>
       </c>
     </row>
@@ -7604,37 +7584,37 @@
       <c r="C30" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="24" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="str">
+      <c r="A31" t="str">
         <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="C31" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D31" s="27" t="s">
+      <c r="C31" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="str">
+      <c r="A32" t="str">
         <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D32" s="27" t="s">
+      <c r="C32" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>803</v>
       </c>
     </row>
@@ -7649,7 +7629,7 @@
       <c r="C33" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="24" t="s">
         <v>709</v>
       </c>
     </row>
@@ -7664,37 +7644,37 @@
       <c r="C34" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="24" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="str">
+      <c r="A35" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D35" s="27" t="s">
+      <c r="C35" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="str">
+      <c r="A36" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D36" s="27" t="s">
+      <c r="C36" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>803</v>
       </c>
     </row>
@@ -7709,7 +7689,7 @@
       <c r="C37" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="24" t="s">
         <v>713</v>
       </c>
     </row>
@@ -7724,22 +7704,22 @@
       <c r="C38" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="24" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="str">
+      <c r="A39" t="str">
         <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="C39" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D39" s="27" t="s">
+      <c r="C39" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>804</v>
       </c>
     </row>
@@ -7754,22 +7734,22 @@
       <c r="C40" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="str">
+      <c r="A41" t="str">
         <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="C41" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D41" s="27" t="s">
+      <c r="C41" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -7784,22 +7764,22 @@
       <c r="C42" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="str">
+      <c r="A43" t="str">
         <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D43" s="27" t="s">
+      <c r="C43" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -7814,7 +7794,7 @@
       <c r="C44" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -7829,37 +7809,37 @@
       <c r="C45" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="24" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="str">
+      <c r="A46" t="str">
         <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C46" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D46" s="27" t="s">
+      <c r="C46" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D46" s="24" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="str">
+      <c r="A47" t="str">
         <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D47" s="27" t="s">
+      <c r="C47" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>816</v>
       </c>
     </row>
@@ -7874,22 +7854,22 @@
       <c r="C48" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="24" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="str">
+      <c r="A49" t="str">
         <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C49" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D49" s="27" t="s">
+      <c r="C49" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7904,7 +7884,7 @@
       <c r="C50" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="24" t="s">
         <v>718</v>
       </c>
     </row>
@@ -7919,37 +7899,37 @@
       <c r="C51" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="str">
+      <c r="A52" t="str">
         <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C52" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D52" s="27" t="s">
+      <c r="C52" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="str">
+      <c r="A53" t="str">
         <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C53" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D53" s="27" t="s">
+      <c r="C53" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -7964,7 +7944,7 @@
       <c r="C54" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -7979,22 +7959,22 @@
       <c r="C55" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="24" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="str">
+      <c r="A56" t="str">
         <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D56" s="27" t="s">
+      <c r="C56" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -8009,7 +7989,7 @@
       <c r="C57" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="24" t="s">
         <v>720</v>
       </c>
     </row>
@@ -8024,7 +8004,7 @@
       <c r="C58" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="24" t="s">
         <v>721</v>
       </c>
     </row>
@@ -8039,7 +8019,7 @@
       <c r="C59" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="24" t="s">
         <v>722</v>
       </c>
     </row>
@@ -8054,37 +8034,37 @@
       <c r="C60" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="24" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="str">
+      <c r="A61" t="str">
         <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="C61" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D61" s="27" t="s">
+      <c r="C61" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="str">
+      <c r="A62" t="str">
         <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="C62" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D62" s="27" t="s">
+      <c r="C62" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D62" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8099,22 +8079,22 @@
       <c r="C63" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="24" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="str">
+      <c r="A64" t="str">
         <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D64" s="27" t="s">
+      <c r="C64" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>807</v>
       </c>
     </row>
@@ -8129,7 +8109,7 @@
       <c r="C65" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="24" t="s">
         <v>720</v>
       </c>
     </row>
@@ -8144,7 +8124,7 @@
       <c r="C66" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="24" t="s">
         <v>716</v>
       </c>
     </row>
@@ -8159,7 +8139,7 @@
       <c r="C67" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="24" t="s">
         <v>721</v>
       </c>
     </row>
@@ -8174,7 +8154,7 @@
       <c r="C68" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="24" t="s">
         <v>722</v>
       </c>
     </row>
@@ -8189,52 +8169,52 @@
       <c r="C69" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="24" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="str">
+      <c r="A70" t="str">
         <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C70" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D70" s="27" t="s">
+      <c r="C70" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="str">
+      <c r="A71" t="str">
         <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C71" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D71" s="27" t="s">
+      <c r="C71" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="24" t="str">
+      <c r="A72" t="str">
         <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C72" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D72" s="27" t="s">
+      <c r="C72" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8249,7 +8229,7 @@
       <c r="C73" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="24" t="s">
         <v>720</v>
       </c>
     </row>
@@ -8264,7 +8244,7 @@
       <c r="C74" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="24" t="s">
         <v>721</v>
       </c>
     </row>
@@ -8279,7 +8259,7 @@
       <c r="C75" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="24" t="s">
         <v>722</v>
       </c>
     </row>
@@ -8294,37 +8274,37 @@
       <c r="C76" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="24" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="24" t="str">
+      <c r="A77" t="str">
         <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C77" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D77" s="27" t="s">
+      <c r="C77" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D77" s="24" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="str">
+      <c r="A78" t="str">
         <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C78" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D78" s="27" t="s">
+      <c r="C78" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D78" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8339,7 +8319,7 @@
       <c r="C79" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="24" t="s">
         <v>718</v>
       </c>
     </row>
@@ -8354,37 +8334,37 @@
       <c r="C80" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="str">
+      <c r="A81" t="str">
         <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="C81" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D81" s="27" t="s">
+      <c r="C81" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D81" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="str">
+      <c r="A82" t="str">
         <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="C82" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D82" s="27" t="s">
+      <c r="C82" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D82" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -8399,22 +8379,22 @@
       <c r="C83" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="24" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="str">
+      <c r="A84" t="str">
         <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="C84" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D84" s="27" t="s">
+      <c r="C84" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D84" s="24" t="s">
         <v>795</v>
       </c>
     </row>
@@ -8429,22 +8409,22 @@
       <c r="C85" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="24" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="str">
+      <c r="A86" t="str">
         <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C86" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D86" s="27" t="s">
+      <c r="C86" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D86" s="24" t="s">
         <v>795</v>
       </c>
     </row>
@@ -8459,22 +8439,22 @@
       <c r="C87" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="24" t="str">
+      <c r="A88" t="str">
         <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="C88" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D88" s="27" t="s">
+      <c r="C88" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D88" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -8489,22 +8469,22 @@
       <c r="C89" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="24" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="24" t="str">
+      <c r="A90" t="str">
         <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C90" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D90" s="27" t="s">
+      <c r="C90" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D90" s="24" t="s">
         <v>794</v>
       </c>
     </row>
@@ -8519,7 +8499,7 @@
       <c r="C91" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="24" t="s">
         <v>725</v>
       </c>
     </row>
@@ -8534,7 +8514,7 @@
       <c r="C92" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="24" t="s">
         <v>726</v>
       </c>
     </row>
@@ -8549,7 +8529,7 @@
       <c r="C93" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D93" s="24" t="s">
         <v>770</v>
       </c>
     </row>
@@ -8564,37 +8544,37 @@
       <c r="C94" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="24" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="24" t="str">
+      <c r="A95" t="str">
         <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="C95" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D95" s="27" t="s">
+      <c r="C95" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D95" s="24" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="24" t="str">
+      <c r="A96" t="str">
         <f>IF(ISNA(VLOOKUP(B96,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="C96" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D96" s="27" t="s">
+      <c r="C96" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D96" s="24" t="s">
         <v>820</v>
       </c>
     </row>
@@ -8609,22 +8589,22 @@
       <c r="C97" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D97" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="24" t="str">
+      <c r="A98" t="str">
         <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="C98" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D98" s="27" t="s">
+      <c r="C98" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D98" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8639,7 +8619,7 @@
       <c r="C99" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D99" s="27" t="s">
+      <c r="D99" s="24" t="s">
         <v>728</v>
       </c>
     </row>
@@ -8654,37 +8634,37 @@
       <c r="C100" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D100" s="27" t="s">
+      <c r="D100" s="24" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="24" t="str">
+      <c r="A101" t="str">
         <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C101" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D101" s="27" t="s">
+      <c r="C101" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="24" t="str">
+      <c r="A102" t="str">
         <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C102" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D102" s="27" t="s">
+      <c r="C102" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D102" s="24" t="s">
         <v>821</v>
       </c>
     </row>
@@ -8699,7 +8679,7 @@
       <c r="C103" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D103" s="27" t="s">
+      <c r="D103" s="24" t="s">
         <v>717</v>
       </c>
     </row>
@@ -8714,37 +8694,37 @@
       <c r="C104" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="D104" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="24" t="str">
+      <c r="A105" t="str">
         <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C105" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D105" s="27" t="s">
+      <c r="C105" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D105" s="24" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="24" t="str">
+      <c r="A106" t="str">
         <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C106" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D106" s="27" t="s">
+      <c r="C106" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D106" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -8759,7 +8739,7 @@
       <c r="C107" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="24" t="s">
         <v>718</v>
       </c>
     </row>
@@ -8774,97 +8754,97 @@
       <c r="C108" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D108" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="24" t="str">
+      <c r="A109" t="str">
         <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D109" s="27" t="s">
+      <c r="C109" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D109" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="24" t="str">
+      <c r="A110" t="str">
         <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C110" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D110" s="27" t="s">
+      <c r="C110" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D110" s="24" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="24" t="str">
+      <c r="A111" t="str">
         <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B111" s="25" t="s">
+      <c r="B111" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="C111" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D111" s="27" t="s">
+      <c r="C111" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D111" s="24" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="24" t="str">
+      <c r="A112" t="str">
         <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B112" s="25" t="s">
+      <c r="B112" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="C112" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D112" s="27" t="s">
+      <c r="C112" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D112" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="24" t="str">
+      <c r="A113" t="str">
         <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="29" t="s">
         <v>783</v>
       </c>
-      <c r="C113" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D113" s="27" t="s">
+      <c r="C113" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D113" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="24" t="str">
+      <c r="A114" t="str">
         <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="29" t="s">
         <v>783</v>
       </c>
-      <c r="C114" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D114" s="27" t="s">
+      <c r="C114" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D114" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -8879,7 +8859,7 @@
       <c r="C115" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D115" s="24" t="s">
         <v>718</v>
       </c>
     </row>
@@ -8894,37 +8874,37 @@
       <c r="C116" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D116" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="24" t="str">
+      <c r="A117" t="str">
         <f>IF(ISNA(VLOOKUP(B117,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="C117" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D117" s="27" t="s">
+      <c r="C117" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D117" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="24" t="str">
+      <c r="A118" t="str">
         <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D118" s="27" t="s">
+      <c r="C118" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D118" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -8939,7 +8919,7 @@
       <c r="C119" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="24" t="s">
         <v>718</v>
       </c>
     </row>
@@ -8954,37 +8934,37 @@
       <c r="C120" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D120" s="27" t="s">
+      <c r="D120" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="24" t="str">
+      <c r="A121" t="str">
         <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="C121" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D121" s="27" t="s">
+      <c r="C121" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D121" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="24" t="str">
+      <c r="A122" t="str">
         <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="C122" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D122" s="27" t="s">
+      <c r="C122" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D122" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -8999,7 +8979,7 @@
       <c r="C123" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D123" s="27" t="s">
+      <c r="D123" s="24" t="s">
         <v>718</v>
       </c>
     </row>
@@ -9014,97 +8994,97 @@
       <c r="C124" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D124" s="27" t="s">
+      <c r="D124" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="24" t="str">
+      <c r="A125" t="str">
         <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="C125" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D125" s="27" t="s">
+      <c r="C125" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D125" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="24" t="str">
+      <c r="A126" t="str">
         <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="C126" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D126" s="27" t="s">
+      <c r="C126" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D126" s="24" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="24" t="str">
+      <c r="A127" t="str">
         <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B127" s="25" t="s">
+      <c r="B127" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="C127" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D127" s="27" t="s">
+      <c r="C127" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D127" s="24" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="24" t="str">
+      <c r="A128" t="str">
         <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B128" s="25" t="s">
+      <c r="B128" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="C128" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D128" s="27" t="s">
+      <c r="C128" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D128" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="24" t="str">
+      <c r="A129" t="str">
         <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B129" s="36" t="s">
+      <c r="B129" s="29" t="s">
         <v>784</v>
       </c>
-      <c r="C129" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D129" s="27" t="s">
+      <c r="C129" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D129" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="24" t="str">
+      <c r="A130" t="str">
         <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B130" s="36" t="s">
+      <c r="B130" s="29" t="s">
         <v>784</v>
       </c>
-      <c r="C130" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D130" s="27" t="s">
+      <c r="C130" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D130" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -9119,22 +9099,22 @@
       <c r="C131" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="24" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="24" t="str">
+      <c r="A132" t="str">
         <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B132" s="36" t="s">
+      <c r="B132" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C132" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D132" s="27" t="s">
+      <c r="C132" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D132" s="24" t="s">
         <v>821</v>
       </c>
     </row>
@@ -9149,22 +9129,22 @@
       <c r="C133" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="24" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="24" t="str">
+      <c r="A134" t="str">
         <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B134" s="36" t="s">
+      <c r="B134" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="C134" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D134" s="27" t="s">
+      <c r="C134" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D134" s="24" t="s">
         <v>797</v>
       </c>
     </row>
@@ -9179,7 +9159,7 @@
       <c r="C135" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="24" t="s">
         <v>719</v>
       </c>
     </row>
@@ -9194,22 +9174,22 @@
       <c r="C136" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D136" s="27" t="s">
+      <c r="D136" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="24" t="str">
+      <c r="A137" t="str">
         <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B137" s="36" t="s">
+      <c r="B137" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="C137" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D137" s="27" t="s">
+      <c r="C137" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D137" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -9224,22 +9204,22 @@
       <c r="C138" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D138" s="27" t="s">
+      <c r="D138" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="24" t="str">
+      <c r="A139" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B139" s="36" t="s">
+      <c r="B139" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="C139" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D139" s="27" t="s">
+      <c r="C139" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D139" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -9254,22 +9234,22 @@
       <c r="C140" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D140" s="27" t="s">
+      <c r="D140" s="24" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="24" t="str">
+      <c r="A141" t="str">
         <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B141" s="36" t="s">
+      <c r="B141" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C141" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D141" s="27" t="s">
+      <c r="C141" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D141" s="24" t="s">
         <v>806</v>
       </c>
     </row>
@@ -9284,22 +9264,22 @@
       <c r="C142" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D142" s="27" t="s">
+      <c r="D142" s="24" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="24" t="str">
+      <c r="A143" t="str">
         <f>IF(ISNA(VLOOKUP(B143,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B143" s="36" t="s">
+      <c r="B143" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="C143" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D143" s="27" t="s">
+      <c r="C143" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D143" s="24" t="s">
         <v>805</v>
       </c>
     </row>
@@ -9314,22 +9294,22 @@
       <c r="C144" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D144" s="27" t="s">
+      <c r="D144" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="24" t="str">
+      <c r="A145" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B145" s="36" t="s">
+      <c r="B145" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="C145" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D145" s="27" t="s">
+      <c r="C145" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D145" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -9344,7 +9324,7 @@
       <c r="C146" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D146" s="27" t="s">
+      <c r="D146" s="24" t="s">
         <v>731</v>
       </c>
     </row>
@@ -9359,7 +9339,7 @@
       <c r="C147" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D147" s="27" t="s">
+      <c r="D147" s="24" t="s">
         <v>732</v>
       </c>
     </row>
@@ -9374,37 +9354,37 @@
       <c r="C148" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D148" s="27" t="s">
+      <c r="D148" s="24" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="24" t="str">
+      <c r="A149" t="str">
         <f>IF(ISNA(VLOOKUP(B149,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B149" s="36" t="s">
+      <c r="B149" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="C149" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D149" s="27" t="s">
+      <c r="C149" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D149" s="24" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="24" t="str">
+      <c r="A150" t="str">
         <f>IF(ISNA(VLOOKUP(B150,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B150" s="36" t="s">
+      <c r="B150" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="C150" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D150" s="27" t="s">
+      <c r="C150" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D150" s="24" t="s">
         <v>799</v>
       </c>
     </row>
@@ -9419,7 +9399,7 @@
       <c r="C151" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D151" s="27" t="s">
+      <c r="D151" s="24" t="s">
         <v>734</v>
       </c>
     </row>
@@ -9434,7 +9414,7 @@
       <c r="C152" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D152" s="27" t="s">
+      <c r="D152" s="24" t="s">
         <v>724</v>
       </c>
     </row>
@@ -9449,22 +9429,22 @@
       <c r="C153" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D153" s="27" t="s">
+      <c r="D153" s="24" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="24" t="str">
+      <c r="A154" t="str">
         <f>IF(ISNA(VLOOKUP(B154,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="C154" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D154" s="27" t="s">
+      <c r="C154" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D154" s="24" t="s">
         <v>795</v>
       </c>
     </row>
@@ -9479,7 +9459,7 @@
       <c r="C155" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D155" s="27" t="s">
+      <c r="D155" s="24" t="s">
         <v>724</v>
       </c>
     </row>
@@ -9494,7 +9474,7 @@
       <c r="C156" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D156" s="27" t="s">
+      <c r="D156" s="24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -9509,7 +9489,7 @@
       <c r="C157" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D157" s="27" t="s">
+      <c r="D157" s="24" t="s">
         <v>735</v>
       </c>
     </row>
@@ -9524,52 +9504,52 @@
       <c r="C158" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D158" s="27" t="s">
+      <c r="D158" s="24" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="24" t="str">
+      <c r="A159" t="str">
         <f>IF(ISNA(VLOOKUP(B159,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B159" s="36" t="s">
+      <c r="B159" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="C159" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D159" s="27" t="s">
+      <c r="C159" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D159" s="24" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="24" t="str">
+      <c r="A160" t="str">
         <f>IF(ISNA(VLOOKUP(B160,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B160" s="36" t="s">
+      <c r="B160" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="C160" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D160" s="27" t="s">
+      <c r="C160" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D160" s="24" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="24" t="str">
+      <c r="A161" t="str">
         <f>IF(ISNA(VLOOKUP(B161,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B161" s="36" t="s">
+      <c r="B161" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="C161" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D161" s="27" t="s">
+      <c r="C161" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D161" s="24" t="s">
         <v>736</v>
       </c>
     </row>
@@ -9584,7 +9564,7 @@
       <c r="C162" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D162" s="27" t="s">
+      <c r="D162" s="24" t="s">
         <v>724</v>
       </c>
     </row>
@@ -9599,7 +9579,7 @@
       <c r="C163" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D163" s="27" t="s">
+      <c r="D163" s="24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -9614,7 +9594,7 @@
       <c r="C164" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D164" s="27" t="s">
+      <c r="D164" s="24" t="s">
         <v>735</v>
       </c>
     </row>
@@ -9629,7 +9609,7 @@
       <c r="C165" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D165" s="27" t="s">
+      <c r="D165" s="24" t="s">
         <v>719</v>
       </c>
     </row>
@@ -9644,52 +9624,52 @@
       <c r="C166" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D166" s="27" t="s">
+      <c r="D166" s="24" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="24" t="str">
+      <c r="A167" t="str">
         <f>IF(ISNA(VLOOKUP(B167,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B167" s="36" t="s">
+      <c r="B167" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="C167" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D167" s="27" t="s">
+      <c r="C167" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D167" s="24" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="24" t="str">
+      <c r="A168" t="str">
         <f>IF(ISNA(VLOOKUP(B168,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B168" s="36" t="s">
+      <c r="B168" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="C168" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D168" s="27" t="s">
+      <c r="C168" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D168" s="24" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="24" t="str">
+      <c r="A169" t="str">
         <f>IF(ISNA(VLOOKUP(B169,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B169" s="36" t="s">
+      <c r="B169" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="C169" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D169" s="27" t="s">
+      <c r="C169" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D169" s="24" t="s">
         <v>736</v>
       </c>
     </row>
@@ -9704,22 +9684,22 @@
       <c r="C170" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D170" s="27" t="s">
+      <c r="D170" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="24" t="str">
+      <c r="A171" t="str">
         <f>IF(ISNA(VLOOKUP(B171,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B171" s="36" t="s">
+      <c r="B171" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="C171" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D171" s="27" t="s">
+      <c r="C171" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D171" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9734,7 +9714,7 @@
       <c r="C172" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D172" s="27" t="s">
+      <c r="D172" s="24" t="s">
         <v>737</v>
       </c>
     </row>
@@ -9749,7 +9729,7 @@
       <c r="C173" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D173" s="27" t="s">
+      <c r="D173" s="24" t="s">
         <v>738</v>
       </c>
     </row>
@@ -9764,7 +9744,7 @@
       <c r="C174" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D174" s="27" t="s">
+      <c r="D174" s="24" t="s">
         <v>739</v>
       </c>
     </row>
@@ -9779,22 +9759,22 @@
       <c r="C175" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D175" s="27" t="s">
+      <c r="D175" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="24" t="str">
+      <c r="A176" t="str">
         <f>IF(ISNA(VLOOKUP(B176,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B176" s="36" t="s">
+      <c r="B176" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="C176" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D176" s="27" t="s">
+      <c r="C176" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D176" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9809,22 +9789,22 @@
       <c r="C177" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D177" s="27" t="s">
+      <c r="D177" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="24" t="str">
+      <c r="A178" t="str">
         <f>IF(ISNA(VLOOKUP(B178,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B178" s="36" t="s">
+      <c r="B178" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="C178" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D178" s="27" t="s">
+      <c r="C178" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D178" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -9839,7 +9819,7 @@
       <c r="C179" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D179" s="27" t="s">
+      <c r="D179" s="24" t="s">
         <v>774</v>
       </c>
     </row>
@@ -9854,22 +9834,22 @@
       <c r="C180" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D180" s="27" t="s">
+      <c r="D180" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="24" t="str">
+      <c r="A181" t="str">
         <f>IF(ISNA(VLOOKUP(B181,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B181" s="36" t="s">
+      <c r="B181" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="C181" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D181" s="27" t="s">
+      <c r="C181" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D181" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9884,7 +9864,7 @@
       <c r="C182" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D182" s="27" t="s">
+      <c r="D182" s="24" t="s">
         <v>774</v>
       </c>
     </row>
@@ -9899,22 +9879,22 @@
       <c r="C183" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D183" s="27" t="s">
+      <c r="D183" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="24" t="str">
+      <c r="A184" t="str">
         <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B184" s="36" t="s">
+      <c r="B184" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="C184" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D184" s="27" t="s">
+      <c r="C184" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D184" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9929,7 +9909,7 @@
       <c r="C185" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D185" s="27" t="s">
+      <c r="D185" s="24" t="s">
         <v>774</v>
       </c>
     </row>
@@ -9944,22 +9924,22 @@
       <c r="C186" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D186" s="27" t="s">
+      <c r="D186" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="24" t="str">
+      <c r="A187" t="str">
         <f>IF(ISNA(VLOOKUP(B187,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B187" s="36" t="s">
+      <c r="B187" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C187" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D187" s="27" t="s">
+      <c r="C187" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D187" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9974,7 +9954,7 @@
       <c r="C188" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D188" s="27" t="s">
+      <c r="D188" s="24" t="s">
         <v>719</v>
       </c>
     </row>
@@ -9989,22 +9969,22 @@
       <c r="C189" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D189" s="27" t="s">
+      <c r="D189" s="24" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="24" t="str">
+      <c r="A190" t="str">
         <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B190" s="36" t="s">
+      <c r="B190" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C190" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D190" s="27" t="s">
+      <c r="C190" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D190" s="24" t="s">
         <v>815</v>
       </c>
     </row>
@@ -10019,22 +9999,22 @@
       <c r="C191" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D191" s="27" t="s">
+      <c r="D191" s="24" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="24" t="str">
+      <c r="A192" t="str">
         <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B192" s="36" t="s">
+      <c r="B192" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C192" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D192" s="27" t="s">
+      <c r="C192" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D192" s="24" t="s">
         <v>815</v>
       </c>
     </row>
@@ -10049,22 +10029,22 @@
       <c r="C193" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D193" s="27" t="s">
+      <c r="D193" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="24" t="str">
+      <c r="A194" t="str">
         <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B194" s="36" t="s">
+      <c r="B194" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="C194" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D194" s="27" t="s">
+      <c r="C194" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D194" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -10079,7 +10059,7 @@
       <c r="C195" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D195" s="27" t="s">
+      <c r="D195" s="24" t="s">
         <v>719</v>
       </c>
     </row>
@@ -10094,7 +10074,7 @@
       <c r="C196" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D196" s="27" t="s">
+      <c r="D196" s="24" t="s">
         <v>741</v>
       </c>
     </row>
@@ -10109,7 +10089,7 @@
       <c r="C197" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D197" s="27" t="s">
+      <c r="D197" s="24" t="s">
         <v>741</v>
       </c>
     </row>
@@ -10124,7 +10104,7 @@
       <c r="C198" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D198" s="27" t="s">
+      <c r="D198" s="24" t="s">
         <v>741</v>
       </c>
     </row>
@@ -10139,7 +10119,7 @@
       <c r="C199" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D199" s="27" t="s">
+      <c r="D199" s="24" t="s">
         <v>741</v>
       </c>
     </row>
@@ -10154,22 +10134,22 @@
       <c r="C200" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D200" s="27" t="s">
+      <c r="D200" s="24" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="24" t="str">
+      <c r="A201" t="str">
         <f>IF(ISNA(VLOOKUP(B201,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B201" s="36" t="s">
+      <c r="B201" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C201" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D201" s="27" t="s">
+      <c r="C201" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D201" s="24" t="s">
         <v>793</v>
       </c>
     </row>
@@ -10184,22 +10164,22 @@
       <c r="C202" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D202" s="27" t="s">
+      <c r="D202" s="24" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="24" t="str">
+      <c r="A203" t="str">
         <f>IF(ISNA(VLOOKUP(B203,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B203" s="36" t="s">
+      <c r="B203" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="C203" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D203" s="27" t="s">
+      <c r="C203" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D203" s="24" t="s">
         <v>793</v>
       </c>
     </row>
@@ -10214,7 +10194,7 @@
       <c r="C204" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D204" s="27" t="s">
+      <c r="D204" s="24" t="s">
         <v>728</v>
       </c>
     </row>
@@ -10229,37 +10209,37 @@
       <c r="C205" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D205" s="27" t="s">
+      <c r="D205" s="24" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="24" t="str">
+      <c r="A206" t="str">
         <f>IF(ISNA(VLOOKUP(B206,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B206" s="36" t="s">
+      <c r="B206" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="C206" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D206" s="27" t="s">
+      <c r="C206" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D206" s="24" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="24" t="str">
+      <c r="A207" t="str">
         <f>IF(ISNA(VLOOKUP(B207,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B207" s="36" t="s">
+      <c r="B207" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="C207" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D207" s="27" t="s">
+      <c r="C207" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D207" s="24" t="s">
         <v>821</v>
       </c>
     </row>
@@ -10274,22 +10254,22 @@
       <c r="C208" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D208" s="27" t="s">
+      <c r="D208" s="24" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="24" t="str">
+      <c r="A209" t="str">
         <f>IF(ISNA(VLOOKUP(B209,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B209" s="36" t="s">
+      <c r="B209" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C209" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D209" s="27" t="s">
+      <c r="C209" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D209" s="24" t="s">
         <v>810</v>
       </c>
     </row>
@@ -10304,7 +10284,7 @@
       <c r="C210" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D210" s="27" t="s">
+      <c r="D210" s="24" t="s">
         <v>743</v>
       </c>
     </row>
@@ -10319,7 +10299,7 @@
       <c r="C211" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D211" s="27" t="s">
+      <c r="D211" s="24" t="s">
         <v>744</v>
       </c>
     </row>
@@ -10334,22 +10314,22 @@
       <c r="C212" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D212" s="27" t="s">
+      <c r="D212" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A213" s="24" t="str">
+      <c r="A213" t="str">
         <f>IF(ISNA(VLOOKUP(B213,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B213" s="36" t="s">
+      <c r="B213" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="C213" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D213" s="27" t="s">
+      <c r="C213" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D213" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -10364,7 +10344,7 @@
       <c r="C214" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D214" s="27" t="s">
+      <c r="D214" s="24" t="s">
         <v>745</v>
       </c>
     </row>
@@ -10379,7 +10359,7 @@
       <c r="C215" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D215" s="27" t="s">
+      <c r="D215" s="24" t="s">
         <v>726</v>
       </c>
     </row>
@@ -10394,22 +10374,22 @@
       <c r="C216" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D216" s="27" t="s">
+      <c r="D216" s="24" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="24" t="str">
+      <c r="A217" t="str">
         <f>IF(ISNA(VLOOKUP(B217,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B217" s="36" t="s">
+      <c r="B217" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="C217" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D217" s="27" t="s">
+      <c r="C217" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D217" s="24" t="s">
         <v>820</v>
       </c>
     </row>
@@ -10424,22 +10404,22 @@
       <c r="C218" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D218" s="27" t="s">
+      <c r="D218" s="24" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A219" s="24" t="str">
+      <c r="A219" t="str">
         <f>IF(ISNA(VLOOKUP(B219,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B219" s="36" t="s">
+      <c r="B219" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="C219" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D219" s="27" t="s">
+      <c r="C219" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D219" s="24" t="s">
         <v>820</v>
       </c>
     </row>
@@ -10454,7 +10434,7 @@
       <c r="C220" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D220" s="27" t="s">
+      <c r="D220" s="24" t="s">
         <v>746</v>
       </c>
     </row>
@@ -10469,22 +10449,22 @@
       <c r="C221" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D221" s="27" t="s">
+      <c r="D221" s="24" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="24" t="str">
+      <c r="A222" t="str">
         <f>IF(ISNA(VLOOKUP(B222,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B222" s="36" t="s">
+      <c r="B222" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C222" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D222" s="27" t="s">
+      <c r="C222" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D222" s="24" t="s">
         <v>796</v>
       </c>
     </row>
@@ -10499,22 +10479,22 @@
       <c r="C223" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D223" s="27" t="s">
+      <c r="D223" s="24" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A224" s="24" t="str">
+      <c r="A224" t="str">
         <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B224" s="36" t="s">
+      <c r="B224" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="C224" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D224" s="27" t="s">
+      <c r="C224" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D224" s="24" t="s">
         <v>796</v>
       </c>
     </row>
@@ -10529,22 +10509,22 @@
       <c r="C225" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D225" s="27" t="s">
+      <c r="D225" s="24" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="24" t="str">
+      <c r="A226" t="str">
         <f>IF(ISNA(VLOOKUP(B226,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B226" s="36" t="s">
+      <c r="B226" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="C226" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D226" s="27" t="s">
+      <c r="C226" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D226" s="24" t="s">
         <v>796</v>
       </c>
     </row>
@@ -10559,22 +10539,22 @@
       <c r="C227" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D227" s="27" t="s">
+      <c r="D227" s="24" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="24" t="str">
+      <c r="A228" t="str">
         <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B228" s="36" t="s">
+      <c r="B228" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C228" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D228" s="27" t="s">
+      <c r="C228" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D228" s="24" t="s">
         <v>793</v>
       </c>
     </row>
@@ -10589,7 +10569,7 @@
       <c r="C229" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D229" s="27" t="s">
+      <c r="D229" s="24" t="s">
         <v>717</v>
       </c>
     </row>
@@ -10604,37 +10584,37 @@
       <c r="C230" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D230" s="27" t="s">
+      <c r="D230" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A231" s="24" t="str">
+      <c r="A231" t="str">
         <f>IF(ISNA(VLOOKUP(B231,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B231" s="36" t="s">
+      <c r="B231" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="C231" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D231" s="27" t="s">
+      <c r="C231" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D231" s="24" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A232" s="24" t="str">
+      <c r="A232" t="str">
         <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B232" s="36" t="s">
+      <c r="B232" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="C232" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D232" s="27" t="s">
+      <c r="C232" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D232" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -10649,7 +10629,7 @@
       <c r="C233" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D233" s="27" t="s">
+      <c r="D233" s="24" t="s">
         <v>748</v>
       </c>
     </row>
@@ -10664,22 +10644,22 @@
       <c r="C234" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D234" s="27" t="s">
+      <c r="D234" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A235" s="24" t="str">
+      <c r="A235" t="str">
         <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B235" s="36" t="s">
+      <c r="B235" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="C235" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D235" s="27" t="s">
+      <c r="C235" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D235" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -10694,22 +10674,22 @@
       <c r="C236" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D236" s="27" t="s">
+      <c r="D236" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="24" t="str">
+      <c r="A237" t="str">
         <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B237" s="36" t="s">
+      <c r="B237" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="C237" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D237" s="27" t="s">
+      <c r="C237" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D237" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -10724,22 +10704,22 @@
       <c r="C238" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D238" s="27" t="s">
+      <c r="D238" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="24" t="str">
+      <c r="A239" t="str">
         <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B239" s="36" t="s">
+      <c r="B239" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C239" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D239" s="27" t="s">
+      <c r="C239" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D239" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -10754,22 +10734,22 @@
       <c r="C240" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D240" s="27" t="s">
+      <c r="D240" s="24" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A241" s="24" t="str">
+      <c r="A241" t="str">
         <f>IF(ISNA(VLOOKUP(B241,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B241" s="36" t="s">
+      <c r="B241" s="29" t="s">
         <v>694</v>
       </c>
-      <c r="C241" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D241" s="27" t="s">
+      <c r="C241" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D241" s="24" t="s">
         <v>797</v>
       </c>
     </row>
@@ -10784,7 +10764,7 @@
       <c r="C242" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D242" s="27" t="s">
+      <c r="D242" s="24" t="s">
         <v>718</v>
       </c>
     </row>
@@ -10799,37 +10779,37 @@
       <c r="C243" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D243" s="27" t="s">
+      <c r="D243" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A244" s="24" t="str">
+      <c r="A244" t="str">
         <f>IF(ISNA(VLOOKUP(B244,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B244" s="36" t="s">
+      <c r="B244" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="C244" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D244" s="27" t="s">
+      <c r="C244" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D244" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A245" s="24" t="str">
+      <c r="A245" t="str">
         <f>IF(ISNA(VLOOKUP(B245,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B245" s="36" t="s">
+      <c r="B245" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="C245" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D245" s="27" t="s">
+      <c r="C245" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D245" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10844,7 +10824,7 @@
       <c r="C246" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D246" s="27" t="s">
+      <c r="D246" s="24" t="s">
         <v>718</v>
       </c>
     </row>
@@ -10859,37 +10839,37 @@
       <c r="C247" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D247" s="27" t="s">
+      <c r="D247" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A248" s="24" t="str">
+      <c r="A248" t="str">
         <f>IF(ISNA(VLOOKUP(B248,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B248" s="36" t="s">
+      <c r="B248" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="C248" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D248" s="27" t="s">
+      <c r="C248" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D248" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A249" s="24" t="str">
+      <c r="A249" t="str">
         <f>IF(ISNA(VLOOKUP(B249,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B249" s="36" t="s">
+      <c r="B249" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="C249" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D249" s="27" t="s">
+      <c r="C249" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D249" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10904,7 +10884,7 @@
       <c r="C250" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D250" s="27" t="s">
+      <c r="D250" s="24" t="s">
         <v>718</v>
       </c>
     </row>
@@ -10919,37 +10899,37 @@
       <c r="C251" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D251" s="27" t="s">
+      <c r="D251" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A252" s="24" t="str">
+      <c r="A252" t="str">
         <f>IF(ISNA(VLOOKUP(B252,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B252" s="36" t="s">
+      <c r="B252" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C252" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D252" s="27" t="s">
+      <c r="C252" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D252" s="24" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A253" s="24" t="str">
+      <c r="A253" t="str">
         <f>IF(ISNA(VLOOKUP(B253,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B253" s="36" t="s">
+      <c r="B253" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C253" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D253" s="27" t="s">
+      <c r="C253" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D253" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10964,7 +10944,7 @@
       <c r="C254" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D254" s="27" t="s">
+      <c r="D254" s="24" t="s">
         <v>714</v>
       </c>
     </row>
@@ -10979,37 +10959,37 @@
       <c r="C255" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D255" s="27" t="s">
+      <c r="D255" s="24" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A256" s="24" t="str">
+      <c r="A256" t="str">
         <f>IF(ISNA(VLOOKUP(B256,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B256" s="36" t="s">
+      <c r="B256" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C256" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D256" s="27" t="s">
+      <c r="C256" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D256" s="24" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A257" s="24" t="str">
+      <c r="A257" t="str">
         <f>IF(ISNA(VLOOKUP(B257,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B257" s="36" t="s">
+      <c r="B257" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C257" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D257" s="27" t="s">
+      <c r="C257" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D257" s="24" t="s">
         <v>817</v>
       </c>
     </row>
@@ -11024,7 +11004,7 @@
       <c r="C258" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D258" s="27" t="s">
+      <c r="D258" s="24" t="s">
         <v>732</v>
       </c>
     </row>
@@ -11039,37 +11019,37 @@
       <c r="C259" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D259" s="27" t="s">
+      <c r="D259" s="24" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A260" s="24" t="str">
+      <c r="A260" t="str">
         <f>IF(ISNA(VLOOKUP(B260,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B260" s="36" t="s">
+      <c r="B260" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C260" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D260" s="27" t="s">
+      <c r="C260" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D260" s="24" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A261" s="24" t="str">
+      <c r="A261" t="str">
         <f>IF(ISNA(VLOOKUP(B261,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B261" s="36" t="s">
+      <c r="B261" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C261" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D261" s="27" t="s">
+      <c r="C261" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D261" s="24" t="s">
         <v>813</v>
       </c>
     </row>
@@ -11084,22 +11064,22 @@
       <c r="C262" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D262" s="27" t="s">
+      <c r="D262" s="24" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" s="24" t="str">
+      <c r="A263" t="str">
         <f>IF(ISNA(VLOOKUP(B263,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B263" s="36" t="s">
+      <c r="B263" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="C263" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D263" s="27" t="s">
+      <c r="C263" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D263" s="24" t="s">
         <v>793</v>
       </c>
     </row>
@@ -11114,22 +11094,22 @@
       <c r="C264" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D264" s="27" t="s">
+      <c r="D264" s="24" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A265" s="24" t="str">
+      <c r="A265" t="str">
         <f>IF(ISNA(VLOOKUP(B265,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B265" s="36" t="s">
+      <c r="B265" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C265" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D265" s="27" t="s">
+      <c r="C265" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D265" s="24" t="s">
         <v>793</v>
       </c>
     </row>
@@ -11144,22 +11124,22 @@
       <c r="C266" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D266" s="27" t="s">
+      <c r="D266" s="24" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A267" s="24" t="str">
+      <c r="A267" t="str">
         <f>IF(ISNA(VLOOKUP(B267,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B267" s="36" t="s">
+      <c r="B267" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C267" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D267" s="27" t="s">
+      <c r="C267" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D267" s="24" t="s">
         <v>815</v>
       </c>
     </row>
@@ -11174,22 +11154,22 @@
       <c r="C268" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D268" s="27" t="s">
+      <c r="D268" s="24" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="24" t="str">
+      <c r="A269" t="str">
         <f>IF(ISNA(VLOOKUP(B269,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B269" s="36" t="s">
+      <c r="B269" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="C269" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D269" s="27" t="s">
+      <c r="C269" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D269" s="24" t="s">
         <v>820</v>
       </c>
     </row>
@@ -11204,7 +11184,7 @@
       <c r="C270" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D270" s="27" t="s">
+      <c r="D270" s="24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -11219,37 +11199,37 @@
       <c r="C271" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D271" s="27" t="s">
+      <c r="D271" s="24" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A272" s="24" t="str">
+      <c r="A272" t="str">
         <f>IF(ISNA(VLOOKUP(B272,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B272" s="36" t="s">
+      <c r="B272" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C272" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D272" s="27" t="s">
+      <c r="C272" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D272" s="24" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A273" s="24" t="str">
+      <c r="A273" t="str">
         <f>IF(ISNA(VLOOKUP(B273,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B273" s="36" t="s">
+      <c r="B273" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C273" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D273" s="27" t="s">
+      <c r="C273" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D273" s="24" t="s">
         <v>816</v>
       </c>
     </row>
@@ -11264,22 +11244,22 @@
       <c r="C274" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D274" s="27" t="s">
+      <c r="D274" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A275" s="24" t="str">
+      <c r="A275" t="str">
         <f>IF(ISNA(VLOOKUP(B275,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B275" s="36" t="s">
+      <c r="B275" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="C275" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D275" s="27" t="s">
+      <c r="C275" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D275" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -11294,22 +11274,22 @@
       <c r="C276" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D276" s="27" t="s">
+      <c r="D276" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A277" s="24" t="str">
+      <c r="A277" t="str">
         <f>IF(ISNA(VLOOKUP(B277,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B277" s="36" t="s">
+      <c r="B277" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="C277" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D277" s="27" t="s">
+      <c r="C277" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D277" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -11324,22 +11304,22 @@
       <c r="C278" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D278" s="27" t="s">
+      <c r="D278" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A279" s="24" t="str">
+      <c r="A279" t="str">
         <f>IF(ISNA(VLOOKUP(B279,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B279" s="36" t="s">
+      <c r="B279" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="C279" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D279" s="27" t="s">
+      <c r="C279" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D279" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -11354,22 +11334,22 @@
       <c r="C280" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D280" s="27" t="s">
+      <c r="D280" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A281" s="24" t="str">
+      <c r="A281" t="str">
         <f>IF(ISNA(VLOOKUP(B281,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B281" s="36" t="s">
+      <c r="B281" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="C281" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D281" s="27" t="s">
+      <c r="C281" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D281" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -11384,22 +11364,22 @@
       <c r="C282" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D282" s="27" t="s">
+      <c r="D282" s="24" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A283" s="24" t="str">
+      <c r="A283" t="str">
         <f>IF(ISNA(VLOOKUP(B283,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B283" s="36" t="s">
+      <c r="B283" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C283" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D283" s="27" t="s">
+      <c r="C283" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D283" s="24" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11414,7 +11394,7 @@
       <c r="C284" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D284" s="27" t="s">
+      <c r="D284" s="24" t="s">
         <v>731</v>
       </c>
     </row>
@@ -11429,22 +11409,22 @@
       <c r="C285" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D285" s="27" t="s">
+      <c r="D285" s="24" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A286" s="24" t="str">
+      <c r="A286" t="str">
         <f>IF(ISNA(VLOOKUP(B286,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B286" s="36" t="s">
+      <c r="B286" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C286" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D286" s="27" t="s">
+      <c r="C286" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D286" s="24" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11459,22 +11439,22 @@
       <c r="C287" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D287" s="27" t="s">
+      <c r="D287" s="24" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A288" s="24" t="str">
+      <c r="A288" t="str">
         <f>IF(ISNA(VLOOKUP(B288,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B288" s="36" t="s">
+      <c r="B288" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="C288" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D288" s="27" t="s">
+      <c r="C288" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D288" s="24" t="s">
         <v>817</v>
       </c>
     </row>
@@ -11489,7 +11469,7 @@
       <c r="C289" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D289" s="27" t="s">
+      <c r="D289" s="24" t="s">
         <v>747</v>
       </c>
     </row>
@@ -11504,22 +11484,22 @@
       <c r="C290" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D290" s="27" t="s">
+      <c r="D290" s="24" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A291" s="24" t="str">
+      <c r="A291" t="str">
         <f>IF(ISNA(VLOOKUP(B291,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B291" s="36" t="s">
+      <c r="B291" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="C291" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D291" s="27" t="s">
+      <c r="C291" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D291" s="24" t="s">
         <v>796</v>
       </c>
     </row>
@@ -11534,7 +11514,7 @@
       <c r="C292" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D292" s="27" t="s">
+      <c r="D292" s="24" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11549,22 +11529,22 @@
       <c r="C293" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D293" s="27" t="s">
+      <c r="D293" s="24" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A294" s="24" t="str">
+      <c r="A294" t="str">
         <f>IF(ISNA(VLOOKUP(B294,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B294" s="36" t="s">
+      <c r="B294" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C294" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D294" s="27" t="s">
+      <c r="C294" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D294" s="24" t="s">
         <v>808</v>
       </c>
     </row>
@@ -11579,7 +11559,7 @@
       <c r="C295" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D295" s="27" t="s">
+      <c r="D295" s="24" t="s">
         <v>753</v>
       </c>
     </row>
@@ -11594,7 +11574,7 @@
       <c r="C296" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D296" s="27" t="s">
+      <c r="D296" s="24" t="s">
         <v>754</v>
       </c>
     </row>
@@ -11609,7 +11589,7 @@
       <c r="C297" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D297" s="27" t="s">
+      <c r="D297" s="24" t="s">
         <v>755</v>
       </c>
     </row>
@@ -11624,7 +11604,7 @@
       <c r="C298" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D298" s="27" t="s">
+      <c r="D298" s="24" t="s">
         <v>756</v>
       </c>
     </row>
@@ -11639,52 +11619,52 @@
       <c r="C299" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D299" s="27" t="s">
+      <c r="D299" s="24" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A300" s="24" t="str">
+      <c r="A300" t="str">
         <f>IF(ISNA(VLOOKUP(B300,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B300" s="36" t="s">
+      <c r="B300" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C300" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D300" s="27" t="s">
+      <c r="C300" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D300" s="24" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A301" s="24" t="str">
+      <c r="A301" t="str">
         <f>IF(ISNA(VLOOKUP(B301,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B301" s="36" t="s">
+      <c r="B301" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C301" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D301" s="27" t="s">
+      <c r="C301" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D301" s="24" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A302" s="24" t="str">
+      <c r="A302" t="str">
         <f>IF(ISNA(VLOOKUP(B302,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B302" s="36" t="s">
+      <c r="B302" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C302" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D302" s="27" t="s">
+      <c r="C302" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D302" s="24" t="s">
         <v>820</v>
       </c>
     </row>
@@ -11699,7 +11679,7 @@
       <c r="C303" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D303" s="27" t="s">
+      <c r="D303" s="24" t="s">
         <v>757</v>
       </c>
     </row>
@@ -11714,7 +11694,7 @@
       <c r="C304" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D304" s="27" t="s">
+      <c r="D304" s="24" t="s">
         <v>725</v>
       </c>
     </row>
@@ -11729,7 +11709,7 @@
       <c r="C305" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D305" s="27" t="s">
+      <c r="D305" s="24" t="s">
         <v>735</v>
       </c>
     </row>
@@ -11744,7 +11724,7 @@
       <c r="C306" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D306" s="27" t="s">
+      <c r="D306" s="24" t="s">
         <v>727</v>
       </c>
     </row>
@@ -11759,7 +11739,7 @@
       <c r="C307" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D307" s="27" t="s">
+      <c r="D307" s="24" t="s">
         <v>719</v>
       </c>
     </row>
@@ -11774,37 +11754,37 @@
       <c r="C308" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D308" s="27" t="s">
+      <c r="D308" s="24" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A309" s="24" t="str">
+      <c r="A309" t="str">
         <f>IF(ISNA(VLOOKUP(B309,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B309" s="36" t="s">
+      <c r="B309" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="C309" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D309" s="27" t="s">
+      <c r="C309" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D309" s="24" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A310" s="24" t="str">
+      <c r="A310" t="str">
         <f>IF(ISNA(VLOOKUP(B310,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B310" s="36" t="s">
+      <c r="B310" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="C310" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D310" s="27" t="s">
+      <c r="C310" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D310" s="24" t="s">
         <v>736</v>
       </c>
     </row>
@@ -11819,7 +11799,7 @@
       <c r="C311" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D311" s="27" t="s">
+      <c r="D311" s="24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -11834,7 +11814,7 @@
       <c r="C312" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D312" s="27" t="s">
+      <c r="D312" s="24" t="s">
         <v>755</v>
       </c>
     </row>
@@ -11849,7 +11829,7 @@
       <c r="C313" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D313" s="27" t="s">
+      <c r="D313" s="24" t="s">
         <v>756</v>
       </c>
     </row>
@@ -11864,7 +11844,7 @@
       <c r="C314" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D314" s="27" t="s">
+      <c r="D314" s="24" t="s">
         <v>725</v>
       </c>
     </row>
@@ -11879,7 +11859,7 @@
       <c r="C315" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D315" s="27" t="s">
+      <c r="D315" s="24" t="s">
         <v>735</v>
       </c>
     </row>
@@ -11894,7 +11874,7 @@
       <c r="C316" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D316" s="27" t="s">
+      <c r="D316" s="24" t="s">
         <v>727</v>
       </c>
     </row>
@@ -11909,7 +11889,7 @@
       <c r="C317" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D317" s="27" t="s">
+      <c r="D317" s="24" t="s">
         <v>719</v>
       </c>
     </row>
@@ -11924,82 +11904,82 @@
       <c r="C318" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D318" s="27" t="s">
+      <c r="D318" s="24" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A319" s="24" t="str">
+      <c r="A319" t="str">
         <f>IF(ISNA(VLOOKUP(B319,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B319" s="36" t="s">
+      <c r="B319" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C319" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D319" s="27" t="s">
+      <c r="C319" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D319" s="24" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A320" s="24" t="str">
+      <c r="A320" t="str">
         <f>IF(ISNA(VLOOKUP(B320,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B320" s="36" t="s">
+      <c r="B320" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C320" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D320" s="27" t="s">
+      <c r="C320" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D320" s="24" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A321" s="24" t="str">
+      <c r="A321" t="str">
         <f>IF(ISNA(VLOOKUP(B321,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B321" s="36" t="s">
+      <c r="B321" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C321" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D321" s="27" t="s">
+      <c r="C321" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D321" s="24" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A322" s="24" t="str">
+      <c r="A322" t="str">
         <f>IF(ISNA(VLOOKUP(B322,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B322" s="36" t="s">
+      <c r="B322" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C322" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D322" s="27" t="s">
+      <c r="C322" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D322" s="24" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A323" s="24" t="str">
+      <c r="A323" t="str">
         <f>IF(ISNA(VLOOKUP(B323,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B323" s="36" t="s">
+      <c r="B323" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C323" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D323" s="27" t="s">
+      <c r="C323" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D323" s="24" t="s">
         <v>736</v>
       </c>
     </row>
@@ -12014,7 +11994,7 @@
       <c r="C324" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D324" s="27" t="s">
+      <c r="D324" s="24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -12029,7 +12009,7 @@
       <c r="C325" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D325" s="27" t="s">
+      <c r="D325" s="24" t="s">
         <v>755</v>
       </c>
     </row>
@@ -12044,7 +12024,7 @@
       <c r="C326" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D326" s="27" t="s">
+      <c r="D326" s="24" t="s">
         <v>756</v>
       </c>
     </row>
@@ -12059,7 +12039,7 @@
       <c r="C327" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D327" s="27" t="s">
+      <c r="D327" s="24" t="s">
         <v>725</v>
       </c>
     </row>
@@ -12074,7 +12054,7 @@
       <c r="C328" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D328" s="27" t="s">
+      <c r="D328" s="24" t="s">
         <v>735</v>
       </c>
     </row>
@@ -12089,7 +12069,7 @@
       <c r="C329" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D329" s="27" t="s">
+      <c r="D329" s="24" t="s">
         <v>727</v>
       </c>
     </row>
@@ -12104,7 +12084,7 @@
       <c r="C330" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D330" s="27" t="s">
+      <c r="D330" s="24" t="s">
         <v>719</v>
       </c>
     </row>
@@ -12119,82 +12099,82 @@
       <c r="C331" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D331" s="27" t="s">
+      <c r="D331" s="24" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A332" s="24" t="str">
+      <c r="A332" t="str">
         <f>IF(ISNA(VLOOKUP(B332,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B332" s="36" t="s">
+      <c r="B332" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C332" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D332" s="27" t="s">
+      <c r="C332" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D332" s="24" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A333" s="24" t="str">
+      <c r="A333" t="str">
         <f>IF(ISNA(VLOOKUP(B333,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B333" s="36" t="s">
+      <c r="B333" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C333" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D333" s="27" t="s">
+      <c r="C333" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D333" s="24" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A334" s="24" t="str">
+      <c r="A334" t="str">
         <f>IF(ISNA(VLOOKUP(B334,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B334" s="36" t="s">
+      <c r="B334" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C334" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D334" s="27" t="s">
+      <c r="C334" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D334" s="24" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A335" s="24" t="str">
+      <c r="A335" t="str">
         <f>IF(ISNA(VLOOKUP(B335,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B335" s="36" t="s">
+      <c r="B335" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C335" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D335" s="27" t="s">
+      <c r="C335" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D335" s="24" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A336" s="24" t="str">
+      <c r="A336" t="str">
         <f>IF(ISNA(VLOOKUP(B336,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B336" s="36" t="s">
+      <c r="B336" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C336" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D336" s="27" t="s">
+      <c r="C336" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D336" s="24" t="s">
         <v>736</v>
       </c>
     </row>
@@ -12209,7 +12189,7 @@
       <c r="C337" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D337" s="27" t="s">
+      <c r="D337" s="24" t="s">
         <v>748</v>
       </c>
     </row>
@@ -12224,7 +12204,7 @@
       <c r="C338" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D338" s="27" t="s">
+      <c r="D338" s="24" t="s">
         <v>758</v>
       </c>
     </row>
@@ -12239,7 +12219,7 @@
       <c r="C339" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D339" s="27" t="s">
+      <c r="D339" s="24" t="s">
         <v>759</v>
       </c>
     </row>
@@ -12254,7 +12234,7 @@
       <c r="C340" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D340" s="27" t="s">
+      <c r="D340" s="24" t="s">
         <v>760</v>
       </c>
     </row>
@@ -12269,22 +12249,22 @@
       <c r="C341" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D341" s="27" t="s">
+      <c r="D341" s="24" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A342" s="24" t="str">
+      <c r="A342" t="str">
         <f>IF(ISNA(VLOOKUP(B342,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B342" s="36" t="s">
+      <c r="B342" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C342" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D342" s="27" t="s">
+      <c r="C342" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D342" s="24" t="s">
         <v>793</v>
       </c>
     </row>
@@ -12299,22 +12279,22 @@
       <c r="C343" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D343" s="27" t="s">
+      <c r="D343" s="24" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A344" s="24" t="str">
+      <c r="A344" t="str">
         <f>IF(ISNA(VLOOKUP(B344,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B344" s="36" t="s">
+      <c r="B344" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="C344" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D344" s="27" t="s">
+      <c r="C344" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D344" s="24" t="s">
         <v>793</v>
       </c>
     </row>
@@ -12329,7 +12309,7 @@
       <c r="C345" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D345" s="27" t="s">
+      <c r="D345" s="24" t="s">
         <v>761</v>
       </c>
     </row>
@@ -12344,22 +12324,22 @@
       <c r="C346" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D346" s="27" t="s">
+      <c r="D346" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A347" s="24" t="str">
+      <c r="A347" t="str">
         <f>IF(ISNA(VLOOKUP(B347,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B347" s="36" t="s">
+      <c r="B347" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="C347" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D347" s="27" t="s">
+      <c r="C347" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D347" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -12374,7 +12354,7 @@
       <c r="C348" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D348" s="27" t="s">
+      <c r="D348" s="24" t="s">
         <v>762</v>
       </c>
     </row>
@@ -12389,22 +12369,22 @@
       <c r="C349" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D349" s="27" t="s">
+      <c r="D349" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A350" s="24" t="str">
+      <c r="A350" t="str">
         <f>IF(ISNA(VLOOKUP(B350,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B350" s="36" t="s">
+      <c r="B350" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="C350" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D350" s="27" t="s">
+      <c r="C350" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D350" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -12419,7 +12399,7 @@
       <c r="C351" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D351" s="27" t="s">
+      <c r="D351" s="24" t="s">
         <v>763</v>
       </c>
     </row>
@@ -12434,22 +12414,22 @@
       <c r="C352" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D352" s="27" t="s">
+      <c r="D352" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A353" s="24" t="str">
+      <c r="A353" t="str">
         <f>IF(ISNA(VLOOKUP(B353,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B353" s="36" t="s">
+      <c r="B353" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="C353" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D353" s="27" t="s">
+      <c r="C353" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D353" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -12464,22 +12444,22 @@
       <c r="C354" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D354" s="27" t="s">
+      <c r="D354" s="24" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A355" s="24" t="str">
+      <c r="A355" t="str">
         <f>IF(ISNA(VLOOKUP(B355,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B355" s="36" t="s">
+      <c r="B355" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="C355" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D355" s="27" t="s">
+      <c r="C355" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D355" s="24" t="s">
         <v>818</v>
       </c>
     </row>
@@ -12494,22 +12474,22 @@
       <c r="C356" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D356" s="27" t="s">
+      <c r="D356" s="24" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A357" s="24" t="str">
+      <c r="A357" t="str">
         <f>IF(ISNA(VLOOKUP(B357,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B357" s="36" t="s">
+      <c r="B357" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="C357" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D357" s="27" t="s">
+      <c r="C357" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D357" s="24" t="s">
         <v>818</v>
       </c>
     </row>
@@ -12524,22 +12504,22 @@
       <c r="C358" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D358" s="27" t="s">
+      <c r="D358" s="24" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A359" s="24" t="str">
+      <c r="A359" t="str">
         <f>IF(ISNA(VLOOKUP(B359,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B359" s="36" t="s">
+      <c r="B359" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C359" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D359" s="27" t="s">
+      <c r="C359" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D359" s="24" t="s">
         <v>818</v>
       </c>
     </row>
@@ -12554,22 +12534,22 @@
       <c r="C360" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D360" s="27" t="s">
+      <c r="D360" s="24" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A361" s="24" t="str">
+      <c r="A361" t="str">
         <f>IF(ISNA(VLOOKUP(B361,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B361" s="36" t="s">
+      <c r="B361" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="C361" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D361" s="27" t="s">
+      <c r="C361" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D361" s="24" t="s">
         <v>804</v>
       </c>
     </row>
@@ -12584,7 +12564,7 @@
       <c r="C362" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D362" s="27" t="s">
+      <c r="D362" s="24" t="s">
         <v>765</v>
       </c>
     </row>
@@ -12599,7 +12579,7 @@
       <c r="C363" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D363" s="27" t="s">
+      <c r="D363" s="24" t="s">
         <v>765</v>
       </c>
     </row>
@@ -12614,22 +12594,22 @@
       <c r="C364" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D364" s="27" t="s">
+      <c r="D364" s="24" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A365" s="24" t="str">
+      <c r="A365" t="str">
         <f>IF(ISNA(VLOOKUP(B365,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B365" s="36" t="s">
+      <c r="B365" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="C365" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D365" s="27" t="s">
+      <c r="C365" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D365" s="24" t="s">
         <v>816</v>
       </c>
     </row>
@@ -12644,22 +12624,22 @@
       <c r="C366" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D366" s="27" t="s">
+      <c r="D366" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A367" s="24" t="str">
+      <c r="A367" t="str">
         <f>IF(ISNA(VLOOKUP(B367,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B367" s="36" t="s">
+      <c r="B367" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="C367" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D367" s="27" t="s">
+      <c r="C367" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D367" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -12674,7 +12654,7 @@
       <c r="C368" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D368" s="27" t="s">
+      <c r="D368" s="24" t="s">
         <v>766</v>
       </c>
     </row>
@@ -12689,22 +12669,22 @@
       <c r="C369" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D369" s="27" t="s">
+      <c r="D369" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A370" s="24" t="str">
+      <c r="A370" t="str">
         <f>IF(ISNA(VLOOKUP(B370,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B370" s="36" t="s">
+      <c r="B370" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="C370" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D370" s="27" t="s">
+      <c r="C370" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D370" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -12719,22 +12699,22 @@
       <c r="C371" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D371" s="27" t="s">
+      <c r="D371" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A372" s="24" t="str">
+      <c r="A372" t="str">
         <f>IF(ISNA(VLOOKUP(B372,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B372" s="36" t="s">
+      <c r="B372" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C372" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D372" s="27" t="s">
+      <c r="C372" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D372" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -12749,22 +12729,22 @@
       <c r="C373" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D373" s="27" t="s">
+      <c r="D373" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A374" s="24" t="str">
+      <c r="A374" t="str">
         <f>IF(ISNA(VLOOKUP(B374,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B374" s="36" t="s">
+      <c r="B374" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="C374" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D374" s="27" t="s">
+      <c r="C374" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D374" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -12779,22 +12759,22 @@
       <c r="C375" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D375" s="27" t="s">
+      <c r="D375" s="24" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A376" s="24" t="str">
+      <c r="A376" t="str">
         <f>IF(ISNA(VLOOKUP(B376,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B376" s="36" t="s">
+      <c r="B376" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="C376" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D376" s="27" t="s">
+      <c r="C376" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D376" s="24" t="s">
         <v>819</v>
       </c>
     </row>
@@ -12809,22 +12789,22 @@
       <c r="C377" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D377" s="27" t="s">
+      <c r="D377" s="24" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A378" s="24" t="str">
+      <c r="A378" t="str">
         <f>IF(ISNA(VLOOKUP(B378,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B378" s="36" t="s">
+      <c r="B378" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="C378" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D378" s="27" t="s">
+      <c r="C378" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D378" s="24" t="s">
         <v>797</v>
       </c>
     </row>
@@ -12839,22 +12819,22 @@
       <c r="C379" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D379" s="27" t="s">
+      <c r="D379" s="24" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A380" s="24" t="str">
+      <c r="A380" t="str">
         <f>IF(ISNA(VLOOKUP(B380,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B380" s="36" t="s">
+      <c r="B380" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="C380" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D380" s="27" t="s">
+      <c r="C380" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D380" s="24" t="s">
         <v>816</v>
       </c>
     </row>
@@ -12869,7 +12849,7 @@
       <c r="C381" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D381" s="27" t="s">
+      <c r="D381" s="24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -12884,37 +12864,37 @@
       <c r="C382" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D382" s="27" t="s">
+      <c r="D382" s="24" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A383" s="24" t="str">
+      <c r="A383" t="str">
         <f>IF(ISNA(VLOOKUP(B383,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B383" s="36" t="s">
+      <c r="B383" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="C383" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D383" s="27" t="s">
+      <c r="C383" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D383" s="24" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A384" s="24" t="str">
+      <c r="A384" t="str">
         <f>IF(ISNA(VLOOKUP(B384,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B384" s="36" t="s">
+      <c r="B384" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="C384" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D384" s="27" t="s">
+      <c r="C384" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D384" s="24" t="s">
         <v>806</v>
       </c>
     </row>
@@ -12929,22 +12909,22 @@
       <c r="C385" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D385" s="27" t="s">
+      <c r="D385" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A386" s="24" t="str">
+      <c r="A386" t="str">
         <f>IF(ISNA(VLOOKUP(B386,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B386" s="36" t="s">
+      <c r="B386" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="C386" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D386" s="27" t="s">
+      <c r="C386" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D386" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -12959,22 +12939,22 @@
       <c r="C387" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D387" s="27" t="s">
+      <c r="D387" s="24" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A388" s="24" t="str">
+      <c r="A388" t="str">
         <f>IF(ISNA(VLOOKUP(B388,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B388" s="36" t="s">
+      <c r="B388" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C388" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D388" s="27" t="s">
+      <c r="C388" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D388" s="24" t="s">
         <v>793</v>
       </c>
     </row>
@@ -12989,22 +12969,22 @@
       <c r="C389" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D389" s="27" t="s">
+      <c r="D389" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A390" s="24" t="str">
+      <c r="A390" t="str">
         <f>IF(ISNA(VLOOKUP(B390,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B390" s="36" t="s">
+      <c r="B390" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="C390" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D390" s="27" t="s">
+      <c r="C390" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D390" s="24" t="s">
         <v>800</v>
       </c>
     </row>
@@ -13019,22 +12999,22 @@
       <c r="C391" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D391" s="27" t="s">
+      <c r="D391" s="24" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A392" s="24" t="str">
+      <c r="A392" t="str">
         <f>IF(ISNA(VLOOKUP(B392,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B392" s="36" t="s">
+      <c r="B392" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="C392" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D392" s="27" t="s">
+      <c r="C392" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D392" s="24" t="s">
         <v>793</v>
       </c>
     </row>
@@ -13049,7 +13029,7 @@
       <c r="C393" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D393" s="27" t="s">
+      <c r="D393" s="24" t="s">
         <v>767</v>
       </c>
     </row>
@@ -13064,7 +13044,7 @@
       <c r="C394" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D394" s="27" t="s">
+      <c r="D394" s="24" t="s">
         <v>709</v>
       </c>
     </row>
@@ -13079,7 +13059,7 @@
       <c r="C395" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D395" s="27" t="s">
+      <c r="D395" s="24" t="s">
         <v>710</v>
       </c>
     </row>
@@ -13094,7 +13074,7 @@
       <c r="C396" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D396" s="27" t="s">
+      <c r="D396" s="24" t="s">
         <v>721</v>
       </c>
     </row>
@@ -13109,98 +13089,98 @@
       <c r="C397" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D397" s="27" t="s">
+      <c r="D397" s="24" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A398" s="24" t="str">
+      <c r="A398" t="str">
         <f>IF(ISNA(VLOOKUP(B398,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B398" s="36" t="s">
+      <c r="B398" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C398" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D398" s="27" t="s">
+      <c r="C398" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D398" s="24" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A399" s="24" t="str">
+      <c r="A399" t="str">
         <f>IF(ISNA(VLOOKUP(B399,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B399" s="36" t="s">
+      <c r="B399" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C399" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D399" s="27" t="s">
+      <c r="C399" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D399" s="24" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A400" s="24" t="str">
+      <c r="A400" t="str">
         <f>IF(ISNA(VLOOKUP(B400,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B400" s="36" t="s">
+      <c r="B400" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C400" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D400" s="27" t="s">
+      <c r="C400" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D400" s="24" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A401" s="24" t="str">
+      <c r="A401" t="str">
         <f>IF(ISNA(VLOOKUP(B401,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B401" s="36" t="s">
+      <c r="B401" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C401" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D401" s="27" t="s">
+      <c r="C401" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D401" s="24" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" t="str">
+    <row r="402" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A402" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B402,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C402" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D402" s="24" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" t="str">
+        <f>IF(ISNA(VLOOKUP(B403,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B403" t="s">
         <v>306</v>
       </c>
-      <c r="C402" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="D402" s="27" t="s">
+      <c r="C403" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D403" s="24" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A403" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B403,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B403" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="C403" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D403" s="27" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13208,74 +13188,74 @@
         <f>IF(ISNA(VLOOKUP(B404,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B404" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="D404" s="27" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B404" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C404" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D404" s="24" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" t="str">
         <f>IF(ISNA(VLOOKUP(B405,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D405" s="24" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" t="str">
+        <f>IF(ISNA(VLOOKUP(B406,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B406" t="s">
         <v>336</v>
       </c>
-      <c r="C405" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="D405" s="27" t="s">
+      <c r="C406" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D406" s="24" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A406" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B406,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B406" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C406" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D406" s="27" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" t="str">
         <f>IF(ISNA(VLOOKUP(B407,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C407" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D407" s="24" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" t="str">
+        <f>IF(ISNA(VLOOKUP(B408,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B408" t="s">
         <v>364</v>
       </c>
-      <c r="C407" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="D407" s="27" t="s">
+      <c r="C408" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D408" s="24" t="s">
         <v>721</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A408" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B408,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B408" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="C408" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D408" s="27" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13283,87 +13263,89 @@
         <f>IF(ISNA(VLOOKUP(B409,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B409" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="D409" s="27" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B409" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C409" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D409" s="24" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" t="str">
         <f>IF(ISNA(VLOOKUP(B410,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D410" s="24" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" t="str">
+        <f>IF(ISNA(VLOOKUP(B411,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B411" t="s">
         <v>337</v>
       </c>
-      <c r="C410" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="D410" s="27" t="s">
+      <c r="C411" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D411" s="24" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A411" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B411,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B411" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="C411" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D411" s="27" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" t="str">
         <f>IF(ISNA(VLOOKUP(B412,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C412" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D412" s="24" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" t="str">
+        <f>IF(ISNA(VLOOKUP(B413,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B413" t="s">
         <v>365</v>
       </c>
-      <c r="C412" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="D412" s="27" t="s">
+      <c r="C413" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D413" s="24" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A413" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B413,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B413" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="C413" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="D413" s="27" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" t="str">
         <f>IF(ISNA(VLOOKUP(B414,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B414" s="2"/>
-      <c r="C414" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="D414" s="27" t="s">
-        <v>769</v>
+        <v/>
+      </c>
+      <c r="B414" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C414" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D414" s="24" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -13375,217 +13357,230 @@
       <c r="C415" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D415" s="27" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D415" s="24" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="str">
         <f>IF(ISNA(VLOOKUP(B416,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B416" s="25" t="s">
+        <v>Not listed</v>
+      </c>
+      <c r="B416" s="2"/>
+      <c r="C416" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D416" s="24" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A417" t="str">
+        <f>IF(ISNA(VLOOKUP(B417,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C416" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D416" s="27" t="s">
+      <c r="C417" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D417" s="24" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A417" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B417,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B417" s="25" t="s">
+    <row r="418" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A418" t="str">
+        <f>IF(ISNA(VLOOKUP(B418,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C417" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D417" s="27" t="s">
+      <c r="C418" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D418" s="24" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A418" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B418,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B418" s="25" t="s">
+    <row r="419" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A419" t="str">
+        <f>IF(ISNA(VLOOKUP(B419,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C418" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D418" s="27" t="s">
+      <c r="C419" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D419" s="24" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A419" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B419,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B419" s="25" t="s">
+    <row r="420" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A420" t="str">
+        <f>IF(ISNA(VLOOKUP(B420,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C419" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D419" s="27" t="s">
+      <c r="C420" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D420" s="24" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A420" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B420,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B420" s="25" t="s">
+    <row r="421" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A421" t="str">
+        <f>IF(ISNA(VLOOKUP(B421,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C420" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D420" s="27" t="s">
+      <c r="C421" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D421" s="24" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A421" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B421,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B421" s="25" t="s">
+    <row r="422" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A422" t="str">
+        <f>IF(ISNA(VLOOKUP(B422,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C421" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D421" s="27" t="s">
+      <c r="C422" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D422" s="24" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A422" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B422,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B422" s="25" t="s">
+    <row r="423" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A423" t="str">
+        <f>IF(ISNA(VLOOKUP(B423,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C422" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D422" s="27" t="s">
+      <c r="C423" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D423" s="24" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A423" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B423,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B423" s="25" t="s">
+    <row r="424" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A424" t="str">
+        <f>IF(ISNA(VLOOKUP(B424,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C423" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D423" s="27" t="s">
+      <c r="C424" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D424" s="24" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A424" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B424,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B424" s="25" t="s">
+    <row r="425" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A425" t="str">
+        <f>IF(ISNA(VLOOKUP(B425,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C424" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D424" s="27" t="s">
+      <c r="C425" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D425" s="24" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A425" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B425,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B425" s="25" t="s">
+    <row r="426" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A426" t="str">
+        <f>IF(ISNA(VLOOKUP(B426,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B426" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C425" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D425" s="27" t="s">
+      <c r="C426" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D426" s="24" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A426" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B426,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B426" s="25" t="s">
+    <row r="427" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A427" t="str">
+        <f>IF(ISNA(VLOOKUP(B427,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C426" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D426" s="27" t="s">
+      <c r="C427" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D427" s="24" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A427" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B427,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B427" s="25" t="s">
+    <row r="428" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A428" t="str">
+        <f>IF(ISNA(VLOOKUP(B428,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C427" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D427" s="27" t="s">
+      <c r="C428" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D428" s="24" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A428" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B428,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B428" s="25" t="s">
+    <row r="429" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A429" t="str">
+        <f>IF(ISNA(VLOOKUP(B429,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C428" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D428" s="27" t="s">
+      <c r="C429" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D429" s="24" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A429" s="24" t="str">
-        <f>IF(ISNA(VLOOKUP(B429,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B429" s="25" t="s">
+    <row r="430" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A430" t="str">
+        <f>IF(ISNA(VLOOKUP(B430,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C429" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="D429" s="27" t="s">
+      <c r="C430" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D430" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -13607,7 +13602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcutts/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1624D-6EC3-4846-BCA4-C36253E28461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4057C95-0C22-DF4A-AACE-96B872186F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="500" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="843">
   <si>
     <t>Description</t>
   </si>
@@ -2785,7 +2785,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2861,9 +2861,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3073,7 +3070,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
@@ -3088,10 +3085,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D430" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D430" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D416">
-    <sortCondition ref="B1:B416"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D431" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D431" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D417">
+    <sortCondition ref="B1:B417"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
@@ -3453,7 +3450,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A102" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
@@ -3498,7 +3495,7 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="12" t="s">
@@ -3519,7 +3516,7 @@
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3213,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3214,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
@@ -3537,7 +3534,7 @@
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3210,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3211,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
@@ -3555,7 +3552,7 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
@@ -3576,7 +3573,7 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -3597,7 +3594,7 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="2" t="s">
@@ -3618,7 +3615,7 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="2" t="s">
@@ -3639,7 +3636,7 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
@@ -3660,7 +3657,7 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
@@ -3681,7 +3678,7 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
@@ -3702,7 +3699,7 @@
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="13" t="s">
@@ -3725,7 +3722,7 @@
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
@@ -3748,7 +3745,7 @@
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3202,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3203,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="2" t="s">
@@ -3769,7 +3766,7 @@
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
@@ -3792,7 +3789,7 @@
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
@@ -3815,7 +3812,7 @@
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
@@ -3838,7 +3835,7 @@
     </row>
     <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
@@ -3861,7 +3858,7 @@
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
@@ -3884,7 +3881,7 @@
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
@@ -3907,7 +3904,7 @@
     </row>
     <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
@@ -3930,7 +3927,7 @@
     </row>
     <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
@@ -3953,7 +3950,7 @@
     </row>
     <row r="23" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
@@ -3976,7 +3973,7 @@
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
@@ -3999,7 +3996,7 @@
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
@@ -4022,7 +4019,7 @@
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
@@ -4045,7 +4042,7 @@
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
@@ -4068,7 +4065,7 @@
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
@@ -4091,7 +4088,7 @@
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
@@ -4114,7 +4111,7 @@
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
@@ -4137,7 +4134,7 @@
     </row>
     <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
@@ -4160,7 +4157,7 @@
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
@@ -4183,7 +4180,7 @@
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="s">
@@ -4206,7 +4203,7 @@
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="s">
@@ -4229,7 +4226,7 @@
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="s">
@@ -4250,7 +4247,7 @@
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
@@ -4271,7 +4268,7 @@
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="13" t="s">
@@ -4292,7 +4289,7 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="s">
@@ -4313,7 +4310,7 @@
     </row>
     <row r="39" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
@@ -4334,7 +4331,7 @@
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="s">
@@ -4355,7 +4352,7 @@
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
@@ -4376,7 +4373,7 @@
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="s">
@@ -4397,7 +4394,7 @@
     </row>
     <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
@@ -4418,7 +4415,7 @@
     </row>
     <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
@@ -4439,7 +4436,7 @@
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3207,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3208,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
@@ -4460,7 +4457,7 @@
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="s">
@@ -4481,7 +4478,7 @@
     </row>
     <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
@@ -4502,7 +4499,7 @@
     </row>
     <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="s">
@@ -4523,7 +4520,7 @@
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3208,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3209,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="13" t="s">
@@ -4544,7 +4541,7 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="13" t="s">
@@ -4565,7 +4562,7 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="s">
@@ -4586,7 +4583,7 @@
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="13" t="s">
@@ -4607,7 +4604,7 @@
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="s">
@@ -4628,7 +4625,7 @@
     </row>
     <row r="54" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="13" t="s">
@@ -4649,7 +4646,7 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="13" t="s">
@@ -4670,7 +4667,7 @@
     </row>
     <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="s">
@@ -4691,7 +4688,7 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
@@ -4712,7 +4709,7 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
@@ -4733,7 +4730,7 @@
     </row>
     <row r="59" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="13" t="s">
@@ -4754,7 +4751,7 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="s">
@@ -4775,7 +4772,7 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
@@ -4796,7 +4793,7 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B62" s="13" t="s">
@@ -4817,7 +4814,7 @@
     </row>
     <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="13" t="s">
@@ -4838,7 +4835,7 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="13" t="s">
@@ -4859,7 +4856,7 @@
     </row>
     <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
@@ -4880,7 +4877,7 @@
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
@@ -4901,7 +4898,7 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
@@ -4922,7 +4919,7 @@
     </row>
     <row r="68" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
@@ -4943,7 +4940,7 @@
     </row>
     <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
@@ -4964,7 +4961,7 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="13" t="s">
@@ -4985,7 +4982,7 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
@@ -5006,7 +5003,7 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
@@ -5027,7 +5024,7 @@
     </row>
     <row r="73" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
@@ -5048,7 +5045,7 @@
     </row>
     <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
@@ -5069,7 +5066,7 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
@@ -5090,7 +5087,7 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
@@ -5111,7 +5108,7 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
@@ -5132,7 +5129,7 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
@@ -5153,7 +5150,7 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="13" t="s">
@@ -5174,7 +5171,7 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
@@ -5195,7 +5192,7 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="13" t="s">
@@ -5216,7 +5213,7 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="13" t="s">
@@ -5237,7 +5234,7 @@
     </row>
     <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="13" t="s">
@@ -5258,7 +5255,7 @@
     </row>
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
@@ -5279,7 +5276,7 @@
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="13" t="s">
@@ -5300,7 +5297,7 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
@@ -5321,7 +5318,7 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="13" t="s">
@@ -5342,7 +5339,7 @@
     </row>
     <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="13" t="s">
@@ -5363,7 +5360,7 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
@@ -5384,7 +5381,7 @@
     </row>
     <row r="90" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="13" t="s">
@@ -5405,7 +5402,7 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="13" t="s">
@@ -5426,7 +5423,7 @@
     </row>
     <row r="92" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="13" t="s">
@@ -5447,7 +5444,7 @@
     </row>
     <row r="93" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B93" s="13" t="s">
@@ -5468,7 +5465,7 @@
     </row>
     <row r="94" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="13" t="s">
@@ -5489,7 +5486,7 @@
     </row>
     <row r="95" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
@@ -5510,7 +5507,7 @@
     </row>
     <row r="96" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="13" t="s">
@@ -5531,7 +5528,7 @@
     </row>
     <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3201,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3202,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="2" t="s">
@@ -5552,7 +5549,7 @@
     </row>
     <row r="98" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="13" t="s">
@@ -5573,7 +5570,7 @@
     </row>
     <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
@@ -5594,7 +5591,7 @@
     </row>
     <row r="100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="13" t="s">
@@ -5615,7 +5612,7 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="19" t="s">
@@ -5637,7 +5634,7 @@
     </row>
     <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3218,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3219,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102" s="2" t="s">
@@ -5658,7 +5655,7 @@
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="13" t="s">
@@ -5679,7 +5676,7 @@
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="13" t="s">
@@ -5700,7 +5697,7 @@
     </row>
     <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
@@ -5721,7 +5718,7 @@
     </row>
     <row r="106" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3214,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3215,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="2" t="s">
@@ -5742,7 +5739,7 @@
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="13" t="s">
@@ -5763,7 +5760,7 @@
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="13" t="s">
@@ -5784,7 +5781,7 @@
     </row>
     <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="13" t="s">
@@ -5805,7 +5802,7 @@
     </row>
     <row r="110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110" s="13" t="s">
@@ -5826,7 +5823,7 @@
     </row>
     <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111" s="13" t="s">
@@ -5847,7 +5844,7 @@
     </row>
     <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="13" t="s">
@@ -5868,7 +5865,7 @@
     </row>
     <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="13" t="s">
@@ -5889,7 +5886,7 @@
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="13" t="s">
@@ -5910,7 +5907,7 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="13" t="s">
@@ -5931,7 +5928,7 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
@@ -5952,7 +5949,7 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
@@ -5973,7 +5970,7 @@
     </row>
     <row r="118" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="13" t="s">
@@ -5994,7 +5991,7 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="13" t="s">
@@ -6015,7 +6012,7 @@
     </row>
     <row r="120" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
@@ -6036,7 +6033,7 @@
     </row>
     <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="13" t="s">
@@ -6057,7 +6054,7 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B122" s="13" t="s">
@@ -6078,7 +6075,7 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
@@ -6099,7 +6096,7 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B124" s="13" t="s">
@@ -6120,7 +6117,7 @@
     </row>
     <row r="125" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B125" s="13" t="s">
@@ -6141,7 +6138,7 @@
     </row>
     <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B126" s="13" t="s">
@@ -6162,7 +6159,7 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="13" t="s">
@@ -6183,7 +6180,7 @@
     </row>
     <row r="128" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="13" t="s">
@@ -6204,7 +6201,7 @@
     </row>
     <row r="129" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="13" t="s">
@@ -6225,7 +6222,7 @@
     </row>
     <row r="130" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="13" t="s">
@@ -6246,7 +6243,7 @@
     </row>
     <row r="131" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3200,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3201,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="2" t="s">
@@ -6267,7 +6264,7 @@
     </row>
     <row r="132" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="13" t="s">
@@ -6288,7 +6285,7 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="13" t="s">
@@ -6309,7 +6306,7 @@
     </row>
     <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B134" s="13" t="s">
@@ -6330,7 +6327,7 @@
     </row>
     <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B135" s="13" t="s">
@@ -6351,7 +6348,7 @@
     </row>
     <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B136" s="13" t="s">
@@ -6372,7 +6369,7 @@
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="13" t="s">
@@ -6393,7 +6390,7 @@
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B138" s="13" t="s">
@@ -6414,7 +6411,7 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B139" s="13" t="s">
@@ -6435,7 +6432,7 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B140" s="13" t="s">
@@ -6456,7 +6453,7 @@
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B141" s="13" t="s">
@@ -6475,7 +6472,7 @@
     </row>
     <row r="142" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B142" s="13" t="s">
@@ -6496,7 +6493,7 @@
     </row>
     <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
@@ -6517,7 +6514,7 @@
     </row>
     <row r="144" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B144" s="13" t="s">
@@ -6538,7 +6535,7 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B145" s="13" t="s">
@@ -6559,7 +6556,7 @@
     </row>
     <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B146" s="13" t="s">
@@ -6580,7 +6577,7 @@
     </row>
     <row r="147" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B147" s="13" t="s">
@@ -6601,7 +6598,7 @@
     </row>
     <row r="148" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B148" s="13" t="s">
@@ -6622,7 +6619,7 @@
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="13" t="s">
@@ -6643,7 +6640,7 @@
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
@@ -6664,7 +6661,7 @@
     </row>
     <row r="151" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
@@ -6685,7 +6682,7 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B152" s="13" t="s">
@@ -6706,7 +6703,7 @@
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B153" s="13" t="s">
@@ -6727,7 +6724,7 @@
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B154" s="13" t="s">
@@ -6748,7 +6745,7 @@
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3206,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3207,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B155" s="2" t="s">
@@ -6769,7 +6766,7 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B156" s="13" t="s">
@@ -6790,7 +6787,7 @@
     </row>
     <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B157" s="13" t="s">
@@ -6811,7 +6808,7 @@
     </row>
     <row r="158" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3209,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3210,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B158" s="2" t="s">
@@ -6829,7 +6826,7 @@
     </row>
     <row r="159" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B159" s="13" t="s">
@@ -6848,7 +6845,7 @@
     </row>
     <row r="160" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B160" s="13" t="s">
@@ -6867,7 +6864,7 @@
     </row>
     <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B161" s="13" t="s">
@@ -6888,7 +6885,7 @@
     </row>
     <row r="162" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B162" s="13" t="s">
@@ -6909,7 +6906,7 @@
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B163" s="13" t="s">
@@ -6928,7 +6925,7 @@
     </row>
     <row r="164" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B164" s="13" t="s">
@@ -6949,7 +6946,7 @@
     </row>
     <row r="165" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B165" s="13" t="s">
@@ -6970,7 +6967,7 @@
     </row>
     <row r="166" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B166" s="13" t="s">
@@ -6991,7 +6988,7 @@
     </row>
     <row r="167" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B167" s="13" t="s">
@@ -7012,7 +7009,7 @@
     </row>
     <row r="168" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B168" s="13" t="s">
@@ -7033,7 +7030,7 @@
     </row>
     <row r="169" spans="1:6" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B169" s="13" t="s">
@@ -7054,7 +7051,7 @@
     </row>
     <row r="170" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B170" s="13" t="s">
@@ -7075,7 +7072,7 @@
     </row>
     <row r="171" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B171" s="13" t="s">
@@ -7124,11 +7121,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D430"/>
+  <dimension ref="A1:D431"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D402" sqref="D402"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13158,44 +13155,44 @@
         <f>IF(ISNA(VLOOKUP(B402,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B402" s="33" t="s">
+      <c r="B402" s="29" t="s">
         <v>297</v>
       </c>
       <c r="C402" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D402" s="24" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A403" t="str">
         <f>IF(ISNA(VLOOKUP(B403,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B403" t="s">
-        <v>306</v>
-      </c>
-      <c r="C403" s="4" t="s">
+      <c r="B403" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C403" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D403" s="24" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="str">
         <f>IF(ISNA(VLOOKUP(B404,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B404" s="29" t="s">
+      <c r="B404" t="s">
         <v>306</v>
       </c>
-      <c r="C404" s="24" t="s">
+      <c r="C404" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D404" s="24" t="s">
-        <v>805</v>
+        <v>730</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13203,74 +13200,74 @@
         <f>IF(ISNA(VLOOKUP(B405,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B405" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C405" s="4" t="s">
+      <c r="B405" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C405" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D405" s="24" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" t="str">
         <f>IF(ISNA(VLOOKUP(B406,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B406" t="s">
-        <v>336</v>
+      <c r="B406" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D406" s="24" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="str">
         <f>IF(ISNA(VLOOKUP(B407,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B407" s="29" t="s">
+      <c r="B407" t="s">
         <v>336</v>
       </c>
-      <c r="C407" s="24" t="s">
+      <c r="C407" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D407" s="24" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" t="str">
         <f>IF(ISNA(VLOOKUP(B408,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B408" t="s">
-        <v>364</v>
-      </c>
-      <c r="C408" s="4" t="s">
+      <c r="B408" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C408" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D408" s="24" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="str">
         <f>IF(ISNA(VLOOKUP(B409,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B409" s="29" t="s">
+      <c r="B409" t="s">
         <v>364</v>
       </c>
-      <c r="C409" s="24" t="s">
+      <c r="C409" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D409" s="24" t="s">
-        <v>819</v>
+        <v>721</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13278,87 +13275,89 @@
         <f>IF(ISNA(VLOOKUP(B410,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C410" s="4" t="s">
+      <c r="B410" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C410" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D410" s="24" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" t="str">
         <f>IF(ISNA(VLOOKUP(B411,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B411" t="s">
-        <v>337</v>
+      <c r="B411" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D411" s="24" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="str">
         <f>IF(ISNA(VLOOKUP(B412,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B412" s="29" t="s">
+      <c r="B412" t="s">
         <v>337</v>
       </c>
-      <c r="C412" s="24" t="s">
+      <c r="C412" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D412" s="24" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" t="str">
         <f>IF(ISNA(VLOOKUP(B413,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B413" t="s">
-        <v>365</v>
-      </c>
-      <c r="C413" s="4" t="s">
+      <c r="B413" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C413" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D413" s="24" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="str">
         <f>IF(ISNA(VLOOKUP(B414,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B414" s="29" t="s">
+      <c r="B414" t="s">
         <v>365</v>
       </c>
-      <c r="C414" s="24" t="s">
+      <c r="C414" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D414" s="24" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" t="str">
         <f>IF(ISNA(VLOOKUP(B415,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B415" s="2"/>
-      <c r="C415" s="4" t="s">
+        <v/>
+      </c>
+      <c r="B415" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C415" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D415" s="24" t="s">
-        <v>769</v>
+        <v>819</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -13371,22 +13370,20 @@
         <v>773</v>
       </c>
       <c r="D416" s="24" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="str">
         <f>IF(ISNA(VLOOKUP(B417,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>822</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B417" s="2"/>
       <c r="C417" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D417" s="24" t="s">
-        <v>715</v>
+        <v>772</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13401,7 +13398,7 @@
         <v>773</v>
       </c>
       <c r="D418" s="24" t="s">
-        <v>812</v>
+        <v>715</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13410,13 +13407,13 @@
         <v/>
       </c>
       <c r="B419" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D419" s="24" t="s">
-        <v>715</v>
+        <v>812</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13431,7 +13428,7 @@
         <v>773</v>
       </c>
       <c r="D420" s="24" t="s">
-        <v>812</v>
+        <v>715</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13440,13 +13437,13 @@
         <v/>
       </c>
       <c r="B421" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D421" s="24" t="s">
-        <v>715</v>
+        <v>812</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13461,7 +13458,7 @@
         <v>773</v>
       </c>
       <c r="D422" s="24" t="s">
-        <v>812</v>
+        <v>715</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13470,13 +13467,13 @@
         <v/>
       </c>
       <c r="B423" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D423" s="24" t="s">
-        <v>718</v>
+        <v>812</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13491,7 +13488,7 @@
         <v>773</v>
       </c>
       <c r="D424" s="24" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13506,7 +13503,7 @@
         <v>773</v>
       </c>
       <c r="D425" s="24" t="s">
-        <v>811</v>
+        <v>715</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13521,7 +13518,7 @@
         <v>773</v>
       </c>
       <c r="D426" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13530,13 +13527,13 @@
         <v/>
       </c>
       <c r="B427" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D427" s="24" t="s">
-        <v>718</v>
+        <v>812</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13551,7 +13548,7 @@
         <v>773</v>
       </c>
       <c r="D428" s="24" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13566,7 +13563,7 @@
         <v>773</v>
       </c>
       <c r="D429" s="24" t="s">
-        <v>811</v>
+        <v>715</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13581,6 +13578,21 @@
         <v>773</v>
       </c>
       <c r="D430" s="24" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A431" t="str">
+        <f>IF(ISNA(VLOOKUP(B431,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D431" s="24" t="s">
         <v>812</v>
       </c>
     </row>
@@ -13602,7 +13614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcutts/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4057C95-0C22-DF4A-AACE-96B872186F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF125529-DD40-5E44-83C0-5F43040057CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="500" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="843">
   <si>
     <t>Description</t>
   </si>
@@ -2785,7 +2785,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2861,6 +2861,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3070,7 +3073,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
@@ -3085,10 +3088,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D431" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D431" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D417">
-    <sortCondition ref="B1:B417"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D433" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D433" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D419">
+    <sortCondition ref="B1:B419"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
@@ -3495,7 +3498,7 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="12" t="s">
@@ -3516,7 +3519,7 @@
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3214,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3216,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
@@ -3534,7 +3537,7 @@
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3211,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3213,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
@@ -3552,7 +3555,7 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
@@ -3573,7 +3576,7 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -3594,7 +3597,7 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="2" t="s">
@@ -3615,7 +3618,7 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="2" t="s">
@@ -3636,7 +3639,7 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
@@ -3657,7 +3660,7 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
@@ -3678,7 +3681,7 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
@@ -3699,7 +3702,7 @@
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="13" t="s">
@@ -3722,7 +3725,7 @@
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
@@ -3745,7 +3748,7 @@
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3203,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3205,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="2" t="s">
@@ -3766,7 +3769,7 @@
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
@@ -3789,7 +3792,7 @@
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
@@ -3812,7 +3815,7 @@
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
@@ -3835,7 +3838,7 @@
     </row>
     <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
@@ -3858,7 +3861,7 @@
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
@@ -3881,7 +3884,7 @@
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
@@ -3904,7 +3907,7 @@
     </row>
     <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
@@ -3927,7 +3930,7 @@
     </row>
     <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
@@ -3950,7 +3953,7 @@
     </row>
     <row r="23" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
@@ -3973,7 +3976,7 @@
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
@@ -3996,7 +3999,7 @@
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
@@ -4019,7 +4022,7 @@
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
@@ -4042,7 +4045,7 @@
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
@@ -4065,7 +4068,7 @@
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
@@ -4088,7 +4091,7 @@
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
@@ -4111,7 +4114,7 @@
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
@@ -4134,7 +4137,7 @@
     </row>
     <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
@@ -4157,7 +4160,7 @@
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
@@ -4180,7 +4183,7 @@
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="s">
@@ -4203,7 +4206,7 @@
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="s">
@@ -4226,7 +4229,7 @@
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="s">
@@ -4247,7 +4250,7 @@
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
@@ -4268,7 +4271,7 @@
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="13" t="s">
@@ -4289,7 +4292,7 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="s">
@@ -4310,7 +4313,7 @@
     </row>
     <row r="39" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
@@ -4331,7 +4334,7 @@
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="s">
@@ -4352,7 +4355,7 @@
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
@@ -4373,7 +4376,7 @@
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="s">
@@ -4394,7 +4397,7 @@
     </row>
     <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
@@ -4415,7 +4418,7 @@
     </row>
     <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
@@ -4436,7 +4439,7 @@
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3208,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3210,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
@@ -4457,7 +4460,7 @@
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="s">
@@ -4478,7 +4481,7 @@
     </row>
     <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
@@ -4499,7 +4502,7 @@
     </row>
     <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="s">
@@ -4520,7 +4523,7 @@
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3209,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3211,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="13" t="s">
@@ -4541,7 +4544,7 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="13" t="s">
@@ -4562,7 +4565,7 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="s">
@@ -4583,7 +4586,7 @@
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="13" t="s">
@@ -4604,7 +4607,7 @@
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="s">
@@ -4625,7 +4628,7 @@
     </row>
     <row r="54" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="13" t="s">
@@ -4646,7 +4649,7 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="13" t="s">
@@ -4667,7 +4670,7 @@
     </row>
     <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="s">
@@ -4688,7 +4691,7 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
@@ -4709,7 +4712,7 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
@@ -4730,7 +4733,7 @@
     </row>
     <row r="59" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="13" t="s">
@@ -4751,7 +4754,7 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="s">
@@ -4772,7 +4775,7 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
@@ -4793,7 +4796,7 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B62" s="13" t="s">
@@ -4814,7 +4817,7 @@
     </row>
     <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="13" t="s">
@@ -4835,7 +4838,7 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="13" t="s">
@@ -4856,7 +4859,7 @@
     </row>
     <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
@@ -4877,7 +4880,7 @@
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
@@ -4898,7 +4901,7 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
@@ -4919,7 +4922,7 @@
     </row>
     <row r="68" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
@@ -4940,7 +4943,7 @@
     </row>
     <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
@@ -4961,7 +4964,7 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="13" t="s">
@@ -4982,7 +4985,7 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
@@ -5003,7 +5006,7 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
@@ -5024,7 +5027,7 @@
     </row>
     <row r="73" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
@@ -5045,7 +5048,7 @@
     </row>
     <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
@@ -5066,7 +5069,7 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
@@ -5087,7 +5090,7 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
@@ -5108,7 +5111,7 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
@@ -5129,7 +5132,7 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
@@ -5150,7 +5153,7 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="13" t="s">
@@ -5171,7 +5174,7 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
@@ -5192,7 +5195,7 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="13" t="s">
@@ -5213,7 +5216,7 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="13" t="s">
@@ -5234,7 +5237,7 @@
     </row>
     <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="13" t="s">
@@ -5255,7 +5258,7 @@
     </row>
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
@@ -5276,7 +5279,7 @@
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="13" t="s">
@@ -5297,7 +5300,7 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
@@ -5318,7 +5321,7 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="13" t="s">
@@ -5339,7 +5342,7 @@
     </row>
     <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="13" t="s">
@@ -5360,7 +5363,7 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
@@ -5381,7 +5384,7 @@
     </row>
     <row r="90" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="13" t="s">
@@ -5402,7 +5405,7 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="13" t="s">
@@ -5423,7 +5426,7 @@
     </row>
     <row r="92" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="13" t="s">
@@ -5444,7 +5447,7 @@
     </row>
     <row r="93" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B93" s="13" t="s">
@@ -5465,7 +5468,7 @@
     </row>
     <row r="94" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="13" t="s">
@@ -5486,7 +5489,7 @@
     </row>
     <row r="95" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
@@ -5507,7 +5510,7 @@
     </row>
     <row r="96" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="13" t="s">
@@ -5528,7 +5531,7 @@
     </row>
     <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3202,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3204,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="2" t="s">
@@ -5549,7 +5552,7 @@
     </row>
     <row r="98" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="13" t="s">
@@ -5570,7 +5573,7 @@
     </row>
     <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
@@ -5591,7 +5594,7 @@
     </row>
     <row r="100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="13" t="s">
@@ -5612,7 +5615,7 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="19" t="s">
@@ -5634,7 +5637,7 @@
     </row>
     <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3219,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3221,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102" s="2" t="s">
@@ -5655,7 +5658,7 @@
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="13" t="s">
@@ -5676,7 +5679,7 @@
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="13" t="s">
@@ -5697,7 +5700,7 @@
     </row>
     <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
@@ -5718,7 +5721,7 @@
     </row>
     <row r="106" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3215,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3217,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="2" t="s">
@@ -5739,7 +5742,7 @@
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="13" t="s">
@@ -5760,7 +5763,7 @@
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="13" t="s">
@@ -5781,7 +5784,7 @@
     </row>
     <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="13" t="s">
@@ -5802,7 +5805,7 @@
     </row>
     <row r="110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110" s="13" t="s">
@@ -5823,7 +5826,7 @@
     </row>
     <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111" s="13" t="s">
@@ -5844,7 +5847,7 @@
     </row>
     <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="13" t="s">
@@ -5865,7 +5868,7 @@
     </row>
     <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="13" t="s">
@@ -5886,7 +5889,7 @@
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="13" t="s">
@@ -5907,7 +5910,7 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="13" t="s">
@@ -5928,7 +5931,7 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
@@ -5949,7 +5952,7 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
@@ -5970,7 +5973,7 @@
     </row>
     <row r="118" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="13" t="s">
@@ -5991,7 +5994,7 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="13" t="s">
@@ -6012,7 +6015,7 @@
     </row>
     <row r="120" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
@@ -6033,7 +6036,7 @@
     </row>
     <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="13" t="s">
@@ -6054,7 +6057,7 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B122" s="13" t="s">
@@ -6075,7 +6078,7 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
@@ -6096,7 +6099,7 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B124" s="13" t="s">
@@ -6117,7 +6120,7 @@
     </row>
     <row r="125" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B125" s="13" t="s">
@@ -6138,7 +6141,7 @@
     </row>
     <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B126" s="13" t="s">
@@ -6159,7 +6162,7 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="13" t="s">
@@ -6180,7 +6183,7 @@
     </row>
     <row r="128" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="13" t="s">
@@ -6201,7 +6204,7 @@
     </row>
     <row r="129" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="13" t="s">
@@ -6222,7 +6225,7 @@
     </row>
     <row r="130" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="13" t="s">
@@ -6243,7 +6246,7 @@
     </row>
     <row r="131" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3201,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3203,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="2" t="s">
@@ -6264,7 +6267,7 @@
     </row>
     <row r="132" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="13" t="s">
@@ -6285,7 +6288,7 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="13" t="s">
@@ -6306,7 +6309,7 @@
     </row>
     <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B134" s="13" t="s">
@@ -6327,7 +6330,7 @@
     </row>
     <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B135" s="13" t="s">
@@ -6348,7 +6351,7 @@
     </row>
     <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B136" s="13" t="s">
@@ -6369,7 +6372,7 @@
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="13" t="s">
@@ -6390,7 +6393,7 @@
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B138" s="13" t="s">
@@ -6411,7 +6414,7 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B139" s="13" t="s">
@@ -6432,7 +6435,7 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B140" s="13" t="s">
@@ -6453,7 +6456,7 @@
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B141" s="13" t="s">
@@ -6472,7 +6475,7 @@
     </row>
     <row r="142" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B142" s="13" t="s">
@@ -6493,7 +6496,7 @@
     </row>
     <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
@@ -6514,7 +6517,7 @@
     </row>
     <row r="144" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B144" s="13" t="s">
@@ -6535,7 +6538,7 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B145" s="13" t="s">
@@ -6556,7 +6559,7 @@
     </row>
     <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B146" s="13" t="s">
@@ -6577,7 +6580,7 @@
     </row>
     <row r="147" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B147" s="13" t="s">
@@ -6598,7 +6601,7 @@
     </row>
     <row r="148" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B148" s="13" t="s">
@@ -6619,7 +6622,7 @@
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="13" t="s">
@@ -6640,7 +6643,7 @@
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
@@ -6661,7 +6664,7 @@
     </row>
     <row r="151" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
@@ -6682,7 +6685,7 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B152" s="13" t="s">
@@ -6703,7 +6706,7 @@
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B153" s="13" t="s">
@@ -6724,7 +6727,7 @@
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B154" s="13" t="s">
@@ -6745,7 +6748,7 @@
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3207,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3209,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B155" s="2" t="s">
@@ -6766,7 +6769,7 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B156" s="13" t="s">
@@ -6787,7 +6790,7 @@
     </row>
     <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B157" s="13" t="s">
@@ -6808,7 +6811,7 @@
     </row>
     <row r="158" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3210,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3212,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B158" s="2" t="s">
@@ -6826,7 +6829,7 @@
     </row>
     <row r="159" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B159" s="13" t="s">
@@ -6845,7 +6848,7 @@
     </row>
     <row r="160" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B160" s="13" t="s">
@@ -6864,7 +6867,7 @@
     </row>
     <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B161" s="13" t="s">
@@ -6885,7 +6888,7 @@
     </row>
     <row r="162" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B162" s="13" t="s">
@@ -6906,7 +6909,7 @@
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B163" s="13" t="s">
@@ -6925,7 +6928,7 @@
     </row>
     <row r="164" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B164" s="13" t="s">
@@ -6946,7 +6949,7 @@
     </row>
     <row r="165" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B165" s="13" t="s">
@@ -6967,7 +6970,7 @@
     </row>
     <row r="166" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B166" s="13" t="s">
@@ -6988,7 +6991,7 @@
     </row>
     <row r="167" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B167" s="13" t="s">
@@ -7009,7 +7012,7 @@
     </row>
     <row r="168" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B3199,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B168" s="13" t="s">
@@ -7030,7 +7033,7 @@
     </row>
     <row r="169" spans="1:6" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B169" s="13" t="s">
@@ -7051,7 +7054,7 @@
     </row>
     <row r="170" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B170" s="13" t="s">
@@ -7072,7 +7075,7 @@
     </row>
     <row r="171" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B3200,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B171" s="13" t="s">
@@ -7121,11 +7124,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D431"/>
+  <dimension ref="A1:D433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C406" sqref="C406"/>
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D405" sqref="D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13151,7 +13154,7 @@
       </c>
     </row>
     <row r="402" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A402" s="32" t="str">
+      <c r="A402" t="str">
         <f>IF(ISNA(VLOOKUP(B402,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -13180,64 +13183,64 @@
         <v>805</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" t="str">
+    <row r="404" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A404" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B404,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B404" t="s">
-        <v>306</v>
-      </c>
-      <c r="C404" s="4" t="s">
+      <c r="B404" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C404" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D404" s="24" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A405" t="str">
+      <c r="A405" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B405,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B405" s="29" t="s">
-        <v>306</v>
+      <c r="B405" s="33" t="s">
+        <v>297</v>
       </c>
       <c r="C405" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D405" s="24" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="str">
         <f>IF(ISNA(VLOOKUP(B406,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B406" s="2" t="s">
-        <v>668</v>
+      <c r="B406" t="s">
+        <v>306</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D406" s="24" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" t="str">
         <f>IF(ISNA(VLOOKUP(B407,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B407" t="s">
-        <v>336</v>
-      </c>
-      <c r="C407" s="4" t="s">
+      <c r="B407" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C407" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D407" s="24" t="s">
-        <v>716</v>
+        <v>805</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13245,14 +13248,14 @@
         <f>IF(ISNA(VLOOKUP(B408,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B408" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="C408" s="24" t="s">
+      <c r="B408" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C408" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D408" s="24" t="s">
-        <v>816</v>
+        <v>774</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -13261,13 +13264,13 @@
         <v/>
       </c>
       <c r="B409" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D409" s="24" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13276,43 +13279,43 @@
         <v/>
       </c>
       <c r="B410" s="29" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="C410" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D410" s="24" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="str">
         <f>IF(ISNA(VLOOKUP(B411,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>670</v>
+      <c r="B411" t="s">
+        <v>364</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D411" s="24" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" t="str">
         <f>IF(ISNA(VLOOKUP(B412,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B412" t="s">
-        <v>337</v>
-      </c>
-      <c r="C412" s="4" t="s">
+      <c r="B412" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C412" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D412" s="24" t="s">
-        <v>716</v>
+        <v>819</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13320,14 +13323,14 @@
         <f>IF(ISNA(VLOOKUP(B413,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B413" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="C413" s="24" t="s">
+      <c r="B413" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D413" s="24" t="s">
-        <v>816</v>
+        <v>774</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -13336,13 +13339,13 @@
         <v/>
       </c>
       <c r="B414" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D414" s="24" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13351,69 +13354,69 @@
         <v/>
       </c>
       <c r="B415" s="29" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C415" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D415" s="24" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="str">
         <f>IF(ISNA(VLOOKUP(B416,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B416" s="2"/>
+        <v/>
+      </c>
+      <c r="B416" t="s">
+        <v>365</v>
+      </c>
       <c r="C416" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D416" s="24" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" t="str">
         <f>IF(ISNA(VLOOKUP(B417,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B417" s="2"/>
-      <c r="C417" s="4" t="s">
+        <v/>
+      </c>
+      <c r="B417" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C417" s="24" t="s">
         <v>773</v>
       </c>
       <c r="D417" s="24" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="str">
         <f>IF(ISNA(VLOOKUP(B418,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>822</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B418" s="2"/>
       <c r="C418" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D418" s="24" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="str">
         <f>IF(ISNA(VLOOKUP(B419,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>822</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B419" s="2"/>
       <c r="C419" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D419" s="24" t="s">
-        <v>812</v>
+        <v>772</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13422,7 +13425,7 @@
         <v/>
       </c>
       <c r="B420" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>773</v>
@@ -13437,7 +13440,7 @@
         <v/>
       </c>
       <c r="B421" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>773</v>
@@ -13452,7 +13455,7 @@
         <v/>
       </c>
       <c r="B422" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>773</v>
@@ -13467,7 +13470,7 @@
         <v/>
       </c>
       <c r="B423" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>773</v>
@@ -13482,13 +13485,13 @@
         <v/>
       </c>
       <c r="B424" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D424" s="24" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13497,13 +13500,13 @@
         <v/>
       </c>
       <c r="B425" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D425" s="24" t="s">
-        <v>715</v>
+        <v>812</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13518,7 +13521,7 @@
         <v>773</v>
       </c>
       <c r="D426" s="24" t="s">
-        <v>811</v>
+        <v>718</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13533,7 +13536,7 @@
         <v>773</v>
       </c>
       <c r="D427" s="24" t="s">
-        <v>812</v>
+        <v>715</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13542,13 +13545,13 @@
         <v/>
       </c>
       <c r="B428" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D428" s="24" t="s">
-        <v>718</v>
+        <v>811</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13557,13 +13560,13 @@
         <v/>
       </c>
       <c r="B429" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>773</v>
       </c>
       <c r="D429" s="24" t="s">
-        <v>715</v>
+        <v>812</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13578,7 +13581,7 @@
         <v>773</v>
       </c>
       <c r="D430" s="24" t="s">
-        <v>811</v>
+        <v>718</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -13593,6 +13596,36 @@
         <v>773</v>
       </c>
       <c r="D431" s="24" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A432" t="str">
+        <f>IF(ISNA(VLOOKUP(B432,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D432" s="24" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A433" t="str">
+        <f>IF(ISNA(VLOOKUP(B433,Definitions!B$2:B$1633,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D433" s="24" t="s">
         <v>812</v>
       </c>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEAAE95-7500-0A48-BD3F-56E171AF8DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F496D6BE-53D9-3949-BA9D-12353070D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1860" windowWidth="47440" windowHeight="28160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="2660" windowWidth="47440" windowHeight="28160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="837">
   <si>
     <t>Description</t>
   </si>
@@ -1004,12 +1004,6 @@
     <t>u50</t>
   </si>
   <si>
-    <t>water_depth_calc</t>
-  </si>
-  <si>
-    <t>water_elev_calc</t>
-  </si>
-  <si>
     <t>dilation_angle</t>
   </si>
   <si>
@@ -1088,12 +1082,6 @@
     <t>tip_resistance_corrected</t>
   </si>
   <si>
-    <t>water_depth_estimated</t>
-  </si>
-  <si>
-    <t>water_elev_estimated</t>
-  </si>
-  <si>
     <t>soil_suction</t>
   </si>
   <si>
@@ -1713,18 +1701,6 @@
   </si>
   <si>
     <t>Also referred to as moisture content, this is the mass of water divided by the mass of the solids, expressed as a percentage. Use of this parameter is for natural conditions. Determined in a laboratory or via sensor.</t>
-  </si>
-  <si>
-    <t>Calculated Depth To Water</t>
-  </si>
-  <si>
-    <t>Calculated Water Elevation</t>
-  </si>
-  <si>
-    <t>Estimated Water Depth</t>
-  </si>
-  <si>
-    <t>Estimated Water Elevaton</t>
   </si>
   <si>
     <t xml:space="preserve"> A measure of the resistance of aggregate to surface wear by abrasion.</t>
@@ -2046,18 +2022,6 @@
     <t>The value of pore pressure measured in the field after dissipation of induced excess pore pressure. Could also be from CPTu test</t>
   </si>
   <si>
-    <t>Depth to water calculated from measured equilibrium pore pressure.  Note: it is preferable to use water_depth as the propertyClass with the measurementTechnique property of the Property element set to "calculated", instead.</t>
-  </si>
-  <si>
-    <t>Water elevation calculated from measured equilibrium pore pressure. Note: it is preferable to use water_elevation as the propertyClass with the measurementTechnique property of the Property element set to "calculated", instead.</t>
-  </si>
-  <si>
-    <t>Estimate of water depth from insitu measurement (eg CPT, DMT). Note: it is preferable to use water_depth as the propertyClass with the measurementTechnique property qualifer (eg. "extrapolated". "inferred"), instead.</t>
-  </si>
-  <si>
-    <t>Estimate of water elevation from insitu measurement (eg CPT, DMT). Note: it is preferable to use water_elevation as the propertyClass with the measurementTechnique property qualifer (eg. "extrapolated". "inferred"), instead.</t>
-  </si>
-  <si>
     <t>Aggregate Soundness Value</t>
   </si>
   <si>
@@ -2581,6 +2545,9 @@
   </si>
   <si>
     <t>reciprocal (mass time)</t>
+  </si>
+  <si>
+    <t>//diggs:measurand</t>
   </si>
 </sst>
 </file>
@@ -2826,7 +2793,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2897,9 +2864,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3163,14 +3127,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H181" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:H181" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H181">
-    <sortCondition ref="B1:B181"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H177" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:H177" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H177">
+    <sortCondition ref="B1:B177"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="13">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B706,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B676,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="11"/>
@@ -3185,14 +3149,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D274" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:D274" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D274">
-    <sortCondition ref="D1:D274"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D295" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:D295" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D272">
+    <sortCondition ref="D1:D272"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="4">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="2"/>
@@ -3530,13 +3494,13 @@
         <v>219</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>220</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -3551,10 +3515,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3598,17 +3562,17 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B706,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B676,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -3619,17 +3583,17 @@
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B875,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -3637,17 +3601,17 @@
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B872,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B842,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -3655,17 +3619,17 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B707,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B677,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
@@ -3676,17 +3640,17 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B708,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B678,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
@@ -3697,17 +3661,17 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B709,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B679,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -3718,17 +3682,17 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B710,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B680,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
@@ -3739,17 +3703,17 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B711,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B681,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
         <v>225</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>1</v>
@@ -3760,17 +3724,17 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B712,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B682,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
         <v>298</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>1</v>
@@ -3781,17 +3745,17 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B713,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B683,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
         <v>299</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>180</v>
@@ -3802,17 +3766,17 @@
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B714,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B684,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="13" t="s">
         <v>300</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>180</v>
@@ -3825,17 +3789,17 @@
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B715,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B685,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
         <v>226</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>180</v>
@@ -3848,17 +3812,17 @@
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B864,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B834,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
@@ -3869,17 +3833,17 @@
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B716,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B686,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
         <v>229</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>1</v>
@@ -3892,17 +3856,17 @@
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B717,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B687,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
         <v>259</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>1</v>
@@ -3915,17 +3879,17 @@
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B718,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B688,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>1</v>
@@ -3938,17 +3902,17 @@
     </row>
     <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B721,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B691,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>180</v>
@@ -3961,17 +3925,17 @@
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B719,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B689,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
         <v>280</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>1</v>
@@ -3984,17 +3948,17 @@
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B720,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B690,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
         <v>260</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>1</v>
@@ -4007,17 +3971,17 @@
     </row>
     <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B721,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B691,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
         <v>281</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>1</v>
@@ -4030,17 +3994,17 @@
     </row>
     <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B722,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B692,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
         <v>282</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>1</v>
@@ -4053,17 +4017,17 @@
     </row>
     <row r="23" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B723,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B693,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
         <v>241</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>1</v>
@@ -4076,17 +4040,17 @@
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B724,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B694,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
         <v>288</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
@@ -4099,17 +4063,17 @@
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B725,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B695,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
         <v>303</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>1</v>
@@ -4122,17 +4086,17 @@
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B726,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B696,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
         <v>304</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>1</v>
@@ -4145,17 +4109,17 @@
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B727,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B697,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
         <v>261</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>1</v>
@@ -4168,17 +4132,17 @@
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B728,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B698,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
         <v>242</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>1</v>
@@ -4191,17 +4155,17 @@
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B729,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B699,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
         <v>305</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>1</v>
@@ -4214,17 +4178,17 @@
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B730,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B700,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
         <v>262</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>1</v>
@@ -4237,17 +4201,17 @@
     </row>
     <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B731,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B701,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
         <v>284</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>1</v>
@@ -4260,17 +4224,17 @@
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B732,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B702,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
         <v>296</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>1</v>
@@ -4283,17 +4247,17 @@
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B733,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B703,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="s">
         <v>285</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>1</v>
@@ -4306,17 +4270,17 @@
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B734,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B704,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="s">
         <v>286</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>1</v>
@@ -4329,17 +4293,17 @@
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B735,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B705,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="s">
         <v>306</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>1</v>
@@ -4350,17 +4314,17 @@
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B736,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B706,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
         <v>248</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>1</v>
@@ -4371,17 +4335,17 @@
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B737,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B707,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="13" t="s">
         <v>249</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>1</v>
@@ -4392,17 +4356,17 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B738,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B708,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="s">
         <v>307</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>1</v>
@@ -4413,17 +4377,17 @@
     </row>
     <row r="39" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B739,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B709,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>1</v>
@@ -4434,17 +4398,17 @@
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B740,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B710,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>1</v>
@@ -4455,17 +4419,17 @@
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B741,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B711,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>1</v>
@@ -4476,17 +4440,17 @@
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B742,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B712,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="s">
         <v>230</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>180</v>
@@ -4497,17 +4461,17 @@
     </row>
     <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B743,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B713,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>1</v>
@@ -4518,7 +4482,7 @@
     </row>
     <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B744,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B714,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
@@ -4528,7 +4492,7 @@
         <v>308</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>1</v>
@@ -4539,17 +4503,17 @@
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B869,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B839,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>1</v>
@@ -4560,7 +4524,7 @@
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B745,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B715,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="s">
@@ -4570,7 +4534,7 @@
         <v>309</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>1</v>
@@ -4581,7 +4545,7 @@
     </row>
     <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B746,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B716,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
@@ -4591,7 +4555,7 @@
         <v>310</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>1</v>
@@ -4602,7 +4566,7 @@
     </row>
     <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B747,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B717,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="s">
@@ -4612,7 +4576,7 @@
         <v>311</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>1</v>
@@ -4623,17 +4587,17 @@
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B870,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B840,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="13" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>1</v>
@@ -4644,17 +4608,17 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B748,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B718,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="13" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>1</v>
@@ -4665,17 +4629,17 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B751,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B721,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>1</v>
@@ -4685,18 +4649,18 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B876,1,FALSE)),"Not used","")</f>
+      <c r="A52" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B846,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="2" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>799</v>
+        <v>786</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>787</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>1</v>
@@ -4707,17 +4671,17 @@
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B749,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B719,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>1</v>
@@ -4728,17 +4692,17 @@
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B750,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B720,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="13" t="s">
         <v>263</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>1</v>
@@ -4749,17 +4713,17 @@
     </row>
     <row r="55" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B751,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B721,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="13" t="s">
         <v>264</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>1</v>
@@ -4770,17 +4734,17 @@
     </row>
     <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B752,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B722,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="s">
         <v>293</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>1</v>
@@ -4791,17 +4755,17 @@
     </row>
     <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B753,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B723,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
         <v>291</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>1</v>
@@ -4812,17 +4776,17 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B754,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B724,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
         <v>265</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>1</v>
@@ -4832,20 +4796,20 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B877,1,FALSE)),"Not used","")</f>
+      <c r="A59" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B847,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>801</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>809</v>
-      </c>
-      <c r="E59" s="37" t="s">
+        <v>788</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>789</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>797</v>
+      </c>
+      <c r="E59" s="36" t="s">
         <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -4854,17 +4818,17 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B755,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B725,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>1</v>
@@ -4875,17 +4839,17 @@
     </row>
     <row r="61" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B756,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B726,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
         <v>257</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>1</v>
@@ -4896,17 +4860,17 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B757,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B727,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B62" s="13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>1</v>
@@ -4916,18 +4880,18 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B878,1,FALSE)),"Not used","")</f>
+      <c r="A63" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B848,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="2" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>807</v>
+        <v>793</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>795</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>1</v>
@@ -4937,18 +4901,18 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B879,1,FALSE)),"Not used","")</f>
+      <c r="A64" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B849,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="2" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>808</v>
+        <v>794</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>796</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>1</v>
@@ -4959,17 +4923,17 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B758,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B728,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
         <v>250</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>1</v>
@@ -4980,17 +4944,17 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B759,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B729,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
         <v>251</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>1</v>
@@ -5001,17 +4965,17 @@
     </row>
     <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B760,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B730,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
         <v>252</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>1</v>
@@ -5022,17 +4986,17 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B761,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B731,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>1</v>
@@ -5043,17 +5007,17 @@
     </row>
     <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B762,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B732,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
         <v>279</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>1</v>
@@ -5063,20 +5027,20 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B880,1,FALSE)),"Not used","")</f>
+      <c r="A70" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B850,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>815</v>
-      </c>
-      <c r="D70" s="44" t="s">
-        <v>811</v>
-      </c>
-      <c r="E70" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>799</v>
+      </c>
+      <c r="E70" s="36" t="s">
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -5085,17 +5049,17 @@
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B763,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B733,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>1</v>
@@ -5106,17 +5070,17 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B764,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B734,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>1</v>
@@ -5127,17 +5091,17 @@
     </row>
     <row r="73" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B765,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B735,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
         <v>266</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>1</v>
@@ -5148,17 +5112,17 @@
     </row>
     <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B766,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B736,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>1</v>
@@ -5169,17 +5133,17 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B767,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B737,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>1</v>
@@ -5190,17 +5154,17 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B768,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B738,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>1</v>
@@ -5211,17 +5175,17 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B769,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B739,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>1</v>
@@ -5232,17 +5196,17 @@
     </row>
     <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B770,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B740,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
         <v>317</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>1</v>
@@ -5253,17 +5217,17 @@
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B771,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B741,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="13" t="s">
         <v>318</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>1</v>
@@ -5274,17 +5238,17 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B772,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B742,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>1</v>
@@ -5295,17 +5259,17 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B773,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B743,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>1</v>
@@ -5316,17 +5280,17 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B774,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B744,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="13" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>1</v>
@@ -5337,17 +5301,17 @@
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B775,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B745,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="13" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>1</v>
@@ -5358,17 +5322,17 @@
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B776,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B746,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>1</v>
@@ -5379,17 +5343,17 @@
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B777,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B747,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>1</v>
@@ -5400,17 +5364,17 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B778,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B748,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
         <v>231</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>180</v>
@@ -5421,17 +5385,17 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B779,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B749,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="13" t="s">
         <v>232</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>180</v>
@@ -5442,17 +5406,17 @@
     </row>
     <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B780,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B750,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="13" t="s">
         <v>233</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>1</v>
@@ -5463,17 +5427,17 @@
     </row>
     <row r="89" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B781,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B751,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
         <v>301</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>1</v>
@@ -5484,17 +5448,17 @@
     </row>
     <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B782,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B752,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>1</v>
@@ -5505,17 +5469,17 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B783,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B753,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="13" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>1</v>
@@ -5525,18 +5489,18 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B882,1,FALSE)),"Not used","")</f>
+      <c r="A92" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B852,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>823</v>
+        <v>807</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>811</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>1</v>
@@ -5546,18 +5510,18 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B884,1,FALSE)),"Not used","")</f>
+      <c r="A93" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B854,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B93" s="2" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>826</v>
+        <v>809</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>814</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>1</v>
@@ -5568,17 +5532,17 @@
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B784,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B754,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="13" t="s">
         <v>267</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>1</v>
@@ -5589,17 +5553,17 @@
     </row>
     <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B785,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B755,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
         <v>302</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>1</v>
@@ -5610,17 +5574,17 @@
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B786,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B756,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E96" s="13" t="s">
         <v>1</v>
@@ -5631,17 +5595,17 @@
     </row>
     <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B787,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B757,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C97" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="D97" s="47" t="s">
-        <v>634</v>
+        <v>349</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="D97" s="46" t="s">
+        <v>626</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>1</v>
@@ -5652,17 +5616,17 @@
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B788,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B758,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>1</v>
@@ -5673,17 +5637,17 @@
     </row>
     <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B789,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B759,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
         <v>253</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>180</v>
@@ -5694,17 +5658,17 @@
     </row>
     <row r="100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B790,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B760,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="13" t="s">
         <v>254</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>180</v>
@@ -5715,17 +5679,17 @@
     </row>
     <row r="101" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B791,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B761,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="13" t="s">
         <v>255</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>180</v>
@@ -5736,17 +5700,17 @@
     </row>
     <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B792,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B762,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102" s="13" t="s">
         <v>234</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>174</v>
@@ -5757,17 +5721,17 @@
     </row>
     <row r="103" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B793,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B763,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="13" t="s">
         <v>245</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>1</v>
@@ -5778,17 +5742,17 @@
     </row>
     <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B863,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B833,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>665</v>
-      </c>
-      <c r="D104" s="46" t="s">
-        <v>666</v>
+        <v>656</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>658</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>1</v>
@@ -5799,17 +5763,17 @@
     </row>
     <row r="105" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B794,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B764,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
         <v>268</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E105" s="17" t="s">
         <v>1</v>
@@ -5820,17 +5784,17 @@
     </row>
     <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B795,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B765,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="13" t="s">
         <v>269</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>1</v>
@@ -5841,17 +5805,17 @@
     </row>
     <row r="107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B796,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B766,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="13" t="s">
         <v>270</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>1</v>
@@ -5862,17 +5826,17 @@
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B800,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B770,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="19" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>1</v>
@@ -5884,17 +5848,17 @@
     </row>
     <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B880,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B850,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>1</v>
@@ -5905,17 +5869,17 @@
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B797,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B767,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110" s="13" t="s">
         <v>312</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>1</v>
@@ -5926,17 +5890,17 @@
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B798,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B768,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111" s="13" t="s">
         <v>313</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>1</v>
@@ -5947,17 +5911,17 @@
     </row>
     <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B799,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B769,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="13" t="s">
         <v>314</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>1</v>
@@ -5968,17 +5932,17 @@
     </row>
     <row r="113" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B876,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B846,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>1</v>
@@ -5989,7 +5953,7 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B800,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B770,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="13" t="s">
@@ -5999,7 +5963,7 @@
         <v>289</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>1</v>
@@ -6010,17 +5974,17 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B801,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B771,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="13" t="s">
         <v>316</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>1</v>
@@ -6031,17 +5995,17 @@
     </row>
     <row r="116" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B802,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B772,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>180</v>
@@ -6052,17 +6016,17 @@
     </row>
     <row r="117" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B803,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B773,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
         <v>236</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>180</v>
@@ -6073,17 +6037,17 @@
     </row>
     <row r="118" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B804,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B774,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="13" t="s">
         <v>319</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>1</v>
@@ -6094,17 +6058,17 @@
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B805,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B775,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>1</v>
@@ -6115,17 +6079,17 @@
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B806,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B776,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
         <v>271</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>1</v>
@@ -6136,17 +6100,17 @@
     </row>
     <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B807,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B777,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="13" t="s">
         <v>272</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>1</v>
@@ -6157,17 +6121,17 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B808,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B778,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B122" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>1</v>
@@ -6178,17 +6142,17 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B809,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B779,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>1</v>
@@ -6199,17 +6163,17 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B810,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B780,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B124" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>1</v>
@@ -6220,17 +6184,17 @@
     </row>
     <row r="125" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B811,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B781,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B125" s="13" t="s">
         <v>246</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>1</v>
@@ -6241,17 +6205,17 @@
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B812,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B782,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B126" s="13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E126" s="17" t="s">
         <v>1</v>
@@ -6262,17 +6226,17 @@
     </row>
     <row r="127" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B813,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B783,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="13" t="s">
         <v>247</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E127" s="17" t="s">
         <v>1</v>
@@ -6283,17 +6247,17 @@
     </row>
     <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B814,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B784,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>1</v>
@@ -6304,17 +6268,17 @@
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B815,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B785,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="13" t="s">
         <v>256</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E129" s="17" t="s">
         <v>1</v>
@@ -6325,17 +6289,17 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B816,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B786,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="13" t="s">
         <v>297</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E130" s="17" t="s">
         <v>1</v>
@@ -6346,17 +6310,17 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B817,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B787,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E131" s="17" t="s">
         <v>1</v>
@@ -6367,17 +6331,17 @@
     </row>
     <row r="132" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B818,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B788,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E132" s="17" t="s">
         <v>1</v>
@@ -6388,17 +6352,17 @@
     </row>
     <row r="133" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B819,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B789,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="13" t="s">
         <v>287</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E133" s="17" t="s">
         <v>1</v>
@@ -6409,17 +6373,17 @@
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B820,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B790,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B134" s="13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E134" s="17" t="s">
         <v>1</v>
@@ -6430,17 +6394,17 @@
     </row>
     <row r="135" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B821,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B791,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B135" s="13" t="s">
         <v>295</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E135" s="17" t="s">
         <v>1</v>
@@ -6451,17 +6415,17 @@
     </row>
     <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B822,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B792,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B136" s="13" t="s">
         <v>273</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="E136" s="17" t="s">
         <v>1</v>
@@ -6472,17 +6436,17 @@
     </row>
     <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B823,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B793,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="13" t="s">
         <v>274</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E137" s="17" t="s">
         <v>1</v>
@@ -6493,17 +6457,17 @@
     </row>
     <row r="138" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B862,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B832,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B138" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>1</v>
@@ -6514,17 +6478,17 @@
     </row>
     <row r="139" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B824,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B794,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B139" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E139" s="17" t="s">
         <v>1</v>
@@ -6535,17 +6499,17 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B825,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B795,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B140" s="13" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E140" s="17" t="s">
         <v>1</v>
@@ -6556,17 +6520,17 @@
     </row>
     <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B826,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B796,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B141" s="13" t="s">
         <v>237</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E141" s="17" t="s">
         <v>180</v>
@@ -6577,17 +6541,17 @@
     </row>
     <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B827,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B797,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B142" s="13" t="s">
         <v>238</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E142" s="17" t="s">
         <v>1</v>
@@ -6598,17 +6562,17 @@
     </row>
     <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B828,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B798,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
         <v>227</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>1</v>
@@ -6619,17 +6583,17 @@
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B829,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B799,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B144" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>1</v>
@@ -6640,17 +6604,17 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B830,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B800,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B145" s="13" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E145" s="17" t="s">
         <v>1</v>
@@ -6661,17 +6625,17 @@
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B831,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B801,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B146" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E146" s="17" t="s">
         <v>1</v>
@@ -6682,17 +6646,17 @@
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B832,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B802,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B147" s="13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E147" s="17" t="s">
         <v>1</v>
@@ -6703,17 +6667,17 @@
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B833,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B803,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B148" s="13" t="s">
         <v>275</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>4</v>
@@ -6722,17 +6686,17 @@
     </row>
     <row r="149" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B834,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B804,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E149" s="17" t="s">
         <v>1</v>
@@ -6743,17 +6707,17 @@
     </row>
     <row r="150" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B835,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B805,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>1</v>
@@ -6764,17 +6728,17 @@
     </row>
     <row r="151" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B836,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B806,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E151" s="17" t="s">
         <v>1</v>
@@ -6785,17 +6749,17 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B837,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B807,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B152" s="13" t="s">
         <v>290</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E152" s="17" t="s">
         <v>1</v>
@@ -6806,17 +6770,17 @@
     </row>
     <row r="153" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B838,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B808,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B153" s="13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="E153" s="17" t="s">
         <v>1</v>
@@ -6827,17 +6791,17 @@
     </row>
     <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B839,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B809,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B154" s="13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E154" s="17" t="s">
         <v>1</v>
@@ -6848,17 +6812,17 @@
     </row>
     <row r="155" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B840,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B810,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B155" s="13" t="s">
         <v>320</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E155" s="17" t="s">
         <v>1</v>
@@ -6869,17 +6833,17 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B841,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B811,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B156" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E156" s="17" t="s">
         <v>1</v>
@@ -6890,17 +6854,17 @@
     </row>
     <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B842,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B812,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B157" s="13" t="s">
         <v>228</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E157" s="17" t="s">
         <v>180</v>
@@ -6911,17 +6875,17 @@
     </row>
     <row r="158" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B843,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B813,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B158" s="13" t="s">
         <v>276</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E158" s="17" t="s">
         <v>1</v>
@@ -6932,17 +6896,17 @@
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B844,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B814,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B159" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="E159" s="17" t="s">
         <v>25</v>
@@ -6953,17 +6917,17 @@
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B845,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B815,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B160" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E160" s="17" t="s">
         <v>1</v>
@@ -6974,17 +6938,17 @@
     </row>
     <row r="161" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B846,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B816,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B161" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E161" s="17" t="s">
         <v>1</v>
@@ -6995,17 +6959,17 @@
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B868,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B838,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B162" s="2" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>1</v>
@@ -7015,18 +6979,18 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B881,1,FALSE)),"Not used","")</f>
+      <c r="A163" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B851,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B163" s="2" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D163" s="44" t="s">
-        <v>812</v>
+        <v>802</v>
+      </c>
+      <c r="D163" s="43" t="s">
+        <v>800</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>1</v>
@@ -7037,17 +7001,17 @@
     </row>
     <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B847,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B817,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B164" s="13" t="s">
         <v>321</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E164" s="17" t="s">
         <v>1</v>
@@ -7058,17 +7022,17 @@
     </row>
     <row r="165" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B848,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B818,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B165" s="13" t="s">
         <v>277</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E165" s="17" t="s">
         <v>1</v>
@@ -7079,17 +7043,17 @@
     </row>
     <row r="166" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B871,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B841,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B166" s="2" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>4</v>
@@ -7097,17 +7061,17 @@
     </row>
     <row r="167" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B849,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B819,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B167" s="13" t="s">
         <v>315</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E167" s="17" t="s">
         <v>4</v>
@@ -7116,17 +7080,17 @@
     </row>
     <row r="168" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B850,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B820,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B168" s="13" t="s">
         <v>239</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E168" s="17" t="s">
         <v>4</v>
@@ -7135,17 +7099,17 @@
     </row>
     <row r="169" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B851,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B821,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B169" s="13" t="s">
         <v>278</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E169" s="17" t="s">
         <v>1</v>
@@ -7155,18 +7119,18 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B883,1,FALSE)),"Not used","")</f>
+      <c r="A170" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B853,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B170" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D170" s="36" t="s">
-        <v>824</v>
+        <v>808</v>
+      </c>
+      <c r="D170" s="35" t="s">
+        <v>812</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1</v>
@@ -7176,18 +7140,18 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="35" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B885,1,FALSE)),"Not used","")</f>
+      <c r="A171" s="34" t="str">
+        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B855,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B171" s="2" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="D171" s="36" t="s">
-        <v>825</v>
+        <v>810</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>813</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>1</v>
@@ -7198,17 +7162,17 @@
     </row>
     <row r="172" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B172,AssociatedElements!B$2:B852,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B172,AssociatedElements!B$2:B822,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B172" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E172" s="17" t="s">
         <v>180</v>
@@ -7219,17 +7183,17 @@
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B173,AssociatedElements!B$2:B853,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B173,AssociatedElements!B$2:B823,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B173" s="13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E173" s="17" t="s">
         <v>4</v>
@@ -7238,17 +7202,17 @@
     </row>
     <row r="174" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B174,AssociatedElements!B$2:B854,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B174,AssociatedElements!B$2:B824,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B174" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C174" s="45" t="s">
-        <v>557</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>558</v>
+      <c r="C174" s="44" t="s">
+        <v>553</v>
+      </c>
+      <c r="D174" s="47" t="s">
+        <v>554</v>
       </c>
       <c r="E174" s="17" t="s">
         <v>1</v>
@@ -7259,17 +7223,17 @@
     </row>
     <row r="175" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B175,AssociatedElements!B$2:B855,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B175,AssociatedElements!B$2:B825,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B175" s="13" t="s">
         <v>292</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E175" s="17" t="s">
         <v>1</v>
@@ -7280,17 +7244,17 @@
     </row>
     <row r="176" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B176,AssociatedElements!B$2:B856,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B176,AssociatedElements!B$2:B826,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B176" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="C176" s="43" t="s">
-        <v>653</v>
+        <v>644</v>
+      </c>
+      <c r="C176" s="42" t="s">
+        <v>645</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E176" s="13" t="s">
         <v>1</v>
@@ -7299,108 +7263,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B177,AssociatedElements!B$2:B856,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B177,AssociatedElements!B$2:B826,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B177" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="D177" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="E177" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E177" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F177" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B178,AssociatedElements!B$2:B858,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="D178" s="16" t="s">
-        <v>671</v>
-      </c>
-      <c r="E178" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F178" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B179,AssociatedElements!B$2:B856,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>655</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F179" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B180,AssociatedElements!B$2:B857,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="D180" s="16" t="s">
-        <v>670</v>
-      </c>
-      <c r="E180" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F180" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B181,AssociatedElements!B$2:B859,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="D181" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="E181" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F181" s="17" t="s">
+      <c r="F177" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7434,11 +7314,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D265" sqref="D265"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7464,4086 +7344,4331 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>800</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>827</v>
+      <c r="A2" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>344</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>682</v>
+      <c r="C6" s="33" t="s">
+        <v>670</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>800</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="A7" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>791</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>798</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>801</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>803</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D8" s="24" t="s">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D9" s="24" t="s">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>805</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>810</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D10" s="24" t="s">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B11" s="33" t="s">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="C18" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>813</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D12" s="24" t="s">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>800</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>817</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>682</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>818</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>682</v>
+      <c r="A20" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>670</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B21" t="s">
         <v>221</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B22" t="s">
         <v>222</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B23" t="s">
         <v>223</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B24" t="s">
         <v>224</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B25" t="s">
         <v>225</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B26" t="s">
         <v>226</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B27" t="s">
         <v>227</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B28" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B29" t="s">
         <v>228</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B30" t="s">
         <v>229</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B31" s="29" t="s">
         <v>230</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B32" s="29" t="s">
         <v>231</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B33" s="29" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B34" s="29" t="s">
         <v>233</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B35" s="29" t="s">
         <v>234</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B36" s="29" t="s">
         <v>235</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B37" s="29" t="s">
         <v>236</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B38" s="29" t="s">
         <v>237</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B39" s="29" t="s">
         <v>238</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B40" s="29" t="s">
         <v>239</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B41" s="29" t="s">
         <v>240</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B44" t="s">
         <v>241</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B45" s="29" t="s">
         <v>242</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B46" s="29" t="s">
         <v>243</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B47" s="29" t="s">
         <v>244</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B48" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B49" s="29" t="s">
         <v>246</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B50" s="29" t="s">
         <v>247</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B51" s="29" t="s">
         <v>248</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B52" s="29" t="s">
         <v>249</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B53" s="29" t="s">
         <v>250</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B54" s="29" t="s">
         <v>251</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B55" s="29" t="s">
         <v>252</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B56" s="29" t="s">
         <v>253</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B57" s="29" t="s">
         <v>254</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B58" s="29" t="s">
         <v>255</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B59" s="29" t="s">
         <v>256</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B60" s="29" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B61" s="29" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B62" s="29" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B63" s="29" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B64" s="29" t="s">
         <v>257</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B65" s="29" t="s">
         <v>316</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B66" s="29" t="s">
         <v>257</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B67" s="29" t="s">
         <v>258</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B68" s="29" t="s">
         <v>259</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B69" s="29" t="s">
         <v>260</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B70" s="29" t="s">
         <v>261</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B71" s="29" t="s">
         <v>262</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B72" s="29" t="s">
         <v>244</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B73" s="29" t="s">
         <v>263</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B74" s="29" t="s">
         <v>264</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B75" s="29" t="s">
         <v>265</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B76" s="29" t="s">
         <v>251</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B77" s="29" t="s">
         <v>252</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B78" s="29" t="s">
         <v>266</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B79" s="29" t="s">
         <v>267</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B80" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B81" s="29" t="s">
         <v>268</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B82" s="29" t="s">
         <v>269</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B83" s="29" t="s">
         <v>270</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B84" s="29" t="s">
         <v>271</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B85" s="29" t="s">
         <v>272</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B86" s="29" t="s">
         <v>273</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B87" s="29" t="s">
         <v>274</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B88" s="29" t="s">
         <v>275</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B89" s="29" t="s">
         <v>276</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B90" s="29" t="s">
         <v>277</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="D90" s="40" t="s">
-        <v>722</v>
+        <v>670</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B91" s="29" t="s">
         <v>278</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B92" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B93" t="s">
         <v>279</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B94" s="29" t="s">
         <v>280</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B95" s="29" t="s">
         <v>281</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B96" s="29" t="s">
         <v>282</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B97" s="29" t="s">
         <v>283</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B98" t="s">
         <v>280</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D98" s="41" t="s">
-        <v>734</v>
+        <v>670</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B99" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B100" t="s">
         <v>284</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B101" t="s">
         <v>285</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B102" t="s">
         <v>286</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B103" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B104" s="29" t="s">
         <v>287</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B105" s="29" t="s">
         <v>273</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B106" s="29" t="s">
         <v>274</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B107" s="29" t="s">
         <v>280</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B108" s="29" t="s">
         <v>281</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B109" s="29" t="s">
         <v>282</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B110" s="29" t="s">
         <v>283</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B111" s="29" t="s">
         <v>288</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B112" s="29" t="s">
         <v>289</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B113" s="29" t="s">
         <v>290</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B114" s="29" t="s">
         <v>291</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B115" s="29" t="s">
         <v>283</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B116" s="29" t="s">
         <v>292</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B117" s="29" t="s">
         <v>280</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B118" s="29" t="s">
         <v>293</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B119" s="29" t="s">
         <v>277</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B120" s="29" t="s">
         <v>283</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B121" t="s">
         <v>294</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B122" t="s">
         <v>295</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B123" t="s">
         <v>273</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B124" t="s">
         <v>274</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B125" s="29" t="s">
         <v>284</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B126" s="29" t="s">
         <v>296</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B127" s="29" t="s">
         <v>285</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B128" s="29" t="s">
         <v>286</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B129" s="29" t="s">
         <v>297</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B130" s="29" t="s">
         <v>287</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B131" s="29" t="s">
         <v>273</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B132" s="29" t="s">
         <v>274</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B133" s="2" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B134" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B135" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B137" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B138" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B139" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B140" t="s">
         <v>298</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B141" t="s">
         <v>299</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B142" t="s">
         <v>300</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B143" s="29" t="s">
         <v>301</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B144" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B145" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B146" s="29" t="s">
         <v>305</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B147" s="29" t="s">
         <v>306</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B148" s="29" t="s">
         <v>308</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B149" s="29" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B150" s="29" t="s">
         <v>309</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B151" s="29" t="s">
         <v>310</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B152" s="29" t="s">
         <v>311</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B153" s="29" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B154" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B155" s="29" t="s">
         <v>312</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B156" s="29" t="s">
         <v>313</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B157" s="29" t="s">
         <v>314</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B158" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B159" t="s">
         <v>302</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B162" s="2" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B163,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B163" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B164" s="29" t="s">
         <v>303</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B165" s="29" t="s">
         <v>304</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B166" s="29" t="s">
         <v>305</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B167" s="29" t="s">
         <v>306</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B168" s="29" t="s">
         <v>307</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D168" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B169,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B169" s="29" t="s">
         <v>308</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B170,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B170" s="29" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B171,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B171" s="29" t="s">
         <v>309</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
-        <f>IF(ISNA(VLOOKUP(B172,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B172,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B172" s="29" t="s">
         <v>310</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
-        <f>IF(ISNA(VLOOKUP(B173,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B173,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B173" s="29" t="s">
         <v>311</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
-        <f>IF(ISNA(VLOOKUP(B174,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B174,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B174" s="29" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f>IF(ISNA(VLOOKUP(B175,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B175,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B175" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f>IF(ISNA(VLOOKUP(B176,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B176,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B176" s="29" t="s">
         <v>312</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f>IF(ISNA(VLOOKUP(B177,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B177,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B177" s="29" t="s">
         <v>313</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
-        <f>IF(ISNA(VLOOKUP(B178,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B178,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B178" s="29" t="s">
         <v>314</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f>IF(ISNA(VLOOKUP(B179,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B179,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B179" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f>IF(ISNA(VLOOKUP(B180,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B180,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B180" s="2" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f>IF(ISNA(VLOOKUP(B181,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B181,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B181" s="29" t="s">
         <v>315</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f>IF(ISNA(VLOOKUP(B182,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B182,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B182" s="29" t="s">
         <v>316</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f>IF(ISNA(VLOOKUP(B183,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B183,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B183" s="29" t="s">
         <v>294</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B184" s="29" t="s">
         <v>295</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f>IF(ISNA(VLOOKUP(B185,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B185,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B185" s="29" t="s">
         <v>273</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f>IF(ISNA(VLOOKUP(B186,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B186,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B186" s="29" t="s">
         <v>274</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f>IF(ISNA(VLOOKUP(B187,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B187,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B187" s="29" t="s">
         <v>317</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f>IF(ISNA(VLOOKUP(B188,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B188,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B188" s="29" t="s">
         <v>318</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B189" s="29" t="s">
         <v>319</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B190" s="29" t="s">
         <v>261</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B191" s="29" t="s">
         <v>285</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B192" s="29" t="s">
         <v>271</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B193" s="29" t="s">
         <v>320</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B194" s="29" t="s">
         <v>321</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D194" s="24" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f>IF(ISNA(VLOOKUP(B195,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B195" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="C195" s="24" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B195,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
-        <f>IF(ISNA(VLOOKUP(B196,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B196" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="C196" s="24" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B196,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="str">
-        <f>IF(ISNA(VLOOKUP(B197,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B197,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B197" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="str">
-        <f>IF(ISNA(VLOOKUP(B198,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B198,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B198" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
-        <f>IF(ISNA(VLOOKUP(B199,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B199,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B199" t="s">
         <v>262</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
-        <f>IF(ISNA(VLOOKUP(B200,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B200,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B200" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
-        <f>IF(ISNA(VLOOKUP(B201,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B201,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B201" t="s">
         <v>250</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D201" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
-        <f>IF(ISNA(VLOOKUP(B202,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B202,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B202" t="s">
         <v>252</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
-        <f>IF(ISNA(VLOOKUP(B203,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B203,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B203" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
-        <f>IF(ISNA(VLOOKUP(B204,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B204,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B204" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D204" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
-        <f>IF(ISNA(VLOOKUP(B205,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B205,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B205" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D205" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="str">
-        <f>IF(ISNA(VLOOKUP(B206,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B206,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B206" t="s">
         <v>295</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D206" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="str">
-        <f>IF(ISNA(VLOOKUP(B207,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B207,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B207" t="s">
         <v>273</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="str">
-        <f>IF(ISNA(VLOOKUP(B208,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B208,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B208" t="s">
         <v>274</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D208" s="24" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="str">
-        <f>IF(ISNA(VLOOKUP(B209,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B209,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B209" t="s">
         <v>284</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D209" s="24" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="str">
-        <f>IF(ISNA(VLOOKUP(B210,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B210,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B210" t="s">
         <v>285</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D210" s="24" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="str">
-        <f>IF(ISNA(VLOOKUP(B211,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B211,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B211" t="s">
         <v>286</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D211" s="24" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
-        <f>IF(ISNA(VLOOKUP(B212,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B212,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B212" s="29" t="s">
         <v>289</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D212" s="24" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="str">
-        <f>IF(ISNA(VLOOKUP(B213,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B213,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B213" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
-        <f>IF(ISNA(VLOOKUP(B214,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B214,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B214" t="s">
         <v>256</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D214" s="24" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
-        <f>IF(ISNA(VLOOKUP(B215,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B215,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B215" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D215" s="24" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
-        <f>IF(ISNA(VLOOKUP(B216,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B216,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B216" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D216" s="24" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
-        <f>IF(ISNA(VLOOKUP(B217,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B217,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B217" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="str">
-        <f>IF(ISNA(VLOOKUP(B218,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B218,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B218" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="str">
-        <f>IF(ISNA(VLOOKUP(B219,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B219,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B219" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="str">
-        <f>IF(ISNA(VLOOKUP(B220,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B220,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B220" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="str">
-        <f>IF(ISNA(VLOOKUP(B221,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B221,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B221" s="29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C221" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="str">
-        <f>IF(ISNA(VLOOKUP(B222,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B222,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B222" s="29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="str">
-        <f>IF(ISNA(VLOOKUP(B223,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B223,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B223" s="29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="str">
-        <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B224" s="29" t="s">
         <v>284</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
-        <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B225" s="29" t="s">
         <v>285</v>
       </c>
       <c r="C225" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="str">
-        <f>IF(ISNA(VLOOKUP(B226,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B226,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B226" s="29" t="s">
         <v>286</v>
       </c>
       <c r="C226" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" t="str">
-        <f>IF(ISNA(VLOOKUP(B227,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B227,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B227" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C227" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B228" s="33" t="s">
-        <v>800</v>
-      </c>
-      <c r="C228" s="34" t="s">
-        <v>682</v>
+      <c r="A228" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B228" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="C228" s="33" t="s">
+        <v>670</v>
       </c>
       <c r="D228" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
-        <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B229" s="29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C229" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="str">
-        <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B230" s="29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" t="str">
-        <f>IF(ISNA(VLOOKUP(B231,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B231,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B231" s="29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
-        <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B232" s="29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="str">
-        <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B233" s="29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C233" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" t="str">
-        <f>IF(ISNA(VLOOKUP(B234,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B234,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B234" s="29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C234" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D234" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" t="str">
-        <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B235" s="29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C235" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D235" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" t="str">
-        <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B236" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" t="str">
-        <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B237" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C237" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D237" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
-        <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B238" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C238" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
-        <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B239" s="29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C239" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
-        <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B240" s="29" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C240" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" t="str">
-        <f>IF(ISNA(VLOOKUP(B241,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B241,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B241" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C241" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" t="str">
-        <f>IF(ISNA(VLOOKUP(B242,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B242,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B242" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C242" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" t="str">
-        <f>IF(ISNA(VLOOKUP(B243,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B243,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B243" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C243" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" t="str">
-        <f>IF(ISNA(VLOOKUP(B244,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B244,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B244" s="29" t="s">
         <v>283</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="str">
-        <f>IF(ISNA(VLOOKUP(B245,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B245" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="C245" s="24" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B245,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B245" t="s">
+        <v>348</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="str">
-        <f>IF(ISNA(VLOOKUP(B246,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B246" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="C246" s="24" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B246,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B246" t="s">
+        <v>366</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="str">
-        <f>IF(ISNA(VLOOKUP(B247,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B247,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B247" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="str">
-        <f>IF(ISNA(VLOOKUP(B248,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B248,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B248" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>791</v>
+        <v>751</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="str">
-        <f>IF(ISNA(VLOOKUP(B249,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B249,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B249" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" t="str">
-        <f>IF(ISNA(VLOOKUP(B250,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B250" t="s">
-        <v>372</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B250,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B250" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C250" s="24" t="s">
+        <v>670</v>
       </c>
       <c r="D250" s="24" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="str">
-        <f>IF(ISNA(VLOOKUP(B251,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B251,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D251" s="24" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" t="str">
-        <f>IF(ISNA(VLOOKUP(B252,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B252,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B252" s="29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D252" s="24" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="str">
-        <f>IF(ISNA(VLOOKUP(B253,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B253,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" t="str">
-        <f>IF(ISNA(VLOOKUP(B254,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B254,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B254" s="29" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C254" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="str">
-        <f>IF(ISNA(VLOOKUP(B255,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B255,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B255" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" t="str">
-        <f>IF(ISNA(VLOOKUP(B256,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B256,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B256" s="29" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C256" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="str">
-        <f>IF(ISNA(VLOOKUP(B257,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B257,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B257" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D257" s="24" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" t="str">
-        <f>IF(ISNA(VLOOKUP(B258,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B258,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B258" s="29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D258" s="24" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" t="str">
-        <f>IF(ISNA(VLOOKUP(B259,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B259" t="s">
-        <v>274</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B259,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B259" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C259" s="24" t="s">
+        <v>670</v>
       </c>
       <c r="D259" s="24" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" t="str">
-        <f>IF(ISNA(VLOOKUP(B260,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B260,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B260" s="29" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="C260" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D260" s="24" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" t="str">
-        <f>IF(ISNA(VLOOKUP(B261,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B261,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B261" s="29" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D261" s="24" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" t="str">
-        <f>IF(ISNA(VLOOKUP(B262,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B262,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B262" s="29" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D262" s="24" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" t="str">
-        <f>IF(ISNA(VLOOKUP(B263,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B263,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B263" s="29" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D263" s="24" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="str">
-        <f>IF(ISNA(VLOOKUP(B264,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B264" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="C264" s="24" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B264,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B264" t="s">
+        <v>368</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="D264" s="24" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="str">
-        <f>IF(ISNA(VLOOKUP(B265,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B265" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="C265" s="24" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B265,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B265" t="s">
+        <v>369</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="D265" s="24" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" t="str">
-        <f>IF(ISNA(VLOOKUP(B266,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B266" t="s">
-        <v>372</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B266,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B266" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C266" s="24" t="s">
+        <v>670</v>
       </c>
       <c r="D266" s="24" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" t="str">
-        <f>IF(ISNA(VLOOKUP(B267,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B267" t="s">
-        <v>373</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>682</v>
+        <f>IF(ISNA(VLOOKUP(B267,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B267" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C267" s="24" t="s">
+        <v>670</v>
       </c>
       <c r="D267" s="24" t="s">
-        <v>793</v>
+        <v>743</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" t="str">
-        <f>IF(ISNA(VLOOKUP(B268,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B268,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B268" s="29" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C268" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D268" s="24" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" t="str">
-        <f>IF(ISNA(VLOOKUP(B269,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B269,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B269" s="29" t="s">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="C269" s="24" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D269" s="24" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A270" t="str">
-        <f>IF(ISNA(VLOOKUP(B270,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B270" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C270" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="D270" s="24" t="s">
-        <v>755</v>
+      <c r="A270" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B270,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B270" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="C270" s="33" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A271" t="str">
-        <f>IF(ISNA(VLOOKUP(B271,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B271" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C271" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="D271" s="24" t="s">
-        <v>755</v>
+      <c r="A271" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B271,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B271" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="C271" s="33" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A272" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B272,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B272" s="33" t="s">
-        <v>797</v>
-      </c>
-      <c r="C272" s="34" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A273" t="str">
-        <f>IF(ISNA(VLOOKUP(B273,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D273" s="31"/>
-    </row>
-    <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A274" t="str">
-        <f>IF(ISNA(VLOOKUP(B274,Definitions!B$2:B$1627,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>682</v>
+      <c r="A272" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B272,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B272" s="32" t="s">
+        <v>646</v>
+      </c>
+      <c r="C272" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A273" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B273,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B273" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="C273" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A274" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B274,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B274" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C274" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A275" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B275,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B275" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C275" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A276" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B276,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B276" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C276" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A277" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B277,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B277" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A278" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B278,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B278" s="32" t="s">
+        <v>791</v>
+      </c>
+      <c r="C278" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A279" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B279,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B279" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="C279" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A280" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B280,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B280" s="32" t="s">
+        <v>798</v>
+      </c>
+      <c r="C280" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A281" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B281,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B281" s="32" t="s">
+        <v>801</v>
+      </c>
+      <c r="C281" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A282" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B282,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B282" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C282" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A283" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B283,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B283" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C283" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A284" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B284,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B284" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C284" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A285" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B285,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B285" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="C285" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B286,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B286" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C286" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A287" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B287,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B287" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C287" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A288" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B288,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B288" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C288" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A289" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B289,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B289" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A290" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B290,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B290" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A291" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B291,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B291" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C291" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A292" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B292,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B292" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="C292" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A293" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B293,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B293" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C293" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A294" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B294,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B294" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C294" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A295" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B295,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B295" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C295" s="33" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -11587,7 +11712,7 @@
         <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -11610,7 +11735,7 @@
         <v>AbsorbedDose</v>
       </c>
       <c r="M2" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -11618,7 +11743,7 @@
         <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>VLOOKUP(C3,M$2:M$200,1,FALSE)</f>
@@ -11633,7 +11758,7 @@
         <v>Activity[OfRadioactivity]</v>
       </c>
       <c r="M3" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -11656,7 +11781,7 @@
         <v>AmountOfSubstance</v>
       </c>
       <c r="M4" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -11679,7 +11804,7 @@
         <v>AmountOfSubstancePerAmountOfSubstance</v>
       </c>
       <c r="M5" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -11702,7 +11827,7 @@
         <v>AmountOfSubstancePerArea</v>
       </c>
       <c r="M6" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -11725,7 +11850,7 @@
         <v>AmountOfSubstancePerTime</v>
       </c>
       <c r="M7" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -11748,7 +11873,7 @@
         <v>AmountOfSubstancePerTimePerArea</v>
       </c>
       <c r="M8" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -11771,7 +11896,7 @@
         <v>AmountOfSubstancePerVolume</v>
       </c>
       <c r="M9" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -11794,7 +11919,7 @@
         <v>AnglePerLength</v>
       </c>
       <c r="M10" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -11817,7 +11942,7 @@
         <v>AnglePerVolume</v>
       </c>
       <c r="M11" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -11840,7 +11965,7 @@
         <v>AngularAcceleration</v>
       </c>
       <c r="M12" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -11863,7 +11988,7 @@
         <v>AngularVelocity</v>
       </c>
       <c r="M13" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -11886,7 +12011,7 @@
         <v>ApiGammaRay</v>
       </c>
       <c r="M14" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -11909,7 +12034,7 @@
         <v>ApiGravity</v>
       </c>
       <c r="M15" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -11932,7 +12057,7 @@
         <v>ApiNeutron</v>
       </c>
       <c r="M16" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -11976,7 +12101,7 @@
         <v>AreaPerAmountOfSubstance</v>
       </c>
       <c r="M18" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -12772,7 +12897,7 @@
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="D56" s="8" t="str">
         <f>VLOOKUP(C56,M$2:M$200,1,FALSE)</f>
@@ -13712,7 +13837,7 @@
     </row>
     <row r="103" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="D103" s="8" t="str">
         <f>VLOOKUP(C103,M$2:M$200,1,FALSE)</f>
@@ -13732,7 +13857,7 @@
     </row>
     <row r="104" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="D104" s="8" t="str">
         <f>VLOOKUP(C104,M$2:M$200,1,FALSE)</f>
@@ -13772,7 +13897,7 @@
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="D106" s="8" t="str">
         <f>VLOOKUP(C106,M$2:M$200,1,FALSE)</f>
@@ -14292,7 +14417,7 @@
     </row>
     <row r="132" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="D132" s="8" t="str">
         <f>VLOOKUP(C132,M$2:M$200,1,FALSE)</f>
@@ -14307,7 +14432,7 @@
         <v>PressureSquaredPer(ForceTimePerArea)</v>
       </c>
       <c r="M132" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="133" spans="3:13" x14ac:dyDescent="0.2">
@@ -14407,7 +14532,7 @@
         <v>ReciprocalArea</v>
       </c>
       <c r="M137" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
     </row>
     <row r="138" spans="3:13" x14ac:dyDescent="0.2">
@@ -14492,7 +14617,7 @@
     </row>
     <row r="142" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="D142" s="8" t="str">
         <f>VLOOKUP(C142,M$2:M$200,1,FALSE)</f>
@@ -15205,7 +15330,7 @@
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="D178" s="8" t="str">
         <f>VLOOKUP(C178,M$2:M$200,1,FALSE)</f>
@@ -15218,7 +15343,7 @@
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="D179" s="8" t="str">
         <f>VLOOKUP(C179,M$2:M$200,1,FALSE)</f>
@@ -15231,7 +15356,7 @@
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D180" s="8" t="str">
         <f>VLOOKUP(C180,M$2:M$200,1,FALSE)</f>
@@ -15244,7 +15369,7 @@
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="D181" s="8" t="str">
         <f>VLOOKUP(C181,M$2:M$200,1,FALSE)</f>
@@ -15257,7 +15382,7 @@
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="D182" s="8" t="str">
         <f>VLOOKUP(C182,M$2:M$200,1,FALSE)</f>
@@ -15270,7 +15395,7 @@
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="D183" s="8" t="str">
         <f>VLOOKUP(C183,M$2:M$200,1,FALSE)</f>
@@ -15283,7 +15408,7 @@
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="D184" s="8" t="str">
         <f>VLOOKUP(C184,M$2:M$200,1,FALSE)</f>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F496D6BE-53D9-3949-BA9D-12353070D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABEE333-03E9-8245-BAF5-C6F34A10D1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="2660" windowWidth="47440" windowHeight="28160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="3060" windowWidth="47440" windowHeight="28160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -7317,8 +7317,8 @@
   <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C283" sqref="C283"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABEE333-03E9-8245-BAF5-C6F34A10D1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469F4E69-CD57-D04C-B06D-8930AC670775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="3060" windowWidth="47440" windowHeight="28160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="844">
   <si>
     <t>Description</t>
   </si>
@@ -2169,228 +2169,6 @@
     <t>Electrical Resistivity</t>
   </si>
   <si>
-    <t>ancestor::measurement//procedure/diggs:FlatPlateDilatometerTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregateAbrasionValueTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregateCrushingValueTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregateElongationIndexTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregateFlakinessIndexTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregateImpactValueTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LosAngelesAbrasionTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregatePolishedStoneValueTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregateSoundnessTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregateWaterAbsorptionTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:BleedTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:DynamicProbeTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:InsituDensityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:InsituCBRTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LabCBRTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LabDensityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:ChalkCrushingValueTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LabChemicalTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:ParticleSizeTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:PorePressureDissipationTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:ConsolidationTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:MaterialGradationTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:PressuremeterTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:InsituPermeabilityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:PumpingTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LabPermeabilityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:StaticConePenetrationTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:DirectShearTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:InSituPenetrometerTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LabPenetrometerTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:PocketPenetrometerTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:UnconfinedCompressiveStrengthTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AtterbergLimitsTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:WaterContentTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LabCompactionTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:PressureFiltrationTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:EnvironmentalScreeningTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:FlameIonizationDetectorTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:FlowConeTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:TriaxialTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:FrostSusceptibilityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:TiltCupTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:ViscometerTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:PointLoadTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LineLossTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LossOnIgnitionTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LugeonTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:MarshFunnelTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:MCVTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:MudBalanceTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:DrivenPenetrationTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LabVelocityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:RedoxTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:PhotoIonizationDetectorTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:RelativeDensityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:InSituResistivityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LabResistivityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:RockPorosityDensityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:SchmidtReboundHardnessTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:InsituVaneTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LabVaneTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:SetTimeTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:ShoreScleroscopeHardnessTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:LinearShrinkageTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:ShrinkageTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregateSlakeDurabilityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:SlumpTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:SuctionTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:SpecificGravityTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:SyneresisTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:AggregateTenPercentFinesTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:WashoutTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:CationExhangeTest</t>
-  </si>
-  <si>
-    <t>ancestor::measurement//procedure/diggs:MicroDevalTest</t>
-  </si>
-  <si>
     <t>Time instant of measurement</t>
   </si>
   <si>
@@ -2451,9 +2229,6 @@
     <t>Gauge Pressure</t>
   </si>
   <si>
-    <t>ancestor::diggs:LugeonStepTimeSeries</t>
-  </si>
-  <si>
     <t>mass_loss</t>
   </si>
   <si>
@@ -2484,12 +2259,6 @@
     <t>The amount of mass reduced between observation steps</t>
   </si>
   <si>
-    <t>ancestor::diggs:DissipationTimeSeriesResult</t>
-  </si>
-  <si>
-    <t>ancestor::diggs:SyneresisTimeSeries</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -2548,6 +2317,258 @@
   </si>
   <si>
     <t>//diggs:measurand</t>
+  </si>
+  <si>
+    <t>//diggspropertyClass</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>ancestor::diggs:dissipationTimeSeries</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:lugeonStepTimeSeries</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:syneresisTimeSeries</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregateAbrasionValueTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregateCrushingValueTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregateElongationIndexTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregateFlakinessIndexTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregateImpactValueTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregatePolishedStoneValueTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregateSlakeDurabilityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregateSoundnessTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregateTenPercentFinesTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AggregateWaterAbsorptionTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:AtterbergLimitsTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:BleedTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:CationExhangeTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:ChalkCrushingValueTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:ConsolidationTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:DirectShearTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:DrivenPenetrationTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:DynamicProbeTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:EnvironmentalScreeningTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:FlameIonizationDetectorTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:FlatPlateDilatometerTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:FlowConeTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:FrostSusceptibilityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:InsituCBRTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:InsituDensityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:InSituPenetrometerTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:InsituPermeabilityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:InSituResistivityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:InsituVaneTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LabCBRTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LabChemicalTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LabCompactionTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LabDensityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LabPenetrometerTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LabPermeabilityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LabResistivityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LabVaneTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LabVelocityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LinearShrinkageTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LineLossTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LosAngelesAbrasionTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LossOnIgnitionTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:LugeonTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:MarshFunnelTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:MaterialGradationTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:MCVTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:MicroDevalTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:MudBalanceTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:ParticleSizeTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:PhotoIonizationDetectorTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:PocketPenetrometerTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:PointLoadTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:PorePressureDissipationTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:PressureFiltrationTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:PressuremeterTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:PumpingTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:RedoxTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:RelativeDensityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:RockPorosityDensityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:SchmidtReboundHardnessTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:SetTimeTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:ShoreScleroscopeHardnessTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:ShrinkageTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:SlumpTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:SpecificGravityTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:StaticConePenetrationTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:SuctionTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:SyneresisTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:TiltCupTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:TriaxialTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:UnconfinedCompressiveStrengthTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:ViscometerTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:WashoutTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:WaterContentTest</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:TemporalResult</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:MonitorResult</t>
+  </si>
+  <si>
+    <t>ancestor::TestResult</t>
+  </si>
+  <si>
+    <t>ancestor::SpatialReult</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:synere+[gp_properties.xlsx]AssociatedElements!$C$161:$D$268sisTimeSeries</t>
   </si>
 </sst>
 </file>
@@ -3134,7 +3155,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="13">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B676,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B679,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="11"/>
@@ -3149,10 +3170,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D295" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:D295" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D272">
-    <sortCondition ref="D1:D272"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D299" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:D299" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">
+    <sortCondition ref="D1:D299"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="4">
@@ -3562,7 +3583,7 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B676,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B679,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="12" t="s">
@@ -3583,7 +3604,7 @@
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B845,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B848,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
@@ -3601,7 +3622,7 @@
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B842,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
@@ -3619,7 +3640,7 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B677,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B680,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
@@ -3640,7 +3661,7 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B678,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B681,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -3661,7 +3682,7 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B679,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B682,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="2" t="s">
@@ -3682,7 +3703,7 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B680,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B683,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="2" t="s">
@@ -3703,7 +3724,7 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B681,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B684,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
@@ -3724,7 +3745,7 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B682,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B685,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
@@ -3745,7 +3766,7 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B683,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B686,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
@@ -3766,7 +3787,7 @@
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B684,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B687,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="13" t="s">
@@ -3789,7 +3810,7 @@
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B685,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B688,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
@@ -3812,7 +3833,7 @@
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B834,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B837,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="2" t="s">
@@ -3833,7 +3854,7 @@
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B686,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B689,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
@@ -3856,7 +3877,7 @@
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B687,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B690,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
@@ -3879,7 +3900,7 @@
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B688,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B691,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
@@ -3902,7 +3923,7 @@
     </row>
     <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B691,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B694,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
@@ -3925,7 +3946,7 @@
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B689,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B692,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
@@ -3948,7 +3969,7 @@
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B690,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B693,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
@@ -3971,7 +3992,7 @@
     </row>
     <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B691,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B694,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
@@ -3994,7 +4015,7 @@
     </row>
     <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B692,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B695,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
@@ -4017,7 +4038,7 @@
     </row>
     <row r="23" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B693,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B696,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
@@ -4040,7 +4061,7 @@
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B694,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B697,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
@@ -4063,7 +4084,7 @@
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B695,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B698,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
@@ -4086,7 +4107,7 @@
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B696,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B699,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
@@ -4109,7 +4130,7 @@
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B697,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B700,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
@@ -4132,7 +4153,7 @@
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B698,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B701,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
@@ -4155,7 +4176,7 @@
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B699,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B702,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
@@ -4178,7 +4199,7 @@
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B700,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B703,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
@@ -4201,7 +4222,7 @@
     </row>
     <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B701,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B704,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
@@ -4224,7 +4245,7 @@
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B702,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B705,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
@@ -4247,7 +4268,7 @@
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B703,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B706,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="s">
@@ -4270,7 +4291,7 @@
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B704,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B707,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="s">
@@ -4293,7 +4314,7 @@
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B705,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B708,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="s">
@@ -4314,7 +4335,7 @@
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B706,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B709,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
@@ -4335,7 +4356,7 @@
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B707,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B710,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="13" t="s">
@@ -4356,7 +4377,7 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B708,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B711,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="s">
@@ -4377,7 +4398,7 @@
     </row>
     <row r="39" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B709,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B712,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
@@ -4398,7 +4419,7 @@
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B710,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B713,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="s">
@@ -4419,7 +4440,7 @@
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B711,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B714,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
@@ -4440,7 +4461,7 @@
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B712,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B715,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="s">
@@ -4461,7 +4482,7 @@
     </row>
     <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B713,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B716,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
@@ -4482,7 +4503,7 @@
     </row>
     <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B714,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B717,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
@@ -4503,7 +4524,7 @@
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B839,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B842,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
@@ -4524,7 +4545,7 @@
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B715,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B718,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="s">
@@ -4545,7 +4566,7 @@
     </row>
     <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B716,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B719,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
@@ -4566,7 +4587,7 @@
     </row>
     <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B717,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B720,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="s">
@@ -4587,7 +4608,7 @@
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B840,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B843,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="13" t="s">
@@ -4608,7 +4629,7 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B718,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B721,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="13" t="s">
@@ -4629,7 +4650,7 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B721,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B724,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="s">
@@ -4650,17 +4671,17 @@
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B846,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B849,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="2" t="s">
-        <v>785</v>
+        <v>711</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>786</v>
+        <v>712</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>787</v>
+        <v>713</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>1</v>
@@ -4671,7 +4692,7 @@
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B719,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B722,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="s">
@@ -4692,7 +4713,7 @@
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B720,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B723,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="13" t="s">
@@ -4713,7 +4734,7 @@
     </row>
     <row r="55" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B721,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B724,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="13" t="s">
@@ -4734,7 +4755,7 @@
     </row>
     <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B722,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B725,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="s">
@@ -4755,7 +4776,7 @@
     </row>
     <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B723,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B726,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
@@ -4776,7 +4797,7 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B724,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B727,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
@@ -4797,17 +4818,17 @@
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B847,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B850,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="2" t="s">
-        <v>788</v>
+        <v>714</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>789</v>
+        <v>715</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>797</v>
+        <v>723</v>
       </c>
       <c r="E59" s="36" t="s">
         <v>1</v>
@@ -4818,7 +4839,7 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B725,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B728,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="s">
@@ -4839,7 +4860,7 @@
     </row>
     <row r="61" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B726,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B729,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
@@ -4860,7 +4881,7 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B727,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B730,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B62" s="13" t="s">
@@ -4881,17 +4902,17 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B848,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B851,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="2" t="s">
-        <v>791</v>
+        <v>717</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>793</v>
+        <v>719</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>795</v>
+        <v>721</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>1</v>
@@ -4902,17 +4923,17 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B849,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B852,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="2" t="s">
-        <v>792</v>
+        <v>718</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>796</v>
+        <v>722</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>1</v>
@@ -4923,7 +4944,7 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B728,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B731,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
@@ -4944,7 +4965,7 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B729,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B732,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
@@ -4965,7 +4986,7 @@
     </row>
     <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B730,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B733,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
@@ -4986,7 +5007,7 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B731,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B734,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
@@ -5007,7 +5028,7 @@
     </row>
     <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B732,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B735,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
@@ -5028,17 +5049,17 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B850,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B853,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="2" t="s">
-        <v>798</v>
+        <v>724</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>803</v>
+        <v>729</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>799</v>
+        <v>725</v>
       </c>
       <c r="E70" s="36" t="s">
         <v>1</v>
@@ -5049,7 +5070,7 @@
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B733,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B736,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
@@ -5070,7 +5091,7 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B734,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B737,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
@@ -5091,7 +5112,7 @@
     </row>
     <row r="73" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B735,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B738,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
@@ -5112,7 +5133,7 @@
     </row>
     <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B736,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B739,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
@@ -5133,7 +5154,7 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B737,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B740,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
@@ -5154,7 +5175,7 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B738,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B741,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
@@ -5175,7 +5196,7 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B739,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B742,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
@@ -5196,7 +5217,7 @@
     </row>
     <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B740,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B743,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
@@ -5217,7 +5238,7 @@
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B741,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B744,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="13" t="s">
@@ -5238,7 +5259,7 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B742,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B745,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
@@ -5259,7 +5280,7 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B743,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B746,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="13" t="s">
@@ -5280,7 +5301,7 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B744,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B747,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="13" t="s">
@@ -5301,7 +5322,7 @@
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B745,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B748,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="13" t="s">
@@ -5322,7 +5343,7 @@
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B746,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B749,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
@@ -5343,7 +5364,7 @@
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B747,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B750,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="13" t="s">
@@ -5364,7 +5385,7 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B748,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B751,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
@@ -5385,7 +5406,7 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B749,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B752,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="13" t="s">
@@ -5406,7 +5427,7 @@
     </row>
     <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B750,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B753,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="13" t="s">
@@ -5427,7 +5448,7 @@
     </row>
     <row r="89" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B751,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B754,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
@@ -5448,7 +5469,7 @@
     </row>
     <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B752,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B755,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="13" t="s">
@@ -5458,7 +5479,7 @@
         <v>440</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>1</v>
@@ -5469,7 +5490,7 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B753,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B756,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="13" t="s">
@@ -5490,17 +5511,17 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B852,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B855,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>807</v>
+        <v>732</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>811</v>
+        <v>736</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>1</v>
@@ -5511,17 +5532,17 @@
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B854,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B857,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B93" s="2" t="s">
-        <v>805</v>
+        <v>730</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>814</v>
+        <v>739</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>1</v>
@@ -5532,7 +5553,7 @@
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B754,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B757,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="13" t="s">
@@ -5553,7 +5574,7 @@
     </row>
     <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B755,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B758,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
@@ -5574,7 +5595,7 @@
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B756,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B759,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="13" t="s">
@@ -5595,7 +5616,7 @@
     </row>
     <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B757,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B760,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="13" t="s">
@@ -5616,7 +5637,7 @@
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B758,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B761,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="13" t="s">
@@ -5637,7 +5658,7 @@
     </row>
     <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B759,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B762,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
@@ -5658,7 +5679,7 @@
     </row>
     <row r="100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B760,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B763,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="13" t="s">
@@ -5679,7 +5700,7 @@
     </row>
     <row r="101" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B761,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B764,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="13" t="s">
@@ -5700,7 +5721,7 @@
     </row>
     <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B762,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B765,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102" s="13" t="s">
@@ -5721,7 +5742,7 @@
     </row>
     <row r="103" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B763,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B766,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="13" t="s">
@@ -5742,7 +5763,7 @@
     </row>
     <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B833,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B836,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="2" t="s">
@@ -5763,7 +5784,7 @@
     </row>
     <row r="105" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B764,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B767,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
@@ -5784,7 +5805,7 @@
     </row>
     <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B765,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B768,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="13" t="s">
@@ -5805,7 +5826,7 @@
     </row>
     <row r="107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B766,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B769,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="13" t="s">
@@ -5826,7 +5847,7 @@
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B770,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B773,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="19" t="s">
@@ -5848,7 +5869,7 @@
     </row>
     <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B850,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B853,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="2" t="s">
@@ -5869,7 +5890,7 @@
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B767,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B770,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110" s="13" t="s">
@@ -5890,7 +5911,7 @@
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B768,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B771,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111" s="13" t="s">
@@ -5911,7 +5932,7 @@
     </row>
     <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B769,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B772,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="13" t="s">
@@ -5932,7 +5953,7 @@
     </row>
     <row r="113" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B846,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B849,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="2" t="s">
@@ -5953,7 +5974,7 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B770,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B773,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="13" t="s">
@@ -5974,7 +5995,7 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B771,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B774,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="13" t="s">
@@ -5995,7 +6016,7 @@
     </row>
     <row r="116" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B772,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B775,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
@@ -6016,7 +6037,7 @@
     </row>
     <row r="117" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B773,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B776,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
@@ -6037,7 +6058,7 @@
     </row>
     <row r="118" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B774,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B777,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="13" t="s">
@@ -6058,7 +6079,7 @@
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B775,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B778,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="13" t="s">
@@ -6079,7 +6100,7 @@
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B776,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B779,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
@@ -6100,7 +6121,7 @@
     </row>
     <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B777,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B780,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="13" t="s">
@@ -6121,7 +6142,7 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B778,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B781,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B122" s="13" t="s">
@@ -6142,7 +6163,7 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B779,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B782,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
@@ -6163,7 +6184,7 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B780,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B783,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B124" s="13" t="s">
@@ -6184,7 +6205,7 @@
     </row>
     <row r="125" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B781,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B784,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B125" s="13" t="s">
@@ -6205,7 +6226,7 @@
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B782,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B785,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B126" s="13" t="s">
@@ -6226,7 +6247,7 @@
     </row>
     <row r="127" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B783,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B786,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="13" t="s">
@@ -6247,7 +6268,7 @@
     </row>
     <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B784,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B787,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="13" t="s">
@@ -6268,7 +6289,7 @@
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B785,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B788,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="13" t="s">
@@ -6289,7 +6310,7 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B786,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B789,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="13" t="s">
@@ -6310,7 +6331,7 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B787,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B790,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="13" t="s">
@@ -6331,7 +6352,7 @@
     </row>
     <row r="132" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B788,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B791,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="13" t="s">
@@ -6352,7 +6373,7 @@
     </row>
     <row r="133" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B789,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B792,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="13" t="s">
@@ -6373,7 +6394,7 @@
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B790,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B793,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B134" s="13" t="s">
@@ -6394,7 +6415,7 @@
     </row>
     <row r="135" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B791,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B794,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B135" s="13" t="s">
@@ -6415,7 +6436,7 @@
     </row>
     <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B792,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B795,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B136" s="13" t="s">
@@ -6436,7 +6457,7 @@
     </row>
     <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B793,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B796,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="13" t="s">
@@ -6457,7 +6478,7 @@
     </row>
     <row r="138" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B832,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B835,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B138" s="2" t="s">
@@ -6478,7 +6499,7 @@
     </row>
     <row r="139" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B794,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B797,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B139" s="13" t="s">
@@ -6499,7 +6520,7 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B795,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B798,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B140" s="13" t="s">
@@ -6520,7 +6541,7 @@
     </row>
     <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B796,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B799,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B141" s="13" t="s">
@@ -6541,7 +6562,7 @@
     </row>
     <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B797,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B800,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B142" s="13" t="s">
@@ -6562,7 +6583,7 @@
     </row>
     <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B798,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B801,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
@@ -6583,7 +6604,7 @@
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B799,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B802,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B144" s="13" t="s">
@@ -6604,7 +6625,7 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B800,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B803,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B145" s="13" t="s">
@@ -6625,7 +6646,7 @@
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B801,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B804,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B146" s="13" t="s">
@@ -6646,7 +6667,7 @@
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B802,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B805,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B147" s="13" t="s">
@@ -6667,7 +6688,7 @@
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B803,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B806,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B148" s="13" t="s">
@@ -6686,7 +6707,7 @@
     </row>
     <row r="149" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B804,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B807,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="13" t="s">
@@ -6707,7 +6728,7 @@
     </row>
     <row r="150" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B805,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B808,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
@@ -6728,7 +6749,7 @@
     </row>
     <row r="151" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B806,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B809,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
@@ -6749,7 +6770,7 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B807,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B810,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B152" s="13" t="s">
@@ -6770,7 +6791,7 @@
     </row>
     <row r="153" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B808,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B811,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B153" s="13" t="s">
@@ -6791,7 +6812,7 @@
     </row>
     <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B809,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B812,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B154" s="13" t="s">
@@ -6812,7 +6833,7 @@
     </row>
     <row r="155" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B810,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B813,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B155" s="13" t="s">
@@ -6833,7 +6854,7 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B811,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B814,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B156" s="13" t="s">
@@ -6854,7 +6875,7 @@
     </row>
     <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B812,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B815,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B157" s="13" t="s">
@@ -6875,7 +6896,7 @@
     </row>
     <row r="158" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B813,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B816,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B158" s="13" t="s">
@@ -6896,7 +6917,7 @@
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B814,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B817,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B159" s="13" t="s">
@@ -6906,7 +6927,7 @@
         <v>536</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>784</v>
+        <v>710</v>
       </c>
       <c r="E159" s="17" t="s">
         <v>25</v>
@@ -6917,7 +6938,7 @@
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B815,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,AssociatedElements!B$2:B818,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B160" s="13" t="s">
@@ -6938,7 +6959,7 @@
     </row>
     <row r="161" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B816,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,AssociatedElements!B$2:B819,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B161" s="13" t="s">
@@ -6959,7 +6980,7 @@
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B838,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,AssociatedElements!B$2:B841,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B162" s="2" t="s">
@@ -6980,17 +7001,17 @@
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B851,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B163,AssociatedElements!B$2:B854,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B163" s="2" t="s">
-        <v>801</v>
+        <v>727</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>802</v>
+        <v>728</v>
       </c>
       <c r="D163" s="43" t="s">
-        <v>800</v>
+        <v>726</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>1</v>
@@ -7001,7 +7022,7 @@
     </row>
     <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B817,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,AssociatedElements!B$2:B820,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B164" s="13" t="s">
@@ -7022,7 +7043,7 @@
     </row>
     <row r="165" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B818,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,AssociatedElements!B$2:B821,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B165" s="13" t="s">
@@ -7043,7 +7064,7 @@
     </row>
     <row r="166" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B841,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,AssociatedElements!B$2:B844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B166" s="2" t="s">
@@ -7061,7 +7082,7 @@
     </row>
     <row r="167" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B819,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,AssociatedElements!B$2:B822,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B167" s="13" t="s">
@@ -7080,7 +7101,7 @@
     </row>
     <row r="168" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B820,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,AssociatedElements!B$2:B823,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B168" s="13" t="s">
@@ -7099,7 +7120,7 @@
     </row>
     <row r="169" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B821,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B169,AssociatedElements!B$2:B824,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B169" s="13" t="s">
@@ -7120,17 +7141,17 @@
     </row>
     <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B853,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B170,AssociatedElements!B$2:B856,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B170" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>808</v>
+        <v>733</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>812</v>
+        <v>737</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1</v>
@@ -7141,17 +7162,17 @@
     </row>
     <row r="171" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B855,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B171,AssociatedElements!B$2:B858,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B171" s="2" t="s">
-        <v>806</v>
+        <v>731</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>810</v>
+        <v>735</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>813</v>
+        <v>738</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>1</v>
@@ -7162,7 +7183,7 @@
     </row>
     <row r="172" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B172,AssociatedElements!B$2:B822,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B172,AssociatedElements!B$2:B825,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B172" s="13" t="s">
@@ -7183,7 +7204,7 @@
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B173,AssociatedElements!B$2:B823,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B173,AssociatedElements!B$2:B826,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B173" s="13" t="s">
@@ -7202,7 +7223,7 @@
     </row>
     <row r="174" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B174,AssociatedElements!B$2:B824,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B174,AssociatedElements!B$2:B827,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B174" s="13" t="s">
@@ -7223,7 +7244,7 @@
     </row>
     <row r="175" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B175,AssociatedElements!B$2:B825,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B175,AssociatedElements!B$2:B828,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B175" s="13" t="s">
@@ -7244,7 +7265,7 @@
     </row>
     <row r="176" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B176,AssociatedElements!B$2:B826,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B176,AssociatedElements!B$2:B829,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B176" s="13" t="s">
@@ -7265,7 +7286,7 @@
     </row>
     <row r="177" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B177,AssociatedElements!B$2:B826,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B177,AssociatedElements!B$2:B829,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B177" s="13" t="s">
@@ -7314,11 +7335,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D280" sqref="D280"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7349,13 +7370,13 @@
         <v/>
       </c>
       <c r="B2" s="32" t="s">
-        <v>788</v>
+        <v>714</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>815</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7370,7 +7391,7 @@
         <v>670</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>815</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7385,7 +7406,7 @@
         <v>670</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>815</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7400,7 +7421,7 @@
         <v>670</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>815</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7415,7 +7436,7 @@
         <v>670</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>815</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7424,13 +7445,13 @@
         <v/>
       </c>
       <c r="B7" s="32" t="s">
-        <v>788</v>
+        <v>714</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>804</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7439,13 +7460,13 @@
         <v/>
       </c>
       <c r="B8" s="32" t="s">
-        <v>791</v>
+        <v>717</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>804</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7454,13 +7475,13 @@
         <v/>
       </c>
       <c r="B9" s="32" t="s">
-        <v>792</v>
+        <v>718</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>804</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7469,13 +7490,13 @@
         <v/>
       </c>
       <c r="B10" s="32" t="s">
-        <v>798</v>
+        <v>724</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>804</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7490,7 +7511,7 @@
         <v>670</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>804</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7499,133 +7520,133 @@
         <v/>
       </c>
       <c r="B12" s="32" t="s">
-        <v>801</v>
+        <v>727</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="str">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="C13" s="33" t="s">
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="str">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
         <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="33" t="s">
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="str">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>805</v>
-      </c>
-      <c r="C15" s="33" t="s">
+      <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="str">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="str">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
         <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="str">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="33" t="s">
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="str">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
         <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="33" t="s">
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>816</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="str">
+      <c r="A20" t="str">
         <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>806</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="B20" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>816</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7634,13 +7655,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>711</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7649,84 +7670,84 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B23" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -7738,44 +7759,44 @@
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>719</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7784,13 +7805,13 @@
         <v/>
       </c>
       <c r="B31" s="29" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7799,13 +7820,13 @@
         <v/>
       </c>
       <c r="B32" s="29" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7814,58 +7835,56 @@
         <v/>
       </c>
       <c r="B33" s="29" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" s="24" t="s">
+      <c r="B34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="24" t="s">
+        <v>Not listed</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" s="24" t="s">
+      <c r="B36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7874,13 +7893,13 @@
         <v/>
       </c>
       <c r="B37" s="29" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7889,13 +7908,13 @@
         <v/>
       </c>
       <c r="B38" s="29" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7904,13 +7923,13 @@
         <v/>
       </c>
       <c r="B39" s="29" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7919,13 +7938,13 @@
         <v/>
       </c>
       <c r="B40" s="29" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7934,56 +7953,58 @@
         <v/>
       </c>
       <c r="B41" s="29" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B42" t="s">
-        <v>352</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4" t="s">
+        <v/>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B44" t="s">
-        <v>241</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7992,13 +8013,13 @@
         <v/>
       </c>
       <c r="B45" s="29" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>730</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8007,13 +8028,13 @@
         <v/>
       </c>
       <c r="B46" s="29" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>730</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8022,13 +8043,13 @@
         <v/>
       </c>
       <c r="B47" s="29" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>730</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8037,13 +8058,13 @@
         <v/>
       </c>
       <c r="B48" s="29" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>730</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8052,13 +8073,13 @@
         <v/>
       </c>
       <c r="B49" s="29" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>730</v>
+        <v>781</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8067,13 +8088,13 @@
         <v/>
       </c>
       <c r="B50" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>730</v>
+        <v>781</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8082,13 +8103,13 @@
         <v/>
       </c>
       <c r="B51" s="29" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>737</v>
+        <v>781</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8097,13 +8118,13 @@
         <v/>
       </c>
       <c r="B52" s="29" t="s">
-        <v>249</v>
+        <v>665</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>737</v>
+        <v>782</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8112,13 +8133,13 @@
         <v/>
       </c>
       <c r="B53" s="29" t="s">
-        <v>250</v>
+        <v>671</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>737</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8127,13 +8148,13 @@
         <v/>
       </c>
       <c r="B54" s="29" t="s">
-        <v>251</v>
+        <v>666</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>737</v>
+        <v>782</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8142,13 +8163,13 @@
         <v/>
       </c>
       <c r="B55" s="29" t="s">
-        <v>252</v>
+        <v>674</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>737</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8157,13 +8178,13 @@
         <v/>
       </c>
       <c r="B56" s="29" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8172,13 +8193,13 @@
         <v/>
       </c>
       <c r="B57" s="29" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8187,13 +8208,13 @@
         <v/>
       </c>
       <c r="B58" s="29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8202,13 +8223,13 @@
         <v/>
       </c>
       <c r="B59" s="29" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>760</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8217,13 +8238,13 @@
         <v/>
       </c>
       <c r="B60" s="29" t="s">
-        <v>665</v>
+        <v>259</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>721</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8232,13 +8253,13 @@
         <v/>
       </c>
       <c r="B61" s="29" t="s">
-        <v>671</v>
+        <v>260</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>721</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8247,13 +8268,13 @@
         <v/>
       </c>
       <c r="B62" s="29" t="s">
-        <v>666</v>
+        <v>261</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>721</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8262,13 +8283,13 @@
         <v/>
       </c>
       <c r="B63" s="29" t="s">
-        <v>674</v>
+        <v>262</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>721</v>
+        <v>785</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8277,13 +8298,13 @@
         <v/>
       </c>
       <c r="B64" s="29" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>746</v>
+        <v>785</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8292,13 +8313,13 @@
         <v/>
       </c>
       <c r="B65" s="29" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>746</v>
+        <v>785</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8307,13 +8328,13 @@
         <v/>
       </c>
       <c r="B66" s="29" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>747</v>
+        <v>785</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8322,13 +8343,13 @@
         <v/>
       </c>
       <c r="B67" s="29" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8337,13 +8358,13 @@
         <v/>
       </c>
       <c r="B68" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8352,13 +8373,13 @@
         <v/>
       </c>
       <c r="B69" s="29" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8367,13 +8388,13 @@
         <v/>
       </c>
       <c r="B70" s="29" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8382,13 +8403,13 @@
         <v/>
       </c>
       <c r="B71" s="29" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8397,13 +8418,13 @@
         <v/>
       </c>
       <c r="B72" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8412,13 +8433,13 @@
         <v/>
       </c>
       <c r="B73" s="29" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8427,13 +8448,13 @@
         <v/>
       </c>
       <c r="B74" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8442,13 +8463,13 @@
         <v/>
       </c>
       <c r="B75" s="29" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8457,13 +8478,13 @@
         <v/>
       </c>
       <c r="B76" s="29" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C76" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8472,13 +8493,13 @@
         <v/>
       </c>
       <c r="B77" s="29" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C77" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8487,13 +8508,13 @@
         <v/>
       </c>
       <c r="B78" s="29" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8502,13 +8523,13 @@
         <v/>
       </c>
       <c r="B79" s="29" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C79" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8517,13 +8538,13 @@
         <v/>
       </c>
       <c r="B80" s="29" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8532,13 +8553,13 @@
         <v/>
       </c>
       <c r="B81" s="29" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8547,13 +8568,13 @@
         <v/>
       </c>
       <c r="B82" s="29" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>710</v>
+      <c r="D82" s="40" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8562,43 +8583,43 @@
         <v/>
       </c>
       <c r="B83" s="29" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B84" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="C84" s="24" t="s">
+      <c r="B84" t="s">
+        <v>353</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B85" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="C85" s="24" t="s">
+      <c r="B85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8607,13 +8628,13 @@
         <v/>
       </c>
       <c r="B86" s="29" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8622,13 +8643,13 @@
         <v/>
       </c>
       <c r="B87" s="29" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8637,13 +8658,13 @@
         <v/>
       </c>
       <c r="B88" s="29" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C88" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8652,28 +8673,28 @@
         <v/>
       </c>
       <c r="B89" s="29" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B90" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="D90" s="39" t="s">
-        <v>710</v>
+      <c r="B90" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8681,14 +8702,14 @@
         <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B91" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>710</v>
+      <c r="B91" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8697,13 +8718,13 @@
         <v/>
       </c>
       <c r="B92" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>748</v>
+        <v>791</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -8712,28 +8733,28 @@
         <v/>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B94" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="C94" s="24" t="s">
+      <c r="B94" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>723</v>
+        <v>791</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8741,14 +8762,14 @@
         <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B95" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="C95" s="24" t="s">
+      <c r="B95" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>723</v>
+        <v>792</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8757,13 +8778,13 @@
         <v/>
       </c>
       <c r="B96" s="29" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C96" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>723</v>
+        <v>793</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8772,28 +8793,28 @@
         <v/>
       </c>
       <c r="B97" s="29" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="D98" s="40" t="s">
-        <v>722</v>
+      <c r="B98" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8801,59 +8822,59 @@
         <f>IF(ISNA(VLOOKUP(B99,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="B99" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f>IF(ISNA(VLOOKUP(B100,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B100" t="s">
-        <v>284</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="B100" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B101" t="s">
-        <v>285</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="B101" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B102" t="s">
-        <v>286</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="B102" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>733</v>
+        <v>794</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8861,14 +8882,14 @@
         <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" s="4" t="s">
+      <c r="B103" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8877,13 +8898,13 @@
         <v/>
       </c>
       <c r="B104" s="29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8892,13 +8913,13 @@
         <v/>
       </c>
       <c r="B105" s="29" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8907,13 +8928,13 @@
         <v/>
       </c>
       <c r="B106" s="29" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8922,13 +8943,13 @@
         <v/>
       </c>
       <c r="B107" s="29" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>724</v>
+        <v>796</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8937,13 +8958,13 @@
         <v/>
       </c>
       <c r="B108" s="29" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>724</v>
+        <v>796</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8952,13 +8973,13 @@
         <v/>
       </c>
       <c r="B109" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8967,13 +8988,13 @@
         <v/>
       </c>
       <c r="B110" s="29" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="D110" s="24" t="s">
-        <v>724</v>
+      <c r="D110" s="40" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8982,13 +9003,13 @@
         <v/>
       </c>
       <c r="B111" s="29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>727</v>
+        <v>797</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8997,73 +9018,73 @@
         <v/>
       </c>
       <c r="B112" s="29" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B113" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="C113" s="24" t="s">
+      <c r="B113" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B114" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C114" s="24" t="s">
+      <c r="B114" t="s">
+        <v>295</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f>IF(ISNA(VLOOKUP(B115,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B115" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C115" s="24" t="s">
+      <c r="B115" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f>IF(ISNA(VLOOKUP(B116,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B116" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C116" s="24" t="s">
+      <c r="B116" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>744</v>
+        <v>798</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9072,13 +9093,13 @@
         <v/>
       </c>
       <c r="B117" s="29" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>725</v>
+        <v>799</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9087,13 +9108,13 @@
         <v/>
       </c>
       <c r="B118" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>725</v>
+        <v>799</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9102,13 +9123,13 @@
         <v/>
       </c>
       <c r="B119" s="29" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>725</v>
+        <v>799</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9117,73 +9138,73 @@
         <v/>
       </c>
       <c r="B120" s="29" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B121" t="s">
-        <v>294</v>
-      </c>
-      <c r="C121" s="4" t="s">
+      <c r="B121" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B122" t="s">
-        <v>295</v>
-      </c>
-      <c r="C122" s="4" t="s">
+      <c r="B122" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C122" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f>IF(ISNA(VLOOKUP(B123,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f>IF(ISNA(VLOOKUP(B124,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>739</v>
+        <v>801</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9191,14 +9212,14 @@
         <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B125" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="C125" s="24" t="s">
+      <c r="B125" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>735</v>
+        <v>802</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9206,14 +9227,14 @@
         <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B126" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="C126" s="24" t="s">
+      <c r="B126" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>735</v>
+        <v>802</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9221,119 +9242,119 @@
         <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B127" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="C127" s="24" t="s">
+      <c r="B127" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B128" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="C128" s="24" t="s">
+      <c r="B128" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B129" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C129" s="24" t="s">
+      <c r="B129" t="s">
+        <v>355</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B130" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="C130" s="24" t="s">
+      <c r="B130" t="s">
+        <v>356</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f>IF(ISNA(VLOOKUP(B131,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B131" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="C131" s="24" t="s">
+      <c r="B131" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B132" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C132" s="24" t="s">
+      <c r="B132" t="s">
+        <v>298</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>656</v>
+      <c r="B133" t="s">
+        <v>299</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>653</v>
+      <c r="B134" t="s">
+        <v>300</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>761</v>
+        <v>805</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9341,14 +9362,14 @@
         <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="B135" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C135" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>773</v>
+        <v>806</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -9357,13 +9378,13 @@
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>754</v>
+        <v>807</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -9372,88 +9393,88 @@
         <v/>
       </c>
       <c r="B137" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f>IF(ISNA(VLOOKUP(B138,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B138" t="s">
-        <v>356</v>
-      </c>
-      <c r="C138" s="4" t="s">
+      <c r="B138" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C138" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B139" t="s">
-        <v>357</v>
-      </c>
-      <c r="C139" s="4" t="s">
+      <c r="B139" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f>IF(ISNA(VLOOKUP(B140,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B140" t="s">
-        <v>298</v>
-      </c>
-      <c r="C140" s="4" t="s">
+      <c r="B140" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C140" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B141" t="s">
-        <v>299</v>
-      </c>
-      <c r="C141" s="4" t="s">
+      <c r="B141" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="C141" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f>IF(ISNA(VLOOKUP(B142,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B142" t="s">
-        <v>300</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="B142" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>716</v>
+        <v>809</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9462,43 +9483,43 @@
         <v/>
       </c>
       <c r="B143" s="29" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C143" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f>IF(ISNA(VLOOKUP(B144,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B144" t="s">
-        <v>358</v>
-      </c>
-      <c r="C144" s="4" t="s">
+      <c r="B144" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C144" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B145" t="s">
-        <v>359</v>
-      </c>
-      <c r="C145" s="4" t="s">
+      <c r="B145" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="C145" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>757</v>
+        <v>809</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9506,14 +9527,14 @@
         <f>IF(ISNA(VLOOKUP(B146,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B146" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C146" s="24" t="s">
+      <c r="B146" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>731</v>
+        <v>809</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9522,13 +9543,13 @@
         <v/>
       </c>
       <c r="B147" s="29" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C147" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>731</v>
+        <v>809</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9537,13 +9558,13 @@
         <v/>
       </c>
       <c r="B148" s="29" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C148" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>731</v>
+        <v>809</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9552,13 +9573,13 @@
         <v/>
       </c>
       <c r="B149" s="29" t="s">
-        <v>679</v>
+        <v>314</v>
       </c>
       <c r="C149" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>731</v>
+        <v>809</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9566,59 +9587,57 @@
         <f>IF(ISNA(VLOOKUP(B150,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B150" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="C150" s="24" t="s">
+      <c r="B150" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f>IF(ISNA(VLOOKUP(B151,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B151" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="C151" s="24" t="s">
+      <c r="B151" t="s">
+        <v>302</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f>IF(ISNA(VLOOKUP(B152,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B152" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="C152" s="24" t="s">
+        <v>Not listed</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f>IF(ISNA(VLOOKUP(B153,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B153" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="C153" s="24" t="s">
+      <c r="B153" t="s">
+        <v>360</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>731</v>
+        <v>812</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9627,13 +9646,13 @@
         <v/>
       </c>
       <c r="B154" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>731</v>
+        <v>813</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9641,14 +9660,14 @@
         <f>IF(ISNA(VLOOKUP(B155,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B155" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="C155" s="24" t="s">
+      <c r="B155" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>731</v>
+        <v>813</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9657,13 +9676,13 @@
         <v/>
       </c>
       <c r="B156" s="29" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C156" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>731</v>
+        <v>813</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9672,13 +9691,13 @@
         <v/>
       </c>
       <c r="B157" s="29" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C157" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>731</v>
+        <v>813</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9686,57 +9705,59 @@
         <f>IF(ISNA(VLOOKUP(B158,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C158" s="4" t="s">
+      <c r="B158" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C158" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f>IF(ISNA(VLOOKUP(B159,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B159" t="s">
-        <v>302</v>
-      </c>
-      <c r="C159" s="4" t="s">
+      <c r="B159" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C159" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f>IF(ISNA(VLOOKUP(B160,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="4" t="s">
+        <v/>
+      </c>
+      <c r="B160" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C160" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
         <f>IF(ISNA(VLOOKUP(B161,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B161" t="s">
-        <v>360</v>
-      </c>
-      <c r="C161" s="4" t="s">
+      <c r="B161" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C161" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>759</v>
+        <v>813</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9744,14 +9765,14 @@
         <f>IF(ISNA(VLOOKUP(B162,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C162" s="4" t="s">
+      <c r="B162" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="C162" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9759,14 +9780,14 @@
         <f>IF(ISNA(VLOOKUP(B163,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C163" s="4" t="s">
+      <c r="B163" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C163" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9775,13 +9796,13 @@
         <v/>
       </c>
       <c r="B164" s="29" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C164" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9790,13 +9811,13 @@
         <v/>
       </c>
       <c r="B165" s="29" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C165" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9805,13 +9826,13 @@
         <v/>
       </c>
       <c r="B166" s="29" t="s">
-        <v>305</v>
+        <v>680</v>
       </c>
       <c r="C166" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9819,14 +9840,14 @@
         <f>IF(ISNA(VLOOKUP(B167,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B167" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="C167" s="24" t="s">
+      <c r="B167" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9835,13 +9856,13 @@
         <v/>
       </c>
       <c r="B168" s="29" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C168" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D168" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9850,13 +9871,13 @@
         <v/>
       </c>
       <c r="B169" s="29" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C169" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9865,13 +9886,13 @@
         <v/>
       </c>
       <c r="B170" s="29" t="s">
-        <v>679</v>
+        <v>314</v>
       </c>
       <c r="C170" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9879,14 +9900,14 @@
         <f>IF(ISNA(VLOOKUP(B171,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B171" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="C171" s="24" t="s">
+      <c r="B171" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9894,14 +9915,14 @@
         <f>IF(ISNA(VLOOKUP(B172,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B172" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="C172" s="24" t="s">
+      <c r="B172" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9910,13 +9931,13 @@
         <v/>
       </c>
       <c r="B173" s="29" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C173" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9925,13 +9946,13 @@
         <v/>
       </c>
       <c r="B174" s="29" t="s">
-        <v>680</v>
+        <v>316</v>
       </c>
       <c r="C174" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>728</v>
+        <v>814</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9939,14 +9960,14 @@
         <f>IF(ISNA(VLOOKUP(B175,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="C175" s="4" t="s">
+      <c r="B175" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C175" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9955,13 +9976,13 @@
         <v/>
       </c>
       <c r="B176" s="29" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C176" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9970,13 +9991,13 @@
         <v/>
       </c>
       <c r="B177" s="29" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="C177" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9985,13 +10006,13 @@
         <v/>
       </c>
       <c r="B178" s="29" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="C178" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9999,14 +10020,14 @@
         <f>IF(ISNA(VLOOKUP(B179,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C179" s="4" t="s">
+      <c r="B179" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C179" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10014,14 +10035,14 @@
         <f>IF(ISNA(VLOOKUP(B180,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C180" s="4" t="s">
+      <c r="B180" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C180" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10030,13 +10051,13 @@
         <v/>
       </c>
       <c r="B181" s="29" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C181" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10045,13 +10066,13 @@
         <v/>
       </c>
       <c r="B182" s="29" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="C182" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>763</v>
+        <v>817</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10060,13 +10081,13 @@
         <v/>
       </c>
       <c r="B183" s="29" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C183" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>740</v>
+        <v>817</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10075,13 +10096,13 @@
         <v/>
       </c>
       <c r="B184" s="29" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="C184" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>740</v>
+        <v>817</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10090,13 +10111,13 @@
         <v/>
       </c>
       <c r="B185" s="29" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="C185" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>740</v>
+        <v>817</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10105,13 +10126,13 @@
         <v/>
       </c>
       <c r="B186" s="29" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="C186" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>740</v>
+        <v>817</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10119,14 +10140,14 @@
         <f>IF(ISNA(VLOOKUP(B187,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B187" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="C187" s="24" t="s">
+      <c r="B187" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>753</v>
+        <v>817</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10134,134 +10155,134 @@
         <f>IF(ISNA(VLOOKUP(B188,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B188" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="C188" s="24" t="s">
+      <c r="B188" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B189" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="C189" s="24" t="s">
+      <c r="B189" t="s">
+        <v>361</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B190" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C190" s="24" t="s">
+      <c r="B190" t="s">
+        <v>362</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B191" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="C191" s="24" t="s">
+      <c r="B191" t="s">
+        <v>262</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
         <f>IF(ISNA(VLOOKUP(B192,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B192" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="C192" s="24" t="s">
+      <c r="B192" t="s">
+        <v>322</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B193" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="C193" s="24" t="s">
+      <c r="B193" t="s">
+        <v>250</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
         <f>IF(ISNA(VLOOKUP(B194,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B194" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="C194" s="24" t="s">
+      <c r="B194" t="s">
+        <v>252</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D194" s="24" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
         <f>IF(ISNA(VLOOKUP(B195,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>644</v>
+      <c r="B195" t="s">
+        <v>323</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
         <f>IF(ISNA(VLOOKUP(B196,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>646</v>
+      <c r="B196" t="s">
+        <v>324</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>729</v>
+        <v>819</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -10270,13 +10291,13 @@
         <v/>
       </c>
       <c r="B197" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>745</v>
+        <v>819</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -10285,13 +10306,13 @@
         <v/>
       </c>
       <c r="B198" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>745</v>
+        <v>819</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -10300,13 +10321,13 @@
         <v/>
       </c>
       <c r="B199" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>732</v>
+        <v>819</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -10315,13 +10336,13 @@
         <v/>
       </c>
       <c r="B200" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>732</v>
+        <v>819</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -10330,13 +10351,13 @@
         <v/>
       </c>
       <c r="B201" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D201" s="24" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -10345,13 +10366,13 @@
         <v/>
       </c>
       <c r="B202" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -10360,43 +10381,43 @@
         <v/>
       </c>
       <c r="B203" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
         <f>IF(ISNA(VLOOKUP(B204,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B204" t="s">
-        <v>324</v>
-      </c>
-      <c r="C204" s="4" t="s">
+      <c r="B204" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C204" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D204" s="24" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
         <f>IF(ISNA(VLOOKUP(B205,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B205" t="s">
-        <v>325</v>
-      </c>
-      <c r="C205" s="4" t="s">
+      <c r="B205" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C205" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D205" s="24" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -10405,13 +10426,13 @@
         <v/>
       </c>
       <c r="B206" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D206" s="24" t="s">
-        <v>732</v>
+        <v>822</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -10420,13 +10441,13 @@
         <v/>
       </c>
       <c r="B207" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -10435,13 +10456,13 @@
         <v/>
       </c>
       <c r="B208" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D208" s="24" t="s">
-        <v>732</v>
+        <v>824</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -10450,13 +10471,13 @@
         <v/>
       </c>
       <c r="B209" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D209" s="24" t="s">
-        <v>734</v>
+        <v>825</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -10465,13 +10486,13 @@
         <v/>
       </c>
       <c r="B210" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D210" s="24" t="s">
-        <v>734</v>
+        <v>826</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -10480,28 +10501,28 @@
         <v/>
       </c>
       <c r="B211" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D211" s="24" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
         <f>IF(ISNA(VLOOKUP(B212,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B212" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="C212" s="24" t="s">
+      <c r="B212" t="s">
+        <v>365</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D212" s="24" t="s">
-        <v>762</v>
+        <v>828</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10510,118 +10531,118 @@
         <v/>
       </c>
       <c r="B213" s="29" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C213" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
         <f>IF(ISNA(VLOOKUP(B214,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B214" t="s">
-        <v>256</v>
-      </c>
-      <c r="C214" s="4" t="s">
+      <c r="B214" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C214" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D214" s="24" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
         <f>IF(ISNA(VLOOKUP(B215,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B215" t="s">
-        <v>327</v>
-      </c>
-      <c r="C215" s="4" t="s">
+      <c r="B215" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C215" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D215" s="24" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
         <f>IF(ISNA(VLOOKUP(B216,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B216" t="s">
-        <v>328</v>
-      </c>
-      <c r="C216" s="4" t="s">
+      <c r="B216" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C216" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D216" s="24" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
         <f>IF(ISNA(VLOOKUP(B217,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B217" t="s">
-        <v>363</v>
-      </c>
-      <c r="C217" s="4" t="s">
+      <c r="B217" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C217" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" t="str">
         <f>IF(ISNA(VLOOKUP(B218,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B218" t="s">
-        <v>329</v>
-      </c>
-      <c r="C218" s="4" t="s">
+      <c r="B218" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C218" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="str">
         <f>IF(ISNA(VLOOKUP(B219,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B219" t="s">
-        <v>364</v>
-      </c>
-      <c r="C219" s="4" t="s">
+      <c r="B219" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C219" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" t="str">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A220" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B220,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B220" t="s">
-        <v>365</v>
-      </c>
-      <c r="C220" s="4" t="s">
+      <c r="B220" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="C220" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>776</v>
+        <v>830</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10630,13 +10651,13 @@
         <v/>
       </c>
       <c r="B221" s="29" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C221" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10645,13 +10666,13 @@
         <v/>
       </c>
       <c r="B222" s="29" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C222" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10660,13 +10681,13 @@
         <v/>
       </c>
       <c r="B223" s="29" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C223" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10675,13 +10696,13 @@
         <v/>
       </c>
       <c r="B224" s="29" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="C224" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10690,13 +10711,13 @@
         <v/>
       </c>
       <c r="B225" s="29" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="C225" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10705,13 +10726,13 @@
         <v/>
       </c>
       <c r="B226" s="29" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="C226" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10720,28 +10741,28 @@
         <v/>
       </c>
       <c r="B227" s="29" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C227" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="31" t="str">
+      <c r="A228" t="str">
         <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B228" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="C228" s="33" t="s">
+      <c r="B228" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C228" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D228" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10750,13 +10771,13 @@
         <v/>
       </c>
       <c r="B229" s="29" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C229" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10765,13 +10786,13 @@
         <v/>
       </c>
       <c r="B230" s="29" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C230" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10780,13 +10801,13 @@
         <v/>
       </c>
       <c r="B231" s="29" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C231" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10795,13 +10816,13 @@
         <v/>
       </c>
       <c r="B232" s="29" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C232" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10810,13 +10831,13 @@
         <v/>
       </c>
       <c r="B233" s="29" t="s">
-        <v>338</v>
+        <v>25</v>
       </c>
       <c r="C233" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10825,13 +10846,13 @@
         <v/>
       </c>
       <c r="B234" s="29" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C234" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D234" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10840,13 +10861,13 @@
         <v/>
       </c>
       <c r="B235" s="29" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C235" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D235" s="24" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10855,88 +10876,88 @@
         <v/>
       </c>
       <c r="B236" s="29" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="C236" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="str">
         <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B237" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="C237" s="24" t="s">
+      <c r="B237" t="s">
+        <v>348</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D237" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
         <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B238" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C238" s="24" t="s">
+      <c r="B238" t="s">
+        <v>366</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B239" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="C239" s="24" t="s">
+      <c r="B239" t="s">
+        <v>367</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
         <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B240" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="C240" s="24" t="s">
+      <c r="B240" t="s">
+        <v>368</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="str">
         <f>IF(ISNA(VLOOKUP(B241,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B241" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C241" s="24" t="s">
+      <c r="B241" t="s">
+        <v>251</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10945,28 +10966,28 @@
         <v/>
       </c>
       <c r="B242" s="29" t="s">
-        <v>346</v>
+        <v>251</v>
       </c>
       <c r="C242" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="str">
         <f>IF(ISNA(VLOOKUP(B243,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B243" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="C243" s="24" t="s">
+      <c r="B243" t="s">
+        <v>252</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10975,13 +10996,13 @@
         <v/>
       </c>
       <c r="B244" s="29" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="C244" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -10990,28 +11011,28 @@
         <v/>
       </c>
       <c r="B245" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" t="str">
         <f>IF(ISNA(VLOOKUP(B246,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B246" t="s">
-        <v>366</v>
-      </c>
-      <c r="C246" s="4" t="s">
+      <c r="B246" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C246" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>779</v>
+        <v>834</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -11020,28 +11041,28 @@
         <v/>
       </c>
       <c r="B247" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" t="str">
         <f>IF(ISNA(VLOOKUP(B248,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B248" t="s">
-        <v>368</v>
-      </c>
-      <c r="C248" s="4" t="s">
+      <c r="B248" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C248" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>751</v>
+        <v>834</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -11050,13 +11071,13 @@
         <v/>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>749</v>
+        <v>834</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11065,28 +11086,28 @@
         <v/>
       </c>
       <c r="B250" s="29" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C250" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D250" s="24" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" t="str">
         <f>IF(ISNA(VLOOKUP(B251,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B251" t="s">
-        <v>252</v>
-      </c>
-      <c r="C251" s="4" t="s">
+      <c r="B251" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C251" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D251" s="24" t="s">
-        <v>749</v>
+        <v>835</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11095,28 +11116,28 @@
         <v/>
       </c>
       <c r="B252" s="29" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="C252" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D252" s="24" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" t="str">
         <f>IF(ISNA(VLOOKUP(B253,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B253" t="s">
-        <v>295</v>
-      </c>
-      <c r="C253" s="4" t="s">
+      <c r="B253" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C253" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>749</v>
+        <v>835</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11125,43 +11146,43 @@
         <v/>
       </c>
       <c r="B254" s="29" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="C254" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" t="str">
         <f>IF(ISNA(VLOOKUP(B255,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B255" t="s">
-        <v>273</v>
-      </c>
-      <c r="C255" s="4" t="s">
+      <c r="B255" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C255" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="str">
         <f>IF(ISNA(VLOOKUP(B256,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B256" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="C256" s="24" t="s">
+      <c r="B256" t="s">
+        <v>368</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>749</v>
+        <v>836</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -11170,13 +11191,13 @@
         <v/>
       </c>
       <c r="B257" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D257" s="24" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11185,13 +11206,13 @@
         <v/>
       </c>
       <c r="B258" s="29" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="C258" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D258" s="24" t="s">
-        <v>749</v>
+        <v>838</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11200,13 +11221,13 @@
         <v/>
       </c>
       <c r="B259" s="29" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="C259" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D259" s="24" t="s">
-        <v>741</v>
+        <v>838</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11215,13 +11236,13 @@
         <v/>
       </c>
       <c r="B260" s="29" t="s">
-        <v>325</v>
+        <v>233</v>
       </c>
       <c r="C260" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D260" s="24" t="s">
-        <v>741</v>
+        <v>838</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11230,133 +11251,133 @@
         <v/>
       </c>
       <c r="B261" s="29" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="C261" s="24" t="s">
         <v>670</v>
       </c>
       <c r="D261" s="24" t="s">
-        <v>741</v>
+        <v>838</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A262" t="str">
+      <c r="A262" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B262,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B262" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="C262" s="24" t="s">
+      <c r="B262" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="C262" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D262" s="24" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" t="str">
+      <c r="A263" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B263,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B263" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="C263" s="24" t="s">
+      <c r="B263" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="C263" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D263" s="24" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" t="str">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A264" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B264,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B264" t="s">
-        <v>368</v>
-      </c>
-      <c r="C264" s="4" t="s">
+      <c r="B264" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C264" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D264" s="24" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" t="str">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A265" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B265,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B265" t="s">
-        <v>369</v>
-      </c>
-      <c r="C265" s="4" t="s">
+      <c r="B265" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C265" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D265" s="24" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A266" t="str">
+      <c r="A266" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B266,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B266" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C266" s="24" t="s">
+      <c r="B266" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C266" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D266" s="24" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A267" t="str">
+      <c r="A267" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B267,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B267" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="C267" s="24" t="s">
+      <c r="B267" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C267" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D267" s="24" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A268" t="str">
+      <c r="A268" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B268,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B268" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C268" s="24" t="s">
+      <c r="B268" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D268" s="24" t="s">
-        <v>743</v>
+        <v>843</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" t="str">
+      <c r="A269" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B269,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B269" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C269" s="24" t="s">
+      <c r="B269" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C269" s="33" t="s">
         <v>670</v>
       </c>
       <c r="D269" s="24" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11365,10 +11386,13 @@
         <v/>
       </c>
       <c r="B270" s="32" t="s">
-        <v>785</v>
+        <v>731</v>
       </c>
       <c r="C270" s="33" t="s">
         <v>670</v>
+      </c>
+      <c r="D270" s="24" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11377,10 +11401,13 @@
         <v/>
       </c>
       <c r="B271" s="32" t="s">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="C271" s="33" t="s">
-        <v>836</v>
+        <v>670</v>
+      </c>
+      <c r="D271" s="24" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11388,203 +11415,212 @@
         <f>IF(ISNA(VLOOKUP(B272,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B272" s="32" t="s">
-        <v>646</v>
-      </c>
-      <c r="C272" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B272" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="D272" s="24" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B273,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B273" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="C273" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B273" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="D273" s="24" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B274,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B274" s="32" t="s">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="C274" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+      <c r="D274" s="40" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B275,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B275" s="32" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="C275" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B276,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B276" s="32" t="s">
-        <v>342</v>
+      <c r="B276" s="37" t="s">
+        <v>333</v>
       </c>
       <c r="C276" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B277,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B277" s="37" t="s">
-        <v>25</v>
+      <c r="B277" s="32" t="s">
+        <v>711</v>
       </c>
       <c r="C277" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B278,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B278" s="32" t="s">
-        <v>791</v>
+        <v>322</v>
       </c>
       <c r="C278" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B279,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B279" s="32" t="s">
-        <v>792</v>
+        <v>714</v>
       </c>
       <c r="C279" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B280,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B280" s="32" t="s">
-        <v>798</v>
+        <v>717</v>
       </c>
       <c r="C280" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B281,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B281" s="32" t="s">
-        <v>801</v>
+        <v>718</v>
       </c>
       <c r="C281" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B282,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B282" s="32" t="s">
-        <v>322</v>
+        <v>724</v>
       </c>
       <c r="C282" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B283,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B283" s="32" t="s">
-        <v>280</v>
+      <c r="B283" s="37" t="s">
+        <v>335</v>
       </c>
       <c r="C283" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B284,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B284" s="32" t="s">
-        <v>297</v>
+      <c r="B284" s="37" t="s">
+        <v>336</v>
       </c>
       <c r="C284" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B285,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B285" s="32" t="s">
-        <v>785</v>
+      <c r="B285" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="C285" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B286,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B286" s="37" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C286" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B287,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B287" s="37" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C287" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B288,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B288" s="37" t="s">
-        <v>336</v>
+      <c r="B288" s="32" t="s">
+        <v>340</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>836</v>
+        <v>759</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11592,11 +11628,11 @@
         <f>IF(ISNA(VLOOKUP(B289,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B289" s="37" t="s">
-        <v>337</v>
+      <c r="B289" s="32" t="s">
+        <v>341</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>836</v>
+        <v>759</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11604,11 +11640,11 @@
         <f>IF(ISNA(VLOOKUP(B290,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B290" s="37" t="s">
-        <v>338</v>
+      <c r="B290" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="C290" s="33" t="s">
-        <v>836</v>
+        <v>759</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11616,11 +11652,11 @@
         <f>IF(ISNA(VLOOKUP(B291,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B291" s="37" t="s">
-        <v>339</v>
+      <c r="B291" s="32" t="s">
+        <v>297</v>
       </c>
       <c r="C291" s="33" t="s">
-        <v>836</v>
+        <v>759</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11632,7 +11668,7 @@
         <v>343</v>
       </c>
       <c r="C292" s="33" t="s">
-        <v>836</v>
+        <v>759</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11644,7 +11680,7 @@
         <v>344</v>
       </c>
       <c r="C293" s="33" t="s">
-        <v>836</v>
+        <v>759</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11656,7 +11692,7 @@
         <v>345</v>
       </c>
       <c r="C294" s="33" t="s">
-        <v>836</v>
+        <v>759</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11665,10 +11701,58 @@
         <v/>
       </c>
       <c r="B295" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C295" s="33" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A296" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B296,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B296" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="C295" s="33" t="s">
-        <v>836</v>
+      <c r="C296" s="33" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A297" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B297,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B297" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="C297" s="33" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A298" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B298,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B298" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="C298" s="33" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A299" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B299,Definitions!B$2:B$1623,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B299" s="32" t="s">
+        <v>646</v>
+      </c>
+      <c r="C299" s="33" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -11712,7 +11796,7 @@
         <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>817</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -11735,7 +11819,7 @@
         <v>AbsorbedDose</v>
       </c>
       <c r="M2" t="s">
-        <v>818</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -11743,7 +11827,7 @@
         <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>833</v>
+        <v>756</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>VLOOKUP(C3,M$2:M$200,1,FALSE)</f>
@@ -11758,7 +11842,7 @@
         <v>Activity[OfRadioactivity]</v>
       </c>
       <c r="M3" t="s">
-        <v>819</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -11781,7 +11865,7 @@
         <v>AmountOfSubstance</v>
       </c>
       <c r="M4" t="s">
-        <v>820</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -11804,7 +11888,7 @@
         <v>AmountOfSubstancePerAmountOfSubstance</v>
       </c>
       <c r="M5" t="s">
-        <v>821</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -11827,7 +11911,7 @@
         <v>AmountOfSubstancePerArea</v>
       </c>
       <c r="M6" t="s">
-        <v>822</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -11850,7 +11934,7 @@
         <v>AmountOfSubstancePerTime</v>
       </c>
       <c r="M7" t="s">
-        <v>823</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -11873,7 +11957,7 @@
         <v>AmountOfSubstancePerTimePerArea</v>
       </c>
       <c r="M8" t="s">
-        <v>824</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -11896,7 +11980,7 @@
         <v>AmountOfSubstancePerVolume</v>
       </c>
       <c r="M9" t="s">
-        <v>825</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -11919,7 +12003,7 @@
         <v>AnglePerLength</v>
       </c>
       <c r="M10" t="s">
-        <v>826</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -11942,7 +12026,7 @@
         <v>AnglePerVolume</v>
       </c>
       <c r="M11" t="s">
-        <v>827</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -11965,7 +12049,7 @@
         <v>AngularAcceleration</v>
       </c>
       <c r="M12" t="s">
-        <v>828</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -11988,7 +12072,7 @@
         <v>AngularVelocity</v>
       </c>
       <c r="M13" t="s">
-        <v>829</v>
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -12011,7 +12095,7 @@
         <v>ApiGammaRay</v>
       </c>
       <c r="M14" t="s">
-        <v>830</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -12034,7 +12118,7 @@
         <v>ApiGravity</v>
       </c>
       <c r="M15" t="s">
-        <v>831</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -12057,7 +12141,7 @@
         <v>ApiNeutron</v>
       </c>
       <c r="M16" t="s">
-        <v>832</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -12101,7 +12185,7 @@
         <v>AreaPerAmountOfSubstance</v>
       </c>
       <c r="M18" t="s">
-        <v>833</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -12897,7 +12981,7 @@
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>819</v>
+        <v>742</v>
       </c>
       <c r="D56" s="8" t="str">
         <f>VLOOKUP(C56,M$2:M$200,1,FALSE)</f>
@@ -13837,7 +13921,7 @@
     </row>
     <row r="103" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>820</v>
+        <v>743</v>
       </c>
       <c r="D103" s="8" t="str">
         <f>VLOOKUP(C103,M$2:M$200,1,FALSE)</f>
@@ -13857,7 +13941,7 @@
     </row>
     <row r="104" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>821</v>
+        <v>744</v>
       </c>
       <c r="D104" s="8" t="str">
         <f>VLOOKUP(C104,M$2:M$200,1,FALSE)</f>
@@ -13897,7 +13981,7 @@
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>822</v>
+        <v>745</v>
       </c>
       <c r="D106" s="8" t="str">
         <f>VLOOKUP(C106,M$2:M$200,1,FALSE)</f>
@@ -14417,7 +14501,7 @@
     </row>
     <row r="132" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>834</v>
+        <v>757</v>
       </c>
       <c r="D132" s="8" t="str">
         <f>VLOOKUP(C132,M$2:M$200,1,FALSE)</f>
@@ -14432,7 +14516,7 @@
         <v>PressureSquaredPer(ForceTimePerArea)</v>
       </c>
       <c r="M132" t="s">
-        <v>834</v>
+        <v>757</v>
       </c>
     </row>
     <row r="133" spans="3:13" x14ac:dyDescent="0.2">
@@ -14532,7 +14616,7 @@
         <v>ReciprocalArea</v>
       </c>
       <c r="M137" t="s">
-        <v>835</v>
+        <v>758</v>
       </c>
     </row>
     <row r="138" spans="3:13" x14ac:dyDescent="0.2">
@@ -14617,7 +14701,7 @@
     </row>
     <row r="142" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>835</v>
+        <v>758</v>
       </c>
       <c r="D142" s="8" t="str">
         <f>VLOOKUP(C142,M$2:M$200,1,FALSE)</f>
@@ -15330,7 +15414,7 @@
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>823</v>
+        <v>746</v>
       </c>
       <c r="D178" s="8" t="str">
         <f>VLOOKUP(C178,M$2:M$200,1,FALSE)</f>
@@ -15343,7 +15427,7 @@
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>825</v>
+        <v>748</v>
       </c>
       <c r="D179" s="8" t="str">
         <f>VLOOKUP(C179,M$2:M$200,1,FALSE)</f>
@@ -15356,7 +15440,7 @@
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>826</v>
+        <v>749</v>
       </c>
       <c r="D180" s="8" t="str">
         <f>VLOOKUP(C180,M$2:M$200,1,FALSE)</f>
@@ -15369,7 +15453,7 @@
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>827</v>
+        <v>750</v>
       </c>
       <c r="D181" s="8" t="str">
         <f>VLOOKUP(C181,M$2:M$200,1,FALSE)</f>
@@ -15382,7 +15466,7 @@
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>824</v>
+        <v>747</v>
       </c>
       <c r="D182" s="8" t="str">
         <f>VLOOKUP(C182,M$2:M$200,1,FALSE)</f>
@@ -15395,7 +15479,7 @@
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>828</v>
+        <v>751</v>
       </c>
       <c r="D183" s="8" t="str">
         <f>VLOOKUP(C183,M$2:M$200,1,FALSE)</f>
@@ -15408,7 +15492,7 @@
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>829</v>
+        <v>752</v>
       </c>
       <c r="D184" s="8" t="str">
         <f>VLOOKUP(C184,M$2:M$200,1,FALSE)</f>

--- a/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469F4E69-CD57-D04C-B06D-8930AC670775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F5961-5478-044C-B5A9-DDC2D7C273CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="3060" windowWidth="47440" windowHeight="28160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="3060" windowWidth="47440" windowHeight="28160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -2250,9 +2250,6 @@
     <t>The mass of material observed</t>
   </si>
   <si>
-    <t>The amount of material obbserved</t>
-  </si>
-  <si>
     <t>The amount of volume reduced between observation steps</t>
   </si>
   <si>
@@ -2569,6 +2566,9 @@
   </si>
   <si>
     <t>ancestor::diggs:synere+[gp_properties.xlsx]AssociatedElements!$C$161:$D$268sisTimeSeries</t>
+  </si>
+  <si>
+    <t>The amount of material observed</t>
   </si>
 </sst>
 </file>
@@ -3538,8 +3538,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5542,7 +5542,7 @@
         <v>734</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>1</v>
@@ -7151,7 +7151,7 @@
         <v>733</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>737</v>
+        <v>843</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1</v>
@@ -7172,7 +7172,7 @@
         <v>735</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>1</v>
@@ -7337,9 +7337,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D268" sqref="D268"/>
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7376,7 +7376,7 @@
         <v>670</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>670</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7406,7 +7406,7 @@
         <v>670</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7421,7 +7421,7 @@
         <v>670</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7436,7 +7436,7 @@
         <v>670</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7451,7 +7451,7 @@
         <v>670</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7466,7 +7466,7 @@
         <v>670</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7481,7 +7481,7 @@
         <v>670</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7496,7 +7496,7 @@
         <v>670</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7511,7 +7511,7 @@
         <v>670</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7526,7 +7526,7 @@
         <v>670</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7541,7 +7541,7 @@
         <v>670</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7556,7 +7556,7 @@
         <v>670</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
         <v>670</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7586,7 +7586,7 @@
         <v>670</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7601,7 +7601,7 @@
         <v>670</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7616,7 +7616,7 @@
         <v>670</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -7631,7 +7631,7 @@
         <v>670</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7646,7 +7646,7 @@
         <v>670</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7661,7 +7661,7 @@
         <v>670</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7676,7 +7676,7 @@
         <v>670</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7691,7 +7691,7 @@
         <v>670</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7706,7 +7706,7 @@
         <v>670</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7721,7 +7721,7 @@
         <v>670</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7736,7 +7736,7 @@
         <v>670</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7751,7 +7751,7 @@
         <v>670</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7766,7 +7766,7 @@
         <v>670</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7781,7 +7781,7 @@
         <v>670</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7796,7 +7796,7 @@
         <v>670</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7811,7 +7811,7 @@
         <v>670</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7826,7 +7826,7 @@
         <v>670</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7841,7 +7841,7 @@
         <v>670</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -7856,7 +7856,7 @@
         <v>670</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7869,7 +7869,7 @@
         <v>670</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7884,7 +7884,7 @@
         <v>670</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7899,7 +7899,7 @@
         <v>670</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7914,7 +7914,7 @@
         <v>670</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7929,7 +7929,7 @@
         <v>670</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7944,7 +7944,7 @@
         <v>670</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7959,7 +7959,7 @@
         <v>670</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7974,7 +7974,7 @@
         <v>670</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7989,7 +7989,7 @@
         <v>670</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8004,7 +8004,7 @@
         <v>670</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8019,7 +8019,7 @@
         <v>670</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8034,7 +8034,7 @@
         <v>670</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8049,7 +8049,7 @@
         <v>670</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8064,7 +8064,7 @@
         <v>670</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8079,7 +8079,7 @@
         <v>670</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8094,7 +8094,7 @@
         <v>670</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8109,7 +8109,7 @@
         <v>670</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8124,7 +8124,7 @@
         <v>670</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8139,7 +8139,7 @@
         <v>670</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8154,7 +8154,7 @@
         <v>670</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8169,7 +8169,7 @@
         <v>670</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8184,7 +8184,7 @@
         <v>670</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8199,7 +8199,7 @@
         <v>670</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8214,7 +8214,7 @@
         <v>670</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8229,7 +8229,7 @@
         <v>670</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8244,7 +8244,7 @@
         <v>670</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8259,7 +8259,7 @@
         <v>670</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
         <v>670</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8289,7 +8289,7 @@
         <v>670</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8304,7 +8304,7 @@
         <v>670</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8319,7 +8319,7 @@
         <v>670</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8334,7 +8334,7 @@
         <v>670</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
         <v>670</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8364,7 +8364,7 @@
         <v>670</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8379,7 +8379,7 @@
         <v>670</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8394,7 +8394,7 @@
         <v>670</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8409,7 +8409,7 @@
         <v>670</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8424,7 +8424,7 @@
         <v>670</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8439,7 +8439,7 @@
         <v>670</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8454,7 +8454,7 @@
         <v>670</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8469,7 +8469,7 @@
         <v>670</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8484,7 +8484,7 @@
         <v>670</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8499,7 +8499,7 @@
         <v>670</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8514,7 +8514,7 @@
         <v>670</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8529,7 +8529,7 @@
         <v>670</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8544,7 +8544,7 @@
         <v>670</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8559,7 +8559,7 @@
         <v>670</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8574,7 +8574,7 @@
         <v>670</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8589,7 +8589,7 @@
         <v>670</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -8604,7 +8604,7 @@
         <v>670</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8619,7 +8619,7 @@
         <v>670</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8634,7 +8634,7 @@
         <v>670</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8649,7 +8649,7 @@
         <v>670</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8664,7 +8664,7 @@
         <v>670</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8679,7 +8679,7 @@
         <v>670</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -8694,7 +8694,7 @@
         <v>670</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8709,7 +8709,7 @@
         <v>670</v>
       </c>
       <c r="D91" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8724,7 +8724,7 @@
         <v>670</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -8739,7 +8739,7 @@
         <v>670</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8754,7 +8754,7 @@
         <v>670</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8769,7 +8769,7 @@
         <v>670</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8784,7 +8784,7 @@
         <v>670</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8799,7 +8799,7 @@
         <v>670</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8814,7 +8814,7 @@
         <v>670</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8829,7 +8829,7 @@
         <v>670</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8844,7 +8844,7 @@
         <v>670</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8859,7 +8859,7 @@
         <v>670</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8874,7 +8874,7 @@
         <v>670</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8889,7 +8889,7 @@
         <v>670</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8904,7 +8904,7 @@
         <v>670</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8919,7 +8919,7 @@
         <v>670</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8934,7 +8934,7 @@
         <v>670</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8949,7 +8949,7 @@
         <v>670</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8964,7 +8964,7 @@
         <v>670</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8979,7 +8979,7 @@
         <v>670</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8994,7 +8994,7 @@
         <v>670</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9009,7 +9009,7 @@
         <v>670</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9024,7 +9024,7 @@
         <v>670</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -9039,7 +9039,7 @@
         <v>670</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -9054,7 +9054,7 @@
         <v>670</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -9069,7 +9069,7 @@
         <v>670</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -9084,7 +9084,7 @@
         <v>670</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9099,7 +9099,7 @@
         <v>670</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9114,7 +9114,7 @@
         <v>670</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9129,7 +9129,7 @@
         <v>670</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9144,7 +9144,7 @@
         <v>670</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9159,7 +9159,7 @@
         <v>670</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9174,7 +9174,7 @@
         <v>670</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9189,7 +9189,7 @@
         <v>670</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9204,7 +9204,7 @@
         <v>670</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9219,7 +9219,7 @@
         <v>670</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9234,7 +9234,7 @@
         <v>670</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9249,7 +9249,7 @@
         <v>670</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -9264,7 +9264,7 @@
         <v>670</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -9279,7 +9279,7 @@
         <v>670</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -9294,7 +9294,7 @@
         <v>670</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -9309,7 +9309,7 @@
         <v>670</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -9324,7 +9324,7 @@
         <v>670</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -9339,7 +9339,7 @@
         <v>670</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -9354,7 +9354,7 @@
         <v>670</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9369,7 +9369,7 @@
         <v>670</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -9384,7 +9384,7 @@
         <v>670</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -9399,7 +9399,7 @@
         <v>670</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9414,7 +9414,7 @@
         <v>670</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9429,7 +9429,7 @@
         <v>670</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9444,7 +9444,7 @@
         <v>670</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9459,7 +9459,7 @@
         <v>670</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9474,7 +9474,7 @@
         <v>670</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9489,7 +9489,7 @@
         <v>670</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9504,7 +9504,7 @@
         <v>670</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9519,7 +9519,7 @@
         <v>670</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9534,7 +9534,7 @@
         <v>670</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9549,7 +9549,7 @@
         <v>670</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9564,7 +9564,7 @@
         <v>670</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9579,7 +9579,7 @@
         <v>670</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9594,7 +9594,7 @@
         <v>670</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -9609,7 +9609,7 @@
         <v>670</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -9622,7 +9622,7 @@
         <v>670</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -9637,7 +9637,7 @@
         <v>670</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9652,7 +9652,7 @@
         <v>670</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9667,7 +9667,7 @@
         <v>670</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9682,7 +9682,7 @@
         <v>670</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9697,7 +9697,7 @@
         <v>670</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9712,7 +9712,7 @@
         <v>670</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9727,7 +9727,7 @@
         <v>670</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9742,7 +9742,7 @@
         <v>670</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9757,7 +9757,7 @@
         <v>670</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9772,7 +9772,7 @@
         <v>670</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9787,7 +9787,7 @@
         <v>670</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9802,7 +9802,7 @@
         <v>670</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9817,7 +9817,7 @@
         <v>670</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9832,7 +9832,7 @@
         <v>670</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9847,7 +9847,7 @@
         <v>670</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9862,7 +9862,7 @@
         <v>670</v>
       </c>
       <c r="D168" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9877,7 +9877,7 @@
         <v>670</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9892,7 +9892,7 @@
         <v>670</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9907,7 +9907,7 @@
         <v>670</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9922,7 +9922,7 @@
         <v>670</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9937,7 +9937,7 @@
         <v>670</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9952,7 +9952,7 @@
         <v>670</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9967,7 +9967,7 @@
         <v>670</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9982,7 +9982,7 @@
         <v>670</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9997,7 +9997,7 @@
         <v>670</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10012,7 +10012,7 @@
         <v>670</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10027,7 +10027,7 @@
         <v>670</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10042,7 +10042,7 @@
         <v>670</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10057,7 +10057,7 @@
         <v>670</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10072,7 +10072,7 @@
         <v>670</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10087,7 +10087,7 @@
         <v>670</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10102,7 +10102,7 @@
         <v>670</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10117,7 +10117,7 @@
         <v>670</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10132,7 +10132,7 @@
         <v>670</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10147,7 +10147,7 @@
         <v>670</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10162,7 +10162,7 @@
         <v>670</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -10177,7 +10177,7 @@
         <v>670</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -10192,7 +10192,7 @@
         <v>670</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -10207,7 +10207,7 @@
         <v>670</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -10222,7 +10222,7 @@
         <v>670</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -10237,7 +10237,7 @@
         <v>670</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -10252,7 +10252,7 @@
         <v>670</v>
       </c>
       <c r="D194" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -10267,7 +10267,7 @@
         <v>670</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -10282,7 +10282,7 @@
         <v>670</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -10297,7 +10297,7 @@
         <v>670</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -10312,7 +10312,7 @@
         <v>670</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -10327,7 +10327,7 @@
         <v>670</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -10342,7 +10342,7 @@
         <v>670</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -10357,7 +10357,7 @@
         <v>670</v>
       </c>
       <c r="D201" s="24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -10372,7 +10372,7 @@
         <v>670</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -10387,7 +10387,7 @@
         <v>670</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10402,7 +10402,7 @@
         <v>670</v>
       </c>
       <c r="D204" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10417,7 +10417,7 @@
         <v>670</v>
       </c>
       <c r="D205" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -10432,7 +10432,7 @@
         <v>670</v>
       </c>
       <c r="D206" s="24" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -10447,7 +10447,7 @@
         <v>670</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -10462,7 +10462,7 @@
         <v>670</v>
       </c>
       <c r="D208" s="24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -10477,7 +10477,7 @@
         <v>670</v>
       </c>
       <c r="D209" s="24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -10492,7 +10492,7 @@
         <v>670</v>
       </c>
       <c r="D210" s="24" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -10507,7 +10507,7 @@
         <v>670</v>
       </c>
       <c r="D211" s="24" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -10522,7 +10522,7 @@
         <v>670</v>
       </c>
       <c r="D212" s="24" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10537,7 +10537,7 @@
         <v>670</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10552,7 +10552,7 @@
         <v>670</v>
       </c>
       <c r="D214" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10567,7 +10567,7 @@
         <v>670</v>
       </c>
       <c r="D215" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10582,7 +10582,7 @@
         <v>670</v>
       </c>
       <c r="D216" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10597,7 +10597,7 @@
         <v>670</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10612,7 +10612,7 @@
         <v>670</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10627,7 +10627,7 @@
         <v>670</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10642,7 +10642,7 @@
         <v>670</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10657,7 +10657,7 @@
         <v>670</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10672,7 +10672,7 @@
         <v>670</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10687,7 +10687,7 @@
         <v>670</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10702,7 +10702,7 @@
         <v>670</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10717,7 +10717,7 @@
         <v>670</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10732,7 +10732,7 @@
         <v>670</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10747,7 +10747,7 @@
         <v>670</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10762,7 +10762,7 @@
         <v>670</v>
       </c>
       <c r="D228" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10777,7 +10777,7 @@
         <v>670</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10792,7 +10792,7 @@
         <v>670</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10807,7 +10807,7 @@
         <v>670</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10822,7 +10822,7 @@
         <v>670</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10837,7 +10837,7 @@
         <v>670</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10852,7 +10852,7 @@
         <v>670</v>
       </c>
       <c r="D234" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10867,7 +10867,7 @@
         <v>670</v>
       </c>
       <c r="D235" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10882,7 +10882,7 @@
         <v>670</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -10897,7 +10897,7 @@
         <v>670</v>
       </c>
       <c r="D237" s="24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -10912,7 +10912,7 @@
         <v>670</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -10927,7 +10927,7 @@
         <v>670</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -10942,7 +10942,7 @@
         <v>670</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -10957,7 +10957,7 @@
         <v>670</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10972,7 +10972,7 @@
         <v>670</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -10987,7 +10987,7 @@
         <v>670</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11002,7 +11002,7 @@
         <v>670</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -11017,7 +11017,7 @@
         <v>670</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11032,7 +11032,7 @@
         <v>670</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -11047,7 +11047,7 @@
         <v>670</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11062,7 +11062,7 @@
         <v>670</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -11077,7 +11077,7 @@
         <v>670</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11092,7 +11092,7 @@
         <v>670</v>
       </c>
       <c r="D250" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11107,7 +11107,7 @@
         <v>670</v>
       </c>
       <c r="D251" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11122,7 +11122,7 @@
         <v>670</v>
       </c>
       <c r="D252" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11137,7 +11137,7 @@
         <v>670</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11152,7 +11152,7 @@
         <v>670</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11167,7 +11167,7 @@
         <v>670</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -11182,7 +11182,7 @@
         <v>670</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -11197,7 +11197,7 @@
         <v>670</v>
       </c>
       <c r="D257" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11212,7 +11212,7 @@
         <v>670</v>
       </c>
       <c r="D258" s="24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11227,7 +11227,7 @@
         <v>670</v>
       </c>
       <c r="D259" s="24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11242,7 +11242,7 @@
         <v>670</v>
       </c>
       <c r="D260" s="24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11257,7 +11257,7 @@
         <v>670</v>
       </c>
       <c r="D261" s="24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11272,7 +11272,7 @@
         <v>670</v>
       </c>
       <c r="D262" s="24" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11287,7 +11287,7 @@
         <v>670</v>
       </c>
       <c r="D263" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11302,7 +11302,7 @@
         <v>670</v>
       </c>
       <c r="D264" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11317,7 +11317,7 @@
         <v>670</v>
       </c>
       <c r="D265" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11332,7 +11332,7 @@
         <v>670</v>
       </c>
       <c r="D266" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11347,7 +11347,7 @@
         <v>670</v>
       </c>
       <c r="D267" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -11362,7 +11362,7 @@
         <v>670</v>
       </c>
       <c r="D268" s="24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent